--- a/TestDatas/jm_api_info.xlsx
+++ b/TestDatas/jm_api_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="case_datas" sheetId="1" r:id="rId1"/>
@@ -2477,7 +2477,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>accuracy=13816661003</t>
+    <t>{"accuracy":"13816661003"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2881,7 +2881,7 @@
   <dimension ref="A1:J310"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="A6:XFD6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9369,17 +9369,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B70"/>
+    <mergeCell ref="B132:B229"/>
     <mergeCell ref="B230:B293"/>
     <mergeCell ref="B294:B301"/>
     <mergeCell ref="B302:B310"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B73:B101"/>
     <mergeCell ref="B102:B131"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B25"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="B34:B70"/>
-    <mergeCell ref="B132:B229"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestDatas/jm_api_info.xlsx
+++ b/TestDatas/jm_api_info.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zws/longbeach/jm_api_py_test/TestDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xiangmu\jm_api_py_test\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,11 +16,8 @@
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
     <sheet name="prepare_datas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="816">
   <si>
     <t>case_id</t>
   </si>
@@ -2478,6 +2475,10 @@
   </si>
   <si>
     <t>accuracy=13816661003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"value":"0"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2588,6 +2589,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2880,25 +2884,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="51.5" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="36.83203125" customWidth="1"/>
-    <col min="7" max="7" width="81.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="51.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.81640625" customWidth="1"/>
+    <col min="7" max="7" width="81.36328125" customWidth="1"/>
     <col min="8" max="8" width="64" customWidth="1"/>
     <col min="9" max="9" width="13" style="5" customWidth="1"/>
-    <col min="10" max="10" width="27.5" customWidth="1"/>
+    <col min="10" max="10" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2930,7 +2934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2962,7 +2966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2990,7 +2994,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3017,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3044,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3071,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3100,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3127,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3154,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -3181,7 +3185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" t="s">
         <v>39</v>
@@ -3202,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" t="s">
         <v>42</v>
@@ -3223,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" t="s">
         <v>45</v>
@@ -3244,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" t="s">
         <v>48</v>
@@ -3265,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" t="s">
         <v>51</v>
@@ -3286,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" t="s">
         <v>54</v>
@@ -3307,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" t="s">
         <v>56</v>
@@ -3328,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" t="s">
         <v>57</v>
@@ -3346,7 +3350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" t="s">
         <v>60</v>
@@ -3367,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" t="s">
         <v>63</v>
@@ -3388,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" t="s">
         <v>65</v>
@@ -3409,7 +3413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" t="s">
         <v>68</v>
@@ -3427,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" t="s">
         <v>71</v>
@@ -3448,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" t="s">
         <v>74</v>
@@ -3469,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" t="s">
         <v>78</v>
@@ -3487,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>79</v>
       </c>
@@ -3501,7 +3505,7 @@
         <v>81</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>815</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
@@ -3510,7 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" t="s">
         <v>83</v>
@@ -3531,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" t="s">
         <v>86</v>
@@ -3552,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" t="s">
         <v>87</v>
@@ -3573,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" t="s">
         <v>88</v>
@@ -3594,7 +3598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" t="s">
         <v>90</v>
@@ -3615,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" t="s">
         <v>92</v>
@@ -3633,7 +3637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" t="s">
         <v>93</v>
@@ -3654,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>95</v>
       </c>
@@ -3674,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" t="s">
         <v>98</v>
@@ -3692,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" t="s">
         <v>100</v>
@@ -3710,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" t="s">
         <v>102</v>
@@ -3731,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" t="s">
         <v>105</v>
@@ -3752,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" t="s">
         <v>107</v>
@@ -3773,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="C40" t="s">
         <v>109</v>
@@ -3794,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
       <c r="C41" t="s">
         <v>111</v>
@@ -3815,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="C42" t="s">
         <v>114</v>
@@ -3836,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" t="s">
         <v>116</v>
@@ -3857,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" t="s">
         <v>118</v>
@@ -3878,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" t="s">
         <v>122</v>
@@ -3899,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" t="s">
         <v>125</v>
@@ -3920,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" t="s">
         <v>127</v>
@@ -3941,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" t="s">
         <v>130</v>
@@ -3962,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
       <c r="C49" t="s">
         <v>132</v>
@@ -3983,7 +3987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="C50" t="s">
         <v>135</v>
@@ -4004,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
       <c r="C51" t="s">
         <v>138</v>
@@ -4025,7 +4029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" t="s">
         <v>141</v>
@@ -4046,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="C53" t="s">
         <v>144</v>
@@ -4067,7 +4071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" t="s">
         <v>148</v>
@@ -4088,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" t="s">
         <v>151</v>
@@ -4109,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="C56" t="s">
         <v>154</v>
@@ -4130,7 +4134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
       <c r="C57" t="s">
         <v>156</v>
@@ -4151,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
       <c r="C58" t="s">
         <v>159</v>
@@ -4169,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
       <c r="C59" t="s">
         <v>161</v>
@@ -4190,7 +4194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" t="s">
         <v>163</v>
@@ -4211,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
       <c r="C61" t="s">
         <v>165</v>
@@ -4232,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="C62" t="s">
         <v>167</v>
@@ -4253,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
       <c r="C63" t="s">
         <v>169</v>
@@ -4274,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64" t="s">
         <v>171</v>
@@ -4295,7 +4299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65" t="s">
         <v>173</v>
@@ -4316,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
       <c r="C66" t="s">
         <v>175</v>
@@ -4337,7 +4341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
       <c r="C67" t="s">
         <v>177</v>
@@ -4358,7 +4362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
       <c r="C68" t="s">
         <v>179</v>
@@ -4379,7 +4383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
       <c r="C69" t="s">
         <v>180</v>
@@ -4400,7 +4404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
       <c r="C70" t="s">
         <v>181</v>
@@ -4421,7 +4425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
         <v>182</v>
       </c>
@@ -4444,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="7"/>
       <c r="C72" t="s">
         <v>186</v>
@@ -4465,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>188</v>
       </c>
@@ -4488,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="7"/>
       <c r="C74" t="s">
         <v>192</v>
@@ -4509,7 +4513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="7"/>
       <c r="C75" t="s">
         <v>194</v>
@@ -4530,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
       <c r="C76" t="s">
         <v>196</v>
@@ -4548,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="7"/>
       <c r="C77" t="s">
         <v>198</v>
@@ -4569,7 +4573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
       <c r="C78" t="s">
         <v>201</v>
@@ -4587,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="C79" t="s">
         <v>203</v>
@@ -4608,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="7"/>
       <c r="C80" t="s">
         <v>206</v>
@@ -4626,7 +4630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
       <c r="C81" t="s">
         <v>208</v>
@@ -4647,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="7"/>
       <c r="C82" t="s">
         <v>210</v>
@@ -4665,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
       <c r="C83" t="s">
         <v>211</v>
@@ -4686,7 +4690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
       <c r="C84" t="s">
         <v>213</v>
@@ -4704,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
       <c r="C85" t="s">
         <v>214</v>
@@ -4722,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
       <c r="C86" t="s">
         <v>217</v>
@@ -4743,7 +4747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
       <c r="C87" t="s">
         <v>219</v>
@@ -4761,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
       <c r="C88" t="s">
         <v>220</v>
@@ -4782,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
       <c r="C89" t="s">
         <v>221</v>
@@ -4803,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
       <c r="C90" t="s">
         <v>224</v>
@@ -4824,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
       <c r="C91" t="s">
         <v>226</v>
@@ -4845,7 +4849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
       <c r="C92" t="s">
         <v>228</v>
@@ -4866,7 +4870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
       <c r="C93" t="s">
         <v>230</v>
@@ -4887,7 +4891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
       <c r="C94" t="s">
         <v>233</v>
@@ -4908,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
       <c r="C95" t="s">
         <v>235</v>
@@ -4926,7 +4930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
       <c r="C96" t="s">
         <v>236</v>
@@ -4947,7 +4951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
       <c r="C97" t="s">
         <v>237</v>
@@ -4965,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="7"/>
       <c r="C98" t="s">
         <v>238</v>
@@ -4986,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="7"/>
       <c r="C99" t="s">
         <v>239</v>
@@ -5007,7 +5011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
       <c r="C100" t="s">
         <v>242</v>
@@ -5028,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
       <c r="C101" t="s">
         <v>245</v>
@@ -5049,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
         <v>247</v>
       </c>
@@ -5069,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
       <c r="C103" t="s">
         <v>251</v>
@@ -5090,7 +5094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="7"/>
       <c r="C104" t="s">
         <v>254</v>
@@ -5111,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="7"/>
       <c r="C105" t="s">
         <v>256</v>
@@ -5132,7 +5136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
       <c r="C106" t="s">
         <v>259</v>
@@ -5153,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="7"/>
       <c r="C107" t="s">
         <v>263</v>
@@ -5174,7 +5178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
       <c r="C108" t="s">
         <v>266</v>
@@ -5195,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
       <c r="C109" t="s">
         <v>267</v>
@@ -5216,7 +5220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
       <c r="C110" t="s">
         <v>270</v>
@@ -5237,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
       <c r="C111" t="s">
         <v>272</v>
@@ -5258,7 +5262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="7"/>
       <c r="C112" t="s">
         <v>275</v>
@@ -5279,7 +5283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="7"/>
       <c r="C113" t="s">
         <v>279</v>
@@ -5300,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="7"/>
       <c r="C114" t="s">
         <v>281</v>
@@ -5321,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
       <c r="C115" t="s">
         <v>285</v>
@@ -5342,7 +5346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
       <c r="C116" t="s">
         <v>287</v>
@@ -5360,7 +5364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
       <c r="C117" t="s">
         <v>290</v>
@@ -5378,7 +5382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="7"/>
       <c r="C118" t="s">
         <v>293</v>
@@ -5399,7 +5403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
       <c r="C119" t="s">
         <v>296</v>
@@ -5420,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
       <c r="C120" t="s">
         <v>297</v>
@@ -5441,7 +5445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="7"/>
       <c r="C121" t="s">
         <v>299</v>
@@ -5462,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="7"/>
       <c r="C122" t="s">
         <v>301</v>
@@ -5483,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="7"/>
       <c r="C123" t="s">
         <v>303</v>
@@ -5504,7 +5508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
       <c r="C124" t="s">
         <v>304</v>
@@ -5522,7 +5526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
       <c r="C125" t="s">
         <v>307</v>
@@ -5543,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="7"/>
       <c r="C126" t="s">
         <v>311</v>
@@ -5564,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="7"/>
       <c r="C127" t="s">
         <v>313</v>
@@ -5585,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="7"/>
       <c r="C128" t="s">
         <v>315</v>
@@ -5606,7 +5610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="7"/>
       <c r="C129" t="s">
         <v>317</v>
@@ -5627,7 +5631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="7"/>
       <c r="C130" t="s">
         <v>319</v>
@@ -5648,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="7"/>
       <c r="C131" t="s">
         <v>322</v>
@@ -5669,7 +5673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="6" t="s">
         <v>325</v>
       </c>
@@ -5692,7 +5696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="7"/>
       <c r="C133" t="s">
         <v>330</v>
@@ -5713,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="7"/>
       <c r="C134" t="s">
         <v>332</v>
@@ -5731,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="7"/>
       <c r="C135" t="s">
         <v>335</v>
@@ -5749,7 +5753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="7"/>
       <c r="C136" t="s">
         <v>337</v>
@@ -5770,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="7"/>
       <c r="C137" t="s">
         <v>340</v>
@@ -5791,7 +5795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="7"/>
       <c r="C138" t="s">
         <v>342</v>
@@ -5812,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="7"/>
       <c r="C139" t="s">
         <v>345</v>
@@ -5833,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="7"/>
       <c r="C140" t="s">
         <v>348</v>
@@ -5854,7 +5858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="7"/>
       <c r="C141" t="s">
         <v>351</v>
@@ -5875,7 +5879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="7"/>
       <c r="C142" t="s">
         <v>354</v>
@@ -5896,7 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="7"/>
       <c r="C143" t="s">
         <v>356</v>
@@ -5917,7 +5921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="7"/>
       <c r="C144" t="s">
         <v>359</v>
@@ -5938,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="7"/>
       <c r="C145" t="s">
         <v>362</v>
@@ -5959,7 +5963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="7"/>
       <c r="C146" t="s">
         <v>365</v>
@@ -5980,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="7"/>
       <c r="C147" t="s">
         <v>369</v>
@@ -6001,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="7"/>
       <c r="C148" t="s">
         <v>373</v>
@@ -6022,7 +6026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="7"/>
       <c r="C149" t="s">
         <v>376</v>
@@ -6043,7 +6047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="7"/>
       <c r="C150" t="s">
         <v>379</v>
@@ -6064,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="7"/>
       <c r="C151" t="s">
         <v>382</v>
@@ -6085,7 +6089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="7"/>
       <c r="C152" t="s">
         <v>385</v>
@@ -6103,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="7"/>
       <c r="C153" t="s">
         <v>387</v>
@@ -6124,7 +6128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="7"/>
       <c r="C154" t="s">
         <v>390</v>
@@ -6145,7 +6149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="7"/>
       <c r="C155" t="s">
         <v>392</v>
@@ -6166,7 +6170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="7"/>
       <c r="C156" t="s">
         <v>394</v>
@@ -6184,7 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="7"/>
       <c r="C157" t="s">
         <v>396</v>
@@ -6205,7 +6209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="7"/>
       <c r="C158" t="s">
         <v>399</v>
@@ -6226,7 +6230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="7"/>
       <c r="C159" t="s">
         <v>401</v>
@@ -6247,7 +6251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="7"/>
       <c r="C160" t="s">
         <v>403</v>
@@ -6265,7 +6269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="7"/>
       <c r="C161" t="s">
         <v>405</v>
@@ -6286,7 +6290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="7"/>
       <c r="C162" t="s">
         <v>408</v>
@@ -6307,7 +6311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="7"/>
       <c r="C163" t="s">
         <v>410</v>
@@ -6328,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="7"/>
       <c r="C164" t="s">
         <v>412</v>
@@ -6346,7 +6350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="7"/>
       <c r="C165" t="s">
         <v>414</v>
@@ -6367,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="7"/>
       <c r="C166" t="s">
         <v>417</v>
@@ -6388,7 +6392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="7"/>
       <c r="C167" t="s">
         <v>419</v>
@@ -6409,7 +6413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="7"/>
       <c r="C168" t="s">
         <v>421</v>
@@ -6427,7 +6431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="7"/>
       <c r="C169" t="s">
         <v>423</v>
@@ -6448,7 +6452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="7"/>
       <c r="C170" t="s">
         <v>426</v>
@@ -6469,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="7"/>
       <c r="C171" t="s">
         <v>428</v>
@@ -6490,7 +6494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="7"/>
       <c r="C172" t="s">
         <v>430</v>
@@ -6508,7 +6512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="7"/>
       <c r="C173" t="s">
         <v>432</v>
@@ -6529,7 +6533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="7"/>
       <c r="C174" t="s">
         <v>435</v>
@@ -6550,7 +6554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="7"/>
       <c r="C175" t="s">
         <v>437</v>
@@ -6571,7 +6575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="7"/>
       <c r="C176" t="s">
         <v>439</v>
@@ -6589,7 +6593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="7"/>
       <c r="C177" t="s">
         <v>441</v>
@@ -6610,7 +6614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="7"/>
       <c r="C178" t="s">
         <v>444</v>
@@ -6631,7 +6635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="7"/>
       <c r="C179" t="s">
         <v>446</v>
@@ -6652,7 +6656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="7"/>
       <c r="C180" t="s">
         <v>449</v>
@@ -6670,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="7"/>
       <c r="C181" t="s">
         <v>452</v>
@@ -6691,7 +6695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="7"/>
       <c r="C182" t="s">
         <v>455</v>
@@ -6712,7 +6716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="7"/>
       <c r="C183" t="s">
         <v>455</v>
@@ -6733,7 +6737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="7"/>
       <c r="C184" t="s">
         <v>459</v>
@@ -6754,7 +6758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="7"/>
       <c r="C185" t="s">
         <v>460</v>
@@ -6775,7 +6779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="7"/>
       <c r="C186" t="s">
         <v>463</v>
@@ -6796,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="7"/>
       <c r="C187" t="s">
         <v>466</v>
@@ -6817,7 +6821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="7"/>
       <c r="C188" t="s">
         <v>469</v>
@@ -6838,7 +6842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="7"/>
       <c r="C189" t="s">
         <v>471</v>
@@ -6859,7 +6863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="7"/>
       <c r="C190" t="s">
         <v>475</v>
@@ -6880,7 +6884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="7"/>
       <c r="C191" t="s">
         <v>478</v>
@@ -6901,7 +6905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="7"/>
       <c r="C192" t="s">
         <v>365</v>
@@ -6922,7 +6926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="7"/>
       <c r="C193" t="s">
         <v>483</v>
@@ -6943,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="7"/>
       <c r="C194" t="s">
         <v>486</v>
@@ -6964,7 +6968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="7"/>
       <c r="C195" t="s">
         <v>490</v>
@@ -6985,7 +6989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="7"/>
       <c r="C196" t="s">
         <v>492</v>
@@ -7006,7 +7010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="7"/>
       <c r="C197" t="s">
         <v>495</v>
@@ -7027,7 +7031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="7"/>
       <c r="C198" t="s">
         <v>497</v>
@@ -7048,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="7"/>
       <c r="C199" t="s">
         <v>501</v>
@@ -7069,7 +7073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="7"/>
       <c r="C200" t="s">
         <v>503</v>
@@ -7090,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="7"/>
       <c r="C201" t="s">
         <v>504</v>
@@ -7111,7 +7115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="7"/>
       <c r="C202" t="s">
         <v>508</v>
@@ -7132,7 +7136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="7"/>
       <c r="C203" t="s">
         <v>510</v>
@@ -7153,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="7"/>
       <c r="C204" t="s">
         <v>511</v>
@@ -7174,7 +7178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="7"/>
       <c r="C205" t="s">
         <v>515</v>
@@ -7195,7 +7199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="7"/>
       <c r="C206" t="s">
         <v>517</v>
@@ -7216,7 +7220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="7"/>
       <c r="C207" t="s">
         <v>518</v>
@@ -7234,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="7"/>
       <c r="C208" t="s">
         <v>520</v>
@@ -7252,7 +7256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="7"/>
       <c r="C209" t="s">
         <v>522</v>
@@ -7273,7 +7277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="7"/>
       <c r="C210" t="s">
         <v>525</v>
@@ -7294,7 +7298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="7"/>
       <c r="C211" t="s">
         <v>529</v>
@@ -7315,7 +7319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="7"/>
       <c r="C212" t="s">
         <v>531</v>
@@ -7336,7 +7340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="7"/>
       <c r="C213" t="s">
         <v>535</v>
@@ -7357,7 +7361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="7"/>
       <c r="C214" t="s">
         <v>535</v>
@@ -7378,7 +7382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="7"/>
       <c r="C215" t="s">
         <v>541</v>
@@ -7399,7 +7403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="7"/>
       <c r="C216" t="s">
         <v>544</v>
@@ -7420,7 +7424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="7"/>
       <c r="C217" t="s">
         <v>546</v>
@@ -7441,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="7"/>
       <c r="C218" t="s">
         <v>547</v>
@@ -7462,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="7"/>
       <c r="C219" t="s">
         <v>549</v>
@@ -7483,7 +7487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="7"/>
       <c r="C220" t="s">
         <v>552</v>
@@ -7504,7 +7508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="7"/>
       <c r="C221" t="s">
         <v>555</v>
@@ -7525,7 +7529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="7"/>
       <c r="C222" t="s">
         <v>558</v>
@@ -7546,7 +7550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="7"/>
       <c r="C223" t="s">
         <v>560</v>
@@ -7567,7 +7571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="7"/>
       <c r="C224" t="s">
         <v>562</v>
@@ -7588,7 +7592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="7"/>
       <c r="C225" t="s">
         <v>565</v>
@@ -7609,7 +7613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="7"/>
       <c r="C226" t="s">
         <v>568</v>
@@ -7630,7 +7634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="7"/>
       <c r="C227" t="s">
         <v>570</v>
@@ -7651,7 +7655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="7"/>
       <c r="C228" t="s">
         <v>573</v>
@@ -7672,7 +7676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="7"/>
       <c r="C229" t="s">
         <v>576</v>
@@ -7693,7 +7697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="6" t="s">
         <v>580</v>
       </c>
@@ -7716,7 +7720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="7"/>
       <c r="C231" t="s">
         <v>585</v>
@@ -7737,7 +7741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="7"/>
       <c r="C232" t="s">
         <v>587</v>
@@ -7758,7 +7762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="7"/>
       <c r="C233" t="s">
         <v>590</v>
@@ -7779,7 +7783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="7"/>
       <c r="C234" t="s">
         <v>592</v>
@@ -7800,7 +7804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="7"/>
       <c r="C235" t="s">
         <v>595</v>
@@ -7821,7 +7825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="7"/>
       <c r="C236" t="s">
         <v>598</v>
@@ -7842,7 +7846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="7"/>
       <c r="C237" t="s">
         <v>601</v>
@@ -7863,7 +7867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="7"/>
       <c r="C238" t="s">
         <v>603</v>
@@ -7884,7 +7888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="7"/>
       <c r="C239" t="s">
         <v>605</v>
@@ -7905,7 +7909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="7"/>
       <c r="C240" t="s">
         <v>608</v>
@@ -7926,7 +7930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="7"/>
       <c r="C241" t="s">
         <v>610</v>
@@ -7947,7 +7951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="7"/>
       <c r="C242" t="s">
         <v>612</v>
@@ -7968,7 +7972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="7"/>
       <c r="C243" t="s">
         <v>615</v>
@@ -7989,7 +7993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="7"/>
       <c r="C244" t="s">
         <v>617</v>
@@ -8010,7 +8014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="7"/>
       <c r="C245" t="s">
         <v>619</v>
@@ -8031,7 +8035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="7"/>
       <c r="C246" t="s">
         <v>622</v>
@@ -8052,7 +8056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="7"/>
       <c r="C247" t="s">
         <v>625</v>
@@ -8073,7 +8077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="7"/>
       <c r="C248" t="s">
         <v>628</v>
@@ -8094,7 +8098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="7"/>
       <c r="C249" t="s">
         <v>631</v>
@@ -8115,7 +8119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="7"/>
       <c r="C250" t="s">
         <v>634</v>
@@ -8136,7 +8140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="7"/>
       <c r="C251" t="s">
         <v>636</v>
@@ -8157,7 +8161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="7"/>
       <c r="C252" t="s">
         <v>639</v>
@@ -8178,7 +8182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="7"/>
       <c r="C253" t="s">
         <v>641</v>
@@ -8199,7 +8203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="7"/>
       <c r="C254" t="s">
         <v>644</v>
@@ -8220,7 +8224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="7"/>
       <c r="C255" t="s">
         <v>647</v>
@@ -8241,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="7"/>
       <c r="C256" t="s">
         <v>650</v>
@@ -8262,7 +8266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="7"/>
       <c r="C257" t="s">
         <v>653</v>
@@ -8283,7 +8287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="7"/>
       <c r="C258" t="s">
         <v>655</v>
@@ -8304,7 +8308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="7"/>
       <c r="C259" t="s">
         <v>658</v>
@@ -8325,7 +8329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="7"/>
       <c r="C260" t="s">
         <v>660</v>
@@ -8346,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="7"/>
       <c r="C261" t="s">
         <v>662</v>
@@ -8367,7 +8371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="7"/>
       <c r="C262" t="s">
         <v>664</v>
@@ -8388,7 +8392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="7"/>
       <c r="C263" t="s">
         <v>667</v>
@@ -8409,7 +8413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="7"/>
       <c r="C264" t="s">
         <v>669</v>
@@ -8430,7 +8434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="7"/>
       <c r="C265" t="s">
         <v>671</v>
@@ -8451,7 +8455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="7"/>
       <c r="C266" t="s">
         <v>673</v>
@@ -8472,7 +8476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="7"/>
       <c r="C267" t="s">
         <v>675</v>
@@ -8493,7 +8497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="7"/>
       <c r="C268" t="s">
         <v>676</v>
@@ -8514,7 +8518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="7"/>
       <c r="C269" t="s">
         <v>677</v>
@@ -8535,7 +8539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="7"/>
       <c r="C270" t="s">
         <v>679</v>
@@ -8556,7 +8560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="7"/>
       <c r="C271" t="s">
         <v>681</v>
@@ -8577,7 +8581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="7"/>
       <c r="C272" t="s">
         <v>683</v>
@@ -8598,7 +8602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="7"/>
       <c r="C273" t="s">
         <v>684</v>
@@ -8616,7 +8620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="7"/>
       <c r="C274" t="s">
         <v>686</v>
@@ -8634,7 +8638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="7"/>
       <c r="C275" t="s">
         <v>688</v>
@@ -8652,7 +8656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="7"/>
       <c r="C276" t="s">
         <v>689</v>
@@ -8670,7 +8674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="7"/>
       <c r="C277" t="s">
         <v>691</v>
@@ -8691,7 +8695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="7"/>
       <c r="C278" t="s">
         <v>693</v>
@@ -8712,7 +8716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="7"/>
       <c r="C279" t="s">
         <v>696</v>
@@ -8733,7 +8737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="7"/>
       <c r="C280" t="s">
         <v>698</v>
@@ -8751,7 +8755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="7"/>
       <c r="C281" t="s">
         <v>700</v>
@@ -8772,7 +8776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="7"/>
       <c r="C282" t="s">
         <v>703</v>
@@ -8793,7 +8797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="7"/>
       <c r="C283" t="s">
         <v>706</v>
@@ -8814,7 +8818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="7"/>
       <c r="C284" t="s">
         <v>708</v>
@@ -8832,7 +8836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="7"/>
       <c r="C285" t="s">
         <v>709</v>
@@ -8853,7 +8857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="7"/>
       <c r="C286" t="s">
         <v>711</v>
@@ -8874,7 +8878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="7"/>
       <c r="C287" t="s">
         <v>714</v>
@@ -8895,7 +8899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="7"/>
       <c r="C288" t="s">
         <v>717</v>
@@ -8916,7 +8920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="7"/>
       <c r="C289" t="s">
         <v>719</v>
@@ -8937,7 +8941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="7"/>
       <c r="C290" t="s">
         <v>721</v>
@@ -8958,7 +8962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="7"/>
       <c r="C291" t="s">
         <v>723</v>
@@ -8979,7 +8983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="7"/>
       <c r="C292" t="s">
         <v>725</v>
@@ -9000,7 +9004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="7"/>
       <c r="C293" t="s">
         <v>729</v>
@@ -9021,7 +9025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="6" t="s">
         <v>731</v>
       </c>
@@ -9044,7 +9048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="7"/>
       <c r="C295" t="s">
         <v>735</v>
@@ -9065,7 +9069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="7"/>
       <c r="C296" t="s">
         <v>737</v>
@@ -9086,7 +9090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="7"/>
       <c r="C297" t="s">
         <v>740</v>
@@ -9107,7 +9111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="7"/>
       <c r="C298" t="s">
         <v>742</v>
@@ -9128,7 +9132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="7"/>
       <c r="C299" t="s">
         <v>744</v>
@@ -9149,7 +9153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="7"/>
       <c r="C300" t="s">
         <v>746</v>
@@ -9170,7 +9174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="7"/>
       <c r="C301" t="s">
         <v>750</v>
@@ -9188,7 +9192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="6" t="s">
         <v>752</v>
       </c>
@@ -9208,7 +9212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="7"/>
       <c r="C303" t="s">
         <v>755</v>
@@ -9229,7 +9233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="7"/>
       <c r="C304" t="s">
         <v>757</v>
@@ -9247,7 +9251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="7"/>
       <c r="C305" t="s">
         <v>759</v>
@@ -9268,7 +9272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="7"/>
       <c r="C306" t="s">
         <v>761</v>
@@ -9289,7 +9293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="7"/>
       <c r="C307" t="s">
         <v>763</v>
@@ -9310,7 +9314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="7"/>
       <c r="C308" t="s">
         <v>764</v>
@@ -9331,7 +9335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="7"/>
       <c r="C309" t="s">
         <v>766</v>
@@ -9349,7 +9353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="7"/>
       <c r="C310" t="s">
         <v>767</v>
@@ -9369,17 +9373,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B70"/>
+    <mergeCell ref="B132:B229"/>
     <mergeCell ref="B230:B293"/>
     <mergeCell ref="B294:B301"/>
     <mergeCell ref="B302:B310"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B73:B101"/>
     <mergeCell ref="B102:B131"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B25"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="B34:B70"/>
-    <mergeCell ref="B132:B229"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9394,20 +9398,20 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="60.83203125" customWidth="1"/>
-    <col min="7" max="7" width="68.33203125" customWidth="1"/>
-    <col min="8" max="8" width="55.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="60.81640625" customWidth="1"/>
+    <col min="7" max="7" width="68.36328125" customWidth="1"/>
+    <col min="8" max="8" width="55.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9436,7 +9440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -9462,7 +9466,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -9483,7 +9487,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -9504,7 +9508,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -9525,7 +9529,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -9546,7 +9550,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -9567,7 +9571,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -9588,7 +9592,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -9609,7 +9613,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -9630,7 +9634,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -9650,7 +9654,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -9668,7 +9672,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -9686,7 +9690,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -9704,7 +9708,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -9722,7 +9726,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -9742,7 +9746,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -9759,7 +9763,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -9776,42 +9780,42 @@
         <v>804</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -9840,13 +9844,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>805</v>
       </c>
@@ -9854,7 +9858,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>807</v>
       </c>
@@ -9862,7 +9866,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>809</v>
       </c>

--- a/TestDatas/jm_api_info.xlsx
+++ b/TestDatas/jm_api_info.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="818">
   <si>
     <t>case_id</t>
   </si>
@@ -2479,6 +2479,14 @@
   </si>
   <si>
     <t>{"value":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"content":"api测试专用123","user":"dpouZsutKOLW16qv20-Hlg"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content=api测试专用123&amp;user=dpouZsutKOLW16qv20-Hlg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2884,8 +2892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3526,7 +3534,7 @@
         <v>84</v>
       </c>
       <c r="G27" t="s">
-        <v>85</v>
+        <v>816</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
@@ -3547,7 +3555,7 @@
         <v>84</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>817</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -9373,17 +9381,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B25"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="B34:B70"/>
-    <mergeCell ref="B132:B229"/>
     <mergeCell ref="B230:B293"/>
     <mergeCell ref="B294:B301"/>
     <mergeCell ref="B302:B310"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B73:B101"/>
     <mergeCell ref="B102:B131"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B70"/>
+    <mergeCell ref="B132:B229"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestDatas/jm_api_info.xlsx
+++ b/TestDatas/jm_api_info.xlsx
@@ -2486,7 +2486,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>content=api测试专用123&amp;user=dpouZsutKOLW16qv20-Hlg</t>
+    <t>{"content":"api测试专用123","user":"dpouZsutKOLW16qv20-Hlg"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2893,7 +2893,7 @@
   <dimension ref="A1:J310"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9381,17 +9381,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B70"/>
+    <mergeCell ref="B132:B229"/>
     <mergeCell ref="B230:B293"/>
     <mergeCell ref="B294:B301"/>
     <mergeCell ref="B302:B310"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B73:B101"/>
     <mergeCell ref="B102:B131"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B25"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="B34:B70"/>
-    <mergeCell ref="B132:B229"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestDatas/jm_api_info.xlsx
+++ b/TestDatas/jm_api_info.xlsx
@@ -2892,8 +2892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3576,7 +3576,7 @@
         <v>84</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>816</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
@@ -9381,17 +9381,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B25"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="B34:B70"/>
-    <mergeCell ref="B132:B229"/>
     <mergeCell ref="B230:B293"/>
     <mergeCell ref="B294:B301"/>
     <mergeCell ref="B302:B310"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B73:B101"/>
     <mergeCell ref="B102:B131"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B70"/>
+    <mergeCell ref="B132:B229"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestDatas/jm_api_info.xlsx
+++ b/TestDatas/jm_api_info.xlsx
@@ -283,9 +283,6 @@
     <t>/api/impression</t>
   </si>
   <si>
-    <t>content=api测试专用123&amp;user=dpouZsutKOLW16qv20-Hlg</t>
-  </si>
-  <si>
     <t>好友印象-添加-添加第二条（正常流程）</t>
   </si>
   <si>
@@ -2479,6 +2476,10 @@
   </si>
   <si>
     <t>{"value":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"content":"api测试专用123","user":"dpouZsutKOLW16qv20-Hlg"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2893,7 +2894,7 @@
   <dimension ref="A1:J310"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2962,7 +2963,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2992,7 +2993,7 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
@@ -3047,7 +3048,7 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H5" t="s">
         <v>24</v>
@@ -3074,7 +3075,7 @@
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
@@ -3103,7 +3104,7 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -3513,7 +3514,7 @@
         <v>81</v>
       </c>
       <c r="G26" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
@@ -3534,7 +3535,7 @@
         <v>84</v>
       </c>
       <c r="G27" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
@@ -3546,7 +3547,7 @@
     <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
@@ -3555,7 +3556,7 @@
         <v>84</v>
       </c>
       <c r="G28" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -3567,7 +3568,7 @@
     <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
@@ -3576,7 +3577,7 @@
         <v>84</v>
       </c>
       <c r="G29" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
@@ -3588,7 +3589,7 @@
     <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -3597,10 +3598,10 @@
         <v>84</v>
       </c>
       <c r="G30" t="s">
-        <v>85</v>
+        <v>817</v>
       </c>
       <c r="H30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I30" s="5">
         <v>1</v>
@@ -3609,7 +3610,7 @@
     <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
@@ -3618,7 +3619,7 @@
         <v>84</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s">
         <v>67</v>
@@ -3630,7 +3631,7 @@
     <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>58</v>
@@ -3648,7 +3649,7 @@
     <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
@@ -3657,7 +3658,7 @@
         <v>81</v>
       </c>
       <c r="G33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
@@ -3668,16 +3669,16 @@
     </row>
     <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
         <v>95</v>
-      </c>
-      <c r="C34" t="s">
-        <v>96</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H34" t="s">
         <v>70</v>
@@ -3689,13 +3690,13 @@
     <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H35" t="s">
         <v>70</v>
@@ -3707,13 +3708,13 @@
     <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H36" t="s">
         <v>70</v>
@@ -3725,16 +3726,16 @@
     <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>103</v>
-      </c>
-      <c r="G37" t="s">
-        <v>104</v>
       </c>
       <c r="H37" t="s">
         <v>15</v>
@@ -3746,16 +3747,16 @@
     <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" t="s">
         <v>105</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" t="s">
-        <v>103</v>
-      </c>
-      <c r="G38" t="s">
-        <v>106</v>
       </c>
       <c r="H38" t="s">
         <v>53</v>
@@ -3767,16 +3768,16 @@
     <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" t="s">
         <v>107</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
-        <v>103</v>
-      </c>
-      <c r="G39" t="s">
-        <v>108</v>
       </c>
       <c r="H39" t="s">
         <v>47</v>
@@ -3788,16 +3789,16 @@
     <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" t="s">
-        <v>110</v>
-      </c>
       <c r="G40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H40" t="s">
         <v>15</v>
@@ -3809,16 +3810,16 @@
     <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
       <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>112</v>
-      </c>
-      <c r="G41" t="s">
-        <v>113</v>
       </c>
       <c r="H41" t="s">
         <v>15</v>
@@ -3830,16 +3831,16 @@
     <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" t="s">
         <v>114</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>112</v>
-      </c>
-      <c r="G42" t="s">
-        <v>115</v>
       </c>
       <c r="H42" t="s">
         <v>15</v>
@@ -3851,13 +3852,13 @@
     <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G43" t="s">
         <v>50</v>
@@ -3872,19 +3873,19 @@
     <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F44" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" t="s">
         <v>119</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>120</v>
-      </c>
-      <c r="H44" t="s">
-        <v>121</v>
       </c>
       <c r="I44" s="5">
         <v>1</v>
@@ -3893,16 +3894,16 @@
     <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>123</v>
-      </c>
-      <c r="G45" t="s">
-        <v>124</v>
       </c>
       <c r="H45" t="s">
         <v>15</v>
@@ -3914,16 +3915,16 @@
     <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>122</v>
+      </c>
+      <c r="G46" t="s">
         <v>125</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G46" t="s">
-        <v>126</v>
       </c>
       <c r="H46" t="s">
         <v>15</v>
@@ -3935,16 +3936,16 @@
     <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
         <v>127</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>128</v>
-      </c>
-      <c r="G47" t="s">
-        <v>129</v>
       </c>
       <c r="H47" t="s">
         <v>15</v>
@@ -3956,16 +3957,16 @@
     <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48" t="s">
         <v>130</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" t="s">
-        <v>128</v>
-      </c>
-      <c r="G48" t="s">
-        <v>131</v>
       </c>
       <c r="H48" t="s">
         <v>15</v>
@@ -3977,16 +3978,16 @@
     <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
       <c r="C49" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
         <v>132</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>133</v>
-      </c>
-      <c r="G49" t="s">
-        <v>134</v>
       </c>
       <c r="H49" t="s">
         <v>15</v>
@@ -3998,19 +3999,19 @@
     <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="C50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" t="s">
         <v>135</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" t="s">
-        <v>133</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>136</v>
-      </c>
-      <c r="H50" t="s">
-        <v>137</v>
       </c>
       <c r="I50" s="5">
         <v>1</v>
@@ -4019,19 +4020,19 @@
     <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
       <c r="C51" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" t="s">
         <v>138</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" t="s">
-        <v>123</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>139</v>
-      </c>
-      <c r="H51" t="s">
-        <v>140</v>
       </c>
       <c r="I51" s="5">
         <v>1</v>
@@ -4040,19 +4041,19 @@
     <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" t="s">
         <v>141</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" t="s">
-        <v>123</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>142</v>
-      </c>
-      <c r="H52" t="s">
-        <v>143</v>
       </c>
       <c r="I52" s="5">
         <v>1</v>
@@ -4061,19 +4062,19 @@
     <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="C53" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
         <v>144</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>145</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>146</v>
-      </c>
-      <c r="H53" t="s">
-        <v>147</v>
       </c>
       <c r="I53" s="5">
         <v>1</v>
@@ -4082,19 +4083,19 @@
     <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" t="s">
         <v>148</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" t="s">
-        <v>145</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>149</v>
-      </c>
-      <c r="H54" t="s">
-        <v>150</v>
       </c>
       <c r="I54" s="5">
         <v>1</v>
@@ -4103,16 +4104,16 @@
     <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
         <v>151</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>152</v>
-      </c>
-      <c r="G55" t="s">
-        <v>153</v>
       </c>
       <c r="H55" t="s">
         <v>15</v>
@@ -4124,16 +4125,16 @@
     <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="C56" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56" t="s">
         <v>154</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" t="s">
-        <v>152</v>
-      </c>
-      <c r="G56" t="s">
-        <v>155</v>
       </c>
       <c r="H56" t="s">
         <v>15</v>
@@ -4145,16 +4146,16 @@
     <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
       <c r="C57" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
         <v>156</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>157</v>
-      </c>
-      <c r="G57" t="s">
-        <v>158</v>
       </c>
       <c r="H57" t="s">
         <v>15</v>
@@ -4166,13 +4167,13 @@
     <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
       <c r="C58" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
         <v>159</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>160</v>
       </c>
       <c r="H58" t="s">
         <v>15</v>
@@ -4184,16 +4185,16 @@
     <row r="59" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
       <c r="C59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>111</v>
+      </c>
+      <c r="G59" t="s">
         <v>161</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
-      </c>
-      <c r="G59" t="s">
-        <v>162</v>
       </c>
       <c r="H59" t="s">
         <v>15</v>
@@ -4205,16 +4206,16 @@
     <row r="60" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>111</v>
+      </c>
+      <c r="G60" t="s">
         <v>163</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
-        <v>112</v>
-      </c>
-      <c r="G60" t="s">
-        <v>164</v>
       </c>
       <c r="H60" t="s">
         <v>15</v>
@@ -4226,16 +4227,16 @@
     <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
       <c r="C61" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>111</v>
+      </c>
+      <c r="G61" t="s">
         <v>165</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" t="s">
-        <v>112</v>
-      </c>
-      <c r="G61" t="s">
-        <v>166</v>
       </c>
       <c r="H61" t="s">
         <v>15</v>
@@ -4247,16 +4248,16 @@
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="C62" t="s">
+        <v>166</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
+        <v>111</v>
+      </c>
+      <c r="G62" t="s">
         <v>167</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" t="s">
-        <v>112</v>
-      </c>
-      <c r="G62" t="s">
-        <v>168</v>
       </c>
       <c r="H62" t="s">
         <v>15</v>
@@ -4268,16 +4269,16 @@
     <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
       <c r="C63" t="s">
+        <v>168</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>111</v>
+      </c>
+      <c r="G63" t="s">
         <v>169</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" t="s">
-        <v>112</v>
-      </c>
-      <c r="G63" t="s">
-        <v>170</v>
       </c>
       <c r="H63" t="s">
         <v>15</v>
@@ -4289,16 +4290,16 @@
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>111</v>
+      </c>
+      <c r="G64" t="s">
         <v>171</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" t="s">
-        <v>112</v>
-      </c>
-      <c r="G64" t="s">
-        <v>172</v>
       </c>
       <c r="H64" t="s">
         <v>15</v>
@@ -4310,16 +4311,16 @@
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65" t="s">
+        <v>172</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>111</v>
+      </c>
+      <c r="G65" t="s">
         <v>173</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" t="s">
-        <v>112</v>
-      </c>
-      <c r="G65" t="s">
-        <v>174</v>
       </c>
       <c r="H65" t="s">
         <v>15</v>
@@ -4331,16 +4332,16 @@
     <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
       <c r="C66" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>111</v>
+      </c>
+      <c r="G66" t="s">
         <v>175</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" t="s">
-        <v>112</v>
-      </c>
-      <c r="G66" t="s">
-        <v>176</v>
       </c>
       <c r="H66" t="s">
         <v>15</v>
@@ -4352,16 +4353,16 @@
     <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
       <c r="C67" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
         <v>177</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" t="s">
-        <v>178</v>
-      </c>
       <c r="G67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H67" t="s">
         <v>15</v>
@@ -4373,13 +4374,13 @@
     <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
       <c r="C68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G68" t="s">
         <v>82</v>
@@ -4394,16 +4395,16 @@
     <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H69" t="s">
         <v>15</v>
@@ -4415,16 +4416,16 @@
     <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
       <c r="C70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H70" t="s">
         <v>15</v>
@@ -4435,19 +4436,19 @@
     </row>
     <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" t="s">
         <v>182</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
         <v>183</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>184</v>
-      </c>
-      <c r="G71" t="s">
-        <v>185</v>
       </c>
       <c r="H71" t="s">
         <v>15</v>
@@ -4459,16 +4460,16 @@
     <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="7"/>
       <c r="C72" t="s">
+        <v>185</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
         <v>186</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" t="s">
-        <v>187</v>
-      </c>
       <c r="G72" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H72" t="s">
         <v>15</v>
@@ -4479,22 +4480,22 @@
     </row>
     <row r="73" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" t="s">
         <v>188</v>
-      </c>
-      <c r="C73" t="s">
-        <v>189</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G73" t="s">
+        <v>189</v>
+      </c>
+      <c r="H73" t="s">
         <v>190</v>
-      </c>
-      <c r="H73" t="s">
-        <v>191</v>
       </c>
       <c r="I73" s="5">
         <v>1</v>
@@ -4503,19 +4504,19 @@
     <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="7"/>
       <c r="C74" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G74" t="s">
         <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I74" s="5">
         <v>1</v>
@@ -4524,19 +4525,19 @@
     <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="7"/>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F75" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G75" t="s">
         <v>43</v>
       </c>
       <c r="H75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I75" s="5">
         <v>1</v>
@@ -4545,16 +4546,16 @@
     <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
       <c r="C76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H76" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I76" s="5">
         <v>1</v>
@@ -4563,19 +4564,19 @@
     <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="7"/>
       <c r="C77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F77" t="s">
+        <v>198</v>
+      </c>
+      <c r="G77" t="s">
+        <v>189</v>
+      </c>
+      <c r="H77" t="s">
         <v>199</v>
-      </c>
-      <c r="G77" t="s">
-        <v>190</v>
-      </c>
-      <c r="H77" t="s">
-        <v>200</v>
       </c>
       <c r="I77" s="5">
         <v>1</v>
@@ -4584,16 +4585,16 @@
     <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I78" s="5">
         <v>1</v>
@@ -4602,19 +4603,19 @@
     <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="C79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F79" t="s">
+        <v>203</v>
+      </c>
+      <c r="G79" t="s">
+        <v>189</v>
+      </c>
+      <c r="H79" t="s">
         <v>204</v>
-      </c>
-      <c r="G79" t="s">
-        <v>190</v>
-      </c>
-      <c r="H79" t="s">
-        <v>205</v>
       </c>
       <c r="I79" s="5">
         <v>1</v>
@@ -4623,16 +4624,16 @@
     <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="7"/>
       <c r="C80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F80" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H80" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I80" s="5">
         <v>1</v>
@@ -4641,19 +4642,19 @@
     <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
       <c r="C81" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F81" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G81" t="s">
+        <v>189</v>
+      </c>
+      <c r="H81" t="s">
         <v>190</v>
-      </c>
-      <c r="H81" t="s">
-        <v>191</v>
       </c>
       <c r="I81" s="5">
         <v>1</v>
@@ -4662,16 +4663,16 @@
     <row r="82" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="7"/>
       <c r="C82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F82" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I82" s="5">
         <v>1</v>
@@ -4680,7 +4681,7 @@
     <row r="83" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
       <c r="C83" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>58</v>
@@ -4689,10 +4690,10 @@
         <v>59</v>
       </c>
       <c r="G83" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H83" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I83" s="5">
         <v>1</v>
@@ -4701,7 +4702,7 @@
     <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
       <c r="C84" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>58</v>
@@ -4710,7 +4711,7 @@
         <v>59</v>
       </c>
       <c r="H84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I84" s="5">
         <v>1</v>
@@ -4719,16 +4720,16 @@
     <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
       <c r="C85" t="s">
+        <v>213</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
         <v>214</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="H85" t="s">
         <v>215</v>
-      </c>
-      <c r="H85" t="s">
-        <v>216</v>
       </c>
       <c r="I85" s="5">
         <v>1</v>
@@ -4737,19 +4738,19 @@
     <row r="86" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
       <c r="C86" t="s">
+        <v>216</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>214</v>
+      </c>
+      <c r="G86" t="s">
+        <v>103</v>
+      </c>
+      <c r="H86" t="s">
         <v>217</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" t="s">
-        <v>215</v>
-      </c>
-      <c r="G86" t="s">
-        <v>104</v>
-      </c>
-      <c r="H86" t="s">
-        <v>218</v>
       </c>
       <c r="I86" s="5">
         <v>1</v>
@@ -4758,16 +4759,16 @@
     <row r="87" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
       <c r="C87" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I87" s="5">
         <v>1</v>
@@ -4776,19 +4777,19 @@
     <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
       <c r="C88" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H88" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I88" s="5">
         <v>1</v>
@@ -4797,19 +4798,19 @@
     <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
       <c r="C89" t="s">
+        <v>220</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
         <v>221</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>222</v>
       </c>
-      <c r="G89" t="s">
-        <v>223</v>
-      </c>
       <c r="H89" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I89" s="5">
         <v>1</v>
@@ -4818,19 +4819,19 @@
     <row r="90" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
       <c r="C90" t="s">
+        <v>223</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" t="s">
+        <v>221</v>
+      </c>
+      <c r="G90" t="s">
         <v>224</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" t="s">
-        <v>222</v>
-      </c>
-      <c r="G90" t="s">
-        <v>225</v>
-      </c>
       <c r="H90" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I90" s="5">
         <v>1</v>
@@ -4839,19 +4840,19 @@
     <row r="91" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
       <c r="C91" t="s">
+        <v>225</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
+        <v>221</v>
+      </c>
+      <c r="G91" t="s">
         <v>226</v>
       </c>
-      <c r="E91" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" t="s">
-        <v>222</v>
-      </c>
-      <c r="G91" t="s">
-        <v>227</v>
-      </c>
       <c r="H91" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I91" s="5">
         <v>1</v>
@@ -4860,19 +4861,19 @@
     <row r="92" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
       <c r="C92" t="s">
+        <v>227</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s">
+        <v>221</v>
+      </c>
+      <c r="G92" t="s">
         <v>228</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" t="s">
-        <v>222</v>
-      </c>
-      <c r="G92" t="s">
-        <v>229</v>
-      </c>
       <c r="H92" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I92" s="5">
         <v>1</v>
@@ -4881,19 +4882,19 @@
     <row r="93" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
       <c r="C93" t="s">
+        <v>229</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>221</v>
+      </c>
+      <c r="G93" t="s">
         <v>230</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" t="s">
-        <v>222</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>231</v>
-      </c>
-      <c r="H93" t="s">
-        <v>232</v>
       </c>
       <c r="I93" s="5">
         <v>1</v>
@@ -4902,19 +4903,19 @@
     <row r="94" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
       <c r="C94" t="s">
+        <v>232</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>221</v>
+      </c>
+      <c r="G94" t="s">
+        <v>189</v>
+      </c>
+      <c r="H94" t="s">
         <v>233</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" t="s">
-        <v>222</v>
-      </c>
-      <c r="G94" t="s">
-        <v>190</v>
-      </c>
-      <c r="H94" t="s">
-        <v>234</v>
       </c>
       <c r="I94" s="5">
         <v>1</v>
@@ -4923,16 +4924,16 @@
     <row r="95" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
       <c r="C95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I95" s="5">
         <v>1</v>
@@ -4941,19 +4942,19 @@
     <row r="96" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
       <c r="C96" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G96" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H96" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I96" s="5">
         <v>1</v>
@@ -4962,16 +4963,16 @@
     <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
       <c r="C97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H97" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I97" s="5">
         <v>1</v>
@@ -4980,19 +4981,19 @@
     <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="7"/>
       <c r="C98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F98" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G98" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H98" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I98" s="5">
         <v>1</v>
@@ -5001,19 +5002,19 @@
     <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="7"/>
       <c r="C99" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F99" t="s">
+        <v>239</v>
+      </c>
+      <c r="G99" t="s">
+        <v>189</v>
+      </c>
+      <c r="H99" t="s">
         <v>240</v>
-      </c>
-      <c r="G99" t="s">
-        <v>190</v>
-      </c>
-      <c r="H99" t="s">
-        <v>241</v>
       </c>
       <c r="I99" s="5">
         <v>1</v>
@@ -5022,19 +5023,19 @@
     <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
       <c r="C100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F100" t="s">
+        <v>242</v>
+      </c>
+      <c r="G100" t="s">
+        <v>189</v>
+      </c>
+      <c r="H100" t="s">
         <v>243</v>
-      </c>
-      <c r="G100" t="s">
-        <v>190</v>
-      </c>
-      <c r="H100" t="s">
-        <v>244</v>
       </c>
       <c r="I100" s="5">
         <v>1</v>
@@ -5043,19 +5044,19 @@
     <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
       <c r="C101" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F101" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G101" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H101" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I101" s="5">
         <v>1</v>
@@ -5063,19 +5064,19 @@
     </row>
     <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C102" t="s">
         <v>247</v>
-      </c>
-      <c r="C102" t="s">
-        <v>248</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F102" t="s">
+        <v>248</v>
+      </c>
+      <c r="H102" t="s">
         <v>249</v>
-      </c>
-      <c r="H102" t="s">
-        <v>250</v>
       </c>
       <c r="I102" s="5">
         <v>1</v>
@@ -5084,16 +5085,16 @@
     <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
       <c r="C103" t="s">
+        <v>250</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
         <v>251</v>
       </c>
-      <c r="E103" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>252</v>
-      </c>
-      <c r="G103" t="s">
-        <v>253</v>
       </c>
       <c r="H103" t="s">
         <v>15</v>
@@ -5105,19 +5106,19 @@
     <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="7"/>
       <c r="C104" t="s">
+        <v>253</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>251</v>
+      </c>
+      <c r="G104" t="s">
+        <v>252</v>
+      </c>
+      <c r="H104" t="s">
         <v>254</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" t="s">
-        <v>252</v>
-      </c>
-      <c r="G104" t="s">
-        <v>253</v>
-      </c>
-      <c r="H104" t="s">
-        <v>255</v>
       </c>
       <c r="I104" s="5">
         <v>1</v>
@@ -5126,19 +5127,19 @@
     <row r="105" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="7"/>
       <c r="C105" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F105" t="s">
+        <v>256</v>
+      </c>
+      <c r="G105" t="s">
         <v>257</v>
       </c>
-      <c r="G105" t="s">
-        <v>258</v>
-      </c>
       <c r="H105" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I105" s="5">
         <v>1</v>
@@ -5147,19 +5148,19 @@
     <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
       <c r="C106" t="s">
+        <v>258</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
         <v>259</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>260</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>261</v>
-      </c>
-      <c r="H106" t="s">
-        <v>262</v>
       </c>
       <c r="I106" s="5">
         <v>1</v>
@@ -5168,19 +5169,19 @@
     <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="7"/>
       <c r="C107" t="s">
+        <v>262</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>259</v>
+      </c>
+      <c r="G107" t="s">
         <v>263</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" t="s">
-        <v>260</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>264</v>
-      </c>
-      <c r="H107" t="s">
-        <v>265</v>
       </c>
       <c r="I107" s="5">
         <v>1</v>
@@ -5189,19 +5190,19 @@
     <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
       <c r="C108" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F108" t="s">
+        <v>259</v>
+      </c>
+      <c r="G108" t="s">
         <v>260</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>261</v>
-      </c>
-      <c r="H108" t="s">
-        <v>262</v>
       </c>
       <c r="I108" s="5">
         <v>1</v>
@@ -5210,16 +5211,16 @@
     <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
       <c r="C109" t="s">
+        <v>266</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" t="s">
         <v>267</v>
       </c>
-      <c r="E109" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>268</v>
-      </c>
-      <c r="G109" t="s">
-        <v>269</v>
       </c>
       <c r="H109" t="s">
         <v>15</v>
@@ -5231,16 +5232,16 @@
     <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
       <c r="C110" t="s">
+        <v>269</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>267</v>
+      </c>
+      <c r="G110" t="s">
         <v>270</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" t="s">
-        <v>268</v>
-      </c>
-      <c r="G110" t="s">
-        <v>271</v>
       </c>
       <c r="H110" t="s">
         <v>15</v>
@@ -5252,16 +5253,16 @@
     <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
       <c r="C111" t="s">
+        <v>271</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
         <v>272</v>
       </c>
-      <c r="E111" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>273</v>
-      </c>
-      <c r="G111" t="s">
-        <v>274</v>
       </c>
       <c r="H111" t="s">
         <v>15</v>
@@ -5273,19 +5274,19 @@
     <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="7"/>
       <c r="C112" t="s">
+        <v>274</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
         <v>275</v>
       </c>
-      <c r="E112" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>276</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>277</v>
-      </c>
-      <c r="H112" t="s">
-        <v>278</v>
       </c>
       <c r="I112" s="5">
         <v>1</v>
@@ -5294,19 +5295,19 @@
     <row r="113" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="7"/>
       <c r="C113" t="s">
+        <v>278</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>275</v>
+      </c>
+      <c r="G113" t="s">
+        <v>252</v>
+      </c>
+      <c r="H113" t="s">
         <v>279</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" t="s">
-        <v>276</v>
-      </c>
-      <c r="G113" t="s">
-        <v>253</v>
-      </c>
-      <c r="H113" t="s">
-        <v>280</v>
       </c>
       <c r="I113" s="5">
         <v>1</v>
@@ -5315,19 +5316,19 @@
     <row r="114" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="7"/>
       <c r="C114" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F114" t="s">
+        <v>281</v>
+      </c>
+      <c r="G114" t="s">
         <v>282</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>283</v>
-      </c>
-      <c r="H114" t="s">
-        <v>284</v>
       </c>
       <c r="I114" s="5">
         <v>1</v>
@@ -5336,19 +5337,19 @@
     <row r="115" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
       <c r="C115" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F115" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G115" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H115" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I115" s="5">
         <v>1</v>
@@ -5357,16 +5358,16 @@
     <row r="116" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
       <c r="C116" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F116" t="s">
+        <v>287</v>
+      </c>
+      <c r="G116" t="s">
         <v>288</v>
-      </c>
-      <c r="G116" t="s">
-        <v>289</v>
       </c>
       <c r="I116" s="5">
         <v>1</v>
@@ -5375,16 +5376,16 @@
     <row r="117" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
       <c r="C117" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F117" t="s">
+        <v>290</v>
+      </c>
+      <c r="H117" t="s">
         <v>291</v>
-      </c>
-      <c r="H117" t="s">
-        <v>292</v>
       </c>
       <c r="I117" s="5">
         <v>1</v>
@@ -5393,16 +5394,16 @@
     <row r="118" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="7"/>
       <c r="C118" t="s">
+        <v>292</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
         <v>293</v>
       </c>
-      <c r="E118" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>294</v>
-      </c>
-      <c r="G118" t="s">
-        <v>295</v>
       </c>
       <c r="H118" t="s">
         <v>15</v>
@@ -5414,16 +5415,16 @@
     <row r="119" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
       <c r="C119" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F119" t="s">
+        <v>293</v>
+      </c>
+      <c r="G119" t="s">
         <v>294</v>
-      </c>
-      <c r="G119" t="s">
-        <v>295</v>
       </c>
       <c r="H119" t="s">
         <v>15</v>
@@ -5435,19 +5436,19 @@
     <row r="120" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
       <c r="C120" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F120" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G120" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H120" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I120" s="5">
         <v>1</v>
@@ -5456,16 +5457,16 @@
     <row r="121" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="7"/>
       <c r="C121" t="s">
+        <v>298</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" t="s">
         <v>299</v>
       </c>
-      <c r="E121" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" t="s">
-        <v>300</v>
-      </c>
       <c r="G121" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H121" t="s">
         <v>15</v>
@@ -5477,19 +5478,19 @@
     <row r="122" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="7"/>
       <c r="C122" t="s">
+        <v>300</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
+        <v>299</v>
+      </c>
+      <c r="G122" t="s">
         <v>301</v>
       </c>
-      <c r="E122" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" t="s">
-        <v>300</v>
-      </c>
-      <c r="G122" t="s">
-        <v>302</v>
-      </c>
       <c r="H122" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I122" s="5">
         <v>1</v>
@@ -5498,16 +5499,16 @@
     <row r="123" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="7"/>
       <c r="C123" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F123" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G123" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H123" t="s">
         <v>15</v>
@@ -5519,16 +5520,16 @@
     <row r="124" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
       <c r="C124" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F124" t="s">
+        <v>304</v>
+      </c>
+      <c r="H124" t="s">
         <v>305</v>
-      </c>
-      <c r="H124" t="s">
-        <v>306</v>
       </c>
       <c r="I124" s="5">
         <v>1</v>
@@ -5537,19 +5538,19 @@
     <row r="125" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
       <c r="C125" t="s">
+        <v>306</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
         <v>307</v>
       </c>
-      <c r="E125" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>308</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>309</v>
-      </c>
-      <c r="H125" t="s">
-        <v>310</v>
       </c>
       <c r="I125" s="5">
         <v>1</v>
@@ -5558,16 +5559,16 @@
     <row r="126" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="7"/>
       <c r="C126" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F126" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G126" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H126" t="s">
         <v>77</v>
@@ -5579,16 +5580,16 @@
     <row r="127" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="7"/>
       <c r="C127" t="s">
+        <v>312</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
         <v>313</v>
       </c>
-      <c r="E127" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" t="s">
-        <v>314</v>
-      </c>
       <c r="G127" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H127" t="s">
         <v>15</v>
@@ -5600,16 +5601,16 @@
     <row r="128" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="7"/>
       <c r="C128" t="s">
+        <v>314</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
+        <v>313</v>
+      </c>
+      <c r="G128" t="s">
         <v>315</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F128" t="s">
-        <v>314</v>
-      </c>
-      <c r="G128" t="s">
-        <v>316</v>
       </c>
       <c r="H128" t="s">
         <v>15</v>
@@ -5621,16 +5622,16 @@
     <row r="129" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="7"/>
       <c r="C129" t="s">
+        <v>316</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
+        <v>313</v>
+      </c>
+      <c r="G129" t="s">
         <v>317</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F129" t="s">
-        <v>314</v>
-      </c>
-      <c r="G129" t="s">
-        <v>318</v>
       </c>
       <c r="H129" t="s">
         <v>15</v>
@@ -5642,16 +5643,16 @@
     <row r="130" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="7"/>
       <c r="C130" t="s">
+        <v>318</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s">
         <v>319</v>
       </c>
-      <c r="E130" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>320</v>
-      </c>
-      <c r="G130" t="s">
-        <v>321</v>
       </c>
       <c r="H130" t="s">
         <v>15</v>
@@ -5663,16 +5664,16 @@
     <row r="131" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="7"/>
       <c r="C131" t="s">
+        <v>321</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s">
         <v>322</v>
       </c>
-      <c r="E131" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>323</v>
-      </c>
-      <c r="G131" t="s">
-        <v>324</v>
       </c>
       <c r="H131" t="s">
         <v>15</v>
@@ -5683,22 +5684,22 @@
     </row>
     <row r="132" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C132" t="s">
         <v>325</v>
-      </c>
-      <c r="C132" t="s">
-        <v>326</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F132" t="s">
+        <v>326</v>
+      </c>
+      <c r="G132" t="s">
         <v>327</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
         <v>328</v>
-      </c>
-      <c r="H132" t="s">
-        <v>329</v>
       </c>
       <c r="I132" s="5">
         <v>1</v>
@@ -5707,19 +5708,19 @@
     <row r="133" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="7"/>
       <c r="C133" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F133" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G133" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H133" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I133" s="5">
         <v>1</v>
@@ -5728,16 +5729,16 @@
     <row r="134" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="7"/>
       <c r="C134" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F134" t="s">
+        <v>332</v>
+      </c>
+      <c r="H134" t="s">
         <v>333</v>
-      </c>
-      <c r="H134" t="s">
-        <v>334</v>
       </c>
       <c r="I134" s="5">
         <v>1</v>
@@ -5746,16 +5747,16 @@
     <row r="135" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="7"/>
       <c r="C135" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F135" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H135" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I135" s="5">
         <v>1</v>
@@ -5764,16 +5765,16 @@
     <row r="136" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="7"/>
       <c r="C136" t="s">
+        <v>336</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
         <v>337</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>338</v>
-      </c>
-      <c r="G136" t="s">
-        <v>339</v>
       </c>
       <c r="H136" t="s">
         <v>15</v>
@@ -5785,16 +5786,16 @@
     <row r="137" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="7"/>
       <c r="C137" t="s">
+        <v>339</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" t="s">
         <v>340</v>
       </c>
-      <c r="E137" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" t="s">
-        <v>341</v>
-      </c>
       <c r="G137" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H137" t="s">
         <v>15</v>
@@ -5806,16 +5807,16 @@
     <row r="138" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="7"/>
       <c r="C138" t="s">
+        <v>341</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" t="s">
         <v>342</v>
       </c>
-      <c r="E138" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
         <v>343</v>
-      </c>
-      <c r="G138" t="s">
-        <v>344</v>
       </c>
       <c r="H138" t="s">
         <v>15</v>
@@ -5827,16 +5828,16 @@
     <row r="139" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="7"/>
       <c r="C139" t="s">
+        <v>344</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" t="s">
         <v>345</v>
       </c>
-      <c r="E139" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F139" t="s">
+      <c r="G139" t="s">
         <v>346</v>
-      </c>
-      <c r="G139" t="s">
-        <v>347</v>
       </c>
       <c r="H139" t="s">
         <v>15</v>
@@ -5848,19 +5849,19 @@
     <row r="140" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="7"/>
       <c r="C140" t="s">
+        <v>347</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" t="s">
         <v>348</v>
       </c>
-      <c r="E140" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F140" t="s">
+      <c r="G140" t="s">
         <v>349</v>
       </c>
-      <c r="G140" t="s">
-        <v>350</v>
-      </c>
       <c r="H140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I140" s="5">
         <v>1</v>
@@ -5869,19 +5870,19 @@
     <row r="141" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="7"/>
       <c r="C141" t="s">
+        <v>350</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
         <v>351</v>
       </c>
-      <c r="E141" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" t="s">
+      <c r="G141" t="s">
+        <v>343</v>
+      </c>
+      <c r="H141" t="s">
         <v>352</v>
-      </c>
-      <c r="G141" t="s">
-        <v>344</v>
-      </c>
-      <c r="H141" t="s">
-        <v>353</v>
       </c>
       <c r="I141" s="5">
         <v>1</v>
@@ -5890,16 +5891,16 @@
     <row r="142" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="7"/>
       <c r="C142" t="s">
+        <v>353</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
         <v>354</v>
       </c>
-      <c r="E142" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F142" t="s">
-        <v>355</v>
-      </c>
       <c r="G142" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H142" t="s">
         <v>15</v>
@@ -5911,16 +5912,16 @@
     <row r="143" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="7"/>
       <c r="C143" t="s">
+        <v>355</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
         <v>356</v>
       </c>
-      <c r="E143" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F143" t="s">
+      <c r="G143" t="s">
         <v>357</v>
-      </c>
-      <c r="G143" t="s">
-        <v>358</v>
       </c>
       <c r="H143" t="s">
         <v>15</v>
@@ -5932,16 +5933,16 @@
     <row r="144" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="7"/>
       <c r="C144" t="s">
+        <v>358</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
         <v>359</v>
       </c>
-      <c r="E144" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>360</v>
-      </c>
-      <c r="G144" t="s">
-        <v>361</v>
       </c>
       <c r="H144" t="s">
         <v>15</v>
@@ -5953,16 +5954,16 @@
     <row r="145" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="7"/>
       <c r="C145" t="s">
+        <v>361</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
         <v>362</v>
       </c>
-      <c r="E145" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>363</v>
-      </c>
-      <c r="G145" t="s">
-        <v>364</v>
       </c>
       <c r="H145" t="s">
         <v>15</v>
@@ -5974,19 +5975,19 @@
     <row r="146" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="7"/>
       <c r="C146" t="s">
+        <v>364</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
         <v>365</v>
       </c>
-      <c r="E146" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>366</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>367</v>
-      </c>
-      <c r="H146" t="s">
-        <v>368</v>
       </c>
       <c r="I146" s="5">
         <v>1</v>
@@ -5995,19 +5996,19 @@
     <row r="147" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="7"/>
       <c r="C147" t="s">
+        <v>368</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
         <v>369</v>
       </c>
-      <c r="E147" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F147" t="s">
+      <c r="G147" t="s">
         <v>370</v>
       </c>
-      <c r="G147" t="s">
+      <c r="H147" t="s">
         <v>371</v>
-      </c>
-      <c r="H147" t="s">
-        <v>372</v>
       </c>
       <c r="I147" s="5">
         <v>1</v>
@@ -6016,19 +6017,19 @@
     <row r="148" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="7"/>
       <c r="C148" t="s">
+        <v>372</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" t="s">
+        <v>369</v>
+      </c>
+      <c r="G148" t="s">
         <v>373</v>
       </c>
-      <c r="E148" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F148" t="s">
-        <v>370</v>
-      </c>
-      <c r="G148" t="s">
+      <c r="H148" t="s">
         <v>374</v>
-      </c>
-      <c r="H148" t="s">
-        <v>375</v>
       </c>
       <c r="I148" s="5">
         <v>1</v>
@@ -6037,19 +6038,19 @@
     <row r="149" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="7"/>
       <c r="C149" t="s">
+        <v>375</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s">
+        <v>369</v>
+      </c>
+      <c r="G149" t="s">
         <v>376</v>
       </c>
-      <c r="E149" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F149" t="s">
-        <v>370</v>
-      </c>
-      <c r="G149" t="s">
+      <c r="H149" t="s">
         <v>377</v>
-      </c>
-      <c r="H149" t="s">
-        <v>378</v>
       </c>
       <c r="I149" s="5">
         <v>1</v>
@@ -6058,19 +6059,19 @@
     <row r="150" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="7"/>
       <c r="C150" t="s">
+        <v>378</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>369</v>
+      </c>
+      <c r="G150" t="s">
         <v>379</v>
       </c>
-      <c r="E150" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F150" t="s">
-        <v>370</v>
-      </c>
-      <c r="G150" t="s">
+      <c r="H150" t="s">
         <v>380</v>
-      </c>
-      <c r="H150" t="s">
-        <v>381</v>
       </c>
       <c r="I150" s="5">
         <v>1</v>
@@ -6079,19 +6080,19 @@
     <row r="151" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="7"/>
       <c r="C151" t="s">
+        <v>381</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" t="s">
+        <v>369</v>
+      </c>
+      <c r="G151" t="s">
         <v>382</v>
       </c>
-      <c r="E151" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F151" t="s">
-        <v>370</v>
-      </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>383</v>
-      </c>
-      <c r="H151" t="s">
-        <v>384</v>
       </c>
       <c r="I151" s="5">
         <v>1</v>
@@ -6100,16 +6101,16 @@
     <row r="152" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="7"/>
       <c r="C152" t="s">
+        <v>384</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
+        <v>369</v>
+      </c>
+      <c r="G152" t="s">
         <v>385</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F152" t="s">
-        <v>370</v>
-      </c>
-      <c r="G152" t="s">
-        <v>386</v>
       </c>
       <c r="I152" s="5">
         <v>1</v>
@@ -6118,16 +6119,16 @@
     <row r="153" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="7"/>
       <c r="C153" t="s">
+        <v>386</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" t="s">
         <v>387</v>
       </c>
-      <c r="E153" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F153" t="s">
+      <c r="G153" t="s">
         <v>388</v>
-      </c>
-      <c r="G153" t="s">
-        <v>389</v>
       </c>
       <c r="H153" t="s">
         <v>70</v>
@@ -6139,19 +6140,19 @@
     <row r="154" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="7"/>
       <c r="C154" t="s">
+        <v>389</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" t="s">
+        <v>387</v>
+      </c>
+      <c r="G154" t="s">
         <v>390</v>
       </c>
-      <c r="E154" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F154" t="s">
-        <v>388</v>
-      </c>
-      <c r="G154" t="s">
-        <v>391</v>
-      </c>
       <c r="H154" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I154" s="5">
         <v>1</v>
@@ -6160,19 +6161,19 @@
     <row r="155" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="7"/>
       <c r="C155" t="s">
+        <v>391</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" t="s">
+        <v>387</v>
+      </c>
+      <c r="G155" t="s">
         <v>392</v>
       </c>
-      <c r="E155" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" t="s">
-        <v>388</v>
-      </c>
-      <c r="G155" t="s">
-        <v>393</v>
-      </c>
       <c r="H155" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I155" s="5">
         <v>1</v>
@@ -6181,16 +6182,16 @@
     <row r="156" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="7"/>
       <c r="C156" t="s">
+        <v>393</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s">
+        <v>387</v>
+      </c>
+      <c r="G156" t="s">
         <v>394</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F156" t="s">
-        <v>388</v>
-      </c>
-      <c r="G156" t="s">
-        <v>395</v>
       </c>
       <c r="I156" s="5">
         <v>1</v>
@@ -6199,16 +6200,16 @@
     <row r="157" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="7"/>
       <c r="C157" t="s">
+        <v>395</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" t="s">
         <v>396</v>
       </c>
-      <c r="E157" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F157" t="s">
+      <c r="G157" t="s">
         <v>397</v>
-      </c>
-      <c r="G157" t="s">
-        <v>398</v>
       </c>
       <c r="H157" t="s">
         <v>70</v>
@@ -6220,19 +6221,19 @@
     <row r="158" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="7"/>
       <c r="C158" t="s">
+        <v>398</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s">
+        <v>396</v>
+      </c>
+      <c r="G158" t="s">
         <v>399</v>
       </c>
-      <c r="E158" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F158" t="s">
-        <v>397</v>
-      </c>
-      <c r="G158" t="s">
-        <v>400</v>
-      </c>
       <c r="H158" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I158" s="5">
         <v>1</v>
@@ -6241,19 +6242,19 @@
     <row r="159" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="7"/>
       <c r="C159" t="s">
+        <v>400</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>396</v>
+      </c>
+      <c r="G159" t="s">
         <v>401</v>
       </c>
-      <c r="E159" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F159" t="s">
-        <v>397</v>
-      </c>
-      <c r="G159" t="s">
-        <v>402</v>
-      </c>
       <c r="H159" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I159" s="5">
         <v>1</v>
@@ -6262,16 +6263,16 @@
     <row r="160" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="7"/>
       <c r="C160" t="s">
+        <v>402</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
+        <v>396</v>
+      </c>
+      <c r="G160" t="s">
         <v>403</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F160" t="s">
-        <v>397</v>
-      </c>
-      <c r="G160" t="s">
-        <v>404</v>
       </c>
       <c r="I160" s="5">
         <v>1</v>
@@ -6280,16 +6281,16 @@
     <row r="161" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="7"/>
       <c r="C161" t="s">
+        <v>404</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" t="s">
         <v>405</v>
       </c>
-      <c r="E161" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F161" t="s">
+      <c r="G161" t="s">
         <v>406</v>
-      </c>
-      <c r="G161" t="s">
-        <v>407</v>
       </c>
       <c r="H161" t="s">
         <v>70</v>
@@ -6301,19 +6302,19 @@
     <row r="162" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="7"/>
       <c r="C162" t="s">
+        <v>407</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s">
+        <v>405</v>
+      </c>
+      <c r="G162" t="s">
         <v>408</v>
       </c>
-      <c r="E162" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F162" t="s">
-        <v>406</v>
-      </c>
-      <c r="G162" t="s">
-        <v>409</v>
-      </c>
       <c r="H162" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I162" s="5">
         <v>1</v>
@@ -6322,19 +6323,19 @@
     <row r="163" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="7"/>
       <c r="C163" t="s">
+        <v>409</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" t="s">
+        <v>405</v>
+      </c>
+      <c r="G163" t="s">
         <v>410</v>
       </c>
-      <c r="E163" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F163" t="s">
-        <v>406</v>
-      </c>
-      <c r="G163" t="s">
-        <v>411</v>
-      </c>
       <c r="H163" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I163" s="5">
         <v>1</v>
@@ -6343,16 +6344,16 @@
     <row r="164" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="7"/>
       <c r="C164" t="s">
+        <v>411</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s">
+        <v>405</v>
+      </c>
+      <c r="G164" t="s">
         <v>412</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F164" t="s">
-        <v>406</v>
-      </c>
-      <c r="G164" t="s">
-        <v>413</v>
       </c>
       <c r="I164" s="5">
         <v>1</v>
@@ -6361,16 +6362,16 @@
     <row r="165" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="7"/>
       <c r="C165" t="s">
+        <v>413</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
         <v>414</v>
       </c>
-      <c r="E165" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" t="s">
+      <c r="G165" t="s">
         <v>415</v>
-      </c>
-      <c r="G165" t="s">
-        <v>416</v>
       </c>
       <c r="H165" t="s">
         <v>70</v>
@@ -6382,19 +6383,19 @@
     <row r="166" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="7"/>
       <c r="C166" t="s">
+        <v>416</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
+        <v>414</v>
+      </c>
+      <c r="G166" t="s">
         <v>417</v>
       </c>
-      <c r="E166" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F166" t="s">
-        <v>415</v>
-      </c>
-      <c r="G166" t="s">
-        <v>418</v>
-      </c>
       <c r="H166" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I166" s="5">
         <v>1</v>
@@ -6403,19 +6404,19 @@
     <row r="167" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="7"/>
       <c r="C167" t="s">
+        <v>418</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
+        <v>414</v>
+      </c>
+      <c r="G167" t="s">
         <v>419</v>
       </c>
-      <c r="E167" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F167" t="s">
-        <v>415</v>
-      </c>
-      <c r="G167" t="s">
-        <v>420</v>
-      </c>
       <c r="H167" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I167" s="5">
         <v>1</v>
@@ -6424,16 +6425,16 @@
     <row r="168" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="7"/>
       <c r="C168" t="s">
+        <v>420</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" t="s">
+        <v>414</v>
+      </c>
+      <c r="G168" t="s">
         <v>421</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F168" t="s">
-        <v>415</v>
-      </c>
-      <c r="G168" t="s">
-        <v>422</v>
       </c>
       <c r="I168" s="5">
         <v>1</v>
@@ -6442,16 +6443,16 @@
     <row r="169" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="7"/>
       <c r="C169" t="s">
+        <v>422</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s">
         <v>423</v>
       </c>
-      <c r="E169" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F169" t="s">
+      <c r="G169" t="s">
         <v>424</v>
-      </c>
-      <c r="G169" t="s">
-        <v>425</v>
       </c>
       <c r="H169" t="s">
         <v>70</v>
@@ -6463,19 +6464,19 @@
     <row r="170" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="7"/>
       <c r="C170" t="s">
+        <v>425</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" t="s">
+        <v>423</v>
+      </c>
+      <c r="G170" t="s">
         <v>426</v>
       </c>
-      <c r="E170" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F170" t="s">
-        <v>424</v>
-      </c>
-      <c r="G170" t="s">
-        <v>427</v>
-      </c>
       <c r="H170" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I170" s="5">
         <v>1</v>
@@ -6484,19 +6485,19 @@
     <row r="171" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="7"/>
       <c r="C171" t="s">
+        <v>427</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" t="s">
+        <v>423</v>
+      </c>
+      <c r="G171" t="s">
         <v>428</v>
       </c>
-      <c r="E171" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F171" t="s">
-        <v>424</v>
-      </c>
-      <c r="G171" t="s">
-        <v>429</v>
-      </c>
       <c r="H171" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I171" s="5">
         <v>1</v>
@@ -6505,16 +6506,16 @@
     <row r="172" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="7"/>
       <c r="C172" t="s">
+        <v>429</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" t="s">
+        <v>423</v>
+      </c>
+      <c r="G172" t="s">
         <v>430</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F172" t="s">
-        <v>424</v>
-      </c>
-      <c r="G172" t="s">
-        <v>431</v>
       </c>
       <c r="I172" s="5">
         <v>1</v>
@@ -6523,16 +6524,16 @@
     <row r="173" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="7"/>
       <c r="C173" t="s">
+        <v>431</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" t="s">
         <v>432</v>
       </c>
-      <c r="E173" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F173" t="s">
+      <c r="G173" t="s">
         <v>433</v>
-      </c>
-      <c r="G173" t="s">
-        <v>434</v>
       </c>
       <c r="H173" t="s">
         <v>70</v>
@@ -6544,19 +6545,19 @@
     <row r="174" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="7"/>
       <c r="C174" t="s">
+        <v>434</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" t="s">
+        <v>432</v>
+      </c>
+      <c r="G174" t="s">
         <v>435</v>
       </c>
-      <c r="E174" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F174" t="s">
-        <v>433</v>
-      </c>
-      <c r="G174" t="s">
-        <v>436</v>
-      </c>
       <c r="H174" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I174" s="5">
         <v>1</v>
@@ -6565,19 +6566,19 @@
     <row r="175" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="7"/>
       <c r="C175" t="s">
+        <v>436</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" t="s">
+        <v>432</v>
+      </c>
+      <c r="G175" t="s">
         <v>437</v>
       </c>
-      <c r="E175" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F175" t="s">
-        <v>433</v>
-      </c>
-      <c r="G175" t="s">
-        <v>438</v>
-      </c>
       <c r="H175" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I175" s="5">
         <v>1</v>
@@ -6586,16 +6587,16 @@
     <row r="176" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="7"/>
       <c r="C176" t="s">
+        <v>438</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" t="s">
+        <v>432</v>
+      </c>
+      <c r="G176" t="s">
         <v>439</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F176" t="s">
-        <v>433</v>
-      </c>
-      <c r="G176" t="s">
-        <v>440</v>
       </c>
       <c r="I176" s="5">
         <v>1</v>
@@ -6604,19 +6605,19 @@
     <row r="177" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="7"/>
       <c r="C177" t="s">
+        <v>440</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s">
         <v>441</v>
       </c>
-      <c r="E177" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F177" t="s">
+      <c r="G177" t="s">
+        <v>343</v>
+      </c>
+      <c r="H177" t="s">
         <v>442</v>
-      </c>
-      <c r="G177" t="s">
-        <v>344</v>
-      </c>
-      <c r="H177" t="s">
-        <v>443</v>
       </c>
       <c r="I177" s="5">
         <v>1</v>
@@ -6625,16 +6626,16 @@
     <row r="178" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="7"/>
       <c r="C178" t="s">
+        <v>443</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" t="s">
+        <v>441</v>
+      </c>
+      <c r="G178" t="s">
         <v>444</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F178" t="s">
-        <v>442</v>
-      </c>
-      <c r="G178" t="s">
-        <v>445</v>
       </c>
       <c r="H178" t="s">
         <v>15</v>
@@ -6646,19 +6647,19 @@
     <row r="179" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="7"/>
       <c r="C179" t="s">
+        <v>445</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s">
+        <v>441</v>
+      </c>
+      <c r="G179" t="s">
         <v>446</v>
       </c>
-      <c r="E179" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F179" t="s">
-        <v>442</v>
-      </c>
-      <c r="G179" t="s">
+      <c r="H179" t="s">
         <v>447</v>
-      </c>
-      <c r="H179" t="s">
-        <v>448</v>
       </c>
       <c r="I179" s="5">
         <v>1</v>
@@ -6667,16 +6668,16 @@
     <row r="180" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="7"/>
       <c r="C180" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E180" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F180" t="s">
+        <v>449</v>
+      </c>
+      <c r="H180" t="s">
         <v>450</v>
-      </c>
-      <c r="H180" t="s">
-        <v>451</v>
       </c>
       <c r="I180" s="5">
         <v>1</v>
@@ -6685,16 +6686,16 @@
     <row r="181" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="7"/>
       <c r="C181" t="s">
+        <v>451</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" t="s">
         <v>452</v>
       </c>
-      <c r="E181" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F181" t="s">
+      <c r="G181" t="s">
         <v>453</v>
-      </c>
-      <c r="G181" t="s">
-        <v>454</v>
       </c>
       <c r="H181" t="s">
         <v>15</v>
@@ -6706,16 +6707,16 @@
     <row r="182" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="7"/>
       <c r="C182" t="s">
+        <v>454</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" t="s">
         <v>455</v>
       </c>
-      <c r="E182" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F182" t="s">
+      <c r="G182" t="s">
         <v>456</v>
-      </c>
-      <c r="G182" t="s">
-        <v>457</v>
       </c>
       <c r="H182" t="s">
         <v>15</v>
@@ -6727,16 +6728,16 @@
     <row r="183" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="7"/>
       <c r="C183" t="s">
+        <v>454</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" t="s">
         <v>455</v>
       </c>
-      <c r="E183" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F183" t="s">
-        <v>456</v>
-      </c>
       <c r="G183" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H183" t="s">
         <v>15</v>
@@ -6748,16 +6749,16 @@
     <row r="184" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="7"/>
       <c r="C184" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F184" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G184" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H184" t="s">
         <v>15</v>
@@ -6769,19 +6770,19 @@
     <row r="185" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="7"/>
       <c r="C185" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F185" t="s">
+        <v>460</v>
+      </c>
+      <c r="G185" t="s">
         <v>461</v>
       </c>
-      <c r="G185" t="s">
-        <v>462</v>
-      </c>
       <c r="H185" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I185" s="5">
         <v>1</v>
@@ -6790,16 +6791,16 @@
     <row r="186" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="7"/>
       <c r="C186" t="s">
+        <v>462</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" t="s">
         <v>463</v>
       </c>
-      <c r="E186" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F186" t="s">
+      <c r="G186" t="s">
         <v>464</v>
-      </c>
-      <c r="G186" t="s">
-        <v>465</v>
       </c>
       <c r="H186" t="s">
         <v>15</v>
@@ -6811,16 +6812,16 @@
     <row r="187" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="7"/>
       <c r="C187" t="s">
+        <v>465</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F187" t="s">
         <v>466</v>
       </c>
-      <c r="E187" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F187" t="s">
+      <c r="G187" t="s">
         <v>467</v>
-      </c>
-      <c r="G187" t="s">
-        <v>468</v>
       </c>
       <c r="H187" t="s">
         <v>15</v>
@@ -6832,16 +6833,16 @@
     <row r="188" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="7"/>
       <c r="C188" t="s">
+        <v>468</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F188" t="s">
         <v>469</v>
       </c>
-      <c r="E188" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F188" t="s">
-        <v>470</v>
-      </c>
       <c r="G188" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H188" t="s">
         <v>15</v>
@@ -6853,19 +6854,19 @@
     <row r="189" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="7"/>
       <c r="C189" t="s">
+        <v>470</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189" t="s">
         <v>471</v>
       </c>
-      <c r="E189" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F189" t="s">
+      <c r="G189" t="s">
         <v>472</v>
       </c>
-      <c r="G189" t="s">
+      <c r="H189" t="s">
         <v>473</v>
-      </c>
-      <c r="H189" t="s">
-        <v>474</v>
       </c>
       <c r="I189" s="5">
         <v>1</v>
@@ -6874,19 +6875,19 @@
     <row r="190" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="7"/>
       <c r="C190" t="s">
+        <v>474</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" t="s">
+        <v>471</v>
+      </c>
+      <c r="G190" t="s">
         <v>475</v>
       </c>
-      <c r="E190" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F190" t="s">
-        <v>472</v>
-      </c>
-      <c r="G190" t="s">
+      <c r="H190" t="s">
         <v>476</v>
-      </c>
-      <c r="H190" t="s">
-        <v>477</v>
       </c>
       <c r="I190" s="5">
         <v>1</v>
@@ -6895,16 +6896,16 @@
     <row r="191" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="7"/>
       <c r="C191" t="s">
+        <v>477</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" t="s">
         <v>478</v>
       </c>
-      <c r="E191" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F191" t="s">
+      <c r="G191" t="s">
         <v>479</v>
-      </c>
-      <c r="G191" t="s">
-        <v>480</v>
       </c>
       <c r="H191" t="s">
         <v>15</v>
@@ -6916,19 +6917,19 @@
     <row r="192" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="7"/>
       <c r="C192" t="s">
+        <v>364</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" t="s">
         <v>365</v>
       </c>
-      <c r="E192" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F192" t="s">
-        <v>366</v>
-      </c>
       <c r="G192" t="s">
+        <v>480</v>
+      </c>
+      <c r="H192" t="s">
         <v>481</v>
-      </c>
-      <c r="H192" t="s">
-        <v>482</v>
       </c>
       <c r="I192" s="5">
         <v>1</v>
@@ -6937,16 +6938,16 @@
     <row r="193" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="7"/>
       <c r="C193" t="s">
+        <v>482</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" t="s">
         <v>483</v>
       </c>
-      <c r="E193" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F193" t="s">
+      <c r="G193" t="s">
         <v>484</v>
-      </c>
-      <c r="G193" t="s">
-        <v>485</v>
       </c>
       <c r="H193" t="s">
         <v>15</v>
@@ -6958,19 +6959,19 @@
     <row r="194" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="7"/>
       <c r="C194" t="s">
+        <v>485</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194" t="s">
         <v>486</v>
       </c>
-      <c r="E194" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F194" t="s">
+      <c r="G194" t="s">
         <v>487</v>
       </c>
-      <c r="G194" t="s">
+      <c r="H194" t="s">
         <v>488</v>
-      </c>
-      <c r="H194" t="s">
-        <v>489</v>
       </c>
       <c r="I194" s="5">
         <v>1</v>
@@ -6979,19 +6980,19 @@
     <row r="195" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="7"/>
       <c r="C195" t="s">
+        <v>489</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195" t="s">
+        <v>486</v>
+      </c>
+      <c r="G195" t="s">
         <v>490</v>
       </c>
-      <c r="E195" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F195" t="s">
-        <v>487</v>
-      </c>
-      <c r="G195" t="s">
-        <v>491</v>
-      </c>
       <c r="H195" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I195" s="5">
         <v>1</v>
@@ -7000,19 +7001,19 @@
     <row r="196" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="7"/>
       <c r="C196" t="s">
+        <v>491</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196" t="s">
+        <v>486</v>
+      </c>
+      <c r="G196" t="s">
         <v>492</v>
       </c>
-      <c r="E196" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F196" t="s">
-        <v>487</v>
-      </c>
-      <c r="G196" t="s">
+      <c r="H196" t="s">
         <v>493</v>
-      </c>
-      <c r="H196" t="s">
-        <v>494</v>
       </c>
       <c r="I196" s="5">
         <v>1</v>
@@ -7021,19 +7022,19 @@
     <row r="197" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="7"/>
       <c r="C197" t="s">
+        <v>494</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197" t="s">
+        <v>486</v>
+      </c>
+      <c r="G197" t="s">
+        <v>492</v>
+      </c>
+      <c r="H197" t="s">
         <v>495</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F197" t="s">
-        <v>487</v>
-      </c>
-      <c r="G197" t="s">
-        <v>493</v>
-      </c>
-      <c r="H197" t="s">
-        <v>496</v>
       </c>
       <c r="I197" s="5">
         <v>1</v>
@@ -7042,19 +7043,19 @@
     <row r="198" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="7"/>
       <c r="C198" t="s">
+        <v>496</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" t="s">
         <v>497</v>
       </c>
-      <c r="E198" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F198" t="s">
+      <c r="G198" t="s">
         <v>498</v>
       </c>
-      <c r="G198" t="s">
+      <c r="H198" t="s">
         <v>499</v>
-      </c>
-      <c r="H198" t="s">
-        <v>500</v>
       </c>
       <c r="I198" s="5">
         <v>1</v>
@@ -7063,19 +7064,19 @@
     <row r="199" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="7"/>
       <c r="C199" t="s">
+        <v>500</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" t="s">
+        <v>497</v>
+      </c>
+      <c r="G199" t="s">
         <v>501</v>
       </c>
-      <c r="E199" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F199" t="s">
-        <v>498</v>
-      </c>
-      <c r="G199" t="s">
-        <v>502</v>
-      </c>
       <c r="H199" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I199" s="5">
         <v>1</v>
@@ -7084,19 +7085,19 @@
     <row r="200" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="7"/>
       <c r="C200" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F200" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G200" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H200" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I200" s="5">
         <v>1</v>
@@ -7105,19 +7106,19 @@
     <row r="201" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="7"/>
       <c r="C201" t="s">
+        <v>503</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201" t="s">
         <v>504</v>
       </c>
-      <c r="E201" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F201" t="s">
+      <c r="G201" t="s">
         <v>505</v>
       </c>
-      <c r="G201" t="s">
+      <c r="H201" t="s">
         <v>506</v>
-      </c>
-      <c r="H201" t="s">
-        <v>507</v>
       </c>
       <c r="I201" s="5">
         <v>1</v>
@@ -7126,19 +7127,19 @@
     <row r="202" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="7"/>
       <c r="C202" t="s">
+        <v>507</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F202" t="s">
+        <v>504</v>
+      </c>
+      <c r="G202" t="s">
         <v>508</v>
       </c>
-      <c r="E202" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F202" t="s">
-        <v>505</v>
-      </c>
-      <c r="G202" t="s">
-        <v>509</v>
-      </c>
       <c r="H202" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I202" s="5">
         <v>1</v>
@@ -7147,19 +7148,19 @@
     <row r="203" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="7"/>
       <c r="C203" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F203" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G203" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H203" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I203" s="5">
         <v>1</v>
@@ -7168,19 +7169,19 @@
     <row r="204" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="7"/>
       <c r="C204" t="s">
+        <v>510</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F204" t="s">
         <v>511</v>
       </c>
-      <c r="E204" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F204" t="s">
+      <c r="G204" t="s">
         <v>512</v>
       </c>
-      <c r="G204" t="s">
+      <c r="H204" t="s">
         <v>513</v>
-      </c>
-      <c r="H204" t="s">
-        <v>514</v>
       </c>
       <c r="I204" s="5">
         <v>1</v>
@@ -7189,19 +7190,19 @@
     <row r="205" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="7"/>
       <c r="C205" t="s">
+        <v>514</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F205" t="s">
+        <v>511</v>
+      </c>
+      <c r="G205" t="s">
         <v>515</v>
       </c>
-      <c r="E205" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F205" t="s">
-        <v>512</v>
-      </c>
-      <c r="G205" t="s">
-        <v>516</v>
-      </c>
       <c r="H205" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I205" s="5">
         <v>1</v>
@@ -7210,19 +7211,19 @@
     <row r="206" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="7"/>
       <c r="C206" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F206" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G206" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H206" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I206" s="5">
         <v>1</v>
@@ -7231,13 +7232,13 @@
     <row r="207" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="7"/>
       <c r="C207" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F207" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H207" t="s">
         <v>15</v>
@@ -7249,13 +7250,13 @@
     <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="7"/>
       <c r="C208" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F208" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H208" t="s">
         <v>15</v>
@@ -7267,16 +7268,16 @@
     <row r="209" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="7"/>
       <c r="C209" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E209" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F209" t="s">
+        <v>522</v>
+      </c>
+      <c r="G209" t="s">
         <v>523</v>
-      </c>
-      <c r="G209" t="s">
-        <v>524</v>
       </c>
       <c r="H209" t="s">
         <v>15</v>
@@ -7288,19 +7289,19 @@
     <row r="210" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="7"/>
       <c r="C210" t="s">
+        <v>524</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F210" t="s">
         <v>525</v>
       </c>
-      <c r="E210" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F210" t="s">
+      <c r="G210" t="s">
         <v>526</v>
       </c>
-      <c r="G210" t="s">
+      <c r="H210" t="s">
         <v>527</v>
-      </c>
-      <c r="H210" t="s">
-        <v>528</v>
       </c>
       <c r="I210" s="5">
         <v>1</v>
@@ -7309,19 +7310,19 @@
     <row r="211" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="7"/>
       <c r="C211" t="s">
+        <v>528</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F211" t="s">
+        <v>525</v>
+      </c>
+      <c r="G211" t="s">
         <v>529</v>
       </c>
-      <c r="E211" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F211" t="s">
-        <v>526</v>
-      </c>
-      <c r="G211" t="s">
-        <v>530</v>
-      </c>
       <c r="H211" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I211" s="5">
         <v>1</v>
@@ -7330,19 +7331,19 @@
     <row r="212" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="7"/>
       <c r="C212" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E212" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F212" t="s">
+        <v>531</v>
+      </c>
+      <c r="G212" t="s">
         <v>532</v>
       </c>
-      <c r="G212" t="s">
+      <c r="H212" t="s">
         <v>533</v>
-      </c>
-      <c r="H212" t="s">
-        <v>534</v>
       </c>
       <c r="I212" s="5">
         <v>1</v>
@@ -7351,19 +7352,19 @@
     <row r="213" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="7"/>
       <c r="C213" t="s">
+        <v>534</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F213" t="s">
         <v>535</v>
       </c>
-      <c r="E213" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F213" t="s">
+      <c r="G213" t="s">
         <v>536</v>
       </c>
-      <c r="G213" t="s">
+      <c r="H213" t="s">
         <v>537</v>
-      </c>
-      <c r="H213" t="s">
-        <v>538</v>
       </c>
       <c r="I213" s="5">
         <v>1</v>
@@ -7372,19 +7373,19 @@
     <row r="214" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="7"/>
       <c r="C214" t="s">
+        <v>534</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F214" t="s">
         <v>535</v>
       </c>
-      <c r="E214" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F214" t="s">
-        <v>536</v>
-      </c>
       <c r="G214" t="s">
+        <v>538</v>
+      </c>
+      <c r="H214" t="s">
         <v>539</v>
-      </c>
-      <c r="H214" t="s">
-        <v>540</v>
       </c>
       <c r="I214" s="5">
         <v>1</v>
@@ -7393,19 +7394,19 @@
     <row r="215" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="7"/>
       <c r="C215" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E215" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F215" t="s">
+        <v>541</v>
+      </c>
+      <c r="G215" t="s">
+        <v>532</v>
+      </c>
+      <c r="H215" t="s">
         <v>542</v>
-      </c>
-      <c r="G215" t="s">
-        <v>533</v>
-      </c>
-      <c r="H215" t="s">
-        <v>543</v>
       </c>
       <c r="I215" s="5">
         <v>1</v>
@@ -7414,19 +7415,19 @@
     <row r="216" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="7"/>
       <c r="C216" t="s">
+        <v>543</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F216" t="s">
         <v>544</v>
       </c>
-      <c r="E216" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F216" t="s">
-        <v>545</v>
-      </c>
       <c r="G216" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H216" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I216" s="5">
         <v>1</v>
@@ -7435,19 +7436,19 @@
     <row r="217" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="7"/>
       <c r="C217" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F217" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G217" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H217" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I217" s="5">
         <v>1</v>
@@ -7456,16 +7457,16 @@
     <row r="218" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="7"/>
       <c r="C218" t="s">
+        <v>546</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F218" t="s">
         <v>547</v>
       </c>
-      <c r="E218" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F218" t="s">
-        <v>548</v>
-      </c>
       <c r="G218" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H218" t="s">
         <v>15</v>
@@ -7477,19 +7478,19 @@
     <row r="219" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="7"/>
       <c r="C219" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F219" t="s">
+        <v>549</v>
+      </c>
+      <c r="G219" t="s">
         <v>550</v>
       </c>
-      <c r="G219" t="s">
-        <v>551</v>
-      </c>
       <c r="H219" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I219" s="5">
         <v>1</v>
@@ -7498,19 +7499,19 @@
     <row r="220" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="7"/>
       <c r="C220" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F220" t="s">
+        <v>552</v>
+      </c>
+      <c r="G220" t="s">
+        <v>532</v>
+      </c>
+      <c r="H220" t="s">
         <v>553</v>
-      </c>
-      <c r="G220" t="s">
-        <v>533</v>
-      </c>
-      <c r="H220" t="s">
-        <v>554</v>
       </c>
       <c r="I220" s="5">
         <v>1</v>
@@ -7519,16 +7520,16 @@
     <row r="221" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="7"/>
       <c r="C221" t="s">
+        <v>554</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F221" t="s">
         <v>555</v>
       </c>
-      <c r="E221" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F221" t="s">
+      <c r="G221" t="s">
         <v>556</v>
-      </c>
-      <c r="G221" t="s">
-        <v>557</v>
       </c>
       <c r="H221" t="s">
         <v>15</v>
@@ -7540,16 +7541,16 @@
     <row r="222" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="7"/>
       <c r="C222" t="s">
+        <v>557</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F222" t="s">
+        <v>555</v>
+      </c>
+      <c r="G222" t="s">
         <v>558</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F222" t="s">
-        <v>556</v>
-      </c>
-      <c r="G222" t="s">
-        <v>559</v>
       </c>
       <c r="H222" t="s">
         <v>15</v>
@@ -7561,16 +7562,16 @@
     <row r="223" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="7"/>
       <c r="C223" t="s">
+        <v>559</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F223" t="s">
+        <v>555</v>
+      </c>
+      <c r="G223" t="s">
         <v>560</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F223" t="s">
-        <v>556</v>
-      </c>
-      <c r="G223" t="s">
-        <v>561</v>
       </c>
       <c r="H223" t="s">
         <v>15</v>
@@ -7582,19 +7583,19 @@
     <row r="224" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="7"/>
       <c r="C224" t="s">
+        <v>561</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F224" t="s">
         <v>562</v>
       </c>
-      <c r="E224" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F224" t="s">
+      <c r="G224" t="s">
         <v>563</v>
       </c>
-      <c r="G224" t="s">
-        <v>564</v>
-      </c>
       <c r="H224" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I224" s="5">
         <v>1</v>
@@ -7603,16 +7604,16 @@
     <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="7"/>
       <c r="C225" t="s">
+        <v>564</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F225" t="s">
         <v>565</v>
       </c>
-      <c r="E225" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F225" t="s">
+      <c r="G225" t="s">
         <v>566</v>
-      </c>
-      <c r="G225" t="s">
-        <v>567</v>
       </c>
       <c r="H225" t="s">
         <v>15</v>
@@ -7624,16 +7625,16 @@
     <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="7"/>
       <c r="C226" t="s">
+        <v>567</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F226" t="s">
         <v>568</v>
       </c>
-      <c r="E226" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F226" t="s">
-        <v>569</v>
-      </c>
       <c r="G226" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H226" t="s">
         <v>15</v>
@@ -7645,16 +7646,16 @@
     <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="7"/>
       <c r="C227" t="s">
+        <v>569</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F227" t="s">
         <v>570</v>
       </c>
-      <c r="E227" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F227" t="s">
+      <c r="G227" t="s">
         <v>571</v>
-      </c>
-      <c r="G227" t="s">
-        <v>572</v>
       </c>
       <c r="H227" t="s">
         <v>15</v>
@@ -7666,16 +7667,16 @@
     <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="7"/>
       <c r="C228" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E228" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F228" t="s">
+        <v>573</v>
+      </c>
+      <c r="G228" t="s">
         <v>574</v>
-      </c>
-      <c r="G228" t="s">
-        <v>575</v>
       </c>
       <c r="H228" t="s">
         <v>15</v>
@@ -7687,19 +7688,19 @@
     <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="7"/>
       <c r="C229" t="s">
+        <v>575</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F229" t="s">
         <v>576</v>
       </c>
-      <c r="E229" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F229" t="s">
+      <c r="G229" t="s">
         <v>577</v>
       </c>
-      <c r="G229" t="s">
+      <c r="H229" t="s">
         <v>578</v>
-      </c>
-      <c r="H229" t="s">
-        <v>579</v>
       </c>
       <c r="I229" s="5">
         <v>1</v>
@@ -7707,22 +7708,22 @@
     </row>
     <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C230" t="s">
         <v>580</v>
       </c>
-      <c r="C230" t="s">
+      <c r="E230" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F230" t="s">
         <v>581</v>
       </c>
-      <c r="E230" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F230" t="s">
+      <c r="G230" t="s">
         <v>582</v>
       </c>
-      <c r="G230" t="s">
+      <c r="H230" t="s">
         <v>583</v>
-      </c>
-      <c r="H230" t="s">
-        <v>584</v>
       </c>
       <c r="I230" s="5">
         <v>1</v>
@@ -7731,19 +7732,19 @@
     <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="7"/>
       <c r="C231" t="s">
+        <v>584</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F231" t="s">
+        <v>581</v>
+      </c>
+      <c r="G231" t="s">
+        <v>582</v>
+      </c>
+      <c r="H231" t="s">
         <v>585</v>
-      </c>
-      <c r="E231" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F231" t="s">
-        <v>582</v>
-      </c>
-      <c r="G231" t="s">
-        <v>583</v>
-      </c>
-      <c r="H231" t="s">
-        <v>586</v>
       </c>
       <c r="I231" s="5">
         <v>1</v>
@@ -7752,19 +7753,19 @@
     <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="7"/>
       <c r="C232" t="s">
+        <v>586</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F232" t="s">
+        <v>581</v>
+      </c>
+      <c r="G232" t="s">
         <v>587</v>
       </c>
-      <c r="E232" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F232" t="s">
-        <v>582</v>
-      </c>
-      <c r="G232" t="s">
+      <c r="H232" t="s">
         <v>588</v>
-      </c>
-      <c r="H232" t="s">
-        <v>589</v>
       </c>
       <c r="I232" s="5">
         <v>1</v>
@@ -7773,19 +7774,19 @@
     <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="7"/>
       <c r="C233" t="s">
+        <v>589</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F233" t="s">
+        <v>581</v>
+      </c>
+      <c r="G233" t="s">
         <v>590</v>
       </c>
-      <c r="E233" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F233" t="s">
-        <v>582</v>
-      </c>
-      <c r="G233" t="s">
-        <v>591</v>
-      </c>
       <c r="H233" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I233" s="5">
         <v>1</v>
@@ -7794,19 +7795,19 @@
     <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="7"/>
       <c r="C234" t="s">
+        <v>591</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F234" t="s">
+        <v>581</v>
+      </c>
+      <c r="G234" t="s">
         <v>592</v>
       </c>
-      <c r="E234" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F234" t="s">
-        <v>582</v>
-      </c>
-      <c r="G234" t="s">
+      <c r="H234" t="s">
         <v>593</v>
-      </c>
-      <c r="H234" t="s">
-        <v>594</v>
       </c>
       <c r="I234" s="5">
         <v>1</v>
@@ -7815,19 +7816,19 @@
     <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="7"/>
       <c r="C235" t="s">
+        <v>594</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F235" t="s">
+        <v>581</v>
+      </c>
+      <c r="G235" t="s">
         <v>595</v>
       </c>
-      <c r="E235" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F235" t="s">
-        <v>582</v>
-      </c>
-      <c r="G235" t="s">
+      <c r="H235" t="s">
         <v>596</v>
-      </c>
-      <c r="H235" t="s">
-        <v>597</v>
       </c>
       <c r="I235" s="5">
         <v>1</v>
@@ -7836,19 +7837,19 @@
     <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="7"/>
       <c r="C236" t="s">
+        <v>597</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F236" t="s">
         <v>598</v>
       </c>
-      <c r="E236" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F236" t="s">
+      <c r="G236" t="s">
         <v>599</v>
       </c>
-      <c r="G236" t="s">
-        <v>600</v>
-      </c>
       <c r="H236" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I236" s="5">
         <v>1</v>
@@ -7857,19 +7858,19 @@
     <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="7"/>
       <c r="C237" t="s">
+        <v>600</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F237" t="s">
+        <v>598</v>
+      </c>
+      <c r="G237" t="s">
         <v>601</v>
       </c>
-      <c r="E237" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F237" t="s">
-        <v>599</v>
-      </c>
-      <c r="G237" t="s">
-        <v>602</v>
-      </c>
       <c r="H237" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I237" s="5">
         <v>1</v>
@@ -7878,19 +7879,19 @@
     <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="7"/>
       <c r="C238" t="s">
+        <v>602</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F238" t="s">
+        <v>598</v>
+      </c>
+      <c r="G238" t="s">
         <v>603</v>
       </c>
-      <c r="E238" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F238" t="s">
-        <v>599</v>
-      </c>
-      <c r="G238" t="s">
-        <v>604</v>
-      </c>
       <c r="H238" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I238" s="5">
         <v>1</v>
@@ -7899,19 +7900,19 @@
     <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="7"/>
       <c r="C239" t="s">
+        <v>604</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F239" t="s">
         <v>605</v>
       </c>
-      <c r="E239" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F239" t="s">
+      <c r="G239" t="s">
         <v>606</v>
       </c>
-      <c r="G239" t="s">
-        <v>607</v>
-      </c>
       <c r="H239" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I239" s="5">
         <v>1</v>
@@ -7920,19 +7921,19 @@
     <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="7"/>
       <c r="C240" t="s">
+        <v>607</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F240" t="s">
+        <v>605</v>
+      </c>
+      <c r="G240" t="s">
         <v>608</v>
       </c>
-      <c r="E240" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F240" t="s">
-        <v>606</v>
-      </c>
-      <c r="G240" t="s">
-        <v>609</v>
-      </c>
       <c r="H240" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I240" s="5">
         <v>1</v>
@@ -7941,19 +7942,19 @@
     <row r="241" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="7"/>
       <c r="C241" t="s">
+        <v>609</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F241" t="s">
+        <v>605</v>
+      </c>
+      <c r="G241" t="s">
         <v>610</v>
       </c>
-      <c r="E241" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F241" t="s">
-        <v>606</v>
-      </c>
-      <c r="G241" t="s">
-        <v>611</v>
-      </c>
       <c r="H241" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I241" s="5">
         <v>1</v>
@@ -7962,19 +7963,19 @@
     <row r="242" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="7"/>
       <c r="C242" t="s">
+        <v>611</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F242" t="s">
         <v>612</v>
       </c>
-      <c r="E242" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F242" t="s">
+      <c r="G242" t="s">
         <v>613</v>
       </c>
-      <c r="G242" t="s">
-        <v>614</v>
-      </c>
       <c r="H242" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I242" s="5">
         <v>1</v>
@@ -7983,19 +7984,19 @@
     <row r="243" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="7"/>
       <c r="C243" t="s">
+        <v>614</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F243" t="s">
+        <v>612</v>
+      </c>
+      <c r="G243" t="s">
         <v>615</v>
       </c>
-      <c r="E243" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F243" t="s">
-        <v>613</v>
-      </c>
-      <c r="G243" t="s">
-        <v>616</v>
-      </c>
       <c r="H243" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I243" s="5">
         <v>1</v>
@@ -8004,19 +8005,19 @@
     <row r="244" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="7"/>
       <c r="C244" t="s">
+        <v>616</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F244" t="s">
+        <v>612</v>
+      </c>
+      <c r="G244" t="s">
         <v>617</v>
       </c>
-      <c r="E244" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F244" t="s">
-        <v>613</v>
-      </c>
-      <c r="G244" t="s">
-        <v>618</v>
-      </c>
       <c r="H244" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I244" s="5">
         <v>1</v>
@@ -8025,19 +8026,19 @@
     <row r="245" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="7"/>
       <c r="C245" t="s">
+        <v>618</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F245" t="s">
         <v>619</v>
       </c>
-      <c r="E245" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F245" t="s">
+      <c r="G245" t="s">
         <v>620</v>
       </c>
-      <c r="G245" t="s">
-        <v>621</v>
-      </c>
       <c r="H245" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I245" s="5">
         <v>1</v>
@@ -8046,19 +8047,19 @@
     <row r="246" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="7"/>
       <c r="C246" t="s">
+        <v>621</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F246" t="s">
         <v>622</v>
       </c>
-      <c r="E246" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F246" t="s">
+      <c r="G246" t="s">
         <v>623</v>
       </c>
-      <c r="G246" t="s">
-        <v>624</v>
-      </c>
       <c r="H246" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I246" s="5">
         <v>1</v>
@@ -8067,19 +8068,19 @@
     <row r="247" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="7"/>
       <c r="C247" t="s">
+        <v>624</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F247" t="s">
         <v>625</v>
       </c>
-      <c r="E247" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F247" t="s">
+      <c r="G247" t="s">
         <v>626</v>
       </c>
-      <c r="G247" t="s">
-        <v>627</v>
-      </c>
       <c r="H247" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I247" s="5">
         <v>1</v>
@@ -8088,19 +8089,19 @@
     <row r="248" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="7"/>
       <c r="C248" t="s">
+        <v>627</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F248" t="s">
+        <v>625</v>
+      </c>
+      <c r="G248" t="s">
         <v>628</v>
       </c>
-      <c r="E248" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F248" t="s">
-        <v>626</v>
-      </c>
-      <c r="G248" t="s">
+      <c r="H248" t="s">
         <v>629</v>
-      </c>
-      <c r="H248" t="s">
-        <v>630</v>
       </c>
       <c r="I248" s="5">
         <v>1</v>
@@ -8109,19 +8110,19 @@
     <row r="249" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="7"/>
       <c r="C249" t="s">
+        <v>630</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F249" t="s">
         <v>631</v>
       </c>
-      <c r="E249" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F249" t="s">
+      <c r="G249" t="s">
         <v>632</v>
       </c>
-      <c r="G249" t="s">
-        <v>633</v>
-      </c>
       <c r="H249" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I249" s="5">
         <v>1</v>
@@ -8130,19 +8131,19 @@
     <row r="250" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="7"/>
       <c r="C250" t="s">
+        <v>633</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F250" t="s">
         <v>634</v>
       </c>
-      <c r="E250" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F250" t="s">
-        <v>635</v>
-      </c>
       <c r="G250" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H250" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I250" s="5">
         <v>1</v>
@@ -8151,19 +8152,19 @@
     <row r="251" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="7"/>
       <c r="C251" t="s">
+        <v>635</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F251" t="s">
+        <v>631</v>
+      </c>
+      <c r="G251" t="s">
         <v>636</v>
       </c>
-      <c r="E251" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F251" t="s">
-        <v>632</v>
-      </c>
-      <c r="G251" t="s">
+      <c r="H251" t="s">
         <v>637</v>
-      </c>
-      <c r="H251" t="s">
-        <v>638</v>
       </c>
       <c r="I251" s="5">
         <v>1</v>
@@ -8172,16 +8173,16 @@
     <row r="252" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="7"/>
       <c r="C252" t="s">
+        <v>638</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F252" t="s">
+        <v>631</v>
+      </c>
+      <c r="G252" t="s">
         <v>639</v>
-      </c>
-      <c r="E252" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F252" t="s">
-        <v>632</v>
-      </c>
-      <c r="G252" t="s">
-        <v>640</v>
       </c>
       <c r="H252" t="s">
         <v>47</v>
@@ -8193,19 +8194,19 @@
     <row r="253" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="7"/>
       <c r="C253" t="s">
+        <v>640</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F253" t="s">
+        <v>631</v>
+      </c>
+      <c r="G253" t="s">
         <v>641</v>
       </c>
-      <c r="E253" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F253" t="s">
-        <v>632</v>
-      </c>
-      <c r="G253" t="s">
+      <c r="H253" t="s">
         <v>642</v>
-      </c>
-      <c r="H253" t="s">
-        <v>643</v>
       </c>
       <c r="I253" s="5">
         <v>1</v>
@@ -8214,19 +8215,19 @@
     <row r="254" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="7"/>
       <c r="C254" t="s">
+        <v>643</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F254" t="s">
         <v>644</v>
       </c>
-      <c r="E254" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F254" t="s">
+      <c r="G254" t="s">
         <v>645</v>
       </c>
-      <c r="G254" t="s">
-        <v>646</v>
-      </c>
       <c r="H254" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I254" s="5">
         <v>1</v>
@@ -8235,19 +8236,19 @@
     <row r="255" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="7"/>
       <c r="C255" t="s">
+        <v>646</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F255" t="s">
+        <v>644</v>
+      </c>
+      <c r="G255" t="s">
         <v>647</v>
       </c>
-      <c r="E255" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F255" t="s">
-        <v>645</v>
-      </c>
-      <c r="G255" t="s">
+      <c r="H255" t="s">
         <v>648</v>
-      </c>
-      <c r="H255" t="s">
-        <v>649</v>
       </c>
       <c r="I255" s="5">
         <v>1</v>
@@ -8256,19 +8257,19 @@
     <row r="256" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="7"/>
       <c r="C256" t="s">
+        <v>649</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F256" t="s">
+        <v>644</v>
+      </c>
+      <c r="G256" t="s">
         <v>650</v>
       </c>
-      <c r="E256" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F256" t="s">
-        <v>645</v>
-      </c>
-      <c r="G256" t="s">
+      <c r="H256" t="s">
         <v>651</v>
-      </c>
-      <c r="H256" t="s">
-        <v>652</v>
       </c>
       <c r="I256" s="5">
         <v>1</v>
@@ -8277,19 +8278,19 @@
     <row r="257" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="7"/>
       <c r="C257" t="s">
+        <v>652</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F257" t="s">
+        <v>644</v>
+      </c>
+      <c r="G257" t="s">
         <v>653</v>
       </c>
-      <c r="E257" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F257" t="s">
-        <v>645</v>
-      </c>
-      <c r="G257" t="s">
-        <v>654</v>
-      </c>
       <c r="H257" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I257" s="5">
         <v>1</v>
@@ -8298,19 +8299,19 @@
     <row r="258" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="7"/>
       <c r="C258" t="s">
+        <v>654</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F258" t="s">
+        <v>644</v>
+      </c>
+      <c r="G258" t="s">
         <v>655</v>
       </c>
-      <c r="E258" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F258" t="s">
-        <v>645</v>
-      </c>
-      <c r="G258" t="s">
+      <c r="H258" t="s">
         <v>656</v>
-      </c>
-      <c r="H258" t="s">
-        <v>657</v>
       </c>
       <c r="I258" s="5">
         <v>1</v>
@@ -8319,19 +8320,19 @@
     <row r="259" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="7"/>
       <c r="C259" t="s">
+        <v>657</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F259" t="s">
+        <v>644</v>
+      </c>
+      <c r="G259" t="s">
         <v>658</v>
       </c>
-      <c r="E259" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F259" t="s">
-        <v>645</v>
-      </c>
-      <c r="G259" t="s">
-        <v>659</v>
-      </c>
       <c r="H259" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I259" s="5">
         <v>1</v>
@@ -8340,19 +8341,19 @@
     <row r="260" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="7"/>
       <c r="C260" t="s">
+        <v>659</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F260" t="s">
+        <v>644</v>
+      </c>
+      <c r="G260" t="s">
         <v>660</v>
       </c>
-      <c r="E260" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F260" t="s">
-        <v>645</v>
-      </c>
-      <c r="G260" t="s">
-        <v>661</v>
-      </c>
       <c r="H260" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I260" s="5">
         <v>1</v>
@@ -8361,16 +8362,16 @@
     <row r="261" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="7"/>
       <c r="C261" t="s">
+        <v>661</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F261" t="s">
+        <v>644</v>
+      </c>
+      <c r="G261" t="s">
         <v>662</v>
-      </c>
-      <c r="E261" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F261" t="s">
-        <v>645</v>
-      </c>
-      <c r="G261" t="s">
-        <v>663</v>
       </c>
       <c r="H261" t="s">
         <v>47</v>
@@ -8382,19 +8383,19 @@
     <row r="262" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="7"/>
       <c r="C262" t="s">
+        <v>663</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F262" t="s">
         <v>664</v>
       </c>
-      <c r="E262" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F262" t="s">
+      <c r="G262" t="s">
         <v>665</v>
       </c>
-      <c r="G262" t="s">
-        <v>666</v>
-      </c>
       <c r="H262" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I262" s="5">
         <v>1</v>
@@ -8403,19 +8404,19 @@
     <row r="263" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="7"/>
       <c r="C263" t="s">
+        <v>666</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F263" t="s">
+        <v>664</v>
+      </c>
+      <c r="G263" t="s">
         <v>667</v>
       </c>
-      <c r="E263" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F263" t="s">
-        <v>665</v>
-      </c>
-      <c r="G263" t="s">
-        <v>668</v>
-      </c>
       <c r="H263" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I263" s="5">
         <v>1</v>
@@ -8424,19 +8425,19 @@
     <row r="264" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="7"/>
       <c r="C264" t="s">
+        <v>668</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F264" t="s">
+        <v>664</v>
+      </c>
+      <c r="G264" t="s">
         <v>669</v>
       </c>
-      <c r="E264" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F264" t="s">
-        <v>665</v>
-      </c>
-      <c r="G264" t="s">
-        <v>670</v>
-      </c>
       <c r="H264" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I264" s="5">
         <v>1</v>
@@ -8445,19 +8446,19 @@
     <row r="265" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="7"/>
       <c r="C265" t="s">
+        <v>670</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F265" t="s">
+        <v>664</v>
+      </c>
+      <c r="G265" t="s">
         <v>671</v>
       </c>
-      <c r="E265" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F265" t="s">
-        <v>665</v>
-      </c>
-      <c r="G265" t="s">
-        <v>672</v>
-      </c>
       <c r="H265" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I265" s="5">
         <v>1</v>
@@ -8466,19 +8467,19 @@
     <row r="266" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="7"/>
       <c r="C266" t="s">
+        <v>672</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F266" t="s">
+        <v>664</v>
+      </c>
+      <c r="G266" t="s">
         <v>673</v>
       </c>
-      <c r="E266" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F266" t="s">
-        <v>665</v>
-      </c>
-      <c r="G266" t="s">
-        <v>674</v>
-      </c>
       <c r="H266" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I266" s="5">
         <v>1</v>
@@ -8487,19 +8488,19 @@
     <row r="267" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="7"/>
       <c r="C267" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E267" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F267" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G267" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H267" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I267" s="5">
         <v>1</v>
@@ -8508,16 +8509,16 @@
     <row r="268" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="7"/>
       <c r="C268" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E268" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F268" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G268" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H268" t="s">
         <v>47</v>
@@ -8529,19 +8530,19 @@
     <row r="269" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="7"/>
       <c r="C269" t="s">
+        <v>676</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F269" t="s">
+        <v>581</v>
+      </c>
+      <c r="G269" t="s">
+        <v>582</v>
+      </c>
+      <c r="H269" t="s">
         <v>677</v>
-      </c>
-      <c r="E269" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F269" t="s">
-        <v>582</v>
-      </c>
-      <c r="G269" t="s">
-        <v>583</v>
-      </c>
-      <c r="H269" t="s">
-        <v>678</v>
       </c>
       <c r="I269" s="5">
         <v>1</v>
@@ -8550,19 +8551,19 @@
     <row r="270" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="7"/>
       <c r="C270" t="s">
+        <v>678</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F270" t="s">
+        <v>664</v>
+      </c>
+      <c r="G270" t="s">
         <v>679</v>
       </c>
-      <c r="E270" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F270" t="s">
-        <v>665</v>
-      </c>
-      <c r="G270" t="s">
-        <v>680</v>
-      </c>
       <c r="H270" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I270" s="5">
         <v>1</v>
@@ -8571,19 +8572,19 @@
     <row r="271" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="7"/>
       <c r="C271" t="s">
+        <v>680</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F271" t="s">
+        <v>644</v>
+      </c>
+      <c r="G271" t="s">
         <v>681</v>
       </c>
-      <c r="E271" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F271" t="s">
-        <v>645</v>
-      </c>
-      <c r="G271" t="s">
-        <v>682</v>
-      </c>
       <c r="H271" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I271" s="5">
         <v>1</v>
@@ -8592,19 +8593,19 @@
     <row r="272" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="7"/>
       <c r="C272" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E272" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F272" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G272" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H272" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I272" s="5">
         <v>1</v>
@@ -8613,16 +8614,16 @@
     <row r="273" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="7"/>
       <c r="C273" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E273" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F273" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H273" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I273" s="5">
         <v>1</v>
@@ -8631,16 +8632,16 @@
     <row r="274" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="7"/>
       <c r="C274" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E274" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F274" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H274" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I274" s="5">
         <v>1</v>
@@ -8649,16 +8650,16 @@
     <row r="275" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="7"/>
       <c r="C275" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E275" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F275" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H275" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I275" s="5">
         <v>1</v>
@@ -8667,16 +8668,16 @@
     <row r="276" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="7"/>
       <c r="C276" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E276" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F276" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H276" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I276" s="5">
         <v>1</v>
@@ -8685,19 +8686,19 @@
     <row r="277" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="7"/>
       <c r="C277" t="s">
+        <v>690</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F277" t="s">
+        <v>581</v>
+      </c>
+      <c r="G277" t="s">
         <v>691</v>
       </c>
-      <c r="E277" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F277" t="s">
-        <v>582</v>
-      </c>
-      <c r="G277" t="s">
-        <v>692</v>
-      </c>
       <c r="H277" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I277" s="5">
         <v>1</v>
@@ -8706,19 +8707,19 @@
     <row r="278" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="7"/>
       <c r="C278" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E278" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F278" t="s">
+        <v>693</v>
+      </c>
+      <c r="G278" t="s">
         <v>694</v>
       </c>
-      <c r="G278" t="s">
-        <v>695</v>
-      </c>
       <c r="H278" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I278" s="5">
         <v>1</v>
@@ -8727,19 +8728,19 @@
     <row r="279" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="7"/>
       <c r="C279" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E279" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F279" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G279" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H279" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I279" s="5">
         <v>1</v>
@@ -8748,16 +8749,16 @@
     <row r="280" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="7"/>
       <c r="C280" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E280" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F280" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H280" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I280" s="5">
         <v>1</v>
@@ -8766,19 +8767,19 @@
     <row r="281" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="7"/>
       <c r="C281" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E281" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F281" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G281" t="s">
+        <v>700</v>
+      </c>
+      <c r="H281" t="s">
         <v>701</v>
-      </c>
-      <c r="H281" t="s">
-        <v>702</v>
       </c>
       <c r="I281" s="5">
         <v>1</v>
@@ -8787,19 +8788,19 @@
     <row r="282" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="7"/>
       <c r="C282" t="s">
+        <v>702</v>
+      </c>
+      <c r="E282" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F282" t="s">
         <v>703</v>
       </c>
-      <c r="E282" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F282" t="s">
+      <c r="G282" t="s">
         <v>704</v>
       </c>
-      <c r="G282" t="s">
-        <v>705</v>
-      </c>
       <c r="H282" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I282" s="5">
         <v>1</v>
@@ -8808,19 +8809,19 @@
     <row r="283" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="7"/>
       <c r="C283" t="s">
+        <v>705</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F283" t="s">
+        <v>703</v>
+      </c>
+      <c r="G283" t="s">
         <v>706</v>
       </c>
-      <c r="E283" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F283" t="s">
-        <v>704</v>
-      </c>
-      <c r="G283" t="s">
-        <v>707</v>
-      </c>
       <c r="H283" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I283" s="5">
         <v>1</v>
@@ -8829,7 +8830,7 @@
     <row r="284" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="7"/>
       <c r="C284" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E284" s="4" t="s">
         <v>58</v>
@@ -8838,7 +8839,7 @@
         <v>59</v>
       </c>
       <c r="H284" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I284" s="5">
         <v>1</v>
@@ -8847,7 +8848,7 @@
     <row r="285" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="7"/>
       <c r="C285" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E285" s="4" t="s">
         <v>58</v>
@@ -8856,10 +8857,10 @@
         <v>59</v>
       </c>
       <c r="G285" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H285" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I285" s="5">
         <v>1</v>
@@ -8868,19 +8869,19 @@
     <row r="286" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="7"/>
       <c r="C286" t="s">
+        <v>710</v>
+      </c>
+      <c r="E286" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F286" t="s">
         <v>711</v>
       </c>
-      <c r="E286" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F286" t="s">
+      <c r="G286" t="s">
         <v>712</v>
       </c>
-      <c r="G286" t="s">
-        <v>713</v>
-      </c>
       <c r="H286" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I286" s="5">
         <v>1</v>
@@ -8889,19 +8890,19 @@
     <row r="287" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="7"/>
       <c r="C287" t="s">
+        <v>713</v>
+      </c>
+      <c r="E287" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F287" t="s">
         <v>714</v>
       </c>
-      <c r="E287" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F287" t="s">
+      <c r="G287" t="s">
         <v>715</v>
       </c>
-      <c r="G287" t="s">
-        <v>716</v>
-      </c>
       <c r="H287" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I287" s="5">
         <v>1</v>
@@ -8910,19 +8911,19 @@
     <row r="288" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="7"/>
       <c r="C288" t="s">
+        <v>716</v>
+      </c>
+      <c r="E288" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F288" t="s">
+        <v>714</v>
+      </c>
+      <c r="G288" t="s">
         <v>717</v>
       </c>
-      <c r="E288" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F288" t="s">
-        <v>715</v>
-      </c>
-      <c r="G288" t="s">
-        <v>718</v>
-      </c>
       <c r="H288" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I288" s="5">
         <v>1</v>
@@ -8931,19 +8932,19 @@
     <row r="289" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="7"/>
       <c r="C289" t="s">
+        <v>718</v>
+      </c>
+      <c r="E289" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F289" t="s">
+        <v>714</v>
+      </c>
+      <c r="G289" t="s">
         <v>719</v>
       </c>
-      <c r="E289" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F289" t="s">
-        <v>715</v>
-      </c>
-      <c r="G289" t="s">
-        <v>720</v>
-      </c>
       <c r="H289" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I289" s="5">
         <v>1</v>
@@ -8952,19 +8953,19 @@
     <row r="290" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="7"/>
       <c r="C290" t="s">
+        <v>720</v>
+      </c>
+      <c r="E290" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F290" t="s">
+        <v>714</v>
+      </c>
+      <c r="G290" t="s">
         <v>721</v>
       </c>
-      <c r="E290" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F290" t="s">
-        <v>715</v>
-      </c>
-      <c r="G290" t="s">
-        <v>722</v>
-      </c>
       <c r="H290" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I290" s="5">
         <v>1</v>
@@ -8973,19 +8974,19 @@
     <row r="291" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="7"/>
       <c r="C291" t="s">
+        <v>722</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F291" t="s">
+        <v>714</v>
+      </c>
+      <c r="G291" t="s">
         <v>723</v>
       </c>
-      <c r="E291" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F291" t="s">
-        <v>715</v>
-      </c>
-      <c r="G291" t="s">
-        <v>724</v>
-      </c>
       <c r="H291" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I291" s="5">
         <v>1</v>
@@ -8994,19 +8995,19 @@
     <row r="292" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="7"/>
       <c r="C292" t="s">
+        <v>724</v>
+      </c>
+      <c r="E292" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F292" t="s">
         <v>725</v>
       </c>
-      <c r="E292" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F292" t="s">
+      <c r="G292" t="s">
         <v>726</v>
       </c>
-      <c r="G292" t="s">
+      <c r="H292" t="s">
         <v>727</v>
-      </c>
-      <c r="H292" t="s">
-        <v>728</v>
       </c>
       <c r="I292" s="5">
         <v>1</v>
@@ -9015,19 +9016,19 @@
     <row r="293" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="7"/>
       <c r="C293" t="s">
+        <v>728</v>
+      </c>
+      <c r="E293" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F293" t="s">
+        <v>725</v>
+      </c>
+      <c r="G293" t="s">
         <v>729</v>
       </c>
-      <c r="E293" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F293" t="s">
-        <v>726</v>
-      </c>
-      <c r="G293" t="s">
-        <v>730</v>
-      </c>
       <c r="H293" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I293" s="5">
         <v>1</v>
@@ -9035,22 +9036,22 @@
     </row>
     <row r="294" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="C294" t="s">
         <v>731</v>
-      </c>
-      <c r="C294" t="s">
-        <v>732</v>
       </c>
       <c r="E294" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F294" t="s">
+        <v>732</v>
+      </c>
+      <c r="G294" t="s">
         <v>733</v>
       </c>
-      <c r="G294" t="s">
-        <v>734</v>
-      </c>
       <c r="H294" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I294" s="5">
         <v>1</v>
@@ -9059,19 +9060,19 @@
     <row r="295" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="7"/>
       <c r="C295" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E295" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F295" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G295" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H295" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I295" s="5">
         <v>1</v>
@@ -9080,19 +9081,19 @@
     <row r="296" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="7"/>
       <c r="C296" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E296" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F296" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G296" t="s">
+        <v>737</v>
+      </c>
+      <c r="H296" t="s">
         <v>738</v>
-      </c>
-      <c r="H296" t="s">
-        <v>739</v>
       </c>
       <c r="I296" s="5">
         <v>1</v>
@@ -9101,19 +9102,19 @@
     <row r="297" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="7"/>
       <c r="C297" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E297" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F297" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G297" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H297" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I297" s="5">
         <v>1</v>
@@ -9122,19 +9123,19 @@
     <row r="298" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="7"/>
       <c r="C298" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E298" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F298" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G298" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H298" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I298" s="5">
         <v>1</v>
@@ -9143,19 +9144,19 @@
     <row r="299" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="7"/>
       <c r="C299" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E299" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F299" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G299" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H299" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I299" s="5">
         <v>1</v>
@@ -9164,19 +9165,19 @@
     <row r="300" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="7"/>
       <c r="C300" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E300" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F300" t="s">
+        <v>746</v>
+      </c>
+      <c r="G300" t="s">
         <v>747</v>
       </c>
-      <c r="G300" t="s">
+      <c r="H300" t="s">
         <v>748</v>
-      </c>
-      <c r="H300" t="s">
-        <v>749</v>
       </c>
       <c r="I300" s="5">
         <v>1</v>
@@ -9185,16 +9186,16 @@
     <row r="301" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="7"/>
       <c r="C301" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E301" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F301" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H301" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I301" s="5">
         <v>1</v>
@@ -9202,19 +9203,19 @@
     </row>
     <row r="302" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C302" t="s">
         <v>752</v>
-      </c>
-      <c r="C302" t="s">
-        <v>753</v>
       </c>
       <c r="E302" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F302" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H302" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I302" s="5">
         <v>1</v>
@@ -9223,19 +9224,19 @@
     <row r="303" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="7"/>
       <c r="C303" t="s">
+        <v>754</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F303" t="s">
+        <v>132</v>
+      </c>
+      <c r="G303" t="s">
         <v>755</v>
       </c>
-      <c r="E303" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F303" t="s">
-        <v>133</v>
-      </c>
-      <c r="G303" t="s">
-        <v>756</v>
-      </c>
       <c r="H303" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I303" s="5">
         <v>1</v>
@@ -9244,16 +9245,16 @@
     <row r="304" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="7"/>
       <c r="C304" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E304" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F304" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H304" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I304" s="5">
         <v>1</v>
@@ -9262,19 +9263,19 @@
     <row r="305" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="7"/>
       <c r="C305" t="s">
+        <v>758</v>
+      </c>
+      <c r="E305" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F305" t="s">
+        <v>144</v>
+      </c>
+      <c r="G305" t="s">
         <v>759</v>
       </c>
-      <c r="E305" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F305" t="s">
-        <v>145</v>
-      </c>
-      <c r="G305" t="s">
-        <v>760</v>
-      </c>
       <c r="H305" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I305" s="5">
         <v>1</v>
@@ -9283,19 +9284,19 @@
     <row r="306" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="7"/>
       <c r="C306" t="s">
+        <v>760</v>
+      </c>
+      <c r="E306" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F306" t="s">
+        <v>144</v>
+      </c>
+      <c r="G306" t="s">
         <v>761</v>
       </c>
-      <c r="E306" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F306" t="s">
-        <v>145</v>
-      </c>
-      <c r="G306" t="s">
-        <v>762</v>
-      </c>
       <c r="H306" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I306" s="5">
         <v>1</v>
@@ -9304,19 +9305,19 @@
     <row r="307" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="7"/>
       <c r="C307" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E307" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F307" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G307" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H307" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I307" s="5">
         <v>1</v>
@@ -9325,19 +9326,19 @@
     <row r="308" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="7"/>
       <c r="C308" t="s">
+        <v>763</v>
+      </c>
+      <c r="E308" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F308" t="s">
+        <v>122</v>
+      </c>
+      <c r="G308" t="s">
         <v>764</v>
       </c>
-      <c r="E308" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F308" t="s">
-        <v>123</v>
-      </c>
-      <c r="G308" t="s">
-        <v>765</v>
-      </c>
       <c r="H308" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I308" s="5">
         <v>1</v>
@@ -9346,16 +9347,16 @@
     <row r="309" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="7"/>
       <c r="C309" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E309" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F309" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H309" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I309" s="5">
         <v>1</v>
@@ -9364,7 +9365,7 @@
     <row r="310" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="7"/>
       <c r="C310" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E310" s="4" t="s">
         <v>58</v>
@@ -9373,7 +9374,7 @@
         <v>84</v>
       </c>
       <c r="H310" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I310" s="5">
         <v>1</v>
@@ -9381,17 +9382,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B70"/>
+    <mergeCell ref="B132:B229"/>
     <mergeCell ref="B230:B293"/>
     <mergeCell ref="B294:B301"/>
     <mergeCell ref="B302:B310"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B73:B101"/>
     <mergeCell ref="B102:B131"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B25"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="B34:B70"/>
-    <mergeCell ref="B132:B229"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9427,7 +9428,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -9442,7 +9443,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
@@ -9453,10 +9454,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="C2" t="s">
         <v>770</v>
-      </c>
-      <c r="C2" t="s">
-        <v>771</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
@@ -9465,13 +9466,13 @@
         <v>58</v>
       </c>
       <c r="F2" t="s">
+        <v>771</v>
+      </c>
+      <c r="G2" t="s">
         <v>772</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>773</v>
-      </c>
-      <c r="H2" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -9480,7 +9481,7 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -9489,10 +9490,10 @@
         <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -9501,7 +9502,7 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
@@ -9510,10 +9511,10 @@
         <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -9522,7 +9523,7 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
@@ -9531,10 +9532,10 @@
         <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -9543,7 +9544,7 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
@@ -9552,10 +9553,10 @@
         <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -9564,7 +9565,7 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
@@ -9573,10 +9574,10 @@
         <v>58</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -9585,7 +9586,7 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
@@ -9594,10 +9595,10 @@
         <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -9606,7 +9607,7 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
@@ -9615,10 +9616,10 @@
         <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -9627,7 +9628,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
@@ -9636,10 +9637,10 @@
         <v>58</v>
       </c>
       <c r="F10" t="s">
+        <v>771</v>
+      </c>
+      <c r="G10" t="s">
         <v>772</v>
-      </c>
-      <c r="G10" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -9650,16 +9651,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>789</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>791</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -9668,16 +9669,16 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -9686,16 +9687,16 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -9704,16 +9705,16 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" t="s">
+        <v>794</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
         <v>795</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -9722,16 +9723,16 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" t="s">
+        <v>796</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
         <v>797</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -9739,19 +9740,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="C16" t="s">
         <v>799</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
         <v>801</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9759,16 +9760,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
+        <v>799</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>801</v>
-      </c>
       <c r="E17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9776,16 +9777,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>801</v>
-      </c>
       <c r="E18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9860,23 +9861,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>805</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>807</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B3" s="4">
         <f>B2+1</f>

--- a/TestDatas/jm_api_info.xlsx
+++ b/TestDatas/jm_api_info.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="816">
   <si>
     <t>case_id</t>
   </si>
@@ -124,16 +124,10 @@
     <t>好友系统-搜索用户-对方被封禁</t>
   </si>
   <si>
-    <t>accuracy=13816661002</t>
-  </si>
-  <si>
     <t>"code":40033</t>
   </si>
   <si>
     <t>好友系统-搜索用户-对方不存在（非数字）</t>
-  </si>
-  <si>
-    <t>accuracy=根本不可能存在</t>
   </si>
   <si>
     <t>"data":{}</t>
@@ -2478,6 +2472,18 @@
   </si>
   <si>
     <t>{"accuracy":"13816661003"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"accuracy":"13816661002"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"accuracy":"根本不可能存在"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"user":"Emb2kCvMzTPW16qv20-Hlg"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2880,8 +2886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2950,7 +2956,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2980,7 +2986,7 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
@@ -3035,7 +3041,7 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="H5" t="s">
         <v>24</v>
@@ -3062,7 +3068,7 @@
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
@@ -3091,7 +3097,7 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -3118,10 +3124,10 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
+        <v>813</v>
+      </c>
+      <c r="H8" t="s">
         <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
@@ -3133,7 +3139,7 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
@@ -3145,10 +3151,10 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>814</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I9" s="5">
         <v>1</v>
@@ -3160,7 +3166,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
@@ -3169,10 +3175,10 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>815</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -3184,19 +3190,19 @@
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7"/>
       <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>41</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -3205,19 +3211,19 @@
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
         <v>42</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
       </c>
       <c r="I12" s="5">
         <v>1</v>
@@ -3226,19 +3232,19 @@
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
         <v>45</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
       </c>
       <c r="I13" s="5">
         <v>1</v>
@@ -3247,16 +3253,16 @@
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
       <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" t="s">
-        <v>50</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -3268,19 +3274,19 @@
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="7"/>
       <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
         <v>51</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" t="s">
-        <v>53</v>
       </c>
       <c r="I15" s="5">
         <v>1</v>
@@ -3289,16 +3295,16 @@
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -3310,19 +3316,19 @@
     <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I17" s="5">
         <v>1</v>
@@ -3331,13 +3337,13 @@
     <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
         <v>57</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -3349,16 +3355,16 @@
     <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
       <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
         <v>60</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" t="s">
-        <v>62</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -3370,19 +3376,19 @@
     <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I20" s="5">
         <v>1</v>
@@ -3391,19 +3397,19 @@
     <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="7"/>
       <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" t="s">
         <v>65</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" t="s">
-        <v>67</v>
       </c>
       <c r="I21" s="5">
         <v>1</v>
@@ -3412,16 +3418,16 @@
     <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="7"/>
       <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" t="s">
         <v>68</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" t="s">
-        <v>70</v>
       </c>
       <c r="I22" s="5">
         <v>1</v>
@@ -3430,16 +3436,16 @@
     <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="7"/>
       <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" t="s">
         <v>71</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" t="s">
-        <v>73</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -3451,19 +3457,19 @@
     <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="7"/>
       <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>75</v>
-      </c>
-      <c r="G24" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" t="s">
-        <v>77</v>
       </c>
       <c r="I24" s="5">
         <v>1</v>
@@ -3472,16 +3478,16 @@
     <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="7"/>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I25" s="5">
         <v>1</v>
@@ -3489,19 +3495,19 @@
     </row>
     <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
         <v>79</v>
       </c>
-      <c r="C26" t="s">
+      <c r="G26" t="s">
         <v>80</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" t="s">
-        <v>82</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
@@ -3513,16 +3519,16 @@
     <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="7"/>
       <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" t="s">
         <v>83</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" t="s">
-        <v>85</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
@@ -3534,16 +3540,16 @@
     <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="7"/>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -3555,16 +3561,16 @@
     <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="7"/>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
@@ -3576,19 +3582,19 @@
     <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="7"/>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I30" s="5">
         <v>1</v>
@@ -3597,19 +3603,19 @@
     <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="7"/>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I31" s="5">
         <v>1</v>
@@ -3618,13 +3624,13 @@
     <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="7"/>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -3636,16 +3642,16 @@
     <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="7"/>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
@@ -3656,19 +3662,19 @@
     </row>
     <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" t="s">
         <v>95</v>
       </c>
-      <c r="C34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" t="s">
-        <v>97</v>
-      </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I34" s="5">
         <v>1</v>
@@ -3677,16 +3683,16 @@
     <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="7"/>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I35" s="5">
         <v>1</v>
@@ -3695,16 +3701,16 @@
     <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="7"/>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I36" s="5">
         <v>1</v>
@@ -3713,16 +3719,16 @@
     <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="7"/>
       <c r="C37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" t="s">
         <v>102</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" t="s">
-        <v>103</v>
-      </c>
-      <c r="G37" t="s">
-        <v>104</v>
       </c>
       <c r="H37" t="s">
         <v>15</v>
@@ -3734,19 +3740,19 @@
     <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="7"/>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I38" s="5">
         <v>1</v>
@@ -3755,19 +3761,19 @@
     <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="7"/>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I39" s="5">
         <v>1</v>
@@ -3776,16 +3782,16 @@
     <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="7"/>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H40" t="s">
         <v>15</v>
@@ -3797,16 +3803,16 @@
     <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="7"/>
       <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" t="s">
         <v>111</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>112</v>
-      </c>
-      <c r="G41" t="s">
-        <v>113</v>
       </c>
       <c r="H41" t="s">
         <v>15</v>
@@ -3818,16 +3824,16 @@
     <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="7"/>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H42" t="s">
         <v>15</v>
@@ -3839,16 +3845,16 @@
     <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="7"/>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s">
         <v>15</v>
@@ -3860,19 +3866,19 @@
     <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="7"/>
       <c r="C44" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" t="s">
         <v>118</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
         <v>119</v>
-      </c>
-      <c r="G44" t="s">
-        <v>120</v>
-      </c>
-      <c r="H44" t="s">
-        <v>121</v>
       </c>
       <c r="I44" s="5">
         <v>1</v>
@@ -3881,16 +3887,16 @@
     <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="7"/>
       <c r="C45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" t="s">
         <v>122</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" t="s">
-        <v>123</v>
-      </c>
-      <c r="G45" t="s">
-        <v>124</v>
       </c>
       <c r="H45" t="s">
         <v>15</v>
@@ -3902,16 +3908,16 @@
     <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="7"/>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H46" t="s">
         <v>15</v>
@@ -3923,16 +3929,16 @@
     <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="7"/>
       <c r="C47" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" t="s">
         <v>127</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>128</v>
-      </c>
-      <c r="G47" t="s">
-        <v>129</v>
       </c>
       <c r="H47" t="s">
         <v>15</v>
@@ -3944,16 +3950,16 @@
     <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="7"/>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H48" t="s">
         <v>15</v>
@@ -3965,16 +3971,16 @@
     <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="7"/>
       <c r="C49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" t="s">
         <v>132</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" t="s">
-        <v>133</v>
-      </c>
-      <c r="G49" t="s">
-        <v>134</v>
       </c>
       <c r="H49" t="s">
         <v>15</v>
@@ -3986,19 +3992,19 @@
     <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="7"/>
       <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" t="s">
         <v>135</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" t="s">
-        <v>133</v>
-      </c>
-      <c r="G50" t="s">
-        <v>136</v>
-      </c>
-      <c r="H50" t="s">
-        <v>137</v>
       </c>
       <c r="I50" s="5">
         <v>1</v>
@@ -4007,19 +4013,19 @@
     <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="7"/>
       <c r="C51" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" t="s">
+        <v>137</v>
+      </c>
+      <c r="H51" t="s">
         <v>138</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" t="s">
-        <v>123</v>
-      </c>
-      <c r="G51" t="s">
-        <v>139</v>
-      </c>
-      <c r="H51" t="s">
-        <v>140</v>
       </c>
       <c r="I51" s="5">
         <v>1</v>
@@ -4028,19 +4034,19 @@
     <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="7"/>
       <c r="C52" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>121</v>
+      </c>
+      <c r="G52" t="s">
+        <v>140</v>
+      </c>
+      <c r="H52" t="s">
         <v>141</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" t="s">
-        <v>123</v>
-      </c>
-      <c r="G52" t="s">
-        <v>142</v>
-      </c>
-      <c r="H52" t="s">
-        <v>143</v>
       </c>
       <c r="I52" s="5">
         <v>1</v>
@@ -4049,19 +4055,19 @@
     <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="7"/>
       <c r="C53" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" t="s">
         <v>144</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="H53" t="s">
         <v>145</v>
-      </c>
-      <c r="G53" t="s">
-        <v>146</v>
-      </c>
-      <c r="H53" t="s">
-        <v>147</v>
       </c>
       <c r="I53" s="5">
         <v>1</v>
@@ -4070,19 +4076,19 @@
     <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="7"/>
       <c r="C54" t="s">
+        <v>146</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" t="s">
+        <v>147</v>
+      </c>
+      <c r="H54" t="s">
         <v>148</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" t="s">
-        <v>145</v>
-      </c>
-      <c r="G54" t="s">
-        <v>149</v>
-      </c>
-      <c r="H54" t="s">
-        <v>150</v>
       </c>
       <c r="I54" s="5">
         <v>1</v>
@@ -4091,16 +4097,16 @@
     <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="7"/>
       <c r="C55" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55" t="s">
         <v>151</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" t="s">
-        <v>152</v>
-      </c>
-      <c r="G55" t="s">
-        <v>153</v>
       </c>
       <c r="H55" t="s">
         <v>15</v>
@@ -4112,16 +4118,16 @@
     <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="7"/>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G56" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H56" t="s">
         <v>15</v>
@@ -4133,16 +4139,16 @@
     <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="7"/>
       <c r="C57" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" t="s">
         <v>156</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" t="s">
-        <v>157</v>
-      </c>
-      <c r="G57" t="s">
-        <v>158</v>
       </c>
       <c r="H57" t="s">
         <v>15</v>
@@ -4154,13 +4160,13 @@
     <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="7"/>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H58" t="s">
         <v>15</v>
@@ -4172,16 +4178,16 @@
     <row r="59" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="7"/>
       <c r="C59" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G59" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H59" t="s">
         <v>15</v>
@@ -4193,16 +4199,16 @@
     <row r="60" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="7"/>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H60" t="s">
         <v>15</v>
@@ -4214,16 +4220,16 @@
     <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="7"/>
       <c r="C61" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G61" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H61" t="s">
         <v>15</v>
@@ -4235,16 +4241,16 @@
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="7"/>
       <c r="C62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G62" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H62" t="s">
         <v>15</v>
@@ -4256,16 +4262,16 @@
     <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="7"/>
       <c r="C63" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G63" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H63" t="s">
         <v>15</v>
@@ -4277,16 +4283,16 @@
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="7"/>
       <c r="C64" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G64" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H64" t="s">
         <v>15</v>
@@ -4298,16 +4304,16 @@
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="7"/>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G65" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H65" t="s">
         <v>15</v>
@@ -4319,16 +4325,16 @@
     <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="7"/>
       <c r="C66" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H66" t="s">
         <v>15</v>
@@ -4340,16 +4346,16 @@
     <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="7"/>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H67" t="s">
         <v>15</v>
@@ -4361,16 +4367,16 @@
     <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="7"/>
       <c r="C68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s">
         <v>15</v>
@@ -4382,16 +4388,16 @@
     <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="7"/>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G69" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H69" t="s">
         <v>15</v>
@@ -4403,16 +4409,16 @@
     <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="7"/>
       <c r="C70" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G70" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H70" t="s">
         <v>15</v>
@@ -4423,19 +4429,19 @@
     </row>
     <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" t="s">
+        <v>181</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
         <v>182</v>
       </c>
-      <c r="C71" t="s">
+      <c r="G71" t="s">
         <v>183</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" t="s">
-        <v>184</v>
-      </c>
-      <c r="G71" t="s">
-        <v>185</v>
       </c>
       <c r="H71" t="s">
         <v>15</v>
@@ -4447,16 +4453,16 @@
     <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="7"/>
       <c r="C72" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G72" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H72" t="s">
         <v>15</v>
@@ -4467,22 +4473,22 @@
     </row>
     <row r="73" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" t="s">
+        <v>187</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F73" t="s">
+        <v>115</v>
+      </c>
+      <c r="G73" t="s">
         <v>188</v>
       </c>
-      <c r="C73" t="s">
+      <c r="H73" t="s">
         <v>189</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F73" t="s">
-        <v>117</v>
-      </c>
-      <c r="G73" t="s">
-        <v>190</v>
-      </c>
-      <c r="H73" t="s">
-        <v>191</v>
       </c>
       <c r="I73" s="5">
         <v>1</v>
@@ -4491,19 +4497,19 @@
     <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="7"/>
       <c r="C74" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F74" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H74" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I74" s="5">
         <v>1</v>
@@ -4512,19 +4518,19 @@
     <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="7"/>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H75" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I75" s="5">
         <v>1</v>
@@ -4533,16 +4539,16 @@
     <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="7"/>
       <c r="C76" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F76" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H76" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I76" s="5">
         <v>1</v>
@@ -4551,19 +4557,19 @@
     <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="7"/>
       <c r="C77" t="s">
+        <v>196</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F77" t="s">
+        <v>197</v>
+      </c>
+      <c r="G77" t="s">
+        <v>188</v>
+      </c>
+      <c r="H77" t="s">
         <v>198</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F77" t="s">
-        <v>199</v>
-      </c>
-      <c r="G77" t="s">
-        <v>190</v>
-      </c>
-      <c r="H77" t="s">
-        <v>200</v>
       </c>
       <c r="I77" s="5">
         <v>1</v>
@@ -4572,16 +4578,16 @@
     <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="7"/>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F78" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H78" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I78" s="5">
         <v>1</v>
@@ -4590,19 +4596,19 @@
     <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="7"/>
       <c r="C79" t="s">
+        <v>201</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F79" t="s">
+        <v>202</v>
+      </c>
+      <c r="G79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H79" t="s">
         <v>203</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F79" t="s">
-        <v>204</v>
-      </c>
-      <c r="G79" t="s">
-        <v>190</v>
-      </c>
-      <c r="H79" t="s">
-        <v>205</v>
       </c>
       <c r="I79" s="5">
         <v>1</v>
@@ -4611,16 +4617,16 @@
     <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="7"/>
       <c r="C80" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F80" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H80" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I80" s="5">
         <v>1</v>
@@ -4629,19 +4635,19 @@
     <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="7"/>
       <c r="C81" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F81" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G81" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H81" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I81" s="5">
         <v>1</v>
@@ -4650,16 +4656,16 @@
     <row r="82" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="7"/>
       <c r="C82" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H82" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I82" s="5">
         <v>1</v>
@@ -4668,19 +4674,19 @@
     <row r="83" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="7"/>
       <c r="C83" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F83" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G83" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H83" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I83" s="5">
         <v>1</v>
@@ -4689,16 +4695,16 @@
     <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="7"/>
       <c r="C84" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F84" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H84" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I84" s="5">
         <v>1</v>
@@ -4707,16 +4713,16 @@
     <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="7"/>
       <c r="C85" t="s">
+        <v>212</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>213</v>
+      </c>
+      <c r="H85" t="s">
         <v>214</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" t="s">
-        <v>215</v>
-      </c>
-      <c r="H85" t="s">
-        <v>216</v>
       </c>
       <c r="I85" s="5">
         <v>1</v>
@@ -4725,19 +4731,19 @@
     <row r="86" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="7"/>
       <c r="C86" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G86" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H86" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I86" s="5">
         <v>1</v>
@@ -4746,16 +4752,16 @@
     <row r="87" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="7"/>
       <c r="C87" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H87" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I87" s="5">
         <v>1</v>
@@ -4764,19 +4770,19 @@
     <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="7"/>
       <c r="C88" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G88" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H88" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I88" s="5">
         <v>1</v>
@@ -4785,19 +4791,19 @@
     <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="7"/>
       <c r="C89" t="s">
+        <v>219</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
+        <v>220</v>
+      </c>
+      <c r="G89" t="s">
         <v>221</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" t="s">
-        <v>222</v>
-      </c>
-      <c r="G89" t="s">
-        <v>223</v>
-      </c>
       <c r="H89" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I89" s="5">
         <v>1</v>
@@ -4806,19 +4812,19 @@
     <row r="90" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="7"/>
       <c r="C90" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G90" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H90" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I90" s="5">
         <v>1</v>
@@ -4827,19 +4833,19 @@
     <row r="91" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="7"/>
       <c r="C91" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H91" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I91" s="5">
         <v>1</v>
@@ -4848,19 +4854,19 @@
     <row r="92" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="7"/>
       <c r="C92" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H92" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I92" s="5">
         <v>1</v>
@@ -4869,19 +4875,19 @@
     <row r="93" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="7"/>
       <c r="C93" t="s">
+        <v>228</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>220</v>
+      </c>
+      <c r="G93" t="s">
+        <v>229</v>
+      </c>
+      <c r="H93" t="s">
         <v>230</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" t="s">
-        <v>222</v>
-      </c>
-      <c r="G93" t="s">
-        <v>231</v>
-      </c>
-      <c r="H93" t="s">
-        <v>232</v>
       </c>
       <c r="I93" s="5">
         <v>1</v>
@@ -4890,19 +4896,19 @@
     <row r="94" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="7"/>
       <c r="C94" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F94" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G94" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H94" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I94" s="5">
         <v>1</v>
@@ -4911,16 +4917,16 @@
     <row r="95" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="7"/>
       <c r="C95" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H95" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I95" s="5">
         <v>1</v>
@@ -4929,19 +4935,19 @@
     <row r="96" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="7"/>
       <c r="C96" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H96" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I96" s="5">
         <v>1</v>
@@ -4950,16 +4956,16 @@
     <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="7"/>
       <c r="C97" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H97" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I97" s="5">
         <v>1</v>
@@ -4968,19 +4974,19 @@
     <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="7"/>
       <c r="C98" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F98" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H98" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I98" s="5">
         <v>1</v>
@@ -4989,19 +4995,19 @@
     <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="7"/>
       <c r="C99" t="s">
+        <v>237</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F99" t="s">
+        <v>238</v>
+      </c>
+      <c r="G99" t="s">
+        <v>188</v>
+      </c>
+      <c r="H99" t="s">
         <v>239</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F99" t="s">
-        <v>240</v>
-      </c>
-      <c r="G99" t="s">
-        <v>190</v>
-      </c>
-      <c r="H99" t="s">
-        <v>241</v>
       </c>
       <c r="I99" s="5">
         <v>1</v>
@@ -5010,19 +5016,19 @@
     <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="7"/>
       <c r="C100" t="s">
+        <v>240</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F100" t="s">
+        <v>241</v>
+      </c>
+      <c r="G100" t="s">
+        <v>188</v>
+      </c>
+      <c r="H100" t="s">
         <v>242</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F100" t="s">
-        <v>243</v>
-      </c>
-      <c r="G100" t="s">
-        <v>190</v>
-      </c>
-      <c r="H100" t="s">
-        <v>244</v>
       </c>
       <c r="I100" s="5">
         <v>1</v>
@@ -5031,19 +5037,19 @@
     <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="7"/>
       <c r="C101" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F101" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G101" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H101" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I101" s="5">
         <v>1</v>
@@ -5051,19 +5057,19 @@
     </row>
     <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C102" t="s">
+        <v>246</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F102" t="s">
         <v>247</v>
       </c>
-      <c r="C102" t="s">
+      <c r="H102" t="s">
         <v>248</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F102" t="s">
-        <v>249</v>
-      </c>
-      <c r="H102" t="s">
-        <v>250</v>
       </c>
       <c r="I102" s="5">
         <v>1</v>
@@ -5072,16 +5078,16 @@
     <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="7"/>
       <c r="C103" t="s">
+        <v>249</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>250</v>
+      </c>
+      <c r="G103" t="s">
         <v>251</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" t="s">
-        <v>252</v>
-      </c>
-      <c r="G103" t="s">
-        <v>253</v>
       </c>
       <c r="H103" t="s">
         <v>15</v>
@@ -5093,19 +5099,19 @@
     <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="7"/>
       <c r="C104" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F104" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G104" t="s">
+        <v>251</v>
+      </c>
+      <c r="H104" t="s">
         <v>253</v>
-      </c>
-      <c r="H104" t="s">
-        <v>255</v>
       </c>
       <c r="I104" s="5">
         <v>1</v>
@@ -5114,19 +5120,19 @@
     <row r="105" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="7"/>
       <c r="C105" t="s">
+        <v>254</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" t="s">
+        <v>255</v>
+      </c>
+      <c r="G105" t="s">
         <v>256</v>
       </c>
-      <c r="E105" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F105" t="s">
-        <v>257</v>
-      </c>
-      <c r="G105" t="s">
-        <v>258</v>
-      </c>
       <c r="H105" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I105" s="5">
         <v>1</v>
@@ -5135,19 +5141,19 @@
     <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="7"/>
       <c r="C106" t="s">
+        <v>257</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
+        <v>258</v>
+      </c>
+      <c r="G106" t="s">
         <v>259</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="H106" t="s">
         <v>260</v>
-      </c>
-      <c r="G106" t="s">
-        <v>261</v>
-      </c>
-      <c r="H106" t="s">
-        <v>262</v>
       </c>
       <c r="I106" s="5">
         <v>1</v>
@@ -5156,19 +5162,19 @@
     <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="7"/>
       <c r="C107" t="s">
+        <v>261</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>258</v>
+      </c>
+      <c r="G107" t="s">
+        <v>262</v>
+      </c>
+      <c r="H107" t="s">
         <v>263</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" t="s">
-        <v>260</v>
-      </c>
-      <c r="G107" t="s">
-        <v>264</v>
-      </c>
-      <c r="H107" t="s">
-        <v>265</v>
       </c>
       <c r="I107" s="5">
         <v>1</v>
@@ -5177,19 +5183,19 @@
     <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="7"/>
       <c r="C108" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F108" t="s">
+        <v>258</v>
+      </c>
+      <c r="G108" t="s">
+        <v>259</v>
+      </c>
+      <c r="H108" t="s">
         <v>260</v>
-      </c>
-      <c r="G108" t="s">
-        <v>261</v>
-      </c>
-      <c r="H108" t="s">
-        <v>262</v>
       </c>
       <c r="I108" s="5">
         <v>1</v>
@@ -5198,16 +5204,16 @@
     <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" s="7"/>
       <c r="C109" t="s">
+        <v>265</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" t="s">
+        <v>266</v>
+      </c>
+      <c r="G109" t="s">
         <v>267</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" t="s">
-        <v>268</v>
-      </c>
-      <c r="G109" t="s">
-        <v>269</v>
       </c>
       <c r="H109" t="s">
         <v>15</v>
@@ -5219,16 +5225,16 @@
     <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="7"/>
       <c r="C110" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F110" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G110" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H110" t="s">
         <v>15</v>
@@ -5240,16 +5246,16 @@
     <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="7"/>
       <c r="C111" t="s">
+        <v>270</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
+        <v>271</v>
+      </c>
+      <c r="G111" t="s">
         <v>272</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" t="s">
-        <v>273</v>
-      </c>
-      <c r="G111" t="s">
-        <v>274</v>
       </c>
       <c r="H111" t="s">
         <v>15</v>
@@ -5261,19 +5267,19 @@
     <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B112" s="7"/>
       <c r="C112" t="s">
+        <v>273</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
+        <v>274</v>
+      </c>
+      <c r="G112" t="s">
         <v>275</v>
       </c>
-      <c r="E112" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="H112" t="s">
         <v>276</v>
-      </c>
-      <c r="G112" t="s">
-        <v>277</v>
-      </c>
-      <c r="H112" t="s">
-        <v>278</v>
       </c>
       <c r="I112" s="5">
         <v>1</v>
@@ -5282,19 +5288,19 @@
     <row r="113" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" s="7"/>
       <c r="C113" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F113" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G113" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H113" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I113" s="5">
         <v>1</v>
@@ -5303,19 +5309,19 @@
     <row r="114" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B114" s="7"/>
       <c r="C114" t="s">
+        <v>279</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F114" t="s">
+        <v>280</v>
+      </c>
+      <c r="G114" t="s">
         <v>281</v>
       </c>
-      <c r="E114" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="H114" t="s">
         <v>282</v>
-      </c>
-      <c r="G114" t="s">
-        <v>283</v>
-      </c>
-      <c r="H114" t="s">
-        <v>284</v>
       </c>
       <c r="I114" s="5">
         <v>1</v>
@@ -5324,19 +5330,19 @@
     <row r="115" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B115" s="7"/>
       <c r="C115" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F115" t="s">
+        <v>280</v>
+      </c>
+      <c r="G115" t="s">
+        <v>284</v>
+      </c>
+      <c r="H115" t="s">
         <v>282</v>
-      </c>
-      <c r="G115" t="s">
-        <v>286</v>
-      </c>
-      <c r="H115" t="s">
-        <v>284</v>
       </c>
       <c r="I115" s="5">
         <v>1</v>
@@ -5345,16 +5351,16 @@
     <row r="116" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="7"/>
       <c r="C116" t="s">
+        <v>285</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F116" t="s">
+        <v>286</v>
+      </c>
+      <c r="G116" t="s">
         <v>287</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F116" t="s">
-        <v>288</v>
-      </c>
-      <c r="G116" t="s">
-        <v>289</v>
       </c>
       <c r="I116" s="5">
         <v>1</v>
@@ -5363,16 +5369,16 @@
     <row r="117" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B117" s="7"/>
       <c r="C117" t="s">
+        <v>288</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F117" t="s">
+        <v>289</v>
+      </c>
+      <c r="H117" t="s">
         <v>290</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F117" t="s">
-        <v>291</v>
-      </c>
-      <c r="H117" t="s">
-        <v>292</v>
       </c>
       <c r="I117" s="5">
         <v>1</v>
@@ -5381,16 +5387,16 @@
     <row r="118" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B118" s="7"/>
       <c r="C118" t="s">
+        <v>291</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>292</v>
+      </c>
+      <c r="G118" t="s">
         <v>293</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" t="s">
-        <v>294</v>
-      </c>
-      <c r="G118" t="s">
-        <v>295</v>
       </c>
       <c r="H118" t="s">
         <v>15</v>
@@ -5402,16 +5408,16 @@
     <row r="119" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B119" s="7"/>
       <c r="C119" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F119" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G119" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H119" t="s">
         <v>15</v>
@@ -5423,19 +5429,19 @@
     <row r="120" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B120" s="7"/>
       <c r="C120" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F120" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G120" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H120" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I120" s="5">
         <v>1</v>
@@ -5444,16 +5450,16 @@
     <row r="121" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B121" s="7"/>
       <c r="C121" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F121" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G121" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H121" t="s">
         <v>15</v>
@@ -5465,19 +5471,19 @@
     <row r="122" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B122" s="7"/>
       <c r="C122" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F122" t="s">
+        <v>298</v>
+      </c>
+      <c r="G122" t="s">
         <v>300</v>
       </c>
-      <c r="G122" t="s">
-        <v>302</v>
-      </c>
       <c r="H122" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I122" s="5">
         <v>1</v>
@@ -5486,16 +5492,16 @@
     <row r="123" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B123" s="7"/>
       <c r="C123" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F123" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G123" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H123" t="s">
         <v>15</v>
@@ -5507,16 +5513,16 @@
     <row r="124" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B124" s="7"/>
       <c r="C124" t="s">
+        <v>302</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F124" t="s">
+        <v>303</v>
+      </c>
+      <c r="H124" t="s">
         <v>304</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F124" t="s">
-        <v>305</v>
-      </c>
-      <c r="H124" t="s">
-        <v>306</v>
       </c>
       <c r="I124" s="5">
         <v>1</v>
@@ -5525,19 +5531,19 @@
     <row r="125" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B125" s="7"/>
       <c r="C125" t="s">
+        <v>305</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
+        <v>306</v>
+      </c>
+      <c r="G125" t="s">
         <v>307</v>
       </c>
-      <c r="E125" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" t="s">
+      <c r="H125" t="s">
         <v>308</v>
-      </c>
-      <c r="G125" t="s">
-        <v>309</v>
-      </c>
-      <c r="H125" t="s">
-        <v>310</v>
       </c>
       <c r="I125" s="5">
         <v>1</v>
@@ -5546,19 +5552,19 @@
     <row r="126" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B126" s="7"/>
       <c r="C126" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F126" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G126" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H126" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I126" s="5">
         <v>1</v>
@@ -5567,16 +5573,16 @@
     <row r="127" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B127" s="7"/>
       <c r="C127" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F127" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G127" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H127" t="s">
         <v>15</v>
@@ -5588,16 +5594,16 @@
     <row r="128" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B128" s="7"/>
       <c r="C128" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F128" t="s">
+        <v>312</v>
+      </c>
+      <c r="G128" t="s">
         <v>314</v>
-      </c>
-      <c r="G128" t="s">
-        <v>316</v>
       </c>
       <c r="H128" t="s">
         <v>15</v>
@@ -5609,16 +5615,16 @@
     <row r="129" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B129" s="7"/>
       <c r="C129" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F129" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G129" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H129" t="s">
         <v>15</v>
@@ -5630,16 +5636,16 @@
     <row r="130" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B130" s="7"/>
       <c r="C130" t="s">
+        <v>317</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s">
+        <v>318</v>
+      </c>
+      <c r="G130" t="s">
         <v>319</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" t="s">
-        <v>320</v>
-      </c>
-      <c r="G130" t="s">
-        <v>321</v>
       </c>
       <c r="H130" t="s">
         <v>15</v>
@@ -5651,16 +5657,16 @@
     <row r="131" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B131" s="7"/>
       <c r="C131" t="s">
+        <v>320</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s">
+        <v>321</v>
+      </c>
+      <c r="G131" t="s">
         <v>322</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F131" t="s">
-        <v>323</v>
-      </c>
-      <c r="G131" t="s">
-        <v>324</v>
       </c>
       <c r="H131" t="s">
         <v>15</v>
@@ -5671,22 +5677,22 @@
     </row>
     <row r="132" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B132" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C132" t="s">
+        <v>324</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F132" t="s">
         <v>325</v>
       </c>
-      <c r="C132" t="s">
+      <c r="G132" t="s">
         <v>326</v>
       </c>
-      <c r="E132" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="H132" t="s">
         <v>327</v>
-      </c>
-      <c r="G132" t="s">
-        <v>328</v>
-      </c>
-      <c r="H132" t="s">
-        <v>329</v>
       </c>
       <c r="I132" s="5">
         <v>1</v>
@@ -5695,19 +5701,19 @@
     <row r="133" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B133" s="7"/>
       <c r="C133" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F133" t="s">
+        <v>325</v>
+      </c>
+      <c r="G133" t="s">
+        <v>329</v>
+      </c>
+      <c r="H133" t="s">
         <v>327</v>
-      </c>
-      <c r="G133" t="s">
-        <v>331</v>
-      </c>
-      <c r="H133" t="s">
-        <v>329</v>
       </c>
       <c r="I133" s="5">
         <v>1</v>
@@ -5716,16 +5722,16 @@
     <row r="134" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B134" s="7"/>
       <c r="C134" t="s">
+        <v>330</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F134" t="s">
+        <v>331</v>
+      </c>
+      <c r="H134" t="s">
         <v>332</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F134" t="s">
-        <v>333</v>
-      </c>
-      <c r="H134" t="s">
-        <v>334</v>
       </c>
       <c r="I134" s="5">
         <v>1</v>
@@ -5734,16 +5740,16 @@
     <row r="135" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B135" s="7"/>
       <c r="C135" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F135" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H135" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I135" s="5">
         <v>1</v>
@@ -5752,16 +5758,16 @@
     <row r="136" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B136" s="7"/>
       <c r="C136" t="s">
+        <v>335</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
+        <v>336</v>
+      </c>
+      <c r="G136" t="s">
         <v>337</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" t="s">
-        <v>338</v>
-      </c>
-      <c r="G136" t="s">
-        <v>339</v>
       </c>
       <c r="H136" t="s">
         <v>15</v>
@@ -5773,16 +5779,16 @@
     <row r="137" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B137" s="7"/>
       <c r="C137" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F137" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G137" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H137" t="s">
         <v>15</v>
@@ -5794,16 +5800,16 @@
     <row r="138" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B138" s="7"/>
       <c r="C138" t="s">
+        <v>340</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" t="s">
+        <v>341</v>
+      </c>
+      <c r="G138" t="s">
         <v>342</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F138" t="s">
-        <v>343</v>
-      </c>
-      <c r="G138" t="s">
-        <v>344</v>
       </c>
       <c r="H138" t="s">
         <v>15</v>
@@ -5815,16 +5821,16 @@
     <row r="139" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B139" s="7"/>
       <c r="C139" t="s">
+        <v>343</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" t="s">
+        <v>344</v>
+      </c>
+      <c r="G139" t="s">
         <v>345</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F139" t="s">
-        <v>346</v>
-      </c>
-      <c r="G139" t="s">
-        <v>347</v>
       </c>
       <c r="H139" t="s">
         <v>15</v>
@@ -5836,19 +5842,19 @@
     <row r="140" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B140" s="7"/>
       <c r="C140" t="s">
+        <v>346</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" t="s">
+        <v>347</v>
+      </c>
+      <c r="G140" t="s">
         <v>348</v>
       </c>
-      <c r="E140" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F140" t="s">
-        <v>349</v>
-      </c>
-      <c r="G140" t="s">
-        <v>350</v>
-      </c>
       <c r="H140" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I140" s="5">
         <v>1</v>
@@ -5857,19 +5863,19 @@
     <row r="141" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B141" s="7"/>
       <c r="C141" t="s">
+        <v>349</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
+        <v>350</v>
+      </c>
+      <c r="G141" t="s">
+        <v>342</v>
+      </c>
+      <c r="H141" t="s">
         <v>351</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" t="s">
-        <v>352</v>
-      </c>
-      <c r="G141" t="s">
-        <v>344</v>
-      </c>
-      <c r="H141" t="s">
-        <v>353</v>
       </c>
       <c r="I141" s="5">
         <v>1</v>
@@ -5878,16 +5884,16 @@
     <row r="142" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B142" s="7"/>
       <c r="C142" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F142" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G142" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H142" t="s">
         <v>15</v>
@@ -5899,16 +5905,16 @@
     <row r="143" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B143" s="7"/>
       <c r="C143" t="s">
+        <v>354</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
+        <v>355</v>
+      </c>
+      <c r="G143" t="s">
         <v>356</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F143" t="s">
-        <v>357</v>
-      </c>
-      <c r="G143" t="s">
-        <v>358</v>
       </c>
       <c r="H143" t="s">
         <v>15</v>
@@ -5920,16 +5926,16 @@
     <row r="144" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B144" s="7"/>
       <c r="C144" t="s">
+        <v>357</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>358</v>
+      </c>
+      <c r="G144" t="s">
         <v>359</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F144" t="s">
-        <v>360</v>
-      </c>
-      <c r="G144" t="s">
-        <v>361</v>
       </c>
       <c r="H144" t="s">
         <v>15</v>
@@ -5941,16 +5947,16 @@
     <row r="145" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B145" s="7"/>
       <c r="C145" t="s">
+        <v>360</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
+        <v>361</v>
+      </c>
+      <c r="G145" t="s">
         <v>362</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F145" t="s">
-        <v>363</v>
-      </c>
-      <c r="G145" t="s">
-        <v>364</v>
       </c>
       <c r="H145" t="s">
         <v>15</v>
@@ -5962,19 +5968,19 @@
     <row r="146" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B146" s="7"/>
       <c r="C146" t="s">
+        <v>363</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>364</v>
+      </c>
+      <c r="G146" t="s">
         <v>365</v>
       </c>
-      <c r="E146" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" t="s">
+      <c r="H146" t="s">
         <v>366</v>
-      </c>
-      <c r="G146" t="s">
-        <v>367</v>
-      </c>
-      <c r="H146" t="s">
-        <v>368</v>
       </c>
       <c r="I146" s="5">
         <v>1</v>
@@ -5983,19 +5989,19 @@
     <row r="147" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B147" s="7"/>
       <c r="C147" t="s">
+        <v>367</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>368</v>
+      </c>
+      <c r="G147" t="s">
         <v>369</v>
       </c>
-      <c r="E147" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F147" t="s">
+      <c r="H147" t="s">
         <v>370</v>
-      </c>
-      <c r="G147" t="s">
-        <v>371</v>
-      </c>
-      <c r="H147" t="s">
-        <v>372</v>
       </c>
       <c r="I147" s="5">
         <v>1</v>
@@ -6004,19 +6010,19 @@
     <row r="148" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B148" s="7"/>
       <c r="C148" t="s">
+        <v>371</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" t="s">
+        <v>368</v>
+      </c>
+      <c r="G148" t="s">
+        <v>372</v>
+      </c>
+      <c r="H148" t="s">
         <v>373</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F148" t="s">
-        <v>370</v>
-      </c>
-      <c r="G148" t="s">
-        <v>374</v>
-      </c>
-      <c r="H148" t="s">
-        <v>375</v>
       </c>
       <c r="I148" s="5">
         <v>1</v>
@@ -6025,19 +6031,19 @@
     <row r="149" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B149" s="7"/>
       <c r="C149" t="s">
+        <v>374</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s">
+        <v>368</v>
+      </c>
+      <c r="G149" t="s">
+        <v>375</v>
+      </c>
+      <c r="H149" t="s">
         <v>376</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F149" t="s">
-        <v>370</v>
-      </c>
-      <c r="G149" t="s">
-        <v>377</v>
-      </c>
-      <c r="H149" t="s">
-        <v>378</v>
       </c>
       <c r="I149" s="5">
         <v>1</v>
@@ -6046,19 +6052,19 @@
     <row r="150" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B150" s="7"/>
       <c r="C150" t="s">
+        <v>377</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>368</v>
+      </c>
+      <c r="G150" t="s">
+        <v>378</v>
+      </c>
+      <c r="H150" t="s">
         <v>379</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F150" t="s">
-        <v>370</v>
-      </c>
-      <c r="G150" t="s">
-        <v>380</v>
-      </c>
-      <c r="H150" t="s">
-        <v>381</v>
       </c>
       <c r="I150" s="5">
         <v>1</v>
@@ -6067,19 +6073,19 @@
     <row r="151" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B151" s="7"/>
       <c r="C151" t="s">
+        <v>380</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" t="s">
+        <v>368</v>
+      </c>
+      <c r="G151" t="s">
+        <v>381</v>
+      </c>
+      <c r="H151" t="s">
         <v>382</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F151" t="s">
-        <v>370</v>
-      </c>
-      <c r="G151" t="s">
-        <v>383</v>
-      </c>
-      <c r="H151" t="s">
-        <v>384</v>
       </c>
       <c r="I151" s="5">
         <v>1</v>
@@ -6088,16 +6094,16 @@
     <row r="152" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B152" s="7"/>
       <c r="C152" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F152" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G152" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I152" s="5">
         <v>1</v>
@@ -6106,19 +6112,19 @@
     <row r="153" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B153" s="7"/>
       <c r="C153" t="s">
+        <v>385</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" t="s">
+        <v>386</v>
+      </c>
+      <c r="G153" t="s">
         <v>387</v>
       </c>
-      <c r="E153" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F153" t="s">
-        <v>388</v>
-      </c>
-      <c r="G153" t="s">
-        <v>389</v>
-      </c>
       <c r="H153" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I153" s="5">
         <v>1</v>
@@ -6127,19 +6133,19 @@
     <row r="154" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B154" s="7"/>
       <c r="C154" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F154" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G154" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H154" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I154" s="5">
         <v>1</v>
@@ -6148,19 +6154,19 @@
     <row r="155" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B155" s="7"/>
       <c r="C155" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F155" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G155" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H155" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I155" s="5">
         <v>1</v>
@@ -6169,16 +6175,16 @@
     <row r="156" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B156" s="7"/>
       <c r="C156" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F156" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G156" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I156" s="5">
         <v>1</v>
@@ -6187,19 +6193,19 @@
     <row r="157" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B157" s="7"/>
       <c r="C157" t="s">
+        <v>394</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" t="s">
+        <v>395</v>
+      </c>
+      <c r="G157" t="s">
         <v>396</v>
       </c>
-      <c r="E157" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F157" t="s">
-        <v>397</v>
-      </c>
-      <c r="G157" t="s">
-        <v>398</v>
-      </c>
       <c r="H157" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I157" s="5">
         <v>1</v>
@@ -6208,19 +6214,19 @@
     <row r="158" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B158" s="7"/>
       <c r="C158" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F158" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G158" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H158" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I158" s="5">
         <v>1</v>
@@ -6229,19 +6235,19 @@
     <row r="159" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B159" s="7"/>
       <c r="C159" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F159" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G159" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H159" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I159" s="5">
         <v>1</v>
@@ -6250,16 +6256,16 @@
     <row r="160" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B160" s="7"/>
       <c r="C160" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F160" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G160" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I160" s="5">
         <v>1</v>
@@ -6268,19 +6274,19 @@
     <row r="161" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B161" s="7"/>
       <c r="C161" t="s">
+        <v>403</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" t="s">
+        <v>404</v>
+      </c>
+      <c r="G161" t="s">
         <v>405</v>
       </c>
-      <c r="E161" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F161" t="s">
-        <v>406</v>
-      </c>
-      <c r="G161" t="s">
-        <v>407</v>
-      </c>
       <c r="H161" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I161" s="5">
         <v>1</v>
@@ -6289,19 +6295,19 @@
     <row r="162" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B162" s="7"/>
       <c r="C162" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F162" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G162" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H162" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I162" s="5">
         <v>1</v>
@@ -6310,19 +6316,19 @@
     <row r="163" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B163" s="7"/>
       <c r="C163" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F163" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G163" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H163" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I163" s="5">
         <v>1</v>
@@ -6331,16 +6337,16 @@
     <row r="164" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B164" s="7"/>
       <c r="C164" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F164" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G164" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I164" s="5">
         <v>1</v>
@@ -6349,19 +6355,19 @@
     <row r="165" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B165" s="7"/>
       <c r="C165" t="s">
+        <v>412</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
+        <v>413</v>
+      </c>
+      <c r="G165" t="s">
         <v>414</v>
       </c>
-      <c r="E165" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" t="s">
-        <v>415</v>
-      </c>
-      <c r="G165" t="s">
-        <v>416</v>
-      </c>
       <c r="H165" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I165" s="5">
         <v>1</v>
@@ -6370,19 +6376,19 @@
     <row r="166" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B166" s="7"/>
       <c r="C166" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F166" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G166" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H166" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I166" s="5">
         <v>1</v>
@@ -6391,19 +6397,19 @@
     <row r="167" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B167" s="7"/>
       <c r="C167" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F167" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G167" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H167" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I167" s="5">
         <v>1</v>
@@ -6412,16 +6418,16 @@
     <row r="168" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B168" s="7"/>
       <c r="C168" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F168" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G168" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I168" s="5">
         <v>1</v>
@@ -6430,19 +6436,19 @@
     <row r="169" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B169" s="7"/>
       <c r="C169" t="s">
+        <v>421</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s">
+        <v>422</v>
+      </c>
+      <c r="G169" t="s">
         <v>423</v>
       </c>
-      <c r="E169" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F169" t="s">
-        <v>424</v>
-      </c>
-      <c r="G169" t="s">
-        <v>425</v>
-      </c>
       <c r="H169" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I169" s="5">
         <v>1</v>
@@ -6451,19 +6457,19 @@
     <row r="170" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B170" s="7"/>
       <c r="C170" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F170" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G170" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H170" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I170" s="5">
         <v>1</v>
@@ -6472,19 +6478,19 @@
     <row r="171" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B171" s="7"/>
       <c r="C171" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F171" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G171" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H171" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I171" s="5">
         <v>1</v>
@@ -6493,16 +6499,16 @@
     <row r="172" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B172" s="7"/>
       <c r="C172" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F172" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G172" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I172" s="5">
         <v>1</v>
@@ -6511,19 +6517,19 @@
     <row r="173" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B173" s="7"/>
       <c r="C173" t="s">
+        <v>430</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" t="s">
+        <v>431</v>
+      </c>
+      <c r="G173" t="s">
         <v>432</v>
       </c>
-      <c r="E173" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F173" t="s">
-        <v>433</v>
-      </c>
-      <c r="G173" t="s">
-        <v>434</v>
-      </c>
       <c r="H173" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I173" s="5">
         <v>1</v>
@@ -6532,19 +6538,19 @@
     <row r="174" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B174" s="7"/>
       <c r="C174" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F174" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G174" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H174" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I174" s="5">
         <v>1</v>
@@ -6553,19 +6559,19 @@
     <row r="175" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B175" s="7"/>
       <c r="C175" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F175" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G175" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H175" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I175" s="5">
         <v>1</v>
@@ -6574,16 +6580,16 @@
     <row r="176" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B176" s="7"/>
       <c r="C176" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F176" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G176" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I176" s="5">
         <v>1</v>
@@ -6592,19 +6598,19 @@
     <row r="177" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B177" s="7"/>
       <c r="C177" t="s">
+        <v>439</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s">
+        <v>440</v>
+      </c>
+      <c r="G177" t="s">
+        <v>342</v>
+      </c>
+      <c r="H177" t="s">
         <v>441</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F177" t="s">
-        <v>442</v>
-      </c>
-      <c r="G177" t="s">
-        <v>344</v>
-      </c>
-      <c r="H177" t="s">
-        <v>443</v>
       </c>
       <c r="I177" s="5">
         <v>1</v>
@@ -6613,16 +6619,16 @@
     <row r="178" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B178" s="7"/>
       <c r="C178" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F178" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G178" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H178" t="s">
         <v>15</v>
@@ -6634,19 +6640,19 @@
     <row r="179" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B179" s="7"/>
       <c r="C179" t="s">
+        <v>444</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s">
+        <v>440</v>
+      </c>
+      <c r="G179" t="s">
+        <v>445</v>
+      </c>
+      <c r="H179" t="s">
         <v>446</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F179" t="s">
-        <v>442</v>
-      </c>
-      <c r="G179" t="s">
-        <v>447</v>
-      </c>
-      <c r="H179" t="s">
-        <v>448</v>
       </c>
       <c r="I179" s="5">
         <v>1</v>
@@ -6655,16 +6661,16 @@
     <row r="180" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B180" s="7"/>
       <c r="C180" t="s">
+        <v>447</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F180" t="s">
+        <v>448</v>
+      </c>
+      <c r="H180" t="s">
         <v>449</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F180" t="s">
-        <v>450</v>
-      </c>
-      <c r="H180" t="s">
-        <v>451</v>
       </c>
       <c r="I180" s="5">
         <v>1</v>
@@ -6673,16 +6679,16 @@
     <row r="181" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B181" s="7"/>
       <c r="C181" t="s">
+        <v>450</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" t="s">
+        <v>451</v>
+      </c>
+      <c r="G181" t="s">
         <v>452</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F181" t="s">
-        <v>453</v>
-      </c>
-      <c r="G181" t="s">
-        <v>454</v>
       </c>
       <c r="H181" t="s">
         <v>15</v>
@@ -6694,16 +6700,16 @@
     <row r="182" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B182" s="7"/>
       <c r="C182" t="s">
+        <v>453</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" t="s">
+        <v>454</v>
+      </c>
+      <c r="G182" t="s">
         <v>455</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F182" t="s">
-        <v>456</v>
-      </c>
-      <c r="G182" t="s">
-        <v>457</v>
       </c>
       <c r="H182" t="s">
         <v>15</v>
@@ -6715,16 +6721,16 @@
     <row r="183" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B183" s="7"/>
       <c r="C183" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F183" t="s">
+        <v>454</v>
+      </c>
+      <c r="G183" t="s">
         <v>456</v>
-      </c>
-      <c r="G183" t="s">
-        <v>458</v>
       </c>
       <c r="H183" t="s">
         <v>15</v>
@@ -6736,16 +6742,16 @@
     <row r="184" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B184" s="7"/>
       <c r="C184" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F184" t="s">
+        <v>454</v>
+      </c>
+      <c r="G184" t="s">
         <v>456</v>
-      </c>
-      <c r="G184" t="s">
-        <v>458</v>
       </c>
       <c r="H184" t="s">
         <v>15</v>
@@ -6757,19 +6763,19 @@
     <row r="185" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B185" s="7"/>
       <c r="C185" t="s">
+        <v>458</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F185" t="s">
+        <v>459</v>
+      </c>
+      <c r="G185" t="s">
         <v>460</v>
       </c>
-      <c r="E185" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F185" t="s">
-        <v>461</v>
-      </c>
-      <c r="G185" t="s">
-        <v>462</v>
-      </c>
       <c r="H185" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I185" s="5">
         <v>1</v>
@@ -6778,16 +6784,16 @@
     <row r="186" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B186" s="7"/>
       <c r="C186" t="s">
+        <v>461</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" t="s">
+        <v>462</v>
+      </c>
+      <c r="G186" t="s">
         <v>463</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F186" t="s">
-        <v>464</v>
-      </c>
-      <c r="G186" t="s">
-        <v>465</v>
       </c>
       <c r="H186" t="s">
         <v>15</v>
@@ -6799,16 +6805,16 @@
     <row r="187" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B187" s="7"/>
       <c r="C187" t="s">
+        <v>464</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F187" t="s">
+        <v>465</v>
+      </c>
+      <c r="G187" t="s">
         <v>466</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F187" t="s">
-        <v>467</v>
-      </c>
-      <c r="G187" t="s">
-        <v>468</v>
       </c>
       <c r="H187" t="s">
         <v>15</v>
@@ -6820,16 +6826,16 @@
     <row r="188" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B188" s="7"/>
       <c r="C188" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F188" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G188" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H188" t="s">
         <v>15</v>
@@ -6841,19 +6847,19 @@
     <row r="189" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B189" s="7"/>
       <c r="C189" t="s">
+        <v>469</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189" t="s">
+        <v>470</v>
+      </c>
+      <c r="G189" t="s">
         <v>471</v>
       </c>
-      <c r="E189" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F189" t="s">
+      <c r="H189" t="s">
         <v>472</v>
-      </c>
-      <c r="G189" t="s">
-        <v>473</v>
-      </c>
-      <c r="H189" t="s">
-        <v>474</v>
       </c>
       <c r="I189" s="5">
         <v>1</v>
@@ -6862,19 +6868,19 @@
     <row r="190" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B190" s="7"/>
       <c r="C190" t="s">
+        <v>473</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" t="s">
+        <v>470</v>
+      </c>
+      <c r="G190" t="s">
+        <v>474</v>
+      </c>
+      <c r="H190" t="s">
         <v>475</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F190" t="s">
-        <v>472</v>
-      </c>
-      <c r="G190" t="s">
-        <v>476</v>
-      </c>
-      <c r="H190" t="s">
-        <v>477</v>
       </c>
       <c r="I190" s="5">
         <v>1</v>
@@ -6883,16 +6889,16 @@
     <row r="191" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B191" s="7"/>
       <c r="C191" t="s">
+        <v>476</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" t="s">
+        <v>477</v>
+      </c>
+      <c r="G191" t="s">
         <v>478</v>
-      </c>
-      <c r="E191" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F191" t="s">
-        <v>479</v>
-      </c>
-      <c r="G191" t="s">
-        <v>480</v>
       </c>
       <c r="H191" t="s">
         <v>15</v>
@@ -6904,19 +6910,19 @@
     <row r="192" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B192" s="7"/>
       <c r="C192" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F192" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G192" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H192" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I192" s="5">
         <v>1</v>
@@ -6925,16 +6931,16 @@
     <row r="193" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B193" s="7"/>
       <c r="C193" t="s">
+        <v>481</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" t="s">
+        <v>482</v>
+      </c>
+      <c r="G193" t="s">
         <v>483</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F193" t="s">
-        <v>484</v>
-      </c>
-      <c r="G193" t="s">
-        <v>485</v>
       </c>
       <c r="H193" t="s">
         <v>15</v>
@@ -6946,19 +6952,19 @@
     <row r="194" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B194" s="7"/>
       <c r="C194" t="s">
+        <v>484</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194" t="s">
+        <v>485</v>
+      </c>
+      <c r="G194" t="s">
         <v>486</v>
       </c>
-      <c r="E194" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F194" t="s">
+      <c r="H194" t="s">
         <v>487</v>
-      </c>
-      <c r="G194" t="s">
-        <v>488</v>
-      </c>
-      <c r="H194" t="s">
-        <v>489</v>
       </c>
       <c r="I194" s="5">
         <v>1</v>
@@ -6967,19 +6973,19 @@
     <row r="195" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B195" s="7"/>
       <c r="C195" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F195" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G195" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H195" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I195" s="5">
         <v>1</v>
@@ -6988,19 +6994,19 @@
     <row r="196" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B196" s="7"/>
       <c r="C196" t="s">
+        <v>490</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196" t="s">
+        <v>485</v>
+      </c>
+      <c r="G196" t="s">
+        <v>491</v>
+      </c>
+      <c r="H196" t="s">
         <v>492</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F196" t="s">
-        <v>487</v>
-      </c>
-      <c r="G196" t="s">
-        <v>493</v>
-      </c>
-      <c r="H196" t="s">
-        <v>494</v>
       </c>
       <c r="I196" s="5">
         <v>1</v>
@@ -7009,19 +7015,19 @@
     <row r="197" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B197" s="7"/>
       <c r="C197" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F197" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G197" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H197" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I197" s="5">
         <v>1</v>
@@ -7030,19 +7036,19 @@
     <row r="198" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B198" s="7"/>
       <c r="C198" t="s">
+        <v>495</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" t="s">
+        <v>496</v>
+      </c>
+      <c r="G198" t="s">
         <v>497</v>
       </c>
-      <c r="E198" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F198" t="s">
+      <c r="H198" t="s">
         <v>498</v>
-      </c>
-      <c r="G198" t="s">
-        <v>499</v>
-      </c>
-      <c r="H198" t="s">
-        <v>500</v>
       </c>
       <c r="I198" s="5">
         <v>1</v>
@@ -7051,19 +7057,19 @@
     <row r="199" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B199" s="7"/>
       <c r="C199" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F199" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G199" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H199" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I199" s="5">
         <v>1</v>
@@ -7072,19 +7078,19 @@
     <row r="200" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B200" s="7"/>
       <c r="C200" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F200" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G200" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H200" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I200" s="5">
         <v>1</v>
@@ -7093,19 +7099,19 @@
     <row r="201" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B201" s="7"/>
       <c r="C201" t="s">
+        <v>502</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201" t="s">
+        <v>503</v>
+      </c>
+      <c r="G201" t="s">
         <v>504</v>
       </c>
-      <c r="E201" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F201" t="s">
+      <c r="H201" t="s">
         <v>505</v>
-      </c>
-      <c r="G201" t="s">
-        <v>506</v>
-      </c>
-      <c r="H201" t="s">
-        <v>507</v>
       </c>
       <c r="I201" s="5">
         <v>1</v>
@@ -7114,19 +7120,19 @@
     <row r="202" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B202" s="7"/>
       <c r="C202" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F202" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G202" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H202" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I202" s="5">
         <v>1</v>
@@ -7135,19 +7141,19 @@
     <row r="203" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B203" s="7"/>
       <c r="C203" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F203" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G203" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H203" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I203" s="5">
         <v>1</v>
@@ -7156,19 +7162,19 @@
     <row r="204" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B204" s="7"/>
       <c r="C204" t="s">
+        <v>509</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F204" t="s">
+        <v>510</v>
+      </c>
+      <c r="G204" t="s">
         <v>511</v>
       </c>
-      <c r="E204" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F204" t="s">
+      <c r="H204" t="s">
         <v>512</v>
-      </c>
-      <c r="G204" t="s">
-        <v>513</v>
-      </c>
-      <c r="H204" t="s">
-        <v>514</v>
       </c>
       <c r="I204" s="5">
         <v>1</v>
@@ -7177,19 +7183,19 @@
     <row r="205" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B205" s="7"/>
       <c r="C205" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F205" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G205" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H205" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I205" s="5">
         <v>1</v>
@@ -7198,19 +7204,19 @@
     <row r="206" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B206" s="7"/>
       <c r="C206" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F206" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G206" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H206" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I206" s="5">
         <v>1</v>
@@ -7219,13 +7225,13 @@
     <row r="207" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B207" s="7"/>
       <c r="C207" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F207" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H207" t="s">
         <v>15</v>
@@ -7237,13 +7243,13 @@
     <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B208" s="7"/>
       <c r="C208" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F208" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H208" t="s">
         <v>15</v>
@@ -7255,16 +7261,16 @@
     <row r="209" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B209" s="7"/>
       <c r="C209" t="s">
+        <v>520</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F209" t="s">
+        <v>521</v>
+      </c>
+      <c r="G209" t="s">
         <v>522</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F209" t="s">
-        <v>523</v>
-      </c>
-      <c r="G209" t="s">
-        <v>524</v>
       </c>
       <c r="H209" t="s">
         <v>15</v>
@@ -7276,19 +7282,19 @@
     <row r="210" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B210" s="7"/>
       <c r="C210" t="s">
+        <v>523</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F210" t="s">
+        <v>524</v>
+      </c>
+      <c r="G210" t="s">
         <v>525</v>
       </c>
-      <c r="E210" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F210" t="s">
+      <c r="H210" t="s">
         <v>526</v>
-      </c>
-      <c r="G210" t="s">
-        <v>527</v>
-      </c>
-      <c r="H210" t="s">
-        <v>528</v>
       </c>
       <c r="I210" s="5">
         <v>1</v>
@@ -7297,19 +7303,19 @@
     <row r="211" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B211" s="7"/>
       <c r="C211" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E211" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F211" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G211" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H211" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I211" s="5">
         <v>1</v>
@@ -7318,19 +7324,19 @@
     <row r="212" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B212" s="7"/>
       <c r="C212" t="s">
+        <v>529</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F212" t="s">
+        <v>530</v>
+      </c>
+      <c r="G212" t="s">
         <v>531</v>
       </c>
-      <c r="E212" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F212" t="s">
+      <c r="H212" t="s">
         <v>532</v>
-      </c>
-      <c r="G212" t="s">
-        <v>533</v>
-      </c>
-      <c r="H212" t="s">
-        <v>534</v>
       </c>
       <c r="I212" s="5">
         <v>1</v>
@@ -7339,19 +7345,19 @@
     <row r="213" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B213" s="7"/>
       <c r="C213" t="s">
+        <v>533</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F213" t="s">
+        <v>534</v>
+      </c>
+      <c r="G213" t="s">
         <v>535</v>
       </c>
-      <c r="E213" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F213" t="s">
+      <c r="H213" t="s">
         <v>536</v>
-      </c>
-      <c r="G213" t="s">
-        <v>537</v>
-      </c>
-      <c r="H213" t="s">
-        <v>538</v>
       </c>
       <c r="I213" s="5">
         <v>1</v>
@@ -7360,19 +7366,19 @@
     <row r="214" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B214" s="7"/>
       <c r="C214" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F214" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G214" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H214" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I214" s="5">
         <v>1</v>
@@ -7381,19 +7387,19 @@
     <row r="215" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B215" s="7"/>
       <c r="C215" t="s">
+        <v>539</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F215" t="s">
+        <v>540</v>
+      </c>
+      <c r="G215" t="s">
+        <v>531</v>
+      </c>
+      <c r="H215" t="s">
         <v>541</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F215" t="s">
-        <v>542</v>
-      </c>
-      <c r="G215" t="s">
-        <v>533</v>
-      </c>
-      <c r="H215" t="s">
-        <v>543</v>
       </c>
       <c r="I215" s="5">
         <v>1</v>
@@ -7402,19 +7408,19 @@
     <row r="216" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B216" s="7"/>
       <c r="C216" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F216" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G216" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H216" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I216" s="5">
         <v>1</v>
@@ -7423,19 +7429,19 @@
     <row r="217" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B217" s="7"/>
       <c r="C217" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F217" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G217" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H217" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I217" s="5">
         <v>1</v>
@@ -7444,16 +7450,16 @@
     <row r="218" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B218" s="7"/>
       <c r="C218" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F218" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G218" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H218" t="s">
         <v>15</v>
@@ -7465,19 +7471,19 @@
     <row r="219" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B219" s="7"/>
       <c r="C219" t="s">
+        <v>547</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F219" t="s">
+        <v>548</v>
+      </c>
+      <c r="G219" t="s">
         <v>549</v>
       </c>
-      <c r="E219" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F219" t="s">
-        <v>550</v>
-      </c>
-      <c r="G219" t="s">
-        <v>551</v>
-      </c>
       <c r="H219" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I219" s="5">
         <v>1</v>
@@ -7486,19 +7492,19 @@
     <row r="220" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B220" s="7"/>
       <c r="C220" t="s">
+        <v>550</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F220" t="s">
+        <v>551</v>
+      </c>
+      <c r="G220" t="s">
+        <v>531</v>
+      </c>
+      <c r="H220" t="s">
         <v>552</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F220" t="s">
-        <v>553</v>
-      </c>
-      <c r="G220" t="s">
-        <v>533</v>
-      </c>
-      <c r="H220" t="s">
-        <v>554</v>
       </c>
       <c r="I220" s="5">
         <v>1</v>
@@ -7507,16 +7513,16 @@
     <row r="221" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B221" s="7"/>
       <c r="C221" t="s">
+        <v>553</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F221" t="s">
+        <v>554</v>
+      </c>
+      <c r="G221" t="s">
         <v>555</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F221" t="s">
-        <v>556</v>
-      </c>
-      <c r="G221" t="s">
-        <v>557</v>
       </c>
       <c r="H221" t="s">
         <v>15</v>
@@ -7528,16 +7534,16 @@
     <row r="222" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B222" s="7"/>
       <c r="C222" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F222" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G222" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H222" t="s">
         <v>15</v>
@@ -7549,16 +7555,16 @@
     <row r="223" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B223" s="7"/>
       <c r="C223" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F223" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G223" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H223" t="s">
         <v>15</v>
@@ -7570,19 +7576,19 @@
     <row r="224" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B224" s="7"/>
       <c r="C224" t="s">
+        <v>560</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F224" t="s">
+        <v>561</v>
+      </c>
+      <c r="G224" t="s">
         <v>562</v>
       </c>
-      <c r="E224" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F224" t="s">
-        <v>563</v>
-      </c>
-      <c r="G224" t="s">
-        <v>564</v>
-      </c>
       <c r="H224" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I224" s="5">
         <v>1</v>
@@ -7591,16 +7597,16 @@
     <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B225" s="7"/>
       <c r="C225" t="s">
+        <v>563</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F225" t="s">
+        <v>564</v>
+      </c>
+      <c r="G225" t="s">
         <v>565</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F225" t="s">
-        <v>566</v>
-      </c>
-      <c r="G225" t="s">
-        <v>567</v>
       </c>
       <c r="H225" t="s">
         <v>15</v>
@@ -7612,16 +7618,16 @@
     <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B226" s="7"/>
       <c r="C226" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F226" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G226" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H226" t="s">
         <v>15</v>
@@ -7633,16 +7639,16 @@
     <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B227" s="7"/>
       <c r="C227" t="s">
+        <v>568</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F227" t="s">
+        <v>569</v>
+      </c>
+      <c r="G227" t="s">
         <v>570</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F227" t="s">
-        <v>571</v>
-      </c>
-      <c r="G227" t="s">
-        <v>572</v>
       </c>
       <c r="H227" t="s">
         <v>15</v>
@@ -7654,16 +7660,16 @@
     <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B228" s="7"/>
       <c r="C228" t="s">
+        <v>571</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F228" t="s">
+        <v>572</v>
+      </c>
+      <c r="G228" t="s">
         <v>573</v>
-      </c>
-      <c r="E228" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F228" t="s">
-        <v>574</v>
-      </c>
-      <c r="G228" t="s">
-        <v>575</v>
       </c>
       <c r="H228" t="s">
         <v>15</v>
@@ -7675,19 +7681,19 @@
     <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B229" s="7"/>
       <c r="C229" t="s">
+        <v>574</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F229" t="s">
+        <v>575</v>
+      </c>
+      <c r="G229" t="s">
         <v>576</v>
       </c>
-      <c r="E229" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F229" t="s">
+      <c r="H229" t="s">
         <v>577</v>
-      </c>
-      <c r="G229" t="s">
-        <v>578</v>
-      </c>
-      <c r="H229" t="s">
-        <v>579</v>
       </c>
       <c r="I229" s="5">
         <v>1</v>
@@ -7695,22 +7701,22 @@
     </row>
     <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B230" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C230" t="s">
+        <v>579</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F230" t="s">
         <v>580</v>
       </c>
-      <c r="C230" t="s">
+      <c r="G230" t="s">
         <v>581</v>
       </c>
-      <c r="E230" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F230" t="s">
+      <c r="H230" t="s">
         <v>582</v>
-      </c>
-      <c r="G230" t="s">
-        <v>583</v>
-      </c>
-      <c r="H230" t="s">
-        <v>584</v>
       </c>
       <c r="I230" s="5">
         <v>1</v>
@@ -7719,19 +7725,19 @@
     <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B231" s="7"/>
       <c r="C231" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E231" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F231" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G231" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H231" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I231" s="5">
         <v>1</v>
@@ -7740,19 +7746,19 @@
     <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B232" s="7"/>
       <c r="C232" t="s">
+        <v>585</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F232" t="s">
+        <v>580</v>
+      </c>
+      <c r="G232" t="s">
+        <v>586</v>
+      </c>
+      <c r="H232" t="s">
         <v>587</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F232" t="s">
-        <v>582</v>
-      </c>
-      <c r="G232" t="s">
-        <v>588</v>
-      </c>
-      <c r="H232" t="s">
-        <v>589</v>
       </c>
       <c r="I232" s="5">
         <v>1</v>
@@ -7761,19 +7767,19 @@
     <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B233" s="7"/>
       <c r="C233" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E233" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F233" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G233" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H233" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I233" s="5">
         <v>1</v>
@@ -7782,19 +7788,19 @@
     <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B234" s="7"/>
       <c r="C234" t="s">
+        <v>590</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F234" t="s">
+        <v>580</v>
+      </c>
+      <c r="G234" t="s">
+        <v>591</v>
+      </c>
+      <c r="H234" t="s">
         <v>592</v>
-      </c>
-      <c r="E234" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F234" t="s">
-        <v>582</v>
-      </c>
-      <c r="G234" t="s">
-        <v>593</v>
-      </c>
-      <c r="H234" t="s">
-        <v>594</v>
       </c>
       <c r="I234" s="5">
         <v>1</v>
@@ -7803,19 +7809,19 @@
     <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B235" s="7"/>
       <c r="C235" t="s">
+        <v>593</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F235" t="s">
+        <v>580</v>
+      </c>
+      <c r="G235" t="s">
+        <v>594</v>
+      </c>
+      <c r="H235" t="s">
         <v>595</v>
-      </c>
-      <c r="E235" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F235" t="s">
-        <v>582</v>
-      </c>
-      <c r="G235" t="s">
-        <v>596</v>
-      </c>
-      <c r="H235" t="s">
-        <v>597</v>
       </c>
       <c r="I235" s="5">
         <v>1</v>
@@ -7824,19 +7830,19 @@
     <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B236" s="7"/>
       <c r="C236" t="s">
+        <v>596</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F236" t="s">
+        <v>597</v>
+      </c>
+      <c r="G236" t="s">
         <v>598</v>
       </c>
-      <c r="E236" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F236" t="s">
-        <v>599</v>
-      </c>
-      <c r="G236" t="s">
-        <v>600</v>
-      </c>
       <c r="H236" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I236" s="5">
         <v>1</v>
@@ -7845,19 +7851,19 @@
     <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B237" s="7"/>
       <c r="C237" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E237" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F237" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G237" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H237" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I237" s="5">
         <v>1</v>
@@ -7866,19 +7872,19 @@
     <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B238" s="7"/>
       <c r="C238" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F238" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G238" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H238" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I238" s="5">
         <v>1</v>
@@ -7887,19 +7893,19 @@
     <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B239" s="7"/>
       <c r="C239" t="s">
+        <v>603</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F239" t="s">
+        <v>604</v>
+      </c>
+      <c r="G239" t="s">
         <v>605</v>
       </c>
-      <c r="E239" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F239" t="s">
-        <v>606</v>
-      </c>
-      <c r="G239" t="s">
-        <v>607</v>
-      </c>
       <c r="H239" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I239" s="5">
         <v>1</v>
@@ -7908,19 +7914,19 @@
     <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B240" s="7"/>
       <c r="C240" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E240" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F240" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G240" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H240" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I240" s="5">
         <v>1</v>
@@ -7929,19 +7935,19 @@
     <row r="241" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B241" s="7"/>
       <c r="C241" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E241" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F241" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G241" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H241" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I241" s="5">
         <v>1</v>
@@ -7950,19 +7956,19 @@
     <row r="242" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B242" s="7"/>
       <c r="C242" t="s">
+        <v>610</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F242" t="s">
+        <v>611</v>
+      </c>
+      <c r="G242" t="s">
         <v>612</v>
       </c>
-      <c r="E242" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F242" t="s">
-        <v>613</v>
-      </c>
-      <c r="G242" t="s">
-        <v>614</v>
-      </c>
       <c r="H242" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I242" s="5">
         <v>1</v>
@@ -7971,19 +7977,19 @@
     <row r="243" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B243" s="7"/>
       <c r="C243" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F243" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G243" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H243" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I243" s="5">
         <v>1</v>
@@ -7992,19 +7998,19 @@
     <row r="244" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B244" s="7"/>
       <c r="C244" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E244" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F244" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G244" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H244" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I244" s="5">
         <v>1</v>
@@ -8013,19 +8019,19 @@
     <row r="245" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B245" s="7"/>
       <c r="C245" t="s">
+        <v>617</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F245" t="s">
+        <v>618</v>
+      </c>
+      <c r="G245" t="s">
         <v>619</v>
       </c>
-      <c r="E245" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F245" t="s">
-        <v>620</v>
-      </c>
-      <c r="G245" t="s">
-        <v>621</v>
-      </c>
       <c r="H245" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I245" s="5">
         <v>1</v>
@@ -8034,19 +8040,19 @@
     <row r="246" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B246" s="7"/>
       <c r="C246" t="s">
+        <v>620</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F246" t="s">
+        <v>621</v>
+      </c>
+      <c r="G246" t="s">
         <v>622</v>
       </c>
-      <c r="E246" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F246" t="s">
-        <v>623</v>
-      </c>
-      <c r="G246" t="s">
-        <v>624</v>
-      </c>
       <c r="H246" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I246" s="5">
         <v>1</v>
@@ -8055,19 +8061,19 @@
     <row r="247" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B247" s="7"/>
       <c r="C247" t="s">
+        <v>623</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F247" t="s">
+        <v>624</v>
+      </c>
+      <c r="G247" t="s">
         <v>625</v>
       </c>
-      <c r="E247" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F247" t="s">
-        <v>626</v>
-      </c>
-      <c r="G247" t="s">
-        <v>627</v>
-      </c>
       <c r="H247" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I247" s="5">
         <v>1</v>
@@ -8076,19 +8082,19 @@
     <row r="248" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B248" s="7"/>
       <c r="C248" t="s">
+        <v>626</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F248" t="s">
+        <v>624</v>
+      </c>
+      <c r="G248" t="s">
+        <v>627</v>
+      </c>
+      <c r="H248" t="s">
         <v>628</v>
-      </c>
-      <c r="E248" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F248" t="s">
-        <v>626</v>
-      </c>
-      <c r="G248" t="s">
-        <v>629</v>
-      </c>
-      <c r="H248" t="s">
-        <v>630</v>
       </c>
       <c r="I248" s="5">
         <v>1</v>
@@ -8097,19 +8103,19 @@
     <row r="249" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B249" s="7"/>
       <c r="C249" t="s">
+        <v>629</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F249" t="s">
+        <v>630</v>
+      </c>
+      <c r="G249" t="s">
         <v>631</v>
       </c>
-      <c r="E249" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F249" t="s">
-        <v>632</v>
-      </c>
-      <c r="G249" t="s">
-        <v>633</v>
-      </c>
       <c r="H249" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I249" s="5">
         <v>1</v>
@@ -8118,19 +8124,19 @@
     <row r="250" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B250" s="7"/>
       <c r="C250" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E250" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F250" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G250" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H250" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I250" s="5">
         <v>1</v>
@@ -8139,19 +8145,19 @@
     <row r="251" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B251" s="7"/>
       <c r="C251" t="s">
+        <v>634</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F251" t="s">
+        <v>630</v>
+      </c>
+      <c r="G251" t="s">
+        <v>635</v>
+      </c>
+      <c r="H251" t="s">
         <v>636</v>
-      </c>
-      <c r="E251" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F251" t="s">
-        <v>632</v>
-      </c>
-      <c r="G251" t="s">
-        <v>637</v>
-      </c>
-      <c r="H251" t="s">
-        <v>638</v>
       </c>
       <c r="I251" s="5">
         <v>1</v>
@@ -8160,19 +8166,19 @@
     <row r="252" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B252" s="7"/>
       <c r="C252" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E252" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F252" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G252" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H252" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I252" s="5">
         <v>1</v>
@@ -8181,19 +8187,19 @@
     <row r="253" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B253" s="7"/>
       <c r="C253" t="s">
+        <v>639</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F253" t="s">
+        <v>630</v>
+      </c>
+      <c r="G253" t="s">
+        <v>640</v>
+      </c>
+      <c r="H253" t="s">
         <v>641</v>
-      </c>
-      <c r="E253" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F253" t="s">
-        <v>632</v>
-      </c>
-      <c r="G253" t="s">
-        <v>642</v>
-      </c>
-      <c r="H253" t="s">
-        <v>643</v>
       </c>
       <c r="I253" s="5">
         <v>1</v>
@@ -8202,19 +8208,19 @@
     <row r="254" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B254" s="7"/>
       <c r="C254" t="s">
+        <v>642</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F254" t="s">
+        <v>643</v>
+      </c>
+      <c r="G254" t="s">
         <v>644</v>
       </c>
-      <c r="E254" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F254" t="s">
-        <v>645</v>
-      </c>
-      <c r="G254" t="s">
-        <v>646</v>
-      </c>
       <c r="H254" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I254" s="5">
         <v>1</v>
@@ -8223,19 +8229,19 @@
     <row r="255" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B255" s="7"/>
       <c r="C255" t="s">
+        <v>645</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F255" t="s">
+        <v>643</v>
+      </c>
+      <c r="G255" t="s">
+        <v>646</v>
+      </c>
+      <c r="H255" t="s">
         <v>647</v>
-      </c>
-      <c r="E255" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F255" t="s">
-        <v>645</v>
-      </c>
-      <c r="G255" t="s">
-        <v>648</v>
-      </c>
-      <c r="H255" t="s">
-        <v>649</v>
       </c>
       <c r="I255" s="5">
         <v>1</v>
@@ -8244,19 +8250,19 @@
     <row r="256" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B256" s="7"/>
       <c r="C256" t="s">
+        <v>648</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F256" t="s">
+        <v>643</v>
+      </c>
+      <c r="G256" t="s">
+        <v>649</v>
+      </c>
+      <c r="H256" t="s">
         <v>650</v>
-      </c>
-      <c r="E256" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F256" t="s">
-        <v>645</v>
-      </c>
-      <c r="G256" t="s">
-        <v>651</v>
-      </c>
-      <c r="H256" t="s">
-        <v>652</v>
       </c>
       <c r="I256" s="5">
         <v>1</v>
@@ -8265,19 +8271,19 @@
     <row r="257" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B257" s="7"/>
       <c r="C257" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E257" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F257" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G257" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H257" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I257" s="5">
         <v>1</v>
@@ -8286,19 +8292,19 @@
     <row r="258" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B258" s="7"/>
       <c r="C258" t="s">
+        <v>653</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F258" t="s">
+        <v>643</v>
+      </c>
+      <c r="G258" t="s">
+        <v>654</v>
+      </c>
+      <c r="H258" t="s">
         <v>655</v>
-      </c>
-      <c r="E258" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F258" t="s">
-        <v>645</v>
-      </c>
-      <c r="G258" t="s">
-        <v>656</v>
-      </c>
-      <c r="H258" t="s">
-        <v>657</v>
       </c>
       <c r="I258" s="5">
         <v>1</v>
@@ -8307,19 +8313,19 @@
     <row r="259" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B259" s="7"/>
       <c r="C259" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E259" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F259" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G259" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H259" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I259" s="5">
         <v>1</v>
@@ -8328,19 +8334,19 @@
     <row r="260" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B260" s="7"/>
       <c r="C260" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E260" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F260" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G260" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H260" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I260" s="5">
         <v>1</v>
@@ -8349,19 +8355,19 @@
     <row r="261" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B261" s="7"/>
       <c r="C261" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E261" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F261" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G261" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H261" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I261" s="5">
         <v>1</v>
@@ -8370,19 +8376,19 @@
     <row r="262" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B262" s="7"/>
       <c r="C262" t="s">
+        <v>662</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F262" t="s">
+        <v>663</v>
+      </c>
+      <c r="G262" t="s">
         <v>664</v>
       </c>
-      <c r="E262" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F262" t="s">
-        <v>665</v>
-      </c>
-      <c r="G262" t="s">
-        <v>666</v>
-      </c>
       <c r="H262" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I262" s="5">
         <v>1</v>
@@ -8391,19 +8397,19 @@
     <row r="263" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B263" s="7"/>
       <c r="C263" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E263" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F263" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G263" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H263" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I263" s="5">
         <v>1</v>
@@ -8412,19 +8418,19 @@
     <row r="264" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B264" s="7"/>
       <c r="C264" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E264" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F264" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G264" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H264" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I264" s="5">
         <v>1</v>
@@ -8433,19 +8439,19 @@
     <row r="265" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B265" s="7"/>
       <c r="C265" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E265" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F265" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G265" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H265" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I265" s="5">
         <v>1</v>
@@ -8454,19 +8460,19 @@
     <row r="266" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B266" s="7"/>
       <c r="C266" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E266" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F266" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G266" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H266" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I266" s="5">
         <v>1</v>
@@ -8475,19 +8481,19 @@
     <row r="267" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B267" s="7"/>
       <c r="C267" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E267" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F267" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G267" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H267" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I267" s="5">
         <v>1</v>
@@ -8496,19 +8502,19 @@
     <row r="268" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B268" s="7"/>
       <c r="C268" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E268" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F268" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G268" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H268" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I268" s="5">
         <v>1</v>
@@ -8517,19 +8523,19 @@
     <row r="269" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B269" s="7"/>
       <c r="C269" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E269" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F269" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G269" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H269" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I269" s="5">
         <v>1</v>
@@ -8538,19 +8544,19 @@
     <row r="270" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B270" s="7"/>
       <c r="C270" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E270" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F270" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G270" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H270" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I270" s="5">
         <v>1</v>
@@ -8559,19 +8565,19 @@
     <row r="271" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B271" s="7"/>
       <c r="C271" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E271" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F271" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G271" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H271" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I271" s="5">
         <v>1</v>
@@ -8580,19 +8586,19 @@
     <row r="272" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B272" s="7"/>
       <c r="C272" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E272" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F272" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G272" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H272" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I272" s="5">
         <v>1</v>
@@ -8601,16 +8607,16 @@
     <row r="273" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B273" s="7"/>
       <c r="C273" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F273" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H273" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I273" s="5">
         <v>1</v>
@@ -8619,16 +8625,16 @@
     <row r="274" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B274" s="7"/>
       <c r="C274" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F274" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H274" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I274" s="5">
         <v>1</v>
@@ -8637,16 +8643,16 @@
     <row r="275" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B275" s="7"/>
       <c r="C275" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F275" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H275" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I275" s="5">
         <v>1</v>
@@ -8655,16 +8661,16 @@
     <row r="276" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B276" s="7"/>
       <c r="C276" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F276" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H276" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I276" s="5">
         <v>1</v>
@@ -8673,19 +8679,19 @@
     <row r="277" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B277" s="7"/>
       <c r="C277" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E277" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F277" t="s">
+        <v>580</v>
+      </c>
+      <c r="G277" t="s">
+        <v>690</v>
+      </c>
+      <c r="H277" t="s">
         <v>582</v>
-      </c>
-      <c r="G277" t="s">
-        <v>692</v>
-      </c>
-      <c r="H277" t="s">
-        <v>584</v>
       </c>
       <c r="I277" s="5">
         <v>1</v>
@@ -8694,19 +8700,19 @@
     <row r="278" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B278" s="7"/>
       <c r="C278" t="s">
+        <v>691</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F278" t="s">
+        <v>692</v>
+      </c>
+      <c r="G278" t="s">
         <v>693</v>
       </c>
-      <c r="E278" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F278" t="s">
-        <v>694</v>
-      </c>
-      <c r="G278" t="s">
-        <v>695</v>
-      </c>
       <c r="H278" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I278" s="5">
         <v>1</v>
@@ -8715,19 +8721,19 @@
     <row r="279" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B279" s="7"/>
       <c r="C279" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F279" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G279" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H279" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I279" s="5">
         <v>1</v>
@@ -8736,16 +8742,16 @@
     <row r="280" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B280" s="7"/>
       <c r="C280" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F280" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H280" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I280" s="5">
         <v>1</v>
@@ -8754,19 +8760,19 @@
     <row r="281" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B281" s="7"/>
       <c r="C281" t="s">
+        <v>698</v>
+      </c>
+      <c r="E281" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F281" t="s">
+        <v>692</v>
+      </c>
+      <c r="G281" t="s">
+        <v>699</v>
+      </c>
+      <c r="H281" t="s">
         <v>700</v>
-      </c>
-      <c r="E281" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F281" t="s">
-        <v>694</v>
-      </c>
-      <c r="G281" t="s">
-        <v>701</v>
-      </c>
-      <c r="H281" t="s">
-        <v>702</v>
       </c>
       <c r="I281" s="5">
         <v>1</v>
@@ -8775,19 +8781,19 @@
     <row r="282" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B282" s="7"/>
       <c r="C282" t="s">
+        <v>701</v>
+      </c>
+      <c r="E282" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F282" t="s">
+        <v>702</v>
+      </c>
+      <c r="G282" t="s">
         <v>703</v>
       </c>
-      <c r="E282" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F282" t="s">
-        <v>704</v>
-      </c>
-      <c r="G282" t="s">
-        <v>705</v>
-      </c>
       <c r="H282" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I282" s="5">
         <v>1</v>
@@ -8796,19 +8802,19 @@
     <row r="283" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B283" s="7"/>
       <c r="C283" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E283" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F283" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G283" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H283" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I283" s="5">
         <v>1</v>
@@ -8817,16 +8823,16 @@
     <row r="284" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B284" s="7"/>
       <c r="C284" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F284" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H284" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I284" s="5">
         <v>1</v>
@@ -8835,19 +8841,19 @@
     <row r="285" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B285" s="7"/>
       <c r="C285" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F285" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G285" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H285" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I285" s="5">
         <v>1</v>
@@ -8856,19 +8862,19 @@
     <row r="286" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B286" s="7"/>
       <c r="C286" t="s">
+        <v>709</v>
+      </c>
+      <c r="E286" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F286" t="s">
+        <v>710</v>
+      </c>
+      <c r="G286" t="s">
         <v>711</v>
       </c>
-      <c r="E286" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F286" t="s">
-        <v>712</v>
-      </c>
-      <c r="G286" t="s">
-        <v>713</v>
-      </c>
       <c r="H286" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I286" s="5">
         <v>1</v>
@@ -8877,19 +8883,19 @@
     <row r="287" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B287" s="7"/>
       <c r="C287" t="s">
+        <v>712</v>
+      </c>
+      <c r="E287" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F287" t="s">
+        <v>713</v>
+      </c>
+      <c r="G287" t="s">
         <v>714</v>
       </c>
-      <c r="E287" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F287" t="s">
-        <v>715</v>
-      </c>
-      <c r="G287" t="s">
-        <v>716</v>
-      </c>
       <c r="H287" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I287" s="5">
         <v>1</v>
@@ -8898,19 +8904,19 @@
     <row r="288" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B288" s="7"/>
       <c r="C288" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E288" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F288" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G288" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H288" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I288" s="5">
         <v>1</v>
@@ -8919,19 +8925,19 @@
     <row r="289" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B289" s="7"/>
       <c r="C289" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E289" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F289" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G289" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H289" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I289" s="5">
         <v>1</v>
@@ -8940,19 +8946,19 @@
     <row r="290" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B290" s="7"/>
       <c r="C290" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E290" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F290" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G290" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H290" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I290" s="5">
         <v>1</v>
@@ -8961,19 +8967,19 @@
     <row r="291" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B291" s="7"/>
       <c r="C291" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E291" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F291" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G291" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H291" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I291" s="5">
         <v>1</v>
@@ -8982,19 +8988,19 @@
     <row r="292" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B292" s="7"/>
       <c r="C292" t="s">
+        <v>723</v>
+      </c>
+      <c r="E292" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F292" t="s">
+        <v>724</v>
+      </c>
+      <c r="G292" t="s">
         <v>725</v>
       </c>
-      <c r="E292" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F292" t="s">
+      <c r="H292" t="s">
         <v>726</v>
-      </c>
-      <c r="G292" t="s">
-        <v>727</v>
-      </c>
-      <c r="H292" t="s">
-        <v>728</v>
       </c>
       <c r="I292" s="5">
         <v>1</v>
@@ -9003,19 +9009,19 @@
     <row r="293" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B293" s="7"/>
       <c r="C293" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E293" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F293" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G293" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H293" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I293" s="5">
         <v>1</v>
@@ -9023,22 +9029,22 @@
     </row>
     <row r="294" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B294" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="C294" t="s">
+        <v>730</v>
+      </c>
+      <c r="E294" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F294" t="s">
         <v>731</v>
       </c>
-      <c r="C294" t="s">
+      <c r="G294" t="s">
         <v>732</v>
       </c>
-      <c r="E294" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F294" t="s">
-        <v>733</v>
-      </c>
-      <c r="G294" t="s">
-        <v>734</v>
-      </c>
       <c r="H294" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I294" s="5">
         <v>1</v>
@@ -9047,19 +9053,19 @@
     <row r="295" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B295" s="7"/>
       <c r="C295" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F295" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G295" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H295" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I295" s="5">
         <v>1</v>
@@ -9068,19 +9074,19 @@
     <row r="296" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B296" s="7"/>
       <c r="C296" t="s">
+        <v>735</v>
+      </c>
+      <c r="E296" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F296" t="s">
+        <v>731</v>
+      </c>
+      <c r="G296" t="s">
+        <v>736</v>
+      </c>
+      <c r="H296" t="s">
         <v>737</v>
-      </c>
-      <c r="E296" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F296" t="s">
-        <v>733</v>
-      </c>
-      <c r="G296" t="s">
-        <v>738</v>
-      </c>
-      <c r="H296" t="s">
-        <v>739</v>
       </c>
       <c r="I296" s="5">
         <v>1</v>
@@ -9089,19 +9095,19 @@
     <row r="297" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B297" s="7"/>
       <c r="C297" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F297" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G297" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H297" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I297" s="5">
         <v>1</v>
@@ -9110,19 +9116,19 @@
     <row r="298" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B298" s="7"/>
       <c r="C298" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F298" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G298" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="H298" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I298" s="5">
         <v>1</v>
@@ -9131,19 +9137,19 @@
     <row r="299" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B299" s="7"/>
       <c r="C299" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F299" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G299" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H299" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I299" s="5">
         <v>1</v>
@@ -9152,19 +9158,19 @@
     <row r="300" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B300" s="7"/>
       <c r="C300" t="s">
+        <v>744</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F300" t="s">
+        <v>745</v>
+      </c>
+      <c r="G300" t="s">
         <v>746</v>
       </c>
-      <c r="E300" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F300" t="s">
+      <c r="H300" t="s">
         <v>747</v>
-      </c>
-      <c r="G300" t="s">
-        <v>748</v>
-      </c>
-      <c r="H300" t="s">
-        <v>749</v>
       </c>
       <c r="I300" s="5">
         <v>1</v>
@@ -9173,16 +9179,16 @@
     <row r="301" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B301" s="7"/>
       <c r="C301" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F301" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="H301" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I301" s="5">
         <v>1</v>
@@ -9190,19 +9196,19 @@
     </row>
     <row r="302" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B302" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C302" t="s">
+        <v>751</v>
+      </c>
+      <c r="E302" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F302" t="s">
         <v>752</v>
       </c>
-      <c r="C302" t="s">
-        <v>753</v>
-      </c>
-      <c r="E302" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F302" t="s">
-        <v>754</v>
-      </c>
       <c r="H302" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I302" s="5">
         <v>1</v>
@@ -9211,19 +9217,19 @@
     <row r="303" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B303" s="7"/>
       <c r="C303" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E303" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F303" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G303" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H303" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I303" s="5">
         <v>1</v>
@@ -9232,16 +9238,16 @@
     <row r="304" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B304" s="7"/>
       <c r="C304" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F304" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H304" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I304" s="5">
         <v>1</v>
@@ -9250,19 +9256,19 @@
     <row r="305" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B305" s="7"/>
       <c r="C305" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E305" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F305" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G305" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H305" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I305" s="5">
         <v>1</v>
@@ -9271,19 +9277,19 @@
     <row r="306" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B306" s="7"/>
       <c r="C306" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E306" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F306" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G306" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="H306" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I306" s="5">
         <v>1</v>
@@ -9292,19 +9298,19 @@
     <row r="307" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B307" s="7"/>
       <c r="C307" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E307" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F307" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G307" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H307" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I307" s="5">
         <v>1</v>
@@ -9313,19 +9319,19 @@
     <row r="308" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B308" s="7"/>
       <c r="C308" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E308" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F308" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G308" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="H308" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I308" s="5">
         <v>1</v>
@@ -9334,16 +9340,16 @@
     <row r="309" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B309" s="7"/>
       <c r="C309" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F309" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H309" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I309" s="5">
         <v>1</v>
@@ -9352,16 +9358,16 @@
     <row r="310" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B310" s="7"/>
       <c r="C310" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F310" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H310" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I310" s="5">
         <v>1</v>
@@ -9415,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -9430,7 +9436,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
@@ -9441,25 +9447,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
+        <v>770</v>
+      </c>
+      <c r="G2" t="s">
+        <v>771</v>
+      </c>
+      <c r="H2" t="s">
         <v>772</v>
-      </c>
-      <c r="G2" t="s">
-        <v>773</v>
-      </c>
-      <c r="H2" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -9468,19 +9474,19 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -9489,19 +9495,19 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -9510,19 +9516,19 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -9531,19 +9537,19 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -9552,19 +9558,19 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -9573,19 +9579,19 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G8" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -9594,19 +9600,19 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G9" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -9615,19 +9621,19 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G10" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -9638,16 +9644,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>788</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>790</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -9656,16 +9662,16 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
         <v>791</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -9674,16 +9680,16 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -9692,16 +9698,16 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -9710,16 +9716,16 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -9727,19 +9733,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="C16" t="s">
+        <v>798</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
         <v>800</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -9747,16 +9753,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
         <v>801</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -9764,16 +9770,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -9848,23 +9854,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B3" s="4">
         <f>B2+1</f>

--- a/TestDatas/jm_api_info.xlsx
+++ b/TestDatas/jm_api_info.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zws/longbeach/jm_api_py_test/TestDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xiangmu\jm_api_py_test\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,11 +16,8 @@
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
     <sheet name="prepare_datas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="817">
   <si>
     <t>case_id</t>
   </si>
@@ -2484,6 +2481,10 @@
   </si>
   <si>
     <t>{"user":"Emb2kCvMzTPW16qv20-Hlg"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"value":"0"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2594,6 +2595,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2886,25 +2890,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="51.5" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="36.83203125" customWidth="1"/>
-    <col min="7" max="7" width="81.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="51.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.81640625" customWidth="1"/>
+    <col min="7" max="7" width="81.36328125" customWidth="1"/>
     <col min="8" max="8" width="64" customWidth="1"/>
     <col min="9" max="9" width="13" style="5" customWidth="1"/>
-    <col min="10" max="10" width="27.5" customWidth="1"/>
+    <col min="10" max="10" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2936,7 +2940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2968,7 +2972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2996,7 +3000,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3023,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3050,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3077,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3106,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3133,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3160,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -3187,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" t="s">
         <v>37</v>
@@ -3208,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" t="s">
         <v>40</v>
@@ -3229,7 +3233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" t="s">
         <v>43</v>
@@ -3250,7 +3254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" t="s">
         <v>46</v>
@@ -3271,7 +3275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" t="s">
         <v>49</v>
@@ -3292,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" t="s">
         <v>52</v>
@@ -3313,7 +3317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" t="s">
         <v>54</v>
@@ -3334,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" t="s">
         <v>55</v>
@@ -3352,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" t="s">
         <v>58</v>
@@ -3373,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" t="s">
         <v>61</v>
@@ -3394,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" t="s">
         <v>63</v>
@@ -3415,7 +3419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" t="s">
         <v>66</v>
@@ -3433,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" t="s">
         <v>69</v>
@@ -3454,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" t="s">
         <v>72</v>
@@ -3475,7 +3479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" t="s">
         <v>76</v>
@@ -3493,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>77</v>
       </c>
@@ -3507,7 +3511,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>816</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
@@ -3516,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" t="s">
         <v>81</v>
@@ -3537,7 +3541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" t="s">
         <v>84</v>
@@ -3558,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" t="s">
         <v>85</v>
@@ -3579,7 +3583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" t="s">
         <v>86</v>
@@ -3600,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" t="s">
         <v>88</v>
@@ -3621,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" t="s">
         <v>90</v>
@@ -3639,7 +3643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" t="s">
         <v>91</v>
@@ -3660,7 +3664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>93</v>
       </c>
@@ -3680,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" t="s">
         <v>96</v>
@@ -3698,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" t="s">
         <v>98</v>
@@ -3716,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" t="s">
         <v>100</v>
@@ -3737,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" t="s">
         <v>103</v>
@@ -3758,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" t="s">
         <v>105</v>
@@ -3779,7 +3783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="C40" t="s">
         <v>107</v>
@@ -3800,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
       <c r="C41" t="s">
         <v>109</v>
@@ -3821,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="C42" t="s">
         <v>112</v>
@@ -3842,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" t="s">
         <v>114</v>
@@ -3863,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" t="s">
         <v>116</v>
@@ -3884,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" t="s">
         <v>120</v>
@@ -3905,7 +3909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" t="s">
         <v>123</v>
@@ -3926,7 +3930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" t="s">
         <v>125</v>
@@ -3947,7 +3951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" t="s">
         <v>128</v>
@@ -3968,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
       <c r="C49" t="s">
         <v>130</v>
@@ -3989,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="C50" t="s">
         <v>133</v>
@@ -4010,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
       <c r="C51" t="s">
         <v>136</v>
@@ -4031,7 +4035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" t="s">
         <v>139</v>
@@ -4052,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="C53" t="s">
         <v>142</v>
@@ -4073,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" t="s">
         <v>146</v>
@@ -4094,7 +4098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" t="s">
         <v>149</v>
@@ -4115,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="C56" t="s">
         <v>152</v>
@@ -4136,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
       <c r="C57" t="s">
         <v>154</v>
@@ -4157,7 +4161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
       <c r="C58" t="s">
         <v>157</v>
@@ -4175,7 +4179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
       <c r="C59" t="s">
         <v>159</v>
@@ -4196,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" t="s">
         <v>161</v>
@@ -4217,7 +4221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
       <c r="C61" t="s">
         <v>163</v>
@@ -4238,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="C62" t="s">
         <v>165</v>
@@ -4259,7 +4263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
       <c r="C63" t="s">
         <v>167</v>
@@ -4280,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64" t="s">
         <v>169</v>
@@ -4301,7 +4305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65" t="s">
         <v>171</v>
@@ -4322,7 +4326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
       <c r="C66" t="s">
         <v>173</v>
@@ -4343,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
       <c r="C67" t="s">
         <v>175</v>
@@ -4364,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
       <c r="C68" t="s">
         <v>177</v>
@@ -4385,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
       <c r="C69" t="s">
         <v>178</v>
@@ -4406,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
       <c r="C70" t="s">
         <v>179</v>
@@ -4427,7 +4431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
         <v>180</v>
       </c>
@@ -4450,7 +4454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="7"/>
       <c r="C72" t="s">
         <v>184</v>
@@ -4471,7 +4475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>186</v>
       </c>
@@ -4494,7 +4498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="7"/>
       <c r="C74" t="s">
         <v>190</v>
@@ -4515,7 +4519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="7"/>
       <c r="C75" t="s">
         <v>192</v>
@@ -4536,7 +4540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
       <c r="C76" t="s">
         <v>194</v>
@@ -4554,7 +4558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="7"/>
       <c r="C77" t="s">
         <v>196</v>
@@ -4575,7 +4579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
       <c r="C78" t="s">
         <v>199</v>
@@ -4593,7 +4597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="C79" t="s">
         <v>201</v>
@@ -4614,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="7"/>
       <c r="C80" t="s">
         <v>204</v>
@@ -4632,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
       <c r="C81" t="s">
         <v>206</v>
@@ -4653,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="7"/>
       <c r="C82" t="s">
         <v>208</v>
@@ -4671,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
       <c r="C83" t="s">
         <v>209</v>
@@ -4692,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
       <c r="C84" t="s">
         <v>211</v>
@@ -4710,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
       <c r="C85" t="s">
         <v>212</v>
@@ -4728,7 +4732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
       <c r="C86" t="s">
         <v>215</v>
@@ -4749,7 +4753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
       <c r="C87" t="s">
         <v>217</v>
@@ -4767,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
       <c r="C88" t="s">
         <v>218</v>
@@ -4788,7 +4792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
       <c r="C89" t="s">
         <v>219</v>
@@ -4809,7 +4813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
       <c r="C90" t="s">
         <v>222</v>
@@ -4830,7 +4834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
       <c r="C91" t="s">
         <v>224</v>
@@ -4851,7 +4855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
       <c r="C92" t="s">
         <v>226</v>
@@ -4872,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
       <c r="C93" t="s">
         <v>228</v>
@@ -4893,7 +4897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
       <c r="C94" t="s">
         <v>231</v>
@@ -4914,7 +4918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
       <c r="C95" t="s">
         <v>233</v>
@@ -4932,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
       <c r="C96" t="s">
         <v>234</v>
@@ -4953,7 +4957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
       <c r="C97" t="s">
         <v>235</v>
@@ -4971,7 +4975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="7"/>
       <c r="C98" t="s">
         <v>236</v>
@@ -4992,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="7"/>
       <c r="C99" t="s">
         <v>237</v>
@@ -5013,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
       <c r="C100" t="s">
         <v>240</v>
@@ -5034,7 +5038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
       <c r="C101" t="s">
         <v>243</v>
@@ -5055,7 +5059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
         <v>245</v>
       </c>
@@ -5075,7 +5079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
       <c r="C103" t="s">
         <v>249</v>
@@ -5096,7 +5100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="7"/>
       <c r="C104" t="s">
         <v>252</v>
@@ -5117,7 +5121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="7"/>
       <c r="C105" t="s">
         <v>254</v>
@@ -5138,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
       <c r="C106" t="s">
         <v>257</v>
@@ -5159,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="7"/>
       <c r="C107" t="s">
         <v>261</v>
@@ -5180,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
       <c r="C108" t="s">
         <v>264</v>
@@ -5201,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
       <c r="C109" t="s">
         <v>265</v>
@@ -5222,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
       <c r="C110" t="s">
         <v>268</v>
@@ -5243,7 +5247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
       <c r="C111" t="s">
         <v>270</v>
@@ -5264,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="7"/>
       <c r="C112" t="s">
         <v>273</v>
@@ -5285,7 +5289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="7"/>
       <c r="C113" t="s">
         <v>277</v>
@@ -5306,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="7"/>
       <c r="C114" t="s">
         <v>279</v>
@@ -5327,7 +5331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
       <c r="C115" t="s">
         <v>283</v>
@@ -5348,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
       <c r="C116" t="s">
         <v>285</v>
@@ -5366,7 +5370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
       <c r="C117" t="s">
         <v>288</v>
@@ -5384,7 +5388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="7"/>
       <c r="C118" t="s">
         <v>291</v>
@@ -5405,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
       <c r="C119" t="s">
         <v>294</v>
@@ -5426,7 +5430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
       <c r="C120" t="s">
         <v>295</v>
@@ -5447,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="7"/>
       <c r="C121" t="s">
         <v>297</v>
@@ -5468,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="7"/>
       <c r="C122" t="s">
         <v>299</v>
@@ -5489,7 +5493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="7"/>
       <c r="C123" t="s">
         <v>301</v>
@@ -5510,7 +5514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
       <c r="C124" t="s">
         <v>302</v>
@@ -5528,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
       <c r="C125" t="s">
         <v>305</v>
@@ -5549,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="7"/>
       <c r="C126" t="s">
         <v>309</v>
@@ -5570,7 +5574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="7"/>
       <c r="C127" t="s">
         <v>311</v>
@@ -5591,7 +5595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="7"/>
       <c r="C128" t="s">
         <v>313</v>
@@ -5612,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="7"/>
       <c r="C129" t="s">
         <v>315</v>
@@ -5633,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="7"/>
       <c r="C130" t="s">
         <v>317</v>
@@ -5654,7 +5658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="7"/>
       <c r="C131" t="s">
         <v>320</v>
@@ -5675,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="6" t="s">
         <v>323</v>
       </c>
@@ -5698,7 +5702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="7"/>
       <c r="C133" t="s">
         <v>328</v>
@@ -5719,7 +5723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="7"/>
       <c r="C134" t="s">
         <v>330</v>
@@ -5737,7 +5741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="7"/>
       <c r="C135" t="s">
         <v>333</v>
@@ -5755,7 +5759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="7"/>
       <c r="C136" t="s">
         <v>335</v>
@@ -5776,7 +5780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="7"/>
       <c r="C137" t="s">
         <v>338</v>
@@ -5797,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="7"/>
       <c r="C138" t="s">
         <v>340</v>
@@ -5818,7 +5822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="7"/>
       <c r="C139" t="s">
         <v>343</v>
@@ -5839,7 +5843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="7"/>
       <c r="C140" t="s">
         <v>346</v>
@@ -5860,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="7"/>
       <c r="C141" t="s">
         <v>349</v>
@@ -5881,7 +5885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="7"/>
       <c r="C142" t="s">
         <v>352</v>
@@ -5902,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="7"/>
       <c r="C143" t="s">
         <v>354</v>
@@ -5923,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="7"/>
       <c r="C144" t="s">
         <v>357</v>
@@ -5944,7 +5948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="7"/>
       <c r="C145" t="s">
         <v>360</v>
@@ -5965,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="7"/>
       <c r="C146" t="s">
         <v>363</v>
@@ -5986,7 +5990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="7"/>
       <c r="C147" t="s">
         <v>367</v>
@@ -6007,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="7"/>
       <c r="C148" t="s">
         <v>371</v>
@@ -6028,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="7"/>
       <c r="C149" t="s">
         <v>374</v>
@@ -6049,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="7"/>
       <c r="C150" t="s">
         <v>377</v>
@@ -6070,7 +6074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="7"/>
       <c r="C151" t="s">
         <v>380</v>
@@ -6091,7 +6095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="7"/>
       <c r="C152" t="s">
         <v>383</v>
@@ -6109,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="7"/>
       <c r="C153" t="s">
         <v>385</v>
@@ -6130,7 +6134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="7"/>
       <c r="C154" t="s">
         <v>388</v>
@@ -6151,7 +6155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="7"/>
       <c r="C155" t="s">
         <v>390</v>
@@ -6172,7 +6176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="7"/>
       <c r="C156" t="s">
         <v>392</v>
@@ -6190,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="7"/>
       <c r="C157" t="s">
         <v>394</v>
@@ -6211,7 +6215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="7"/>
       <c r="C158" t="s">
         <v>397</v>
@@ -6232,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="7"/>
       <c r="C159" t="s">
         <v>399</v>
@@ -6253,7 +6257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="7"/>
       <c r="C160" t="s">
         <v>401</v>
@@ -6271,7 +6275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="7"/>
       <c r="C161" t="s">
         <v>403</v>
@@ -6292,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="7"/>
       <c r="C162" t="s">
         <v>406</v>
@@ -6313,7 +6317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="7"/>
       <c r="C163" t="s">
         <v>408</v>
@@ -6334,7 +6338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="7"/>
       <c r="C164" t="s">
         <v>410</v>
@@ -6352,7 +6356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="7"/>
       <c r="C165" t="s">
         <v>412</v>
@@ -6373,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="7"/>
       <c r="C166" t="s">
         <v>415</v>
@@ -6394,7 +6398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="7"/>
       <c r="C167" t="s">
         <v>417</v>
@@ -6415,7 +6419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="7"/>
       <c r="C168" t="s">
         <v>419</v>
@@ -6433,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="7"/>
       <c r="C169" t="s">
         <v>421</v>
@@ -6454,7 +6458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="7"/>
       <c r="C170" t="s">
         <v>424</v>
@@ -6475,7 +6479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="7"/>
       <c r="C171" t="s">
         <v>426</v>
@@ -6496,7 +6500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="7"/>
       <c r="C172" t="s">
         <v>428</v>
@@ -6514,7 +6518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="7"/>
       <c r="C173" t="s">
         <v>430</v>
@@ -6535,7 +6539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="7"/>
       <c r="C174" t="s">
         <v>433</v>
@@ -6556,7 +6560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="7"/>
       <c r="C175" t="s">
         <v>435</v>
@@ -6577,7 +6581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="7"/>
       <c r="C176" t="s">
         <v>437</v>
@@ -6595,7 +6599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="7"/>
       <c r="C177" t="s">
         <v>439</v>
@@ -6616,7 +6620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="7"/>
       <c r="C178" t="s">
         <v>442</v>
@@ -6637,7 +6641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="7"/>
       <c r="C179" t="s">
         <v>444</v>
@@ -6658,7 +6662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="7"/>
       <c r="C180" t="s">
         <v>447</v>
@@ -6676,7 +6680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="7"/>
       <c r="C181" t="s">
         <v>450</v>
@@ -6697,7 +6701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="7"/>
       <c r="C182" t="s">
         <v>453</v>
@@ -6718,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="7"/>
       <c r="C183" t="s">
         <v>453</v>
@@ -6739,7 +6743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="7"/>
       <c r="C184" t="s">
         <v>457</v>
@@ -6760,7 +6764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="7"/>
       <c r="C185" t="s">
         <v>458</v>
@@ -6781,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="7"/>
       <c r="C186" t="s">
         <v>461</v>
@@ -6802,7 +6806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="7"/>
       <c r="C187" t="s">
         <v>464</v>
@@ -6823,7 +6827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="7"/>
       <c r="C188" t="s">
         <v>467</v>
@@ -6844,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="7"/>
       <c r="C189" t="s">
         <v>469</v>
@@ -6865,7 +6869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="7"/>
       <c r="C190" t="s">
         <v>473</v>
@@ -6886,7 +6890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="7"/>
       <c r="C191" t="s">
         <v>476</v>
@@ -6907,7 +6911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="7"/>
       <c r="C192" t="s">
         <v>363</v>
@@ -6928,7 +6932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="7"/>
       <c r="C193" t="s">
         <v>481</v>
@@ -6949,7 +6953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="7"/>
       <c r="C194" t="s">
         <v>484</v>
@@ -6970,7 +6974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="7"/>
       <c r="C195" t="s">
         <v>488</v>
@@ -6991,7 +6995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="7"/>
       <c r="C196" t="s">
         <v>490</v>
@@ -7012,7 +7016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="7"/>
       <c r="C197" t="s">
         <v>493</v>
@@ -7033,7 +7037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="7"/>
       <c r="C198" t="s">
         <v>495</v>
@@ -7054,7 +7058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="7"/>
       <c r="C199" t="s">
         <v>499</v>
@@ -7075,7 +7079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="7"/>
       <c r="C200" t="s">
         <v>501</v>
@@ -7096,7 +7100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="7"/>
       <c r="C201" t="s">
         <v>502</v>
@@ -7117,7 +7121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="7"/>
       <c r="C202" t="s">
         <v>506</v>
@@ -7138,7 +7142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="7"/>
       <c r="C203" t="s">
         <v>508</v>
@@ -7159,7 +7163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="7"/>
       <c r="C204" t="s">
         <v>509</v>
@@ -7180,7 +7184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="7"/>
       <c r="C205" t="s">
         <v>513</v>
@@ -7201,7 +7205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="7"/>
       <c r="C206" t="s">
         <v>515</v>
@@ -7222,7 +7226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="7"/>
       <c r="C207" t="s">
         <v>516</v>
@@ -7240,7 +7244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="7"/>
       <c r="C208" t="s">
         <v>518</v>
@@ -7258,7 +7262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="7"/>
       <c r="C209" t="s">
         <v>520</v>
@@ -7279,7 +7283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="7"/>
       <c r="C210" t="s">
         <v>523</v>
@@ -7300,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="7"/>
       <c r="C211" t="s">
         <v>527</v>
@@ -7321,7 +7325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="7"/>
       <c r="C212" t="s">
         <v>529</v>
@@ -7342,7 +7346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="7"/>
       <c r="C213" t="s">
         <v>533</v>
@@ -7363,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="7"/>
       <c r="C214" t="s">
         <v>533</v>
@@ -7384,7 +7388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="7"/>
       <c r="C215" t="s">
         <v>539</v>
@@ -7405,7 +7409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="7"/>
       <c r="C216" t="s">
         <v>542</v>
@@ -7426,7 +7430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="7"/>
       <c r="C217" t="s">
         <v>544</v>
@@ -7447,7 +7451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="7"/>
       <c r="C218" t="s">
         <v>545</v>
@@ -7468,7 +7472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="7"/>
       <c r="C219" t="s">
         <v>547</v>
@@ -7489,7 +7493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="7"/>
       <c r="C220" t="s">
         <v>550</v>
@@ -7510,7 +7514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="7"/>
       <c r="C221" t="s">
         <v>553</v>
@@ -7531,7 +7535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="7"/>
       <c r="C222" t="s">
         <v>556</v>
@@ -7552,7 +7556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="7"/>
       <c r="C223" t="s">
         <v>558</v>
@@ -7573,7 +7577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="7"/>
       <c r="C224" t="s">
         <v>560</v>
@@ -7594,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="7"/>
       <c r="C225" t="s">
         <v>563</v>
@@ -7615,7 +7619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="7"/>
       <c r="C226" t="s">
         <v>566</v>
@@ -7636,7 +7640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="7"/>
       <c r="C227" t="s">
         <v>568</v>
@@ -7657,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="7"/>
       <c r="C228" t="s">
         <v>571</v>
@@ -7678,7 +7682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="7"/>
       <c r="C229" t="s">
         <v>574</v>
@@ -7699,7 +7703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="6" t="s">
         <v>578</v>
       </c>
@@ -7722,7 +7726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="7"/>
       <c r="C231" t="s">
         <v>583</v>
@@ -7743,7 +7747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="7"/>
       <c r="C232" t="s">
         <v>585</v>
@@ -7764,7 +7768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="7"/>
       <c r="C233" t="s">
         <v>588</v>
@@ -7785,7 +7789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="7"/>
       <c r="C234" t="s">
         <v>590</v>
@@ -7806,7 +7810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="7"/>
       <c r="C235" t="s">
         <v>593</v>
@@ -7827,7 +7831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="7"/>
       <c r="C236" t="s">
         <v>596</v>
@@ -7848,7 +7852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="7"/>
       <c r="C237" t="s">
         <v>599</v>
@@ -7869,7 +7873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="7"/>
       <c r="C238" t="s">
         <v>601</v>
@@ -7890,7 +7894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="7"/>
       <c r="C239" t="s">
         <v>603</v>
@@ -7911,7 +7915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="7"/>
       <c r="C240" t="s">
         <v>606</v>
@@ -7932,7 +7936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="7"/>
       <c r="C241" t="s">
         <v>608</v>
@@ -7953,7 +7957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="7"/>
       <c r="C242" t="s">
         <v>610</v>
@@ -7974,7 +7978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="7"/>
       <c r="C243" t="s">
         <v>613</v>
@@ -7995,7 +7999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="7"/>
       <c r="C244" t="s">
         <v>615</v>
@@ -8016,7 +8020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="7"/>
       <c r="C245" t="s">
         <v>617</v>
@@ -8037,7 +8041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="7"/>
       <c r="C246" t="s">
         <v>620</v>
@@ -8058,7 +8062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="7"/>
       <c r="C247" t="s">
         <v>623</v>
@@ -8079,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="7"/>
       <c r="C248" t="s">
         <v>626</v>
@@ -8100,7 +8104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="7"/>
       <c r="C249" t="s">
         <v>629</v>
@@ -8121,7 +8125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="7"/>
       <c r="C250" t="s">
         <v>632</v>
@@ -8142,7 +8146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="7"/>
       <c r="C251" t="s">
         <v>634</v>
@@ -8163,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="7"/>
       <c r="C252" t="s">
         <v>637</v>
@@ -8184,7 +8188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="7"/>
       <c r="C253" t="s">
         <v>639</v>
@@ -8205,7 +8209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="7"/>
       <c r="C254" t="s">
         <v>642</v>
@@ -8226,7 +8230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="7"/>
       <c r="C255" t="s">
         <v>645</v>
@@ -8247,7 +8251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="7"/>
       <c r="C256" t="s">
         <v>648</v>
@@ -8268,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="7"/>
       <c r="C257" t="s">
         <v>651</v>
@@ -8289,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="7"/>
       <c r="C258" t="s">
         <v>653</v>
@@ -8310,7 +8314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="7"/>
       <c r="C259" t="s">
         <v>656</v>
@@ -8331,7 +8335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="7"/>
       <c r="C260" t="s">
         <v>658</v>
@@ -8352,7 +8356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="7"/>
       <c r="C261" t="s">
         <v>660</v>
@@ -8373,7 +8377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="7"/>
       <c r="C262" t="s">
         <v>662</v>
@@ -8394,7 +8398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="7"/>
       <c r="C263" t="s">
         <v>665</v>
@@ -8415,7 +8419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="7"/>
       <c r="C264" t="s">
         <v>667</v>
@@ -8436,7 +8440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="7"/>
       <c r="C265" t="s">
         <v>669</v>
@@ -8457,7 +8461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="7"/>
       <c r="C266" t="s">
         <v>671</v>
@@ -8478,7 +8482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="7"/>
       <c r="C267" t="s">
         <v>673</v>
@@ -8499,7 +8503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="7"/>
       <c r="C268" t="s">
         <v>674</v>
@@ -8520,7 +8524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="7"/>
       <c r="C269" t="s">
         <v>675</v>
@@ -8541,7 +8545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="7"/>
       <c r="C270" t="s">
         <v>677</v>
@@ -8562,7 +8566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="7"/>
       <c r="C271" t="s">
         <v>679</v>
@@ -8583,7 +8587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="7"/>
       <c r="C272" t="s">
         <v>681</v>
@@ -8604,7 +8608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="7"/>
       <c r="C273" t="s">
         <v>682</v>
@@ -8622,7 +8626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="7"/>
       <c r="C274" t="s">
         <v>684</v>
@@ -8640,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="7"/>
       <c r="C275" t="s">
         <v>686</v>
@@ -8658,7 +8662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="7"/>
       <c r="C276" t="s">
         <v>687</v>
@@ -8676,7 +8680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="7"/>
       <c r="C277" t="s">
         <v>689</v>
@@ -8697,7 +8701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="7"/>
       <c r="C278" t="s">
         <v>691</v>
@@ -8718,7 +8722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="7"/>
       <c r="C279" t="s">
         <v>694</v>
@@ -8739,7 +8743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="7"/>
       <c r="C280" t="s">
         <v>696</v>
@@ -8757,7 +8761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="7"/>
       <c r="C281" t="s">
         <v>698</v>
@@ -8778,7 +8782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="7"/>
       <c r="C282" t="s">
         <v>701</v>
@@ -8799,7 +8803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="7"/>
       <c r="C283" t="s">
         <v>704</v>
@@ -8820,7 +8824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="7"/>
       <c r="C284" t="s">
         <v>706</v>
@@ -8838,7 +8842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="7"/>
       <c r="C285" t="s">
         <v>707</v>
@@ -8859,7 +8863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="7"/>
       <c r="C286" t="s">
         <v>709</v>
@@ -8880,7 +8884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="7"/>
       <c r="C287" t="s">
         <v>712</v>
@@ -8901,7 +8905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="7"/>
       <c r="C288" t="s">
         <v>715</v>
@@ -8922,7 +8926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="7"/>
       <c r="C289" t="s">
         <v>717</v>
@@ -8943,7 +8947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="7"/>
       <c r="C290" t="s">
         <v>719</v>
@@ -8964,7 +8968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="7"/>
       <c r="C291" t="s">
         <v>721</v>
@@ -8985,7 +8989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="7"/>
       <c r="C292" t="s">
         <v>723</v>
@@ -9006,7 +9010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="7"/>
       <c r="C293" t="s">
         <v>727</v>
@@ -9027,7 +9031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="6" t="s">
         <v>729</v>
       </c>
@@ -9050,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="7"/>
       <c r="C295" t="s">
         <v>733</v>
@@ -9071,7 +9075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="7"/>
       <c r="C296" t="s">
         <v>735</v>
@@ -9092,7 +9096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="7"/>
       <c r="C297" t="s">
         <v>738</v>
@@ -9113,7 +9117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="7"/>
       <c r="C298" t="s">
         <v>740</v>
@@ -9134,7 +9138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="7"/>
       <c r="C299" t="s">
         <v>742</v>
@@ -9155,7 +9159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="7"/>
       <c r="C300" t="s">
         <v>744</v>
@@ -9176,7 +9180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="7"/>
       <c r="C301" t="s">
         <v>748</v>
@@ -9194,7 +9198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="6" t="s">
         <v>750</v>
       </c>
@@ -9214,7 +9218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="7"/>
       <c r="C303" t="s">
         <v>753</v>
@@ -9235,7 +9239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="7"/>
       <c r="C304" t="s">
         <v>755</v>
@@ -9253,7 +9257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="7"/>
       <c r="C305" t="s">
         <v>757</v>
@@ -9274,7 +9278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="7"/>
       <c r="C306" t="s">
         <v>759</v>
@@ -9295,7 +9299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="7"/>
       <c r="C307" t="s">
         <v>761</v>
@@ -9316,7 +9320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="7"/>
       <c r="C308" t="s">
         <v>762</v>
@@ -9337,7 +9341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="7"/>
       <c r="C309" t="s">
         <v>764</v>
@@ -9355,7 +9359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="7"/>
       <c r="C310" t="s">
         <v>765</v>
@@ -9400,20 +9404,20 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="60.83203125" customWidth="1"/>
-    <col min="7" max="7" width="68.33203125" customWidth="1"/>
-    <col min="8" max="8" width="55.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="60.81640625" customWidth="1"/>
+    <col min="7" max="7" width="68.36328125" customWidth="1"/>
+    <col min="8" max="8" width="55.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9442,7 +9446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -9468,7 +9472,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -9489,7 +9493,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -9510,7 +9514,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -9531,7 +9535,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -9552,7 +9556,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -9573,7 +9577,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -9594,7 +9598,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -9615,7 +9619,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -9636,7 +9640,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -9656,7 +9660,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -9674,7 +9678,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -9692,7 +9696,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -9710,7 +9714,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -9728,7 +9732,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -9748,7 +9752,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -9765,7 +9769,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -9782,42 +9786,42 @@
         <v>802</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -9846,13 +9850,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>803</v>
       </c>
@@ -9860,7 +9864,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>805</v>
       </c>
@@ -9868,7 +9872,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>807</v>
       </c>

--- a/TestDatas/jm_api_info.xlsx
+++ b/TestDatas/jm_api_info.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zws/longbeach/jm_api_py_test/TestDatas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case_datas" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="prepare_datas" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="case_datas" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
+    <sheet name="prepare_datas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="832">
   <si>
     <t>case_id</t>
   </si>
@@ -690,7 +703,7 @@
     <t>profile-推荐好友-参数错误</t>
   </si>
   <si>
-    <t>}_x000D_
+    <t>}
 {"toUser":"CjUSsCVOECDW16qv20-Hlg"}</t>
   </si>
   <si>
@@ -1057,7 +1070,7 @@
     <t>聊天-悄悄话列表-获取iOS乔乔学姐信息（正常请求）</t>
   </si>
   <si>
-    <t>}_x000D_
+    <t>}
 {"session":"dpouZsutKOLW16qv20-Hlg.mPxTwQOzDO7W16qv20-Hlg"}</t>
   </si>
   <si>
@@ -1616,7 +1629,7 @@
     <t>聊天-群聊对话框-不在群聊中发送表情消息</t>
   </si>
   <si>
-    <t>}_x000D_
+    <t>}
 {"count":"100&amp;group":"pgKNofu8A2MGre5XIl7UhA"}</t>
   </si>
   <si>
@@ -2112,14 +2125,14 @@
     <t>新鲜事-转发-功能失效用户</t>
   </si>
   <si>
-    <t>}_x000D_
+    <t>}
 }</t>
   </si>
   <si>
     <t>新鲜事-评论-功能失效用户</t>
   </si>
   <si>
-    <t>}_x000D_
+    <t>}
 {"content":"{#4D7nzD4yZF9B3sdypS8uRw}abcde&amp;topics":"4D7nzD4yZF9B3sdypS8uRw"}</t>
   </si>
   <si>
@@ -2300,7 +2313,7 @@
     <t>加好友-随便看看-筛选数据为空</t>
   </si>
   <si>
-    <t>}_x000D_
+    <t>}
 {"school":"yJVJJO0qCCLm161ACoDmwQ"}</t>
   </si>
   <si>
@@ -2512,68 +2525,75 @@
   </si>
   <si>
     <t>${init_phone_1}</t>
+  </si>
+  <si>
+    <t>/api/v2/mobile/verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2/mobile/verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="11"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF505050"/>
       <name val="Helvetica"/>
       <family val="2"/>
-      <color rgb="FF505050"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2588,39 +2608,45 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="超链接" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="已访问的超链接" xfId="2"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2908,32 +2934,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.81640625" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="7" width="7"/>
-    <col customWidth="1" max="2" min="2" style="7" width="14.36328125"/>
-    <col customWidth="1" max="3" min="3" width="51.453125"/>
-    <col customWidth="1" max="4" min="4" style="7" width="14.36328125"/>
-    <col customWidth="1" max="5" min="5" style="6" width="8.81640625"/>
-    <col customWidth="1" max="6" min="6" width="36.81640625"/>
-    <col customWidth="1" max="7" min="7" width="81.36328125"/>
-    <col customWidth="1" max="8" min="8" width="64"/>
-    <col customWidth="1" max="9" min="9" style="7" width="13"/>
-    <col customWidth="1" max="10" min="10" width="27.453125"/>
+    <col min="1" max="1" width="7" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="51.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.83203125" customWidth="1"/>
+    <col min="7" max="7" width="81.33203125" customWidth="1"/>
+    <col min="8" max="8" width="64" customWidth="1"/>
+    <col min="9" max="9" width="13" style="5" customWidth="1"/>
+    <col min="10" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="15" r="1" s="6" spans="1:10">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2965,24 +2987,24 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" spans="1:10">
-      <c r="A2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>830</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -2990,24 +3012,25 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="5">
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="3" spans="1:10">
-      <c r="A3" s="7" t="n">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
+      <c r="B3" s="8"/>
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
@@ -3019,22 +3042,23 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="4" spans="1:10">
-      <c r="A4" s="7" t="n">
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
+      <c r="B4" s="8"/>
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
@@ -3046,21 +3070,22 @@
       <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="5" spans="1:10">
-      <c r="A5" s="7" t="n">
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
@@ -3072,21 +3097,22 @@
       <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="6" spans="1:10">
-      <c r="A6" s="7" t="n">
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
@@ -3098,24 +3124,24 @@
       <c r="H6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="7" spans="1:10">
-      <c r="A7" s="7" t="n">
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
@@ -3127,21 +3153,22 @@
       <c r="H7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="8" spans="1:10">
-      <c r="A8" s="7" t="n">
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
@@ -3153,21 +3180,22 @@
       <c r="H8" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="9" spans="1:10">
-      <c r="A9" s="7" t="n">
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
@@ -3179,21 +3207,22 @@
       <c r="H9" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="10" spans="1:10">
-      <c r="A10" s="7" t="n">
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
@@ -3205,15 +3234,16 @@
       <c r="H10" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="11" spans="1:10">
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
@@ -3225,15 +3255,16 @@
       <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="12" spans="1:10">
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
@@ -3245,15 +3276,16 @@
       <c r="H12" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="13" spans="1:10">
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
@@ -3265,15 +3297,16 @@
       <c r="H13" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="14" spans="1:10">
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
@@ -3285,15 +3318,16 @@
       <c r="H14" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="15" spans="1:10">
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
@@ -3305,15 +3339,16 @@
       <c r="H15" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="16" spans="1:10">
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
@@ -3325,15 +3360,16 @@
       <c r="H16" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="17" spans="1:10">
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
@@ -3345,15 +3381,16 @@
       <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="18" spans="1:10">
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F18" t="s">
@@ -3362,15 +3399,16 @@
       <c r="H18" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="19" spans="1:10">
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
@@ -3382,15 +3420,16 @@
       <c r="H19" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="20" spans="1:10">
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
@@ -3402,15 +3441,16 @@
       <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="21" spans="1:10">
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="8"/>
       <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
@@ -3422,15 +3462,16 @@
       <c r="H21" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="22" spans="1:10">
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="8"/>
       <c r="C22" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F22" t="s">
@@ -3439,15 +3480,16 @@
       <c r="H22" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="23" spans="1:10">
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
@@ -3459,15 +3501,16 @@
       <c r="H23" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="24" spans="1:10">
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F24" t="s">
@@ -3479,15 +3522,16 @@
       <c r="H24" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="25" spans="1:10">
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="8"/>
       <c r="C25" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F25" t="s">
@@ -3496,18 +3540,18 @@
       <c r="H25" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="26" spans="1:10">
-      <c r="B26" s="6" t="s">
+      <c r="I25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C26" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
@@ -3519,15 +3563,16 @@
       <c r="H26" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="27" spans="1:10">
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="8"/>
       <c r="C27" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" t="s">
@@ -3539,15 +3584,16 @@
       <c r="H27" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="28" spans="1:10">
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="8"/>
       <c r="C28" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F28" t="s">
@@ -3559,15 +3605,16 @@
       <c r="H28" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="29" spans="1:10">
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="8"/>
       <c r="C29" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
@@ -3579,15 +3626,16 @@
       <c r="H29" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="30" spans="1:10">
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="8"/>
       <c r="C30" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" t="s">
@@ -3599,15 +3647,16 @@
       <c r="H30" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="31" spans="1:10">
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="8"/>
       <c r="C31" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
@@ -3619,15 +3668,16 @@
       <c r="H31" t="s">
         <v>72</v>
       </c>
-      <c r="I31" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="32" spans="1:10">
+      <c r="I31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="8"/>
       <c r="C32" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F32" t="s">
@@ -3636,15 +3686,16 @@
       <c r="H32" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="33" spans="1:10">
+      <c r="I32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="8"/>
       <c r="C33" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="s">
@@ -3656,18 +3707,18 @@
       <c r="H33" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="34" spans="1:10">
-      <c r="B34" s="6" t="s">
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C34" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F34" t="s">
@@ -3676,33 +3727,35 @@
       <c r="H34" t="s">
         <v>75</v>
       </c>
-      <c r="I34" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="35" spans="1:10">
+      <c r="I34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="8"/>
       <c r="C35" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F35" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="8" t="n"/>
+      <c r="G35" s="6"/>
       <c r="H35" t="s">
         <v>75</v>
       </c>
-      <c r="I35" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="36" spans="1:10">
+      <c r="I35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="8"/>
       <c r="C36" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F36" t="s">
@@ -3714,15 +3767,16 @@
       <c r="H36" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="37" spans="1:10">
+      <c r="I36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="8"/>
       <c r="C37" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="s">
@@ -3734,15 +3788,16 @@
       <c r="H37" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="38" spans="1:10">
+      <c r="I37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="8"/>
       <c r="C38" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
@@ -3754,15 +3809,16 @@
       <c r="H38" t="s">
         <v>58</v>
       </c>
-      <c r="I38" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="39" spans="1:10">
+      <c r="I38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="8"/>
       <c r="C39" t="s">
         <v>113</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
@@ -3774,15 +3830,16 @@
       <c r="H39" t="s">
         <v>52</v>
       </c>
-      <c r="I39" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="40" spans="1:10">
+      <c r="I39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="8"/>
       <c r="C40" t="s">
         <v>115</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
@@ -3794,15 +3851,16 @@
       <c r="H40" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="41" spans="1:10">
+      <c r="I40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="8"/>
       <c r="C41" t="s">
         <v>118</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
@@ -3814,15 +3872,16 @@
       <c r="H41" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="42" spans="1:10">
+      <c r="I41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="8"/>
       <c r="C42" t="s">
         <v>121</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
@@ -3834,15 +3893,16 @@
       <c r="H42" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="43" spans="1:10">
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="8"/>
       <c r="C43" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F43" t="s">
@@ -3854,15 +3914,16 @@
       <c r="H43" t="s">
         <v>16</v>
       </c>
-      <c r="I43" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="44" spans="1:10">
+      <c r="I43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="8"/>
       <c r="C44" t="s">
         <v>125</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F44" t="s">
@@ -3874,15 +3935,16 @@
       <c r="H44" t="s">
         <v>128</v>
       </c>
-      <c r="I44" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="45" spans="1:10">
+      <c r="I44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="8"/>
       <c r="C45" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F45" t="s">
@@ -3894,15 +3956,16 @@
       <c r="H45" t="s">
         <v>16</v>
       </c>
-      <c r="I45" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="46" spans="1:10">
+      <c r="I45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="8"/>
       <c r="C46" t="s">
         <v>132</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" t="s">
@@ -3914,15 +3977,16 @@
       <c r="H46" t="s">
         <v>16</v>
       </c>
-      <c r="I46" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="47" spans="1:10">
+      <c r="I46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="8"/>
       <c r="C47" t="s">
         <v>134</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" t="s">
@@ -3934,15 +3998,16 @@
       <c r="H47" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="48" spans="1:10">
+      <c r="I47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="8"/>
       <c r="C48" t="s">
         <v>137</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F48" t="s">
@@ -3954,15 +4019,16 @@
       <c r="H48" t="s">
         <v>16</v>
       </c>
-      <c r="I48" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="49" spans="1:10">
+      <c r="I48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="8"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F49" t="s">
@@ -3974,15 +4040,16 @@
       <c r="H49" t="s">
         <v>16</v>
       </c>
-      <c r="I49" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="50" spans="1:10">
+      <c r="I49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="8"/>
       <c r="C50" t="s">
         <v>142</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" t="s">
@@ -3994,15 +4061,16 @@
       <c r="H50" t="s">
         <v>144</v>
       </c>
-      <c r="I50" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="51" spans="1:10">
+      <c r="I50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="8"/>
       <c r="C51" t="s">
         <v>145</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F51" t="s">
@@ -4014,15 +4082,16 @@
       <c r="H51" t="s">
         <v>147</v>
       </c>
-      <c r="I51" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="52" spans="1:10">
+      <c r="I51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="8"/>
       <c r="C52" t="s">
         <v>148</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F52" t="s">
@@ -4034,15 +4103,16 @@
       <c r="H52" t="s">
         <v>150</v>
       </c>
-      <c r="I52" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="53" spans="1:10">
+      <c r="I52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="8"/>
       <c r="C53" t="s">
         <v>151</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F53" t="s">
@@ -4054,15 +4124,16 @@
       <c r="H53" t="s">
         <v>154</v>
       </c>
-      <c r="I53" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="54" spans="1:10">
+      <c r="I53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="8"/>
       <c r="C54" t="s">
         <v>155</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
@@ -4074,15 +4145,16 @@
       <c r="H54" t="s">
         <v>157</v>
       </c>
-      <c r="I54" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="55" spans="1:10">
+      <c r="I54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="8"/>
       <c r="C55" t="s">
         <v>158</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F55" t="s">
@@ -4094,15 +4166,16 @@
       <c r="H55" t="s">
         <v>16</v>
       </c>
-      <c r="I55" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="56" spans="1:10">
+      <c r="I55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="8"/>
       <c r="C56" t="s">
         <v>161</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" t="s">
@@ -4114,15 +4187,16 @@
       <c r="H56" t="s">
         <v>16</v>
       </c>
-      <c r="I56" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="57" spans="1:10">
+      <c r="I56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="8"/>
       <c r="C57" t="s">
         <v>163</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F57" t="s">
@@ -4131,15 +4205,16 @@
       <c r="H57" t="s">
         <v>16</v>
       </c>
-      <c r="I57" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="58" spans="1:10">
+      <c r="I57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="8"/>
       <c r="C58" t="s">
         <v>165</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="s">
@@ -4151,15 +4226,16 @@
       <c r="H58" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="59" spans="1:10">
+      <c r="I58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="8"/>
       <c r="C59" t="s">
         <v>168</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" t="s">
@@ -4171,15 +4247,16 @@
       <c r="H59" t="s">
         <v>16</v>
       </c>
-      <c r="I59" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="60" spans="1:10">
+      <c r="I59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="8"/>
       <c r="C60" t="s">
         <v>170</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" t="s">
@@ -4191,15 +4268,16 @@
       <c r="H60" t="s">
         <v>16</v>
       </c>
-      <c r="I60" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="61" spans="1:10">
+      <c r="I60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="8"/>
       <c r="C61" t="s">
         <v>172</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F61" t="s">
@@ -4211,15 +4289,16 @@
       <c r="H61" t="s">
         <v>16</v>
       </c>
-      <c r="I61" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="62" spans="1:10">
+      <c r="I61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="8"/>
       <c r="C62" t="s">
         <v>174</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F62" t="s">
@@ -4231,15 +4310,16 @@
       <c r="H62" t="s">
         <v>16</v>
       </c>
-      <c r="I62" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="63" spans="1:10">
+      <c r="I62" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="8"/>
       <c r="C63" t="s">
         <v>176</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F63" t="s">
@@ -4251,15 +4331,16 @@
       <c r="H63" t="s">
         <v>16</v>
       </c>
-      <c r="I63" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="64" spans="1:10">
+      <c r="I63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="8"/>
       <c r="C64" t="s">
         <v>178</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F64" t="s">
@@ -4271,15 +4352,16 @@
       <c r="H64" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="65" spans="1:10">
+      <c r="I64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="8"/>
       <c r="C65" t="s">
         <v>180</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F65" t="s">
@@ -4291,15 +4373,16 @@
       <c r="H65" t="s">
         <v>16</v>
       </c>
-      <c r="I65" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="66" spans="1:10">
+      <c r="I65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="8"/>
       <c r="C66" t="s">
         <v>182</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F66" t="s">
@@ -4311,15 +4394,16 @@
       <c r="H66" t="s">
         <v>16</v>
       </c>
-      <c r="I66" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="67" spans="1:10">
+      <c r="I66" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="8"/>
       <c r="C67" t="s">
         <v>184</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" t="s">
@@ -4331,15 +4415,16 @@
       <c r="H67" t="s">
         <v>16</v>
       </c>
-      <c r="I67" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="68" spans="1:10">
+      <c r="I67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="8"/>
       <c r="C68" t="s">
         <v>187</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" t="s">
@@ -4351,15 +4436,16 @@
       <c r="H68" t="s">
         <v>16</v>
       </c>
-      <c r="I68" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="69" spans="1:10">
+      <c r="I68" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="8"/>
       <c r="C69" t="s">
         <v>189</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" t="s">
@@ -4371,15 +4457,16 @@
       <c r="H69" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="70" spans="1:10">
+      <c r="I69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="8"/>
       <c r="C70" t="s">
         <v>190</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F70" t="s">
@@ -4391,18 +4478,18 @@
       <c r="H70" t="s">
         <v>16</v>
       </c>
-      <c r="I70" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="71" spans="1:10">
-      <c r="B71" s="6" t="s">
+      <c r="I70" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="7" t="s">
         <v>192</v>
       </c>
       <c r="C71" t="s">
         <v>193</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F71" t="s">
@@ -4414,15 +4501,16 @@
       <c r="H71" t="s">
         <v>16</v>
       </c>
-      <c r="I71" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="72" spans="1:10">
+      <c r="I71" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="8"/>
       <c r="C72" t="s">
         <v>195</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F72" t="s">
@@ -4434,18 +4522,18 @@
       <c r="H72" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="73" spans="1:10">
-      <c r="B73" s="6" t="s">
+      <c r="I72" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="7" t="s">
         <v>198</v>
       </c>
       <c r="C73" t="s">
         <v>199</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F73" t="s">
@@ -4457,15 +4545,16 @@
       <c r="H73" t="s">
         <v>200</v>
       </c>
-      <c r="I73" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="74" spans="1:10">
+      <c r="I73" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="8"/>
       <c r="C74" t="s">
         <v>201</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F74" t="s">
@@ -4477,15 +4566,16 @@
       <c r="H74" t="s">
         <v>202</v>
       </c>
-      <c r="I74" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="75" spans="1:10">
+      <c r="I74" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="8"/>
       <c r="C75" t="s">
         <v>203</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F75" t="s">
@@ -4494,15 +4584,16 @@
       <c r="H75" t="s">
         <v>204</v>
       </c>
-      <c r="I75" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="76" spans="1:10">
+      <c r="I75" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="8"/>
       <c r="C76" t="s">
         <v>205</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F76" t="s">
@@ -4514,15 +4605,16 @@
       <c r="H76" t="s">
         <v>207</v>
       </c>
-      <c r="I76" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="77" spans="1:10">
+      <c r="I76" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="8"/>
       <c r="C77" t="s">
         <v>208</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F77" t="s">
@@ -4531,15 +4623,16 @@
       <c r="H77" t="s">
         <v>210</v>
       </c>
-      <c r="I77" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="78" spans="1:10">
+      <c r="I77" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="8"/>
       <c r="C78" t="s">
         <v>211</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F78" t="s">
@@ -4551,15 +4644,16 @@
       <c r="H78" t="s">
         <v>212</v>
       </c>
-      <c r="I78" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="79" spans="1:10">
+      <c r="I78" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="8"/>
       <c r="C79" t="s">
         <v>213</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F79" t="s">
@@ -4568,15 +4662,16 @@
       <c r="H79" t="s">
         <v>215</v>
       </c>
-      <c r="I79" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="80" spans="1:10">
+      <c r="I79" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="8"/>
       <c r="C80" t="s">
         <v>216</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F80" t="s">
@@ -4588,15 +4683,16 @@
       <c r="H80" t="s">
         <v>217</v>
       </c>
-      <c r="I80" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="81" spans="1:10">
+      <c r="I80" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="8"/>
       <c r="C81" t="s">
         <v>218</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F81" t="s">
@@ -4605,15 +4701,16 @@
       <c r="H81" t="s">
         <v>200</v>
       </c>
-      <c r="I81" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="82" spans="1:10">
+      <c r="I81" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="8"/>
       <c r="C82" t="s">
         <v>220</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F82" t="s">
@@ -4625,15 +4722,16 @@
       <c r="H82" t="s">
         <v>207</v>
       </c>
-      <c r="I82" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="83" spans="1:10">
+      <c r="I82" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="8"/>
       <c r="C83" t="s">
         <v>221</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F83" t="s">
@@ -4642,35 +4740,37 @@
       <c r="H83" t="s">
         <v>222</v>
       </c>
-      <c r="I83" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="84" spans="1:10">
+      <c r="I83" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="8"/>
       <c r="C84" t="s">
         <v>223</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F84" t="s">
         <v>64</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="6" t="s">
         <v>224</v>
       </c>
       <c r="H84" t="s">
         <v>222</v>
       </c>
-      <c r="I84" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="85" spans="1:10">
+      <c r="I84" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="8"/>
       <c r="C85" t="s">
         <v>225</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F85" t="s">
@@ -4679,15 +4779,16 @@
       <c r="H85" t="s">
         <v>227</v>
       </c>
-      <c r="I85" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="86" spans="1:10">
+      <c r="I85" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="8"/>
       <c r="C86" t="s">
         <v>228</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F86" t="s">
@@ -4699,15 +4800,16 @@
       <c r="H86" t="s">
         <v>229</v>
       </c>
-      <c r="I86" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="87" spans="1:10">
+      <c r="I86" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="8"/>
       <c r="C87" t="s">
         <v>230</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F87" t="s">
@@ -4719,15 +4821,16 @@
       <c r="H87" t="s">
         <v>227</v>
       </c>
-      <c r="I87" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="88" spans="1:10">
+      <c r="I87" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="8"/>
       <c r="C88" t="s">
         <v>232</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F88" t="s">
@@ -4739,15 +4842,16 @@
       <c r="H88" t="s">
         <v>229</v>
       </c>
-      <c r="I88" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="89" spans="1:10">
+      <c r="I88" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="8"/>
       <c r="C89" t="s">
         <v>234</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F89" t="s">
@@ -4759,15 +4863,16 @@
       <c r="H89" t="s">
         <v>229</v>
       </c>
-      <c r="I89" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="90" spans="1:10">
+      <c r="I89" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="8"/>
       <c r="C90" t="s">
         <v>237</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F90" t="s">
@@ -4779,15 +4884,16 @@
       <c r="H90" t="s">
         <v>229</v>
       </c>
-      <c r="I90" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="91" spans="1:10">
+      <c r="I90" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="8"/>
       <c r="C91" t="s">
         <v>239</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F91" t="s">
@@ -4799,15 +4905,16 @@
       <c r="H91" t="s">
         <v>229</v>
       </c>
-      <c r="I91" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="92" spans="1:10">
+      <c r="I91" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="8"/>
       <c r="C92" t="s">
         <v>241</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F92" t="s">
@@ -4819,15 +4926,16 @@
       <c r="H92" t="s">
         <v>229</v>
       </c>
-      <c r="I92" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="93" spans="1:10">
+      <c r="I92" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="8"/>
       <c r="C93" t="s">
         <v>242</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F93" t="s">
@@ -4836,15 +4944,16 @@
       <c r="H93" t="s">
         <v>243</v>
       </c>
-      <c r="I93" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="94" spans="1:10">
+      <c r="I93" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="8"/>
       <c r="C94" t="s">
         <v>244</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F94" t="s">
@@ -4856,15 +4965,16 @@
       <c r="H94" t="s">
         <v>245</v>
       </c>
-      <c r="I94" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="95" spans="1:10">
+      <c r="I94" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="8"/>
       <c r="C95" t="s">
         <v>246</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F95" t="s">
@@ -4873,15 +4983,16 @@
       <c r="H95" t="s">
         <v>227</v>
       </c>
-      <c r="I95" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="96" spans="1:10">
+      <c r="I95" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="8"/>
       <c r="C96" t="s">
         <v>247</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F96" t="s">
@@ -4893,15 +5004,16 @@
       <c r="H96" t="s">
         <v>229</v>
       </c>
-      <c r="I96" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="97" spans="1:10">
+      <c r="I96" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="8"/>
       <c r="C97" t="s">
         <v>248</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F97" t="s">
@@ -4913,15 +5025,16 @@
       <c r="H97" t="s">
         <v>227</v>
       </c>
-      <c r="I97" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="98" spans="1:10">
+      <c r="I97" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="8"/>
       <c r="C98" t="s">
         <v>249</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F98" t="s">
@@ -4933,15 +5046,16 @@
       <c r="H98" t="s">
         <v>229</v>
       </c>
-      <c r="I98" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="99" spans="1:10">
+      <c r="I98" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="8"/>
       <c r="C99" t="s">
         <v>250</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E99" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F99" t="s">
@@ -4953,15 +5067,16 @@
       <c r="H99" t="s">
         <v>252</v>
       </c>
-      <c r="I99" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="100" spans="1:10">
+      <c r="I99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="8"/>
       <c r="C100" t="s">
         <v>253</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E100" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F100" t="s">
@@ -4970,15 +5085,16 @@
       <c r="H100" t="s">
         <v>255</v>
       </c>
-      <c r="I100" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="101" spans="1:10">
+      <c r="I100" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="8"/>
       <c r="C101" t="s">
         <v>256</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F101" t="s">
@@ -4990,18 +5106,18 @@
       <c r="H101" t="s">
         <v>255</v>
       </c>
-      <c r="I101" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="102" spans="1:10">
-      <c r="B102" s="6" t="s">
+      <c r="I101" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="7" t="s">
         <v>259</v>
       </c>
       <c r="C102" t="s">
         <v>260</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E102" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F102" t="s">
@@ -5013,15 +5129,16 @@
       <c r="H102" t="s">
         <v>263</v>
       </c>
-      <c r="I102" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="103" spans="1:10">
+      <c r="I102" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="8"/>
       <c r="C103" t="s">
         <v>264</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E103" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F103" t="s">
@@ -5033,15 +5150,16 @@
       <c r="H103" t="s">
         <v>16</v>
       </c>
-      <c r="I103" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="104" spans="1:10">
+      <c r="I103" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="8"/>
       <c r="C104" t="s">
         <v>267</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F104" t="s">
@@ -5053,15 +5171,16 @@
       <c r="H104" t="s">
         <v>269</v>
       </c>
-      <c r="I104" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="105" spans="1:10">
+      <c r="I104" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="8"/>
       <c r="C105" t="s">
         <v>270</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F105" t="s">
@@ -5073,15 +5192,16 @@
       <c r="H105" t="s">
         <v>263</v>
       </c>
-      <c r="I105" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="106" spans="1:10">
+      <c r="I105" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="8"/>
       <c r="C106" t="s">
         <v>273</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F106" t="s">
@@ -5093,15 +5213,16 @@
       <c r="H106" t="s">
         <v>275</v>
       </c>
-      <c r="I106" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="107" spans="1:10">
+      <c r="I106" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="8"/>
       <c r="C107" t="s">
         <v>276</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E107" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F107" t="s">
@@ -5113,15 +5234,16 @@
       <c r="H107" t="s">
         <v>278</v>
       </c>
-      <c r="I107" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="108" spans="1:10">
+      <c r="I107" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="8"/>
       <c r="C108" t="s">
         <v>279</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E108" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F108" t="s">
@@ -5133,15 +5255,16 @@
       <c r="H108" t="s">
         <v>275</v>
       </c>
-      <c r="I108" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="109" spans="1:10">
+      <c r="I108" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="8"/>
       <c r="C109" t="s">
         <v>281</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E109" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F109" t="s">
@@ -5153,15 +5276,16 @@
       <c r="H109" t="s">
         <v>16</v>
       </c>
-      <c r="I109" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="110" spans="1:10">
+      <c r="I109" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="8"/>
       <c r="C110" t="s">
         <v>284</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E110" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F110" t="s">
@@ -5173,15 +5297,16 @@
       <c r="H110" t="s">
         <v>16</v>
       </c>
-      <c r="I110" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="111" spans="1:10">
+      <c r="I110" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="8"/>
       <c r="C111" t="s">
         <v>286</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E111" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F111" t="s">
@@ -5193,15 +5318,16 @@
       <c r="H111" t="s">
         <v>16</v>
       </c>
-      <c r="I111" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="112" spans="1:10">
+      <c r="I111" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="8"/>
       <c r="C112" t="s">
         <v>288</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E112" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F112" t="s">
@@ -5213,15 +5339,16 @@
       <c r="H112" t="s">
         <v>291</v>
       </c>
-      <c r="I112" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="113" spans="1:10">
+      <c r="I112" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="8"/>
       <c r="C113" t="s">
         <v>292</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E113" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F113" t="s">
@@ -5233,15 +5360,16 @@
       <c r="H113" t="s">
         <v>294</v>
       </c>
-      <c r="I113" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="114" spans="1:10">
+      <c r="I113" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="8"/>
       <c r="C114" t="s">
         <v>295</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E114" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F114" t="s">
@@ -5253,15 +5381,16 @@
       <c r="H114" t="s">
         <v>298</v>
       </c>
-      <c r="I114" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="115" spans="1:10">
+      <c r="I114" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="8"/>
       <c r="C115" t="s">
         <v>299</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="E115" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F115" t="s">
@@ -5270,15 +5399,16 @@
       <c r="H115" t="s">
         <v>298</v>
       </c>
-      <c r="I115" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="116" spans="1:10">
+      <c r="I115" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B116" s="8"/>
       <c r="C116" t="s">
         <v>300</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E116" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F116" t="s">
@@ -5287,15 +5417,16 @@
       <c r="G116" t="s">
         <v>302</v>
       </c>
-      <c r="I116" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="117" spans="1:10">
+      <c r="I116" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B117" s="8"/>
       <c r="C117" t="s">
         <v>303</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E117" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F117" t="s">
@@ -5307,15 +5438,16 @@
       <c r="H117" t="s">
         <v>306</v>
       </c>
-      <c r="I117" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="118" spans="1:10">
+      <c r="I117" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B118" s="8"/>
       <c r="C118" t="s">
         <v>307</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E118" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F118" t="s">
@@ -5327,15 +5459,16 @@
       <c r="H118" t="s">
         <v>16</v>
       </c>
-      <c r="I118" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="119" spans="1:10">
+      <c r="I118" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B119" s="8"/>
       <c r="C119" t="s">
         <v>309</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E119" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F119" t="s">
@@ -5347,15 +5480,16 @@
       <c r="H119" t="s">
         <v>16</v>
       </c>
-      <c r="I119" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="120" spans="1:10">
+      <c r="I119" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B120" s="8"/>
       <c r="C120" t="s">
         <v>310</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E120" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F120" t="s">
@@ -5367,15 +5501,16 @@
       <c r="H120" t="s">
         <v>263</v>
       </c>
-      <c r="I120" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="121" spans="1:10">
+      <c r="I120" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B121" s="8"/>
       <c r="C121" t="s">
         <v>313</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E121" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F121" t="s">
@@ -5387,15 +5522,16 @@
       <c r="H121" t="s">
         <v>16</v>
       </c>
-      <c r="I121" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="122" spans="1:10">
+      <c r="I121" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B122" s="8"/>
       <c r="C122" t="s">
         <v>315</v>
       </c>
-      <c r="E122" s="6" t="s">
+      <c r="E122" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F122" t="s">
@@ -5404,15 +5540,16 @@
       <c r="H122" t="s">
         <v>278</v>
       </c>
-      <c r="I122" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="123" spans="1:10">
+      <c r="I122" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B123" s="8"/>
       <c r="C123" t="s">
         <v>316</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="E123" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F123" t="s">
@@ -5424,15 +5561,16 @@
       <c r="H123" t="s">
         <v>16</v>
       </c>
-      <c r="I123" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="124" spans="1:10">
+      <c r="I123" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B124" s="8"/>
       <c r="C124" t="s">
         <v>318</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="E124" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F124" t="s">
@@ -5444,15 +5582,16 @@
       <c r="H124" t="s">
         <v>321</v>
       </c>
-      <c r="I124" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="125" spans="1:10">
+      <c r="I124" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B125" s="8"/>
       <c r="C125" t="s">
         <v>322</v>
       </c>
-      <c r="E125" s="6" t="s">
+      <c r="E125" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F125" t="s">
@@ -5464,15 +5603,16 @@
       <c r="H125" t="s">
         <v>324</v>
       </c>
-      <c r="I125" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="126" spans="1:10">
+      <c r="I125" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B126" s="8"/>
       <c r="C126" t="s">
         <v>325</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="E126" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F126" t="s">
@@ -5484,15 +5624,16 @@
       <c r="H126" t="s">
         <v>82</v>
       </c>
-      <c r="I126" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="127" spans="1:10">
+      <c r="I126" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="8"/>
       <c r="C127" t="s">
         <v>328</v>
       </c>
-      <c r="E127" s="6" t="s">
+      <c r="E127" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F127" t="s">
@@ -5504,15 +5645,16 @@
       <c r="H127" t="s">
         <v>16</v>
       </c>
-      <c r="I127" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="128" spans="1:10">
+      <c r="I127" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B128" s="8"/>
       <c r="C128" t="s">
         <v>331</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="E128" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F128" t="s">
@@ -5524,15 +5666,16 @@
       <c r="H128" t="s">
         <v>16</v>
       </c>
-      <c r="I128" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="129" spans="1:10">
+      <c r="I128" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B129" s="8"/>
       <c r="C129" t="s">
         <v>333</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="E129" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F129" t="s">
@@ -5544,15 +5687,16 @@
       <c r="H129" t="s">
         <v>16</v>
       </c>
-      <c r="I129" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="130" spans="1:10">
+      <c r="I129" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B130" s="8"/>
       <c r="C130" t="s">
         <v>335</v>
       </c>
-      <c r="E130" s="6" t="s">
+      <c r="E130" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F130" t="s">
@@ -5564,15 +5708,16 @@
       <c r="H130" t="s">
         <v>16</v>
       </c>
-      <c r="I130" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="131" spans="1:10">
+      <c r="I130" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B131" s="8"/>
       <c r="C131" t="s">
         <v>338</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="E131" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F131" t="s">
@@ -5584,18 +5729,18 @@
       <c r="H131" t="s">
         <v>16</v>
       </c>
-      <c r="I131" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="132" spans="1:10">
-      <c r="B132" s="6" t="s">
+      <c r="I131" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B132" s="7" t="s">
         <v>341</v>
       </c>
       <c r="C132" t="s">
         <v>342</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="E132" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F132" t="s">
@@ -5604,35 +5749,37 @@
       <c r="H132" t="s">
         <v>344</v>
       </c>
-      <c r="I132" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="133" spans="1:10">
+      <c r="I132" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B133" s="8"/>
       <c r="C133" t="s">
         <v>345</v>
       </c>
-      <c r="E133" s="6" t="s">
+      <c r="E133" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F133" t="s">
         <v>343</v>
       </c>
-      <c r="G133" s="8" t="s">
+      <c r="G133" s="6" t="s">
         <v>346</v>
       </c>
       <c r="H133" t="s">
         <v>344</v>
       </c>
-      <c r="I133" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="134" spans="1:10">
+      <c r="I133" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="8"/>
       <c r="C134" t="s">
         <v>347</v>
       </c>
-      <c r="E134" s="6" t="s">
+      <c r="E134" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F134" t="s">
@@ -5644,15 +5791,16 @@
       <c r="H134" t="s">
         <v>350</v>
       </c>
-      <c r="I134" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="135" spans="1:10">
+      <c r="I134" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="8"/>
       <c r="C135" t="s">
         <v>351</v>
       </c>
-      <c r="E135" s="6" t="s">
+      <c r="E135" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F135" t="s">
@@ -5664,15 +5812,16 @@
       <c r="H135" t="s">
         <v>255</v>
       </c>
-      <c r="I135" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="136" spans="1:10">
+      <c r="I135" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B136" s="8"/>
       <c r="C136" t="s">
         <v>354</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="E136" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F136" t="s">
@@ -5684,15 +5833,16 @@
       <c r="H136" t="s">
         <v>16</v>
       </c>
-      <c r="I136" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="137" spans="1:10">
+      <c r="I136" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B137" s="8"/>
       <c r="C137" t="s">
         <v>357</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="E137" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F137" t="s">
@@ -5704,15 +5854,16 @@
       <c r="H137" t="s">
         <v>16</v>
       </c>
-      <c r="I137" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="138" spans="1:10">
+      <c r="I137" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B138" s="8"/>
       <c r="C138" t="s">
         <v>360</v>
       </c>
-      <c r="E138" s="6" t="s">
+      <c r="E138" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F138" t="s">
@@ -5724,15 +5875,16 @@
       <c r="H138" t="s">
         <v>16</v>
       </c>
-      <c r="I138" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="139" spans="1:10">
+      <c r="I138" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B139" s="8"/>
       <c r="C139" t="s">
         <v>362</v>
       </c>
-      <c r="E139" s="6" t="s">
+      <c r="E139" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F139" t="s">
@@ -5744,15 +5896,16 @@
       <c r="H139" t="s">
         <v>16</v>
       </c>
-      <c r="I139" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="140" spans="1:10">
+      <c r="I139" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B140" s="8"/>
       <c r="C140" t="s">
         <v>364</v>
       </c>
-      <c r="E140" s="6" t="s">
+      <c r="E140" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F140" t="s">
@@ -5764,15 +5917,16 @@
       <c r="H140" t="s">
         <v>255</v>
       </c>
-      <c r="I140" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="141" spans="1:10">
+      <c r="I140" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B141" s="8"/>
       <c r="C141" t="s">
         <v>367</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="E141" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F141" t="s">
@@ -5784,15 +5938,16 @@
       <c r="H141" t="s">
         <v>370</v>
       </c>
-      <c r="I141" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="142" spans="1:10">
+      <c r="I141" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B142" s="8"/>
       <c r="C142" t="s">
         <v>371</v>
       </c>
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F142" t="s">
@@ -5804,15 +5959,16 @@
       <c r="H142" t="s">
         <v>16</v>
       </c>
-      <c r="I142" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="143" spans="1:10">
+      <c r="I142" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B143" s="8"/>
       <c r="C143" t="s">
         <v>374</v>
       </c>
-      <c r="E143" s="6" t="s">
+      <c r="E143" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F143" t="s">
@@ -5824,15 +5980,16 @@
       <c r="H143" t="s">
         <v>16</v>
       </c>
-      <c r="I143" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="144" spans="1:10">
+      <c r="I143" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B144" s="8"/>
       <c r="C144" t="s">
         <v>377</v>
       </c>
-      <c r="E144" s="6" t="s">
+      <c r="E144" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F144" t="s">
@@ -5844,15 +6001,16 @@
       <c r="H144" t="s">
         <v>16</v>
       </c>
-      <c r="I144" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="145" spans="1:10">
+      <c r="I144" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B145" s="8"/>
       <c r="C145" t="s">
         <v>380</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="E145" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F145" t="s">
@@ -5864,15 +6022,16 @@
       <c r="H145" t="s">
         <v>16</v>
       </c>
-      <c r="I145" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="146" spans="1:10">
+      <c r="I145" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B146" s="8"/>
       <c r="C146" t="s">
         <v>383</v>
       </c>
-      <c r="E146" s="6" t="s">
+      <c r="E146" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F146" t="s">
@@ -5884,15 +6043,16 @@
       <c r="H146" t="s">
         <v>386</v>
       </c>
-      <c r="I146" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="147" spans="1:10">
+      <c r="I146" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B147" s="8"/>
       <c r="C147" t="s">
         <v>387</v>
       </c>
-      <c r="E147" s="6" t="s">
+      <c r="E147" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F147" t="s">
@@ -5904,15 +6064,16 @@
       <c r="H147" t="s">
         <v>390</v>
       </c>
-      <c r="I147" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="148" spans="1:10">
+      <c r="I147" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B148" s="8"/>
       <c r="C148" t="s">
         <v>391</v>
       </c>
-      <c r="E148" s="6" t="s">
+      <c r="E148" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F148" t="s">
@@ -5924,15 +6085,16 @@
       <c r="H148" t="s">
         <v>393</v>
       </c>
-      <c r="I148" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="149" spans="1:10">
+      <c r="I148" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B149" s="8"/>
       <c r="C149" t="s">
         <v>394</v>
       </c>
-      <c r="E149" s="6" t="s">
+      <c r="E149" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F149" t="s">
@@ -5944,15 +6106,16 @@
       <c r="H149" t="s">
         <v>396</v>
       </c>
-      <c r="I149" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="150" spans="1:10">
+      <c r="I149" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B150" s="8"/>
       <c r="C150" t="s">
         <v>397</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="E150" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F150" t="s">
@@ -5964,15 +6127,16 @@
       <c r="H150" t="s">
         <v>399</v>
       </c>
-      <c r="I150" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="151" spans="1:10">
+      <c r="I150" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B151" s="8"/>
       <c r="C151" t="s">
         <v>400</v>
       </c>
-      <c r="E151" s="6" t="s">
+      <c r="E151" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F151" t="s">
@@ -5984,15 +6148,16 @@
       <c r="H151" t="s">
         <v>402</v>
       </c>
-      <c r="I151" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="152" spans="1:10">
+      <c r="I151" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B152" s="8"/>
       <c r="C152" t="s">
         <v>403</v>
       </c>
-      <c r="E152" s="6" t="s">
+      <c r="E152" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F152" t="s">
@@ -6001,15 +6166,16 @@
       <c r="G152" t="s">
         <v>404</v>
       </c>
-      <c r="I152" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="153" spans="1:10">
+      <c r="I152" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B153" s="8"/>
       <c r="C153" t="s">
         <v>405</v>
       </c>
-      <c r="E153" s="6" t="s">
+      <c r="E153" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F153" t="s">
@@ -6021,15 +6187,16 @@
       <c r="H153" t="s">
         <v>75</v>
       </c>
-      <c r="I153" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="154" spans="1:10">
+      <c r="I153" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B154" s="8"/>
       <c r="C154" t="s">
         <v>408</v>
       </c>
-      <c r="E154" s="6" t="s">
+      <c r="E154" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F154" t="s">
@@ -6041,15 +6208,16 @@
       <c r="H154" t="s">
         <v>399</v>
       </c>
-      <c r="I154" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="155" spans="1:10">
+      <c r="I154" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B155" s="8"/>
       <c r="C155" t="s">
         <v>410</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="E155" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F155" t="s">
@@ -6061,15 +6229,16 @@
       <c r="H155" t="s">
         <v>402</v>
       </c>
-      <c r="I155" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="156" spans="1:10">
+      <c r="I155" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B156" s="8"/>
       <c r="C156" t="s">
         <v>412</v>
       </c>
-      <c r="E156" s="6" t="s">
+      <c r="E156" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F156" t="s">
@@ -6078,15 +6247,16 @@
       <c r="G156" t="s">
         <v>413</v>
       </c>
-      <c r="I156" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="157" spans="1:10">
+      <c r="I156" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B157" s="8"/>
       <c r="C157" t="s">
         <v>414</v>
       </c>
-      <c r="E157" s="6" t="s">
+      <c r="E157" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F157" t="s">
@@ -6098,15 +6268,16 @@
       <c r="H157" t="s">
         <v>75</v>
       </c>
-      <c r="I157" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="158" spans="1:10">
+      <c r="I157" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B158" s="8"/>
       <c r="C158" t="s">
         <v>417</v>
       </c>
-      <c r="E158" s="6" t="s">
+      <c r="E158" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F158" t="s">
@@ -6118,15 +6289,16 @@
       <c r="H158" t="s">
         <v>399</v>
       </c>
-      <c r="I158" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="159" spans="1:10">
+      <c r="I158" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B159" s="8"/>
       <c r="C159" t="s">
         <v>419</v>
       </c>
-      <c r="E159" s="6" t="s">
+      <c r="E159" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F159" t="s">
@@ -6138,15 +6310,16 @@
       <c r="H159" t="s">
         <v>402</v>
       </c>
-      <c r="I159" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="160" spans="1:10">
+      <c r="I159" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B160" s="8"/>
       <c r="C160" t="s">
         <v>421</v>
       </c>
-      <c r="E160" s="6" t="s">
+      <c r="E160" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F160" t="s">
@@ -6155,15 +6328,16 @@
       <c r="G160" t="s">
         <v>422</v>
       </c>
-      <c r="I160" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="161" spans="1:10">
+      <c r="I160" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B161" s="8"/>
       <c r="C161" t="s">
         <v>423</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="E161" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F161" t="s">
@@ -6175,15 +6349,16 @@
       <c r="H161" t="s">
         <v>75</v>
       </c>
-      <c r="I161" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="162" spans="1:10">
+      <c r="I161" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B162" s="8"/>
       <c r="C162" t="s">
         <v>426</v>
       </c>
-      <c r="E162" s="6" t="s">
+      <c r="E162" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F162" t="s">
@@ -6195,15 +6370,16 @@
       <c r="H162" t="s">
         <v>399</v>
       </c>
-      <c r="I162" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="163" spans="1:10">
+      <c r="I162" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B163" s="8"/>
       <c r="C163" t="s">
         <v>428</v>
       </c>
-      <c r="E163" s="6" t="s">
+      <c r="E163" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F163" t="s">
@@ -6215,15 +6391,16 @@
       <c r="H163" t="s">
         <v>402</v>
       </c>
-      <c r="I163" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="164" spans="1:10">
+      <c r="I163" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B164" s="8"/>
       <c r="C164" t="s">
         <v>430</v>
       </c>
-      <c r="E164" s="6" t="s">
+      <c r="E164" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F164" t="s">
@@ -6232,15 +6409,16 @@
       <c r="G164" t="s">
         <v>431</v>
       </c>
-      <c r="I164" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="165" spans="1:10">
+      <c r="I164" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B165" s="8"/>
       <c r="C165" t="s">
         <v>432</v>
       </c>
-      <c r="E165" s="6" t="s">
+      <c r="E165" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F165" t="s">
@@ -6252,15 +6430,16 @@
       <c r="H165" t="s">
         <v>75</v>
       </c>
-      <c r="I165" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="166" spans="1:10">
+      <c r="I165" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B166" s="8"/>
       <c r="C166" t="s">
         <v>435</v>
       </c>
-      <c r="E166" s="6" t="s">
+      <c r="E166" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F166" t="s">
@@ -6272,15 +6451,16 @@
       <c r="H166" t="s">
         <v>399</v>
       </c>
-      <c r="I166" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="167" spans="1:10">
+      <c r="I166" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B167" s="8"/>
       <c r="C167" t="s">
         <v>437</v>
       </c>
-      <c r="E167" s="6" t="s">
+      <c r="E167" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F167" t="s">
@@ -6292,15 +6472,16 @@
       <c r="H167" t="s">
         <v>402</v>
       </c>
-      <c r="I167" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="168" spans="1:10">
+      <c r="I167" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B168" s="8"/>
       <c r="C168" t="s">
         <v>439</v>
       </c>
-      <c r="E168" s="6" t="s">
+      <c r="E168" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F168" t="s">
@@ -6309,15 +6490,16 @@
       <c r="G168" t="s">
         <v>440</v>
       </c>
-      <c r="I168" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="169" spans="1:10">
+      <c r="I168" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B169" s="8"/>
       <c r="C169" t="s">
         <v>441</v>
       </c>
-      <c r="E169" s="6" t="s">
+      <c r="E169" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F169" t="s">
@@ -6329,15 +6511,16 @@
       <c r="H169" t="s">
         <v>75</v>
       </c>
-      <c r="I169" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="170" spans="1:10">
+      <c r="I169" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B170" s="8"/>
       <c r="C170" t="s">
         <v>444</v>
       </c>
-      <c r="E170" s="6" t="s">
+      <c r="E170" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F170" t="s">
@@ -6349,15 +6532,16 @@
       <c r="H170" t="s">
         <v>399</v>
       </c>
-      <c r="I170" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="171" spans="1:10">
+      <c r="I170" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B171" s="8"/>
       <c r="C171" t="s">
         <v>446</v>
       </c>
-      <c r="E171" s="6" t="s">
+      <c r="E171" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F171" t="s">
@@ -6369,15 +6553,16 @@
       <c r="H171" t="s">
         <v>402</v>
       </c>
-      <c r="I171" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="172" spans="1:10">
+      <c r="I171" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B172" s="8"/>
       <c r="C172" t="s">
         <v>448</v>
       </c>
-      <c r="E172" s="6" t="s">
+      <c r="E172" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F172" t="s">
@@ -6386,15 +6571,16 @@
       <c r="G172" t="s">
         <v>449</v>
       </c>
-      <c r="I172" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="173" spans="1:10">
+      <c r="I172" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B173" s="8"/>
       <c r="C173" t="s">
         <v>450</v>
       </c>
-      <c r="E173" s="6" t="s">
+      <c r="E173" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F173" t="s">
@@ -6406,15 +6592,16 @@
       <c r="H173" t="s">
         <v>75</v>
       </c>
-      <c r="I173" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="174" spans="1:10">
+      <c r="I173" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B174" s="8"/>
       <c r="C174" t="s">
         <v>453</v>
       </c>
-      <c r="E174" s="6" t="s">
+      <c r="E174" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F174" t="s">
@@ -6426,15 +6613,16 @@
       <c r="H174" t="s">
         <v>399</v>
       </c>
-      <c r="I174" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="175" spans="1:10">
+      <c r="I174" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B175" s="8"/>
       <c r="C175" t="s">
         <v>454</v>
       </c>
-      <c r="E175" s="6" t="s">
+      <c r="E175" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F175" t="s">
@@ -6446,15 +6634,16 @@
       <c r="H175" t="s">
         <v>402</v>
       </c>
-      <c r="I175" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="176" spans="1:10">
+      <c r="I175" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B176" s="8"/>
       <c r="C176" t="s">
         <v>456</v>
       </c>
-      <c r="E176" s="6" t="s">
+      <c r="E176" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F176" t="s">
@@ -6463,15 +6652,16 @@
       <c r="G176" t="s">
         <v>457</v>
       </c>
-      <c r="I176" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="177" spans="1:10">
+      <c r="I176" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B177" s="8"/>
       <c r="C177" t="s">
         <v>458</v>
       </c>
-      <c r="E177" s="6" t="s">
+      <c r="E177" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F177" t="s">
@@ -6480,15 +6670,16 @@
       <c r="H177" t="s">
         <v>460</v>
       </c>
-      <c r="I177" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="178" spans="1:10">
+      <c r="I177" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B178" s="8"/>
       <c r="C178" t="s">
         <v>461</v>
       </c>
-      <c r="E178" s="6" t="s">
+      <c r="E178" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F178" t="s">
@@ -6500,15 +6691,16 @@
       <c r="H178" t="s">
         <v>16</v>
       </c>
-      <c r="I178" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="179" spans="1:10">
+      <c r="I178" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B179" s="8"/>
       <c r="C179" t="s">
         <v>463</v>
       </c>
-      <c r="E179" s="6" t="s">
+      <c r="E179" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F179" t="s">
@@ -6520,15 +6712,16 @@
       <c r="H179" t="s">
         <v>465</v>
       </c>
-      <c r="I179" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="180" spans="1:10">
+      <c r="I179" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B180" s="8"/>
       <c r="C180" t="s">
         <v>466</v>
       </c>
-      <c r="E180" s="6" t="s">
+      <c r="E180" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F180" t="s">
@@ -6540,15 +6733,16 @@
       <c r="H180" t="s">
         <v>469</v>
       </c>
-      <c r="I180" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="181" spans="1:10">
+      <c r="I180" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B181" s="8"/>
       <c r="C181" t="s">
         <v>470</v>
       </c>
-      <c r="E181" s="6" t="s">
+      <c r="E181" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F181" t="s">
@@ -6560,15 +6754,16 @@
       <c r="H181" t="s">
         <v>16</v>
       </c>
-      <c r="I181" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="182" spans="1:10">
+      <c r="I181" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B182" s="8"/>
       <c r="C182" t="s">
         <v>472</v>
       </c>
-      <c r="E182" s="6" t="s">
+      <c r="E182" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F182" t="s">
@@ -6580,15 +6775,16 @@
       <c r="H182" t="s">
         <v>16</v>
       </c>
-      <c r="I182" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="183" spans="1:10">
+      <c r="I182" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B183" s="8"/>
       <c r="C183" t="s">
         <v>472</v>
       </c>
-      <c r="E183" s="6" t="s">
+      <c r="E183" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F183" t="s">
@@ -6600,15 +6796,16 @@
       <c r="H183" t="s">
         <v>16</v>
       </c>
-      <c r="I183" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="184" spans="1:10">
+      <c r="I183" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B184" s="8"/>
       <c r="C184" t="s">
         <v>476</v>
       </c>
-      <c r="E184" s="6" t="s">
+      <c r="E184" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F184" t="s">
@@ -6620,15 +6817,16 @@
       <c r="H184" t="s">
         <v>16</v>
       </c>
-      <c r="I184" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="185" spans="1:10">
+      <c r="I184" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B185" s="8"/>
       <c r="C185" t="s">
         <v>478</v>
       </c>
-      <c r="E185" s="6" t="s">
+      <c r="E185" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F185" t="s">
@@ -6640,15 +6838,16 @@
       <c r="H185" t="s">
         <v>469</v>
       </c>
-      <c r="I185" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="186" spans="1:10">
+      <c r="I185" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B186" s="8"/>
       <c r="C186" t="s">
         <v>480</v>
       </c>
-      <c r="E186" s="6" t="s">
+      <c r="E186" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F186" t="s">
@@ -6660,15 +6859,16 @@
       <c r="H186" t="s">
         <v>16</v>
       </c>
-      <c r="I186" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="187" spans="1:10">
+      <c r="I186" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B187" s="8"/>
       <c r="C187" t="s">
         <v>483</v>
       </c>
-      <c r="E187" s="6" t="s">
+      <c r="E187" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F187" t="s">
@@ -6680,15 +6880,16 @@
       <c r="H187" t="s">
         <v>16</v>
       </c>
-      <c r="I187" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="188" spans="1:10">
+      <c r="I187" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B188" s="8"/>
       <c r="C188" t="s">
         <v>486</v>
       </c>
-      <c r="E188" s="6" t="s">
+      <c r="E188" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F188" t="s">
@@ -6700,15 +6901,16 @@
       <c r="H188" t="s">
         <v>16</v>
       </c>
-      <c r="I188" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="189" spans="1:10">
+      <c r="I188" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B189" s="8"/>
       <c r="C189" t="s">
         <v>489</v>
       </c>
-      <c r="E189" s="6" t="s">
+      <c r="E189" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F189" t="s">
@@ -6720,15 +6922,16 @@
       <c r="H189" t="s">
         <v>492</v>
       </c>
-      <c r="I189" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="190" spans="1:10">
+      <c r="I189" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B190" s="8"/>
       <c r="C190" t="s">
         <v>493</v>
       </c>
-      <c r="E190" s="6" t="s">
+      <c r="E190" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F190" t="s">
@@ -6740,15 +6943,16 @@
       <c r="H190" t="s">
         <v>495</v>
       </c>
-      <c r="I190" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="191" spans="1:10">
+      <c r="I190" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B191" s="8"/>
       <c r="C191" t="s">
         <v>496</v>
       </c>
-      <c r="E191" s="6" t="s">
+      <c r="E191" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F191" t="s">
@@ -6760,15 +6964,16 @@
       <c r="H191" t="s">
         <v>16</v>
       </c>
-      <c r="I191" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="192" spans="1:10">
+      <c r="I191" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B192" s="8"/>
       <c r="C192" t="s">
         <v>383</v>
       </c>
-      <c r="E192" s="6" t="s">
+      <c r="E192" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F192" t="s">
@@ -6780,15 +6985,16 @@
       <c r="H192" t="s">
         <v>500</v>
       </c>
-      <c r="I192" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="193" spans="1:10">
+      <c r="I192" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B193" s="8"/>
       <c r="C193" t="s">
         <v>501</v>
       </c>
-      <c r="E193" s="6" t="s">
+      <c r="E193" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F193" t="s">
@@ -6800,15 +7006,16 @@
       <c r="H193" t="s">
         <v>16</v>
       </c>
-      <c r="I193" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="194" spans="1:10">
+      <c r="I193" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B194" s="8"/>
       <c r="C194" t="s">
         <v>504</v>
       </c>
-      <c r="E194" s="6" t="s">
+      <c r="E194" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F194" t="s">
@@ -6820,15 +7027,16 @@
       <c r="H194" t="s">
         <v>506</v>
       </c>
-      <c r="I194" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="195" spans="1:10">
+      <c r="I194" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B195" s="8"/>
       <c r="C195" t="s">
         <v>507</v>
       </c>
-      <c r="E195" s="6" t="s">
+      <c r="E195" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F195" t="s">
@@ -6840,15 +7048,16 @@
       <c r="H195" t="s">
         <v>396</v>
       </c>
-      <c r="I195" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="196" spans="1:10">
+      <c r="I195" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B196" s="8"/>
       <c r="C196" t="s">
         <v>509</v>
       </c>
-      <c r="E196" s="6" t="s">
+      <c r="E196" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F196" t="s">
@@ -6860,15 +7069,16 @@
       <c r="H196" t="s">
         <v>511</v>
       </c>
-      <c r="I196" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="197" spans="1:10">
+      <c r="I196" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B197" s="8"/>
       <c r="C197" t="s">
         <v>512</v>
       </c>
-      <c r="E197" s="6" t="s">
+      <c r="E197" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F197" t="s">
@@ -6880,15 +7090,16 @@
       <c r="H197" t="s">
         <v>513</v>
       </c>
-      <c r="I197" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="198" spans="1:10">
+      <c r="I197" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B198" s="8"/>
       <c r="C198" t="s">
         <v>514</v>
       </c>
-      <c r="E198" s="6" t="s">
+      <c r="E198" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F198" t="s">
@@ -6900,15 +7111,16 @@
       <c r="H198" t="s">
         <v>517</v>
       </c>
-      <c r="I198" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="199" spans="1:10">
+      <c r="I198" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B199" s="8"/>
       <c r="C199" t="s">
         <v>518</v>
       </c>
-      <c r="E199" s="6" t="s">
+      <c r="E199" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F199" t="s">
@@ -6920,15 +7132,16 @@
       <c r="H199" t="s">
         <v>511</v>
       </c>
-      <c r="I199" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="200" spans="1:10">
+      <c r="I199" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B200" s="8"/>
       <c r="C200" t="s">
         <v>520</v>
       </c>
-      <c r="E200" s="6" t="s">
+      <c r="E200" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F200" t="s">
@@ -6940,15 +7153,16 @@
       <c r="H200" t="s">
         <v>513</v>
       </c>
-      <c r="I200" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="201" spans="1:10">
+      <c r="I200" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B201" s="8"/>
       <c r="C201" t="s">
         <v>521</v>
       </c>
-      <c r="E201" s="6" t="s">
+      <c r="E201" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F201" t="s">
@@ -6960,15 +7174,16 @@
       <c r="H201" t="s">
         <v>524</v>
       </c>
-      <c r="I201" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="202" spans="1:10">
+      <c r="I201" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B202" s="8"/>
       <c r="C202" t="s">
         <v>525</v>
       </c>
-      <c r="E202" s="6" t="s">
+      <c r="E202" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F202" t="s">
@@ -6980,15 +7195,16 @@
       <c r="H202" t="s">
         <v>511</v>
       </c>
-      <c r="I202" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="203" spans="1:10">
+      <c r="I202" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B203" s="8"/>
       <c r="C203" t="s">
         <v>527</v>
       </c>
-      <c r="E203" s="6" t="s">
+      <c r="E203" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F203" t="s">
@@ -7000,15 +7216,16 @@
       <c r="H203" t="s">
         <v>513</v>
       </c>
-      <c r="I203" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="204" spans="1:10">
+      <c r="I203" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B204" s="8"/>
       <c r="C204" t="s">
         <v>528</v>
       </c>
-      <c r="E204" s="6" t="s">
+      <c r="E204" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F204" t="s">
@@ -7017,35 +7234,37 @@
       <c r="H204" t="s">
         <v>530</v>
       </c>
-      <c r="I204" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="205" spans="1:10">
+      <c r="I204" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B205" s="8"/>
       <c r="C205" t="s">
         <v>531</v>
       </c>
-      <c r="E205" s="6" t="s">
+      <c r="E205" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F205" t="s">
         <v>529</v>
       </c>
-      <c r="G205" s="8" t="s">
+      <c r="G205" s="6" t="s">
         <v>532</v>
       </c>
       <c r="H205" t="s">
         <v>511</v>
       </c>
-      <c r="I205" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="206" spans="1:10">
+      <c r="I205" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B206" s="8"/>
       <c r="C206" t="s">
         <v>533</v>
       </c>
-      <c r="E206" s="6" t="s">
+      <c r="E206" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F206" t="s">
@@ -7057,15 +7276,16 @@
       <c r="H206" t="s">
         <v>513</v>
       </c>
-      <c r="I206" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="207" spans="1:10">
+      <c r="I206" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B207" s="8"/>
       <c r="C207" t="s">
         <v>535</v>
       </c>
-      <c r="E207" s="6" t="s">
+      <c r="E207" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F207" t="s">
@@ -7077,15 +7297,16 @@
       <c r="H207" t="s">
         <v>16</v>
       </c>
-      <c r="I207" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="208" spans="1:10">
+      <c r="I207" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B208" s="8"/>
       <c r="C208" t="s">
         <v>538</v>
       </c>
-      <c r="E208" s="6" t="s">
+      <c r="E208" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F208" t="s">
@@ -7097,15 +7318,16 @@
       <c r="H208" t="s">
         <v>16</v>
       </c>
-      <c r="I208" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="209" spans="1:10">
+      <c r="I208" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B209" s="8"/>
       <c r="C209" t="s">
         <v>541</v>
       </c>
-      <c r="E209" s="6" t="s">
+      <c r="E209" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F209" t="s">
@@ -7117,15 +7339,16 @@
       <c r="H209" t="s">
         <v>16</v>
       </c>
-      <c r="I209" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="210" spans="1:10">
+      <c r="I209" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B210" s="8"/>
       <c r="C210" t="s">
         <v>544</v>
       </c>
-      <c r="E210" s="6" t="s">
+      <c r="E210" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F210" t="s">
@@ -7137,15 +7360,16 @@
       <c r="H210" t="s">
         <v>547</v>
       </c>
-      <c r="I210" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="211" spans="1:10">
+      <c r="I210" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B211" s="8"/>
       <c r="C211" t="s">
         <v>548</v>
       </c>
-      <c r="E211" s="6" t="s">
+      <c r="E211" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F211" t="s">
@@ -7157,15 +7381,16 @@
       <c r="H211" t="s">
         <v>495</v>
       </c>
-      <c r="I211" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="212" spans="1:10">
+      <c r="I211" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B212" s="8"/>
       <c r="C212" t="s">
         <v>549</v>
       </c>
-      <c r="E212" s="6" t="s">
+      <c r="E212" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F212" t="s">
@@ -7177,15 +7402,16 @@
       <c r="H212" t="s">
         <v>551</v>
       </c>
-      <c r="I212" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="213" spans="1:10">
+      <c r="I212" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B213" s="8"/>
       <c r="C213" t="s">
         <v>552</v>
       </c>
-      <c r="E213" s="6" t="s">
+      <c r="E213" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F213" t="s">
@@ -7197,15 +7423,16 @@
       <c r="H213" t="s">
         <v>554</v>
       </c>
-      <c r="I213" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="214" spans="1:10">
+      <c r="I213" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B214" s="8"/>
       <c r="C214" t="s">
         <v>552</v>
       </c>
-      <c r="E214" s="6" t="s">
+      <c r="E214" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F214" t="s">
@@ -7217,15 +7444,16 @@
       <c r="H214" t="s">
         <v>555</v>
       </c>
-      <c r="I214" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="215" spans="1:10">
+      <c r="I214" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B215" s="8"/>
       <c r="C215" t="s">
         <v>556</v>
       </c>
-      <c r="E215" s="6" t="s">
+      <c r="E215" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F215" t="s">
@@ -7237,15 +7465,16 @@
       <c r="H215" t="s">
         <v>559</v>
       </c>
-      <c r="I215" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="216" spans="1:10">
+      <c r="I215" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B216" s="8"/>
       <c r="C216" t="s">
         <v>560</v>
       </c>
-      <c r="E216" s="6" t="s">
+      <c r="E216" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F216" t="s">
@@ -7257,15 +7486,16 @@
       <c r="H216" t="s">
         <v>492</v>
       </c>
-      <c r="I216" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="217" spans="1:10">
+      <c r="I216" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B217" s="8"/>
       <c r="C217" t="s">
         <v>562</v>
       </c>
-      <c r="E217" s="6" t="s">
+      <c r="E217" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F217" t="s">
@@ -7277,15 +7507,16 @@
       <c r="H217" t="s">
         <v>495</v>
       </c>
-      <c r="I217" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="218" spans="1:10">
+      <c r="I217" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B218" s="8"/>
       <c r="C218" t="s">
         <v>564</v>
       </c>
-      <c r="E218" s="6" t="s">
+      <c r="E218" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F218" t="s">
@@ -7297,15 +7528,16 @@
       <c r="H218" t="s">
         <v>16</v>
       </c>
-      <c r="I218" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="219" spans="1:10">
+      <c r="I218" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B219" s="8"/>
       <c r="C219" t="s">
         <v>567</v>
       </c>
-      <c r="E219" s="6" t="s">
+      <c r="E219" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F219" t="s">
@@ -7317,15 +7549,16 @@
       <c r="H219" t="s">
         <v>255</v>
       </c>
-      <c r="I219" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="220" spans="1:10">
+      <c r="I219" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B220" s="8"/>
       <c r="C220" t="s">
         <v>570</v>
       </c>
-      <c r="E220" s="6" t="s">
+      <c r="E220" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F220" t="s">
@@ -7337,15 +7570,16 @@
       <c r="H220" t="s">
         <v>573</v>
       </c>
-      <c r="I220" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="221" spans="1:10">
+      <c r="I220" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B221" s="8"/>
       <c r="C221" t="s">
         <v>574</v>
       </c>
-      <c r="E221" s="6" t="s">
+      <c r="E221" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F221" t="s">
@@ -7357,15 +7591,16 @@
       <c r="H221" t="s">
         <v>16</v>
       </c>
-      <c r="I221" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="222" spans="1:10">
+      <c r="I221" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B222" s="8"/>
       <c r="C222" t="s">
         <v>577</v>
       </c>
-      <c r="E222" s="6" t="s">
+      <c r="E222" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F222" t="s">
@@ -7377,15 +7612,16 @@
       <c r="H222" t="s">
         <v>16</v>
       </c>
-      <c r="I222" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="223" spans="1:10">
+      <c r="I222" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B223" s="8"/>
       <c r="C223" t="s">
         <v>578</v>
       </c>
-      <c r="E223" s="6" t="s">
+      <c r="E223" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F223" t="s">
@@ -7397,15 +7633,16 @@
       <c r="H223" t="s">
         <v>16</v>
       </c>
-      <c r="I223" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="224" spans="1:10">
+      <c r="I223" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B224" s="8"/>
       <c r="C224" t="s">
         <v>580</v>
       </c>
-      <c r="E224" s="6" t="s">
+      <c r="E224" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F224" t="s">
@@ -7417,15 +7654,16 @@
       <c r="H224" t="s">
         <v>255</v>
       </c>
-      <c r="I224" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="225" spans="1:10">
+      <c r="I224" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B225" s="8"/>
       <c r="C225" t="s">
         <v>583</v>
       </c>
-      <c r="E225" s="6" t="s">
+      <c r="E225" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F225" t="s">
@@ -7437,15 +7675,16 @@
       <c r="H225" t="s">
         <v>16</v>
       </c>
-      <c r="I225" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="226" spans="1:10">
+      <c r="I225" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B226" s="8"/>
       <c r="C226" t="s">
         <v>586</v>
       </c>
-      <c r="E226" s="6" t="s">
+      <c r="E226" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F226" t="s">
@@ -7457,15 +7696,16 @@
       <c r="H226" t="s">
         <v>16</v>
       </c>
-      <c r="I226" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="227" spans="1:10">
+      <c r="I226" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B227" s="8"/>
       <c r="C227" t="s">
         <v>589</v>
       </c>
-      <c r="E227" s="6" t="s">
+      <c r="E227" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F227" t="s">
@@ -7477,15 +7717,16 @@
       <c r="H227" t="s">
         <v>16</v>
       </c>
-      <c r="I227" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="228" spans="1:10">
+      <c r="I227" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B228" s="8"/>
       <c r="C228" t="s">
         <v>591</v>
       </c>
-      <c r="E228" s="6" t="s">
+      <c r="E228" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F228" t="s">
@@ -7497,15 +7738,16 @@
       <c r="H228" t="s">
         <v>16</v>
       </c>
-      <c r="I228" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="229" spans="1:10">
+      <c r="I228" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B229" s="8"/>
       <c r="C229" t="s">
         <v>594</v>
       </c>
-      <c r="E229" s="6" t="s">
+      <c r="E229" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F229" t="s">
@@ -7517,18 +7759,18 @@
       <c r="H229" t="s">
         <v>597</v>
       </c>
-      <c r="I229" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="230" spans="1:10">
-      <c r="B230" s="6" t="s">
+      <c r="I229" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B230" s="7" t="s">
         <v>598</v>
       </c>
       <c r="C230" t="s">
         <v>599</v>
       </c>
-      <c r="E230" s="6" t="s">
+      <c r="E230" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F230" t="s">
@@ -7540,15 +7782,16 @@
       <c r="H230" t="s">
         <v>602</v>
       </c>
-      <c r="I230" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="231" spans="1:10">
+      <c r="I230" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B231" s="8"/>
       <c r="C231" t="s">
         <v>603</v>
       </c>
-      <c r="E231" s="6" t="s">
+      <c r="E231" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F231" t="s">
@@ -7560,15 +7803,16 @@
       <c r="H231" t="s">
         <v>605</v>
       </c>
-      <c r="I231" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="232" spans="1:10">
+      <c r="I231" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B232" s="8"/>
       <c r="C232" t="s">
         <v>606</v>
       </c>
-      <c r="E232" s="6" t="s">
+      <c r="E232" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F232" t="s">
@@ -7580,15 +7824,16 @@
       <c r="H232" t="s">
         <v>608</v>
       </c>
-      <c r="I232" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="233" spans="1:10">
+      <c r="I232" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B233" s="8"/>
       <c r="C233" t="s">
         <v>609</v>
       </c>
-      <c r="E233" s="6" t="s">
+      <c r="E233" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F233" t="s">
@@ -7600,15 +7845,16 @@
       <c r="H233" t="s">
         <v>605</v>
       </c>
-      <c r="I233" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="234" spans="1:10">
+      <c r="I233" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B234" s="8"/>
       <c r="C234" t="s">
         <v>611</v>
       </c>
-      <c r="E234" s="6" t="s">
+      <c r="E234" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F234" t="s">
@@ -7620,15 +7866,16 @@
       <c r="H234" t="s">
         <v>613</v>
       </c>
-      <c r="I234" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="235" spans="1:10">
+      <c r="I234" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B235" s="8"/>
       <c r="C235" t="s">
         <v>614</v>
       </c>
-      <c r="E235" s="6" t="s">
+      <c r="E235" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F235" t="s">
@@ -7640,15 +7887,16 @@
       <c r="H235" t="s">
         <v>616</v>
       </c>
-      <c r="I235" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="236" spans="1:10">
+      <c r="I235" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B236" s="8"/>
       <c r="C236" t="s">
         <v>617</v>
       </c>
-      <c r="E236" s="6" t="s">
+      <c r="E236" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F236" t="s">
@@ -7660,15 +7908,16 @@
       <c r="H236" t="s">
         <v>602</v>
       </c>
-      <c r="I236" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="237" spans="1:10">
+      <c r="I236" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B237" s="8"/>
       <c r="C237" t="s">
         <v>620</v>
       </c>
-      <c r="E237" s="6" t="s">
+      <c r="E237" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F237" t="s">
@@ -7680,15 +7929,16 @@
       <c r="H237" t="s">
         <v>602</v>
       </c>
-      <c r="I237" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="238" spans="1:10">
+      <c r="I237" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B238" s="8"/>
       <c r="C238" t="s">
         <v>622</v>
       </c>
-      <c r="E238" s="6" t="s">
+      <c r="E238" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F238" t="s">
@@ -7700,15 +7950,16 @@
       <c r="H238" t="s">
         <v>608</v>
       </c>
-      <c r="I238" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="239" spans="1:10">
+      <c r="I238" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B239" s="8"/>
       <c r="C239" t="s">
         <v>624</v>
       </c>
-      <c r="E239" s="6" t="s">
+      <c r="E239" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F239" t="s">
@@ -7720,15 +7971,16 @@
       <c r="H239" t="s">
         <v>602</v>
       </c>
-      <c r="I239" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="240" spans="1:10">
+      <c r="I239" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B240" s="8"/>
       <c r="C240" t="s">
         <v>627</v>
       </c>
-      <c r="E240" s="6" t="s">
+      <c r="E240" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F240" t="s">
@@ -7740,15 +7992,16 @@
       <c r="H240" t="s">
         <v>602</v>
       </c>
-      <c r="I240" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="241" spans="1:10">
+      <c r="I240" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B241" s="8"/>
       <c r="C241" t="s">
         <v>629</v>
       </c>
-      <c r="E241" s="6" t="s">
+      <c r="E241" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F241" t="s">
@@ -7760,15 +8013,16 @@
       <c r="H241" t="s">
         <v>608</v>
       </c>
-      <c r="I241" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="242" spans="1:10">
+      <c r="I241" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B242" s="8"/>
       <c r="C242" t="s">
         <v>631</v>
       </c>
-      <c r="E242" s="6" t="s">
+      <c r="E242" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F242" t="s">
@@ -7780,15 +8034,16 @@
       <c r="H242" t="s">
         <v>602</v>
       </c>
-      <c r="I242" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="243" spans="1:10">
+      <c r="I242" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B243" s="8"/>
       <c r="C243" t="s">
         <v>634</v>
       </c>
-      <c r="E243" s="6" t="s">
+      <c r="E243" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F243" t="s">
@@ -7800,15 +8055,16 @@
       <c r="H243" t="s">
         <v>602</v>
       </c>
-      <c r="I243" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="244" spans="1:10">
+      <c r="I243" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B244" s="8"/>
       <c r="C244" t="s">
         <v>636</v>
       </c>
-      <c r="E244" s="6" t="s">
+      <c r="E244" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F244" t="s">
@@ -7820,15 +8076,16 @@
       <c r="H244" t="s">
         <v>608</v>
       </c>
-      <c r="I244" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="245" spans="1:10">
+      <c r="I244" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B245" s="8"/>
       <c r="C245" t="s">
         <v>638</v>
       </c>
-      <c r="E245" s="6" t="s">
+      <c r="E245" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F245" t="s">
@@ -7840,15 +8097,16 @@
       <c r="H245" t="s">
         <v>602</v>
       </c>
-      <c r="I245" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="246" spans="1:10">
+      <c r="I245" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B246" s="8"/>
       <c r="C246" t="s">
         <v>641</v>
       </c>
-      <c r="E246" s="6" t="s">
+      <c r="E246" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F246" t="s">
@@ -7860,15 +8118,16 @@
       <c r="H246" t="s">
         <v>616</v>
       </c>
-      <c r="I246" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="247" spans="1:10">
+      <c r="I246" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B247" s="8"/>
       <c r="C247" t="s">
         <v>643</v>
       </c>
-      <c r="E247" s="6" t="s">
+      <c r="E247" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F247" t="s">
@@ -7880,15 +8139,16 @@
       <c r="H247" t="s">
         <v>616</v>
       </c>
-      <c r="I247" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="248" spans="1:10">
+      <c r="I247" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B248" s="8"/>
       <c r="C248" t="s">
         <v>646</v>
       </c>
-      <c r="E248" s="6" t="s">
+      <c r="E248" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F248" t="s">
@@ -7900,15 +8160,16 @@
       <c r="H248" t="s">
         <v>648</v>
       </c>
-      <c r="I248" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="249" spans="1:10">
+      <c r="I248" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B249" s="8"/>
       <c r="C249" t="s">
         <v>649</v>
       </c>
-      <c r="E249" s="6" t="s">
+      <c r="E249" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F249" t="s">
@@ -7920,15 +8181,16 @@
       <c r="H249" t="s">
         <v>602</v>
       </c>
-      <c r="I249" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="250" spans="1:10">
+      <c r="I249" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B250" s="8"/>
       <c r="C250" t="s">
         <v>652</v>
       </c>
-      <c r="E250" s="6" t="s">
+      <c r="E250" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F250" t="s">
@@ -7940,15 +8202,16 @@
       <c r="H250" t="s">
         <v>602</v>
       </c>
-      <c r="I250" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="251" spans="1:10">
+      <c r="I250" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B251" s="8"/>
       <c r="C251" t="s">
         <v>655</v>
       </c>
-      <c r="E251" s="6" t="s">
+      <c r="E251" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F251" t="s">
@@ -7960,15 +8223,16 @@
       <c r="H251" t="s">
         <v>657</v>
       </c>
-      <c r="I251" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="252" spans="1:10">
+      <c r="I251" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B252" s="8"/>
       <c r="C252" t="s">
         <v>658</v>
       </c>
-      <c r="E252" s="6" t="s">
+      <c r="E252" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F252" t="s">
@@ -7980,15 +8244,16 @@
       <c r="H252" t="s">
         <v>52</v>
       </c>
-      <c r="I252" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="253" spans="1:10">
+      <c r="I252" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B253" s="8"/>
       <c r="C253" t="s">
         <v>660</v>
       </c>
-      <c r="E253" s="6" t="s">
+      <c r="E253" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F253" t="s">
@@ -8000,15 +8265,16 @@
       <c r="H253" t="s">
         <v>662</v>
       </c>
-      <c r="I253" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="254" spans="1:10">
+      <c r="I253" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B254" s="8"/>
       <c r="C254" t="s">
         <v>663</v>
       </c>
-      <c r="E254" s="6" t="s">
+      <c r="E254" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F254" t="s">
@@ -8020,15 +8286,16 @@
       <c r="H254" t="s">
         <v>616</v>
       </c>
-      <c r="I254" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="255" spans="1:10">
+      <c r="I254" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B255" s="8"/>
       <c r="C255" t="s">
         <v>666</v>
       </c>
-      <c r="E255" s="6" t="s">
+      <c r="E255" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F255" t="s">
@@ -8040,15 +8307,16 @@
       <c r="H255" t="s">
         <v>668</v>
       </c>
-      <c r="I255" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="256" spans="1:10">
+      <c r="I255" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B256" s="8"/>
       <c r="C256" t="s">
         <v>669</v>
       </c>
-      <c r="E256" s="6" t="s">
+      <c r="E256" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F256" t="s">
@@ -8060,15 +8328,16 @@
       <c r="H256" t="s">
         <v>671</v>
       </c>
-      <c r="I256" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="257" spans="1:10">
+      <c r="I256" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B257" s="8"/>
       <c r="C257" t="s">
         <v>672</v>
       </c>
-      <c r="E257" s="6" t="s">
+      <c r="E257" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F257" t="s">
@@ -8080,15 +8349,16 @@
       <c r="H257" t="s">
         <v>616</v>
       </c>
-      <c r="I257" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="258" spans="1:10">
+      <c r="I257" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B258" s="8"/>
       <c r="C258" t="s">
         <v>674</v>
       </c>
-      <c r="E258" s="6" t="s">
+      <c r="E258" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F258" t="s">
@@ -8100,15 +8370,16 @@
       <c r="H258" t="s">
         <v>676</v>
       </c>
-      <c r="I258" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="259" spans="1:10">
+      <c r="I258" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B259" s="8"/>
       <c r="C259" t="s">
         <v>677</v>
       </c>
-      <c r="E259" s="6" t="s">
+      <c r="E259" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F259" t="s">
@@ -8120,15 +8391,16 @@
       <c r="H259" t="s">
         <v>657</v>
       </c>
-      <c r="I259" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="260" spans="1:10">
+      <c r="I259" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B260" s="8"/>
       <c r="C260" t="s">
         <v>679</v>
       </c>
-      <c r="E260" s="6" t="s">
+      <c r="E260" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F260" t="s">
@@ -8140,15 +8412,16 @@
       <c r="H260" t="s">
         <v>269</v>
       </c>
-      <c r="I260" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="261" spans="1:10">
+      <c r="I260" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B261" s="8"/>
       <c r="C261" t="s">
         <v>681</v>
       </c>
-      <c r="E261" s="6" t="s">
+      <c r="E261" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F261" t="s">
@@ -8160,15 +8433,16 @@
       <c r="H261" t="s">
         <v>52</v>
       </c>
-      <c r="I261" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="262" spans="1:10">
+      <c r="I261" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B262" s="8"/>
       <c r="C262" t="s">
         <v>683</v>
       </c>
-      <c r="E262" s="6" t="s">
+      <c r="E262" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F262" t="s">
@@ -8180,15 +8454,16 @@
       <c r="H262" t="s">
         <v>616</v>
       </c>
-      <c r="I262" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="263" spans="1:10">
+      <c r="I262" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B263" s="8"/>
       <c r="C263" t="s">
         <v>686</v>
       </c>
-      <c r="E263" s="6" t="s">
+      <c r="E263" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F263" t="s">
@@ -8200,15 +8475,16 @@
       <c r="H263" t="s">
         <v>616</v>
       </c>
-      <c r="I263" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="264" spans="1:10">
+      <c r="I263" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B264" s="8"/>
       <c r="C264" t="s">
         <v>687</v>
       </c>
-      <c r="E264" s="6" t="s">
+      <c r="E264" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F264" t="s">
@@ -8220,15 +8496,16 @@
       <c r="H264" t="s">
         <v>657</v>
       </c>
-      <c r="I264" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="265" spans="1:10">
+      <c r="I264" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B265" s="8"/>
       <c r="C265" t="s">
         <v>688</v>
       </c>
-      <c r="E265" s="6" t="s">
+      <c r="E265" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F265" t="s">
@@ -8240,15 +8517,16 @@
       <c r="H265" t="s">
         <v>616</v>
       </c>
-      <c r="I265" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="266" spans="1:10">
+      <c r="I265" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B266" s="8"/>
       <c r="C266" t="s">
         <v>689</v>
       </c>
-      <c r="E266" s="6" t="s">
+      <c r="E266" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F266" t="s">
@@ -8260,15 +8538,16 @@
       <c r="H266" t="s">
         <v>605</v>
       </c>
-      <c r="I266" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="267" spans="1:10">
+      <c r="I266" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B267" s="8"/>
       <c r="C267" t="s">
         <v>691</v>
       </c>
-      <c r="E267" s="6" t="s">
+      <c r="E267" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F267" t="s">
@@ -8280,15 +8559,16 @@
       <c r="H267" t="s">
         <v>269</v>
       </c>
-      <c r="I267" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="268" spans="1:10">
+      <c r="I267" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B268" s="8"/>
       <c r="C268" t="s">
         <v>693</v>
       </c>
-      <c r="E268" s="6" t="s">
+      <c r="E268" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F268" t="s">
@@ -8300,15 +8580,16 @@
       <c r="H268" t="s">
         <v>52</v>
       </c>
-      <c r="I268" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="269" spans="1:10">
+      <c r="I268" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B269" s="8"/>
       <c r="C269" t="s">
         <v>694</v>
       </c>
-      <c r="E269" s="6" t="s">
+      <c r="E269" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F269" t="s">
@@ -8317,55 +8598,58 @@
       <c r="H269" t="s">
         <v>695</v>
       </c>
-      <c r="I269" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="270" spans="1:10">
+      <c r="I269" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B270" s="8"/>
       <c r="C270" t="s">
         <v>696</v>
       </c>
-      <c r="E270" s="6" t="s">
+      <c r="E270" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F270" t="s">
         <v>684</v>
       </c>
-      <c r="G270" s="8" t="s">
+      <c r="G270" s="6" t="s">
         <v>697</v>
       </c>
       <c r="H270" t="s">
         <v>695</v>
       </c>
-      <c r="I270" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="271" spans="1:10">
+      <c r="I270" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B271" s="8"/>
       <c r="C271" t="s">
         <v>698</v>
       </c>
-      <c r="E271" s="6" t="s">
+      <c r="E271" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F271" t="s">
         <v>664</v>
       </c>
-      <c r="G271" s="8" t="s">
+      <c r="G271" s="6" t="s">
         <v>699</v>
       </c>
       <c r="H271" t="s">
         <v>695</v>
       </c>
-      <c r="I271" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="272" spans="1:10">
+      <c r="I271" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B272" s="8"/>
       <c r="C272" t="s">
         <v>700</v>
       </c>
-      <c r="E272" s="6" t="s">
+      <c r="E272" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F272" t="s">
@@ -8377,15 +8661,16 @@
       <c r="H272" t="s">
         <v>695</v>
       </c>
-      <c r="I272" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="273" spans="1:10">
+      <c r="I272" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B273" s="8"/>
       <c r="C273" t="s">
         <v>702</v>
       </c>
-      <c r="E273" s="6" t="s">
+      <c r="E273" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F273" t="s">
@@ -8397,15 +8682,16 @@
       <c r="H273" t="s">
         <v>616</v>
       </c>
-      <c r="I273" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="274" spans="1:10">
+      <c r="I273" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B274" s="8"/>
       <c r="C274" t="s">
         <v>704</v>
       </c>
-      <c r="E274" s="6" t="s">
+      <c r="E274" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F274" t="s">
@@ -8414,15 +8700,16 @@
       <c r="H274" t="s">
         <v>616</v>
       </c>
-      <c r="I274" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="275" spans="1:10">
+      <c r="I274" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B275" s="8"/>
       <c r="C275" t="s">
         <v>706</v>
       </c>
-      <c r="E275" s="6" t="s">
+      <c r="E275" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F275" t="s">
@@ -8434,15 +8721,16 @@
       <c r="H275" t="s">
         <v>616</v>
       </c>
-      <c r="I275" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="276" spans="1:10">
+      <c r="I275" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B276" s="8"/>
       <c r="C276" t="s">
         <v>708</v>
       </c>
-      <c r="E276" s="6" t="s">
+      <c r="E276" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F276" t="s">
@@ -8454,15 +8742,16 @@
       <c r="H276" t="s">
         <v>616</v>
       </c>
-      <c r="I276" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="277" spans="1:10">
+      <c r="I276" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B277" s="8"/>
       <c r="C277" t="s">
         <v>711</v>
       </c>
-      <c r="E277" s="6" t="s">
+      <c r="E277" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F277" t="s">
@@ -8474,15 +8763,16 @@
       <c r="H277" t="s">
         <v>602</v>
       </c>
-      <c r="I277" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="278" spans="1:10">
+      <c r="I277" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B278" s="8"/>
       <c r="C278" t="s">
         <v>713</v>
       </c>
-      <c r="E278" s="6" t="s">
+      <c r="E278" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F278" t="s">
@@ -8491,15 +8781,16 @@
       <c r="H278" t="s">
         <v>616</v>
       </c>
-      <c r="I278" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="279" spans="1:10">
+      <c r="I278" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B279" s="8"/>
       <c r="C279" t="s">
         <v>715</v>
       </c>
-      <c r="E279" s="6" t="s">
+      <c r="E279" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F279" t="s">
@@ -8511,15 +8802,16 @@
       <c r="H279" t="s">
         <v>616</v>
       </c>
-      <c r="I279" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="280" spans="1:10">
+      <c r="I279" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B280" s="8"/>
       <c r="C280" t="s">
         <v>718</v>
       </c>
-      <c r="E280" s="6" t="s">
+      <c r="E280" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F280" t="s">
@@ -8531,15 +8823,16 @@
       <c r="H280" t="s">
         <v>616</v>
       </c>
-      <c r="I280" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="281" spans="1:10">
+      <c r="I280" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B281" s="8"/>
       <c r="C281" t="s">
         <v>721</v>
       </c>
-      <c r="E281" s="6" t="s">
+      <c r="E281" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F281" t="s">
@@ -8551,15 +8844,16 @@
       <c r="H281" t="s">
         <v>723</v>
       </c>
-      <c r="I281" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="282" spans="1:10">
+      <c r="I281" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B282" s="8"/>
       <c r="C282" t="s">
         <v>724</v>
       </c>
-      <c r="E282" s="6" t="s">
+      <c r="E282" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F282" t="s">
@@ -8571,15 +8865,16 @@
       <c r="H282" t="s">
         <v>616</v>
       </c>
-      <c r="I282" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="283" spans="1:10">
+      <c r="I282" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B283" s="8"/>
       <c r="C283" t="s">
         <v>727</v>
       </c>
-      <c r="E283" s="6" t="s">
+      <c r="E283" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F283" t="s">
@@ -8591,15 +8886,16 @@
       <c r="H283" t="s">
         <v>605</v>
       </c>
-      <c r="I283" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="284" spans="1:10">
+      <c r="I283" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B284" s="8"/>
       <c r="C284" t="s">
         <v>729</v>
       </c>
-      <c r="E284" s="6" t="s">
+      <c r="E284" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F284" t="s">
@@ -8611,15 +8907,16 @@
       <c r="H284" t="s">
         <v>616</v>
       </c>
-      <c r="I284" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="285" spans="1:10">
+      <c r="I284" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B285" s="8"/>
       <c r="C285" t="s">
         <v>731</v>
       </c>
-      <c r="E285" s="6" t="s">
+      <c r="E285" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F285" t="s">
@@ -8631,15 +8928,16 @@
       <c r="H285" t="s">
         <v>616</v>
       </c>
-      <c r="I285" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="286" spans="1:10">
+      <c r="I285" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B286" s="8"/>
       <c r="C286" t="s">
         <v>733</v>
       </c>
-      <c r="E286" s="6" t="s">
+      <c r="E286" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F286" t="s">
@@ -8651,15 +8949,16 @@
       <c r="H286" t="s">
         <v>616</v>
       </c>
-      <c r="I286" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="287" spans="1:10">
+      <c r="I286" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B287" s="8"/>
       <c r="C287" t="s">
         <v>736</v>
       </c>
-      <c r="E287" s="6" t="s">
+      <c r="E287" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F287" t="s">
@@ -8671,15 +8970,16 @@
       <c r="H287" t="s">
         <v>616</v>
       </c>
-      <c r="I287" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="288" spans="1:10">
+      <c r="I287" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B288" s="8"/>
       <c r="C288" t="s">
         <v>739</v>
       </c>
-      <c r="E288" s="6" t="s">
+      <c r="E288" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F288" t="s">
@@ -8691,15 +8991,16 @@
       <c r="H288" t="s">
         <v>616</v>
       </c>
-      <c r="I288" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="289" spans="1:10">
+      <c r="I288" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B289" s="8"/>
       <c r="C289" t="s">
         <v>741</v>
       </c>
-      <c r="E289" s="6" t="s">
+      <c r="E289" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F289" t="s">
@@ -8711,15 +9012,16 @@
       <c r="H289" t="s">
         <v>616</v>
       </c>
-      <c r="I289" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="290" spans="1:10">
+      <c r="I289" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B290" s="8"/>
       <c r="C290" t="s">
         <v>743</v>
       </c>
-      <c r="E290" s="6" t="s">
+      <c r="E290" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F290" t="s">
@@ -8731,15 +9033,16 @@
       <c r="H290" t="s">
         <v>616</v>
       </c>
-      <c r="I290" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="291" spans="1:10">
+      <c r="I290" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B291" s="8"/>
       <c r="C291" t="s">
         <v>745</v>
       </c>
-      <c r="E291" s="6" t="s">
+      <c r="E291" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F291" t="s">
@@ -8751,15 +9054,16 @@
       <c r="H291" t="s">
         <v>616</v>
       </c>
-      <c r="I291" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="292" spans="1:10">
+      <c r="I291" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B292" s="8"/>
       <c r="C292" t="s">
         <v>747</v>
       </c>
-      <c r="E292" s="6" t="s">
+      <c r="E292" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F292" t="s">
@@ -8771,15 +9075,16 @@
       <c r="H292" t="s">
         <v>750</v>
       </c>
-      <c r="I292" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="293" spans="1:10">
+      <c r="I292" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B293" s="8"/>
       <c r="C293" t="s">
         <v>751</v>
       </c>
-      <c r="E293" s="6" t="s">
+      <c r="E293" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F293" t="s">
@@ -8791,18 +9096,18 @@
       <c r="H293" t="s">
         <v>616</v>
       </c>
-      <c r="I293" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="294" spans="1:10">
-      <c r="B294" s="6" t="s">
+      <c r="I293" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B294" s="7" t="s">
         <v>753</v>
       </c>
       <c r="C294" t="s">
         <v>754</v>
       </c>
-      <c r="E294" s="6" t="s">
+      <c r="E294" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F294" t="s">
@@ -8814,15 +9119,16 @@
       <c r="H294" t="s">
         <v>616</v>
       </c>
-      <c r="I294" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="295" spans="1:10">
+      <c r="I294" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B295" s="8"/>
       <c r="C295" t="s">
         <v>757</v>
       </c>
-      <c r="E295" s="6" t="s">
+      <c r="E295" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F295" t="s">
@@ -8831,35 +9137,37 @@
       <c r="H295" t="s">
         <v>616</v>
       </c>
-      <c r="I295" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="296" spans="1:10">
+      <c r="I295" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B296" s="8"/>
       <c r="C296" t="s">
         <v>758</v>
       </c>
-      <c r="E296" s="6" t="s">
+      <c r="E296" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F296" t="s">
         <v>755</v>
       </c>
-      <c r="G296" s="8" t="s">
+      <c r="G296" s="6" t="s">
         <v>759</v>
       </c>
       <c r="H296" t="s">
         <v>760</v>
       </c>
-      <c r="I296" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="297" spans="1:10">
+      <c r="I296" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B297" s="8"/>
       <c r="C297" t="s">
         <v>761</v>
       </c>
-      <c r="E297" s="6" t="s">
+      <c r="E297" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F297" t="s">
@@ -8868,15 +9176,16 @@
       <c r="H297" t="s">
         <v>616</v>
       </c>
-      <c r="I297" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="298" spans="1:10">
+      <c r="I297" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B298" s="8"/>
       <c r="C298" t="s">
         <v>762</v>
       </c>
-      <c r="E298" s="6" t="s">
+      <c r="E298" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F298" t="s">
@@ -8888,15 +9197,16 @@
       <c r="H298" t="s">
         <v>616</v>
       </c>
-      <c r="I298" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="299" spans="1:10">
+      <c r="I298" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B299" s="8"/>
       <c r="C299" t="s">
         <v>764</v>
       </c>
-      <c r="E299" s="6" t="s">
+      <c r="E299" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F299" t="s">
@@ -8908,15 +9218,16 @@
       <c r="H299" t="s">
         <v>616</v>
       </c>
-      <c r="I299" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="300" spans="1:10">
+      <c r="I299" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B300" s="8"/>
       <c r="C300" t="s">
         <v>766</v>
       </c>
-      <c r="E300" s="6" t="s">
+      <c r="E300" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F300" t="s">
@@ -8928,15 +9239,16 @@
       <c r="H300" t="s">
         <v>768</v>
       </c>
-      <c r="I300" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="301" spans="1:10">
+      <c r="I300" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B301" s="8"/>
       <c r="C301" t="s">
         <v>769</v>
       </c>
-      <c r="E301" s="6" t="s">
+      <c r="E301" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F301" t="s">
@@ -8948,18 +9260,18 @@
       <c r="H301" t="s">
         <v>616</v>
       </c>
-      <c r="I301" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="302" spans="1:10">
-      <c r="B302" s="6" t="s">
+      <c r="I301" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B302" s="7" t="s">
         <v>772</v>
       </c>
       <c r="C302" t="s">
         <v>773</v>
       </c>
-      <c r="E302" s="6" t="s">
+      <c r="E302" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F302" t="s">
@@ -8968,35 +9280,37 @@
       <c r="H302" t="s">
         <v>616</v>
       </c>
-      <c r="I302" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="303" spans="1:10">
+      <c r="I302" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B303" s="8"/>
       <c r="C303" t="s">
         <v>775</v>
       </c>
-      <c r="E303" s="6" t="s">
+      <c r="E303" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F303" t="s">
         <v>140</v>
       </c>
-      <c r="G303" s="8" t="s">
+      <c r="G303" s="6" t="s">
         <v>697</v>
       </c>
       <c r="H303" t="s">
         <v>616</v>
       </c>
-      <c r="I303" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="304" spans="1:10">
+      <c r="I303" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B304" s="8"/>
       <c r="C304" t="s">
         <v>776</v>
       </c>
-      <c r="E304" s="6" t="s">
+      <c r="E304" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F304" t="s">
@@ -9005,15 +9319,16 @@
       <c r="H304" t="s">
         <v>616</v>
       </c>
-      <c r="I304" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="305" spans="1:10">
+      <c r="I304" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B305" s="8"/>
       <c r="C305" t="s">
         <v>778</v>
       </c>
-      <c r="E305" s="6" t="s">
+      <c r="E305" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F305" t="s">
@@ -9025,15 +9340,16 @@
       <c r="H305" t="s">
         <v>605</v>
       </c>
-      <c r="I305" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="306" spans="1:10">
+      <c r="I305" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B306" s="8"/>
       <c r="C306" t="s">
         <v>780</v>
       </c>
-      <c r="E306" s="6" t="s">
+      <c r="E306" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F306" t="s">
@@ -9045,15 +9361,16 @@
       <c r="H306" t="s">
         <v>616</v>
       </c>
-      <c r="I306" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="307" spans="1:10">
+      <c r="I306" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B307" s="8"/>
       <c r="C307" t="s">
         <v>782</v>
       </c>
-      <c r="E307" s="6" t="s">
+      <c r="E307" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F307" t="s">
@@ -9065,15 +9382,16 @@
       <c r="H307" t="s">
         <v>616</v>
       </c>
-      <c r="I307" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="308" spans="1:10">
+      <c r="I307" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B308" s="8"/>
       <c r="C308" t="s">
         <v>784</v>
       </c>
-      <c r="E308" s="6" t="s">
+      <c r="E308" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F308" t="s">
@@ -9085,15 +9403,16 @@
       <c r="H308" t="s">
         <v>227</v>
       </c>
-      <c r="I308" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="309" spans="1:10">
+      <c r="I308" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B309" s="8"/>
       <c r="C309" t="s">
         <v>786</v>
       </c>
-      <c r="E309" s="6" t="s">
+      <c r="E309" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F309" t="s">
@@ -9102,15 +9421,16 @@
       <c r="H309" t="s">
         <v>616</v>
       </c>
-      <c r="I309" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="310" spans="1:10">
+      <c r="I309" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B310" s="8"/>
       <c r="C310" t="s">
         <v>787</v>
       </c>
-      <c r="E310" s="6" t="s">
+      <c r="E310" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F310" t="s">
@@ -9119,54 +9439,51 @@
       <c r="H310" t="s">
         <v>616</v>
       </c>
-      <c r="I310" s="7" t="n">
+      <c r="I310" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B70"/>
+    <mergeCell ref="B132:B229"/>
     <mergeCell ref="B230:B293"/>
     <mergeCell ref="B294:B301"/>
     <mergeCell ref="B302:B310"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B73:B101"/>
     <mergeCell ref="B102:B131"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B25"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="B34:B70"/>
-    <mergeCell ref="B132:B229"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="7" width="7"/>
-    <col customWidth="1" max="2" min="2" style="7" width="8.81640625"/>
-    <col customWidth="1" max="3" min="3" width="21.1796875"/>
-    <col customWidth="1" max="4" min="4" style="7" width="14.36328125"/>
-    <col customWidth="1" max="5" min="5" style="7" width="8.81640625"/>
-    <col customWidth="1" max="6" min="6" width="60.81640625"/>
-    <col customWidth="1" max="7" min="7" width="68.36328125"/>
-    <col customWidth="1" max="8" min="8" width="55.1796875"/>
-    <col customWidth="1" max="9" min="9" width="14.453125"/>
+    <col min="1" max="1" width="7" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="60.83203125" customWidth="1"/>
+    <col min="7" max="7" width="68.33203125" customWidth="1"/>
+    <col min="8" max="8" width="55.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="22" r="1" s="6" spans="1:9">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9195,20 +9512,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>790</v>
       </c>
       <c r="C2" t="s">
         <v>791</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F2" t="s">
@@ -9221,17 +9538,18 @@
         <v>794</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="7" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
+      <c r="B3" s="8"/>
       <c r="C3" t="s">
         <v>795</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F3" t="s">
@@ -9241,17 +9559,18 @@
         <v>796</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="7" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
+      <c r="B4" s="8"/>
       <c r="C4" t="s">
         <v>797</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F4" t="s">
@@ -9261,17 +9580,18 @@
         <v>798</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="7" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>799</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F5" t="s">
@@ -9281,17 +9601,18 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="7" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>801</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F6" t="s">
@@ -9301,17 +9622,18 @@
         <v>802</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="7" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>803</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -9321,17 +9643,18 @@
         <v>804</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="7" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>805</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F8" t="s">
@@ -9341,17 +9664,18 @@
         <v>806</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="7" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>807</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F9" t="s">
@@ -9361,17 +9685,18 @@
         <v>808</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="7" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>809</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F10" t="s">
@@ -9381,185 +9706,189 @@
         <v>793</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="7" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>810</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="7" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>797</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="7" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>799</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="7" t="n">
-        <v>13</v>
-      </c>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>815</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="7" t="n">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>817</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="7" t="n">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>819</v>
       </c>
       <c r="C16" t="s">
         <v>820</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="7" t="n">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>820</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="7" t="n">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="7" t="n">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="7" t="n">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="7" t="n">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="7" t="n">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="7" t="n">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="7" t="n">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="7" t="n">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="7" t="n">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
     </row>
@@ -9568,60 +9897,58 @@
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="B11:B15"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F11" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" ref="F15" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F16" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8085/futureloan/mvc/api/member/recharge" ref="F18" r:id="rId4"/>
+    <hyperlink ref="F11" r:id="rId1"/>
+    <hyperlink ref="F15" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="F16" r:id="rId3"/>
+    <hyperlink ref="F18" r:id="rId4" display="http://119.23.241.154:8085/futureloan/mvc/api/member/recharge"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.90625" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="15.81640625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="6" width="12.453125"/>
+    <col min="1" max="1" width="15.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>825</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>829</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <f>B2+1</f>
-        <v/>
+        <v>13520857582</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestDatas/jm_api_info.xlsx
+++ b/TestDatas/jm_api_info.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zws/longbeach/jm_api_py_test/TestDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jiemo_api\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,11 +16,8 @@
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
     <sheet name="prepare_datas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -2645,6 +2642,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2938,24 +2938,24 @@
   <dimension ref="A1:J310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B7" sqref="B7:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="51.5" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="36.83203125" customWidth="1"/>
-    <col min="7" max="7" width="81.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="51.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.81640625" customWidth="1"/>
+    <col min="7" max="7" width="81.36328125" customWidth="1"/>
     <col min="8" max="8" width="64" customWidth="1"/>
     <col min="9" max="9" width="13" style="5" customWidth="1"/>
-    <col min="10" max="10" width="27.5" customWidth="1"/>
+    <col min="10" max="10" width="27.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -3238,7 +3238,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
       <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>44</v>
@@ -3259,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>47</v>
@@ -3280,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>50</v>
@@ -3301,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>53</v>
@@ -3322,7 +3325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>56</v>
@@ -3343,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>59</v>
@@ -3364,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>61</v>
@@ -3385,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>62</v>
@@ -3403,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>65</v>
@@ -3424,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>68</v>
@@ -3445,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" t="s">
         <v>70</v>
@@ -3466,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" t="s">
         <v>73</v>
@@ -3484,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>76</v>
@@ -3505,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>79</v>
@@ -3526,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" t="s">
         <v>83</v>
@@ -3544,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>84</v>
       </c>
@@ -3567,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" t="s">
         <v>88</v>
@@ -3588,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" t="s">
         <v>91</v>
@@ -3609,7 +3612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" t="s">
         <v>92</v>
@@ -3630,7 +3633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" t="s">
         <v>93</v>
@@ -3651,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" t="s">
         <v>95</v>
@@ -3672,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
       <c r="C32" t="s">
         <v>97</v>
@@ -3690,7 +3693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" t="s">
         <v>98</v>
@@ -3711,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>100</v>
       </c>
@@ -3731,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" t="s">
         <v>103</v>
@@ -3750,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" t="s">
         <v>105</v>
@@ -3771,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
       <c r="C37" t="s">
         <v>108</v>
@@ -3792,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" t="s">
         <v>111</v>
@@ -3813,7 +3816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" t="s">
         <v>113</v>
@@ -3834,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="C40" t="s">
         <v>115</v>
@@ -3855,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
       <c r="C41" t="s">
         <v>118</v>
@@ -3876,7 +3879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="C42" t="s">
         <v>121</v>
@@ -3897,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="C43" t="s">
         <v>122</v>
@@ -3918,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="C44" t="s">
         <v>125</v>
@@ -3939,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="C45" t="s">
         <v>129</v>
@@ -3960,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="C46" t="s">
         <v>132</v>
@@ -3981,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="C47" t="s">
         <v>134</v>
@@ -4002,7 +4005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="C48" t="s">
         <v>137</v>
@@ -4023,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="C49" t="s">
         <v>139</v>
@@ -4044,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="C50" t="s">
         <v>142</v>
@@ -4065,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="C51" t="s">
         <v>145</v>
@@ -4086,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="C52" t="s">
         <v>148</v>
@@ -4107,7 +4110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="C53" t="s">
         <v>151</v>
@@ -4128,7 +4131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="C54" t="s">
         <v>155</v>
@@ -4149,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="C55" t="s">
         <v>158</v>
@@ -4170,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="C56" t="s">
         <v>161</v>
@@ -4191,7 +4194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="C57" t="s">
         <v>163</v>
@@ -4209,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58" t="s">
         <v>165</v>
@@ -4230,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="C59" t="s">
         <v>168</v>
@@ -4251,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="C60" t="s">
         <v>170</v>
@@ -4272,7 +4275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="C61" t="s">
         <v>172</v>
@@ -4293,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="C62" t="s">
         <v>174</v>
@@ -4314,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="C63" t="s">
         <v>176</v>
@@ -4335,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="C64" t="s">
         <v>178</v>
@@ -4356,7 +4359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="C65" t="s">
         <v>180</v>
@@ -4377,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="C66" t="s">
         <v>182</v>
@@ -4398,7 +4401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="C67" t="s">
         <v>184</v>
@@ -4419,7 +4422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="C68" t="s">
         <v>187</v>
@@ -4440,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="C69" t="s">
         <v>189</v>
@@ -4461,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="C70" t="s">
         <v>190</v>
@@ -4482,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
         <v>192</v>
       </c>
@@ -4505,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="C72" t="s">
         <v>195</v>
@@ -4526,7 +4529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
         <v>198</v>
       </c>
@@ -4549,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" t="s">
         <v>201</v>
@@ -4570,7 +4573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" t="s">
         <v>203</v>
@@ -4588,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="C76" t="s">
         <v>205</v>
@@ -4609,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="C77" t="s">
         <v>208</v>
@@ -4627,7 +4630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
       <c r="C78" t="s">
         <v>211</v>
@@ -4648,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="C79" t="s">
         <v>213</v>
@@ -4666,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
       <c r="C80" t="s">
         <v>216</v>
@@ -4687,7 +4690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="C81" t="s">
         <v>218</v>
@@ -4705,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="C82" t="s">
         <v>220</v>
@@ -4726,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="C83" t="s">
         <v>221</v>
@@ -4744,7 +4747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="C84" t="s">
         <v>223</v>
@@ -4765,7 +4768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="8"/>
       <c r="C85" t="s">
         <v>225</v>
@@ -4783,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
       <c r="C86" t="s">
         <v>228</v>
@@ -4804,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="C87" t="s">
         <v>230</v>
@@ -4825,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
       <c r="C88" t="s">
         <v>232</v>
@@ -4846,7 +4849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="C89" t="s">
         <v>234</v>
@@ -4867,7 +4870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="C90" t="s">
         <v>237</v>
@@ -4888,7 +4891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="C91" t="s">
         <v>239</v>
@@ -4909,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="C92" t="s">
         <v>241</v>
@@ -4930,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="C93" t="s">
         <v>242</v>
@@ -4948,7 +4951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="C94" t="s">
         <v>244</v>
@@ -4969,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="C95" t="s">
         <v>246</v>
@@ -4987,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="C96" t="s">
         <v>247</v>
@@ -5008,7 +5011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="C97" t="s">
         <v>248</v>
@@ -5029,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
       <c r="C98" t="s">
         <v>249</v>
@@ -5050,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="8"/>
       <c r="C99" t="s">
         <v>250</v>
@@ -5071,7 +5074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
       <c r="C100" t="s">
         <v>253</v>
@@ -5089,7 +5092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="8"/>
       <c r="C101" t="s">
         <v>256</v>
@@ -5110,7 +5113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
         <v>259</v>
       </c>
@@ -5133,7 +5136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="8"/>
       <c r="C103" t="s">
         <v>264</v>
@@ -5154,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
       <c r="C104" t="s">
         <v>267</v>
@@ -5175,7 +5178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="8"/>
       <c r="C105" t="s">
         <v>270</v>
@@ -5196,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
       <c r="C106" t="s">
         <v>273</v>
@@ -5217,7 +5220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="8"/>
       <c r="C107" t="s">
         <v>276</v>
@@ -5238,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
       <c r="C108" t="s">
         <v>279</v>
@@ -5259,7 +5262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="8"/>
       <c r="C109" t="s">
         <v>281</v>
@@ -5280,7 +5283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
       <c r="C110" t="s">
         <v>284</v>
@@ -5301,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="8"/>
       <c r="C111" t="s">
         <v>286</v>
@@ -5322,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="8"/>
       <c r="C112" t="s">
         <v>288</v>
@@ -5343,7 +5346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="8"/>
       <c r="C113" t="s">
         <v>292</v>
@@ -5364,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="8"/>
       <c r="C114" t="s">
         <v>295</v>
@@ -5385,7 +5388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="8"/>
       <c r="C115" t="s">
         <v>299</v>
@@ -5403,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="8"/>
       <c r="C116" t="s">
         <v>300</v>
@@ -5421,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="8"/>
       <c r="C117" t="s">
         <v>303</v>
@@ -5442,7 +5445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="8"/>
       <c r="C118" t="s">
         <v>307</v>
@@ -5463,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="8"/>
       <c r="C119" t="s">
         <v>309</v>
@@ -5484,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="8"/>
       <c r="C120" t="s">
         <v>310</v>
@@ -5505,7 +5508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="8"/>
       <c r="C121" t="s">
         <v>313</v>
@@ -5526,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="8"/>
       <c r="C122" t="s">
         <v>315</v>
@@ -5544,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="8"/>
       <c r="C123" t="s">
         <v>316</v>
@@ -5565,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="8"/>
       <c r="C124" t="s">
         <v>318</v>
@@ -5586,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="8"/>
       <c r="C125" t="s">
         <v>322</v>
@@ -5607,7 +5610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="8"/>
       <c r="C126" t="s">
         <v>325</v>
@@ -5628,7 +5631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="8"/>
       <c r="C127" t="s">
         <v>328</v>
@@ -5649,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="8"/>
       <c r="C128" t="s">
         <v>331</v>
@@ -5670,7 +5673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="8"/>
       <c r="C129" t="s">
         <v>333</v>
@@ -5691,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="8"/>
       <c r="C130" t="s">
         <v>335</v>
@@ -5712,7 +5715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="8"/>
       <c r="C131" t="s">
         <v>338</v>
@@ -5733,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
         <v>341</v>
       </c>
@@ -5753,7 +5756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="8"/>
       <c r="C133" t="s">
         <v>345</v>
@@ -5774,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="8"/>
       <c r="C134" t="s">
         <v>347</v>
@@ -5795,7 +5798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="8"/>
       <c r="C135" t="s">
         <v>351</v>
@@ -5816,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="8"/>
       <c r="C136" t="s">
         <v>354</v>
@@ -5837,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="8"/>
       <c r="C137" t="s">
         <v>357</v>
@@ -5858,7 +5861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="8"/>
       <c r="C138" t="s">
         <v>360</v>
@@ -5879,7 +5882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="8"/>
       <c r="C139" t="s">
         <v>362</v>
@@ -5900,7 +5903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="8"/>
       <c r="C140" t="s">
         <v>364</v>
@@ -5921,7 +5924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="8"/>
       <c r="C141" t="s">
         <v>367</v>
@@ -5942,7 +5945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="8"/>
       <c r="C142" t="s">
         <v>371</v>
@@ -5963,7 +5966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="8"/>
       <c r="C143" t="s">
         <v>374</v>
@@ -5984,7 +5987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="8"/>
       <c r="C144" t="s">
         <v>377</v>
@@ -6005,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="8"/>
       <c r="C145" t="s">
         <v>380</v>
@@ -6026,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="8"/>
       <c r="C146" t="s">
         <v>383</v>
@@ -6047,7 +6050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="8"/>
       <c r="C147" t="s">
         <v>387</v>
@@ -6068,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="8"/>
       <c r="C148" t="s">
         <v>391</v>
@@ -6089,7 +6092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="8"/>
       <c r="C149" t="s">
         <v>394</v>
@@ -6110,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="8"/>
       <c r="C150" t="s">
         <v>397</v>
@@ -6131,7 +6134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="8"/>
       <c r="C151" t="s">
         <v>400</v>
@@ -6152,7 +6155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="8"/>
       <c r="C152" t="s">
         <v>403</v>
@@ -6170,7 +6173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="8"/>
       <c r="C153" t="s">
         <v>405</v>
@@ -6191,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="8"/>
       <c r="C154" t="s">
         <v>408</v>
@@ -6212,7 +6215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="8"/>
       <c r="C155" t="s">
         <v>410</v>
@@ -6233,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="8"/>
       <c r="C156" t="s">
         <v>412</v>
@@ -6251,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="8"/>
       <c r="C157" t="s">
         <v>414</v>
@@ -6272,7 +6275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="8"/>
       <c r="C158" t="s">
         <v>417</v>
@@ -6293,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="8"/>
       <c r="C159" t="s">
         <v>419</v>
@@ -6314,7 +6317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="8"/>
       <c r="C160" t="s">
         <v>421</v>
@@ -6332,7 +6335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="8"/>
       <c r="C161" t="s">
         <v>423</v>
@@ -6353,7 +6356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="8"/>
       <c r="C162" t="s">
         <v>426</v>
@@ -6374,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="8"/>
       <c r="C163" t="s">
         <v>428</v>
@@ -6395,7 +6398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="8"/>
       <c r="C164" t="s">
         <v>430</v>
@@ -6413,7 +6416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="8"/>
       <c r="C165" t="s">
         <v>432</v>
@@ -6434,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="8"/>
       <c r="C166" t="s">
         <v>435</v>
@@ -6455,7 +6458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="8"/>
       <c r="C167" t="s">
         <v>437</v>
@@ -6476,7 +6479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="8"/>
       <c r="C168" t="s">
         <v>439</v>
@@ -6494,7 +6497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="8"/>
       <c r="C169" t="s">
         <v>441</v>
@@ -6515,7 +6518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="8"/>
       <c r="C170" t="s">
         <v>444</v>
@@ -6536,7 +6539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="8"/>
       <c r="C171" t="s">
         <v>446</v>
@@ -6557,7 +6560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="8"/>
       <c r="C172" t="s">
         <v>448</v>
@@ -6575,7 +6578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="8"/>
       <c r="C173" t="s">
         <v>450</v>
@@ -6596,7 +6599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="8"/>
       <c r="C174" t="s">
         <v>453</v>
@@ -6617,7 +6620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="8"/>
       <c r="C175" t="s">
         <v>454</v>
@@ -6638,7 +6641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="8"/>
       <c r="C176" t="s">
         <v>456</v>
@@ -6656,7 +6659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="8"/>
       <c r="C177" t="s">
         <v>458</v>
@@ -6674,7 +6677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="8"/>
       <c r="C178" t="s">
         <v>461</v>
@@ -6695,7 +6698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="8"/>
       <c r="C179" t="s">
         <v>463</v>
@@ -6716,7 +6719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="8"/>
       <c r="C180" t="s">
         <v>466</v>
@@ -6737,7 +6740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="8"/>
       <c r="C181" t="s">
         <v>470</v>
@@ -6758,7 +6761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="8"/>
       <c r="C182" t="s">
         <v>472</v>
@@ -6779,7 +6782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="8"/>
       <c r="C183" t="s">
         <v>472</v>
@@ -6800,7 +6803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="8"/>
       <c r="C184" t="s">
         <v>476</v>
@@ -6821,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="8"/>
       <c r="C185" t="s">
         <v>478</v>
@@ -6842,7 +6845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="8"/>
       <c r="C186" t="s">
         <v>480</v>
@@ -6863,7 +6866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="8"/>
       <c r="C187" t="s">
         <v>483</v>
@@ -6884,7 +6887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="8"/>
       <c r="C188" t="s">
         <v>486</v>
@@ -6905,7 +6908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="8"/>
       <c r="C189" t="s">
         <v>489</v>
@@ -6926,7 +6929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="8"/>
       <c r="C190" t="s">
         <v>493</v>
@@ -6947,7 +6950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="8"/>
       <c r="C191" t="s">
         <v>496</v>
@@ -6968,7 +6971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="8"/>
       <c r="C192" t="s">
         <v>383</v>
@@ -6989,7 +6992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="8"/>
       <c r="C193" t="s">
         <v>501</v>
@@ -7010,7 +7013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="8"/>
       <c r="C194" t="s">
         <v>504</v>
@@ -7031,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="8"/>
       <c r="C195" t="s">
         <v>507</v>
@@ -7052,7 +7055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="8"/>
       <c r="C196" t="s">
         <v>509</v>
@@ -7073,7 +7076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="8"/>
       <c r="C197" t="s">
         <v>512</v>
@@ -7094,7 +7097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="8"/>
       <c r="C198" t="s">
         <v>514</v>
@@ -7115,7 +7118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="8"/>
       <c r="C199" t="s">
         <v>518</v>
@@ -7136,7 +7139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="8"/>
       <c r="C200" t="s">
         <v>520</v>
@@ -7157,7 +7160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="8"/>
       <c r="C201" t="s">
         <v>521</v>
@@ -7178,7 +7181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="8"/>
       <c r="C202" t="s">
         <v>525</v>
@@ -7199,7 +7202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="8"/>
       <c r="C203" t="s">
         <v>527</v>
@@ -7220,7 +7223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="8"/>
       <c r="C204" t="s">
         <v>528</v>
@@ -7238,7 +7241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="8"/>
       <c r="C205" t="s">
         <v>531</v>
@@ -7259,7 +7262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="8"/>
       <c r="C206" t="s">
         <v>533</v>
@@ -7280,7 +7283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="8"/>
       <c r="C207" t="s">
         <v>535</v>
@@ -7301,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="8"/>
       <c r="C208" t="s">
         <v>538</v>
@@ -7322,7 +7325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="8"/>
       <c r="C209" t="s">
         <v>541</v>
@@ -7343,7 +7346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="8"/>
       <c r="C210" t="s">
         <v>544</v>
@@ -7364,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="8"/>
       <c r="C211" t="s">
         <v>548</v>
@@ -7385,7 +7388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="8"/>
       <c r="C212" t="s">
         <v>549</v>
@@ -7406,7 +7409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="8"/>
       <c r="C213" t="s">
         <v>552</v>
@@ -7427,7 +7430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="8"/>
       <c r="C214" t="s">
         <v>552</v>
@@ -7448,7 +7451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="8"/>
       <c r="C215" t="s">
         <v>556</v>
@@ -7469,7 +7472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="8"/>
       <c r="C216" t="s">
         <v>560</v>
@@ -7490,7 +7493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="8"/>
       <c r="C217" t="s">
         <v>562</v>
@@ -7511,7 +7514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="8"/>
       <c r="C218" t="s">
         <v>564</v>
@@ -7532,7 +7535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="8"/>
       <c r="C219" t="s">
         <v>567</v>
@@ -7553,7 +7556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="8"/>
       <c r="C220" t="s">
         <v>570</v>
@@ -7574,7 +7577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="8"/>
       <c r="C221" t="s">
         <v>574</v>
@@ -7595,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="8"/>
       <c r="C222" t="s">
         <v>577</v>
@@ -7616,7 +7619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="8"/>
       <c r="C223" t="s">
         <v>578</v>
@@ -7637,7 +7640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="8"/>
       <c r="C224" t="s">
         <v>580</v>
@@ -7658,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="8"/>
       <c r="C225" t="s">
         <v>583</v>
@@ -7679,7 +7682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="8"/>
       <c r="C226" t="s">
         <v>586</v>
@@ -7700,7 +7703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="8"/>
       <c r="C227" t="s">
         <v>589</v>
@@ -7721,7 +7724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="8"/>
       <c r="C228" t="s">
         <v>591</v>
@@ -7742,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="8"/>
       <c r="C229" t="s">
         <v>594</v>
@@ -7763,7 +7766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="7" t="s">
         <v>598</v>
       </c>
@@ -7786,7 +7789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="8"/>
       <c r="C231" t="s">
         <v>603</v>
@@ -7807,7 +7810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="8"/>
       <c r="C232" t="s">
         <v>606</v>
@@ -7828,7 +7831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="8"/>
       <c r="C233" t="s">
         <v>609</v>
@@ -7849,7 +7852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="8"/>
       <c r="C234" t="s">
         <v>611</v>
@@ -7870,7 +7873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="8"/>
       <c r="C235" t="s">
         <v>614</v>
@@ -7891,7 +7894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="8"/>
       <c r="C236" t="s">
         <v>617</v>
@@ -7912,7 +7915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="8"/>
       <c r="C237" t="s">
         <v>620</v>
@@ -7933,7 +7936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="8"/>
       <c r="C238" t="s">
         <v>622</v>
@@ -7954,7 +7957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="8"/>
       <c r="C239" t="s">
         <v>624</v>
@@ -7975,7 +7978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="8"/>
       <c r="C240" t="s">
         <v>627</v>
@@ -7996,7 +7999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="8"/>
       <c r="C241" t="s">
         <v>629</v>
@@ -8017,7 +8020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="8"/>
       <c r="C242" t="s">
         <v>631</v>
@@ -8038,7 +8041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="8"/>
       <c r="C243" t="s">
         <v>634</v>
@@ -8059,7 +8062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="8"/>
       <c r="C244" t="s">
         <v>636</v>
@@ -8080,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="8"/>
       <c r="C245" t="s">
         <v>638</v>
@@ -8101,7 +8104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="8"/>
       <c r="C246" t="s">
         <v>641</v>
@@ -8122,7 +8125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="8"/>
       <c r="C247" t="s">
         <v>643</v>
@@ -8143,7 +8146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="8"/>
       <c r="C248" t="s">
         <v>646</v>
@@ -8164,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="8"/>
       <c r="C249" t="s">
         <v>649</v>
@@ -8185,7 +8188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="8"/>
       <c r="C250" t="s">
         <v>652</v>
@@ -8206,7 +8209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="8"/>
       <c r="C251" t="s">
         <v>655</v>
@@ -8227,7 +8230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="8"/>
       <c r="C252" t="s">
         <v>658</v>
@@ -8248,7 +8251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="8"/>
       <c r="C253" t="s">
         <v>660</v>
@@ -8269,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="8"/>
       <c r="C254" t="s">
         <v>663</v>
@@ -8290,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="8"/>
       <c r="C255" t="s">
         <v>666</v>
@@ -8311,7 +8314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="8"/>
       <c r="C256" t="s">
         <v>669</v>
@@ -8332,7 +8335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="8"/>
       <c r="C257" t="s">
         <v>672</v>
@@ -8353,7 +8356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="8"/>
       <c r="C258" t="s">
         <v>674</v>
@@ -8374,7 +8377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="8"/>
       <c r="C259" t="s">
         <v>677</v>
@@ -8395,7 +8398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="8"/>
       <c r="C260" t="s">
         <v>679</v>
@@ -8416,7 +8419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="8"/>
       <c r="C261" t="s">
         <v>681</v>
@@ -8437,7 +8440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="8"/>
       <c r="C262" t="s">
         <v>683</v>
@@ -8458,7 +8461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="8"/>
       <c r="C263" t="s">
         <v>686</v>
@@ -8479,7 +8482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="8"/>
       <c r="C264" t="s">
         <v>687</v>
@@ -8500,7 +8503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="8"/>
       <c r="C265" t="s">
         <v>688</v>
@@ -8521,7 +8524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="8"/>
       <c r="C266" t="s">
         <v>689</v>
@@ -8542,7 +8545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="8"/>
       <c r="C267" t="s">
         <v>691</v>
@@ -8563,7 +8566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="8"/>
       <c r="C268" t="s">
         <v>693</v>
@@ -8584,7 +8587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="8"/>
       <c r="C269" t="s">
         <v>694</v>
@@ -8602,7 +8605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="8"/>
       <c r="C270" t="s">
         <v>696</v>
@@ -8623,7 +8626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="8"/>
       <c r="C271" t="s">
         <v>698</v>
@@ -8644,7 +8647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="8"/>
       <c r="C272" t="s">
         <v>700</v>
@@ -8665,7 +8668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="8"/>
       <c r="C273" t="s">
         <v>702</v>
@@ -8686,7 +8689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="8"/>
       <c r="C274" t="s">
         <v>704</v>
@@ -8704,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="8"/>
       <c r="C275" t="s">
         <v>706</v>
@@ -8725,7 +8728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="8"/>
       <c r="C276" t="s">
         <v>708</v>
@@ -8746,7 +8749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="8"/>
       <c r="C277" t="s">
         <v>711</v>
@@ -8767,7 +8770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="8"/>
       <c r="C278" t="s">
         <v>713</v>
@@ -8785,7 +8788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="8"/>
       <c r="C279" t="s">
         <v>715</v>
@@ -8806,7 +8809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="8"/>
       <c r="C280" t="s">
         <v>718</v>
@@ -8827,7 +8830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="8"/>
       <c r="C281" t="s">
         <v>721</v>
@@ -8848,7 +8851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="8"/>
       <c r="C282" t="s">
         <v>724</v>
@@ -8869,7 +8872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="8"/>
       <c r="C283" t="s">
         <v>727</v>
@@ -8890,7 +8893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="8"/>
       <c r="C284" t="s">
         <v>729</v>
@@ -8911,7 +8914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="8"/>
       <c r="C285" t="s">
         <v>731</v>
@@ -8932,7 +8935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="8"/>
       <c r="C286" t="s">
         <v>733</v>
@@ -8953,7 +8956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="8"/>
       <c r="C287" t="s">
         <v>736</v>
@@ -8974,7 +8977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="8"/>
       <c r="C288" t="s">
         <v>739</v>
@@ -8995,7 +8998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="8"/>
       <c r="C289" t="s">
         <v>741</v>
@@ -9016,7 +9019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="8"/>
       <c r="C290" t="s">
         <v>743</v>
@@ -9037,7 +9040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="8"/>
       <c r="C291" t="s">
         <v>745</v>
@@ -9058,7 +9061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="8"/>
       <c r="C292" t="s">
         <v>747</v>
@@ -9079,7 +9082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="8"/>
       <c r="C293" t="s">
         <v>751</v>
@@ -9100,7 +9103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="7" t="s">
         <v>753</v>
       </c>
@@ -9123,7 +9126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="8"/>
       <c r="C295" t="s">
         <v>757</v>
@@ -9141,7 +9144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="8"/>
       <c r="C296" t="s">
         <v>758</v>
@@ -9162,7 +9165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="8"/>
       <c r="C297" t="s">
         <v>761</v>
@@ -9180,7 +9183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="8"/>
       <c r="C298" t="s">
         <v>762</v>
@@ -9201,7 +9204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="8"/>
       <c r="C299" t="s">
         <v>764</v>
@@ -9222,7 +9225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="8"/>
       <c r="C300" t="s">
         <v>766</v>
@@ -9243,7 +9246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="8"/>
       <c r="C301" t="s">
         <v>769</v>
@@ -9264,7 +9267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="7" t="s">
         <v>772</v>
       </c>
@@ -9284,7 +9287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="8"/>
       <c r="C303" t="s">
         <v>775</v>
@@ -9305,7 +9308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="8"/>
       <c r="C304" t="s">
         <v>776</v>
@@ -9323,7 +9326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="8"/>
       <c r="C305" t="s">
         <v>778</v>
@@ -9344,7 +9347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="8"/>
       <c r="C306" t="s">
         <v>780</v>
@@ -9365,7 +9368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="8"/>
       <c r="C307" t="s">
         <v>782</v>
@@ -9386,7 +9389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="8"/>
       <c r="C308" t="s">
         <v>784</v>
@@ -9407,7 +9410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="8"/>
       <c r="C309" t="s">
         <v>786</v>
@@ -9425,7 +9428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="8"/>
       <c r="C310" t="s">
         <v>787</v>
@@ -9445,17 +9448,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B25"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="B34:B70"/>
-    <mergeCell ref="B132:B229"/>
     <mergeCell ref="B230:B293"/>
     <mergeCell ref="B294:B301"/>
     <mergeCell ref="B302:B310"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B73:B101"/>
     <mergeCell ref="B102:B131"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B70"/>
+    <mergeCell ref="B132:B229"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9470,20 +9473,20 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="60.83203125" customWidth="1"/>
-    <col min="7" max="7" width="68.33203125" customWidth="1"/>
-    <col min="8" max="8" width="55.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="60.81640625" customWidth="1"/>
+    <col min="7" max="7" width="68.36328125" customWidth="1"/>
+    <col min="8" max="8" width="55.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9512,7 +9515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -9538,7 +9541,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -9559,7 +9562,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -9580,7 +9583,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -9601,7 +9604,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -9622,7 +9625,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -9643,7 +9646,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -9664,7 +9667,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -9685,7 +9688,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -9706,7 +9709,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -9726,7 +9729,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -9744,7 +9747,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -9762,7 +9765,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -9780,7 +9783,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -9798,7 +9801,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -9818,7 +9821,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -9835,7 +9838,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -9852,42 +9855,42 @@
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -9916,13 +9919,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>825</v>
       </c>
@@ -9930,7 +9933,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>827</v>
       </c>
@@ -9938,7 +9941,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>829</v>
       </c>

--- a/TestDatas/jm_api_info.xlsx
+++ b/TestDatas/jm_api_info.xlsx
@@ -2937,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3263,6 +3263,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>47</v>
@@ -3284,6 +3287,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
       <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>50</v>

--- a/TestDatas/jm_api_info.xlsx
+++ b/TestDatas/jm_api_info.xlsx
@@ -2938,7 +2938,7 @@
   <dimension ref="A1:J310"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3311,6 +3311,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
       <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>53</v>
@@ -9454,17 +9457,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B70"/>
+    <mergeCell ref="B132:B229"/>
     <mergeCell ref="B230:B293"/>
     <mergeCell ref="B294:B301"/>
     <mergeCell ref="B302:B310"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B73:B101"/>
     <mergeCell ref="B102:B131"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B25"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="B34:B70"/>
-    <mergeCell ref="B132:B229"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestDatas/jm_api_info.xlsx
+++ b/TestDatas/jm_api_info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jiemo_api\TestDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xiangmu\jm_api_py_test\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
     <sheet name="prepare_datas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="824">
   <si>
     <t>case_id</t>
   </si>
@@ -100,9 +100,6 @@
     <t>/api/v2/mobile/verify/code</t>
   </si>
   <si>
-    <t>{'mobile':'13816661001','code':'1234'}</t>
-  </si>
-  <si>
     <t>登录-校验验证码-验证码不正确</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
     <t>/api/specialFriend/add</t>
   </si>
   <si>
-    <t>{desc":"接口测试专用&amp;specialFriend":"e6c8ZaDh7iLW16qv20-Hlg"}</t>
-  </si>
-  <si>
     <t>好友系统-特别好友-添加user为空</t>
   </si>
   <si>
@@ -262,9 +256,6 @@
     <t>/api/specialFriend/delete</t>
   </si>
   <si>
-    <t>{specialFriend":"e6c8ZaDh7iLW16qv20-Hlg"}</t>
-  </si>
-  <si>
     <t>好友系统-推荐好友-查看推荐好友列表</t>
   </si>
   <si>
@@ -289,9 +280,6 @@
     <t>/api/config/user/ForbiddenImpression</t>
   </si>
   <si>
-    <t>{value":"0"}</t>
-  </si>
-  <si>
     <t>好友印象-添加-添加第一条（正常流程）</t>
   </si>
   <si>
@@ -325,9 +313,6 @@
     <t>好友印象-关闭-（正常流程）</t>
   </si>
   <si>
-    <t>{value":"1"}</t>
-  </si>
-  <si>
     <t>我的</t>
   </si>
   <si>
@@ -349,9 +334,6 @@
     <t>/api/user/followings</t>
   </si>
   <si>
-    <t>{toUser":"CjUSsCVOECDW16qv20-Hlg"}</t>
-  </si>
-  <si>
     <t>我的-关注列表-添加关注对象（正常流程）</t>
   </si>
   <si>
@@ -529,9 +511,6 @@
     <t>/api/platform/unbind/sina</t>
   </si>
   <si>
-    <t>{key":"pushMessage&amp;value":"0"}</t>
-  </si>
-  <si>
     <t>我的-设置新消息通知-新鲜事关闭（正常流程）</t>
   </si>
   <si>
@@ -644,9 +623,6 @@
   </si>
   <si>
     <t>profile-访问-参数错误</t>
-  </si>
-  <si>
-    <t>{user":"CjUSsCVOECDW16qv20-Hlg"}</t>
   </si>
   <si>
     <t>"name":"接口0001"</t>
@@ -803,9 +779,6 @@
     <t>/api/friend/visitor/list</t>
   </si>
   <si>
-    <t>{interest":"-I9xh3sAw85vid1aI1CONw"}</t>
-  </si>
-  <si>
     <t>兴趣相投</t>
   </si>
   <si>
@@ -935,9 +908,6 @@
     <t>/api/interest/user/list</t>
   </si>
   <si>
-    <t>{interests":"-I9xh3sAw85vid1aI1CONw"}</t>
-  </si>
-  <si>
     <t>兴趣相关-普通兴趣-获取兴趣页面数据</t>
   </si>
   <si>
@@ -978,9 +948,6 @@
   </si>
   <si>
     <t>兴趣相关-普通兴趣-重复添加兴趣</t>
-  </si>
-  <si>
-    <t>{count":"20&amp;users":"AmOLe35r_9vW16qv20-Hlg"}</t>
   </si>
   <si>
     <t>兴趣相投_数据列表ID_正常请求</t>
@@ -1416,9 +1383,6 @@
     <t>聊天-悄话对话框-非好友状态请求用户关系</t>
   </si>
   <si>
-    <t>{emotion":"F9h25mPTM9X33-hCUUQFlw"}</t>
-  </si>
-  <si>
     <t>聊天-悄悄话对话框-被好友拉黑状态请求用户关系</t>
   </si>
   <si>
@@ -2129,10 +2093,6 @@
     <t>新鲜事-评论-功能失效用户</t>
   </si>
   <si>
-    <t>}
-{"content":"{#4D7nzD4yZF9B3sdypS8uRw}abcde&amp;topics":"4D7nzD4yZF9B3sdypS8uRw"}</t>
-  </si>
-  <si>
     <t>新鲜事-点赞-功能失效用户</t>
   </si>
   <si>
@@ -2154,9 +2114,6 @@
     <t>新鲜事-数据-我的新鲜事（正常流程）</t>
   </si>
   <si>
-    <t>{topic":"UQhZ2BwwXp9B3sdypS8uRw"}</t>
-  </si>
-  <si>
     <t>新鲜事-消息列表（正常流程）</t>
   </si>
   <si>
@@ -2182,9 +2139,6 @@
   </si>
   <si>
     <t>/api/topic/item/list</t>
-  </si>
-  <si>
-    <t>{count":"0"}</t>
   </si>
   <si>
     <t>新鲜事-话题-历史话题(正常流程)</t>
@@ -2323,9 +2277,6 @@
     <t>加好友-随便看看-筛选条件年级</t>
   </si>
   <si>
-    <t>{club":"AbSYVL3xiizo7csz1RiiBg&amp;position":"wuyuan"}</t>
-  </si>
-  <si>
     <t>加好友-随便看看-筛选条件学院</t>
   </si>
   <si>
@@ -2530,6 +2481,31 @@
   <si>
     <t>v2/mobile/verify</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"'mobile':'13816661001','code':'1234'}</t>
+  </si>
+  <si>
+    <t>{"desc":"接口测试专用&amp;specialFriend":"e6c8ZaDh7iLW16qv20-Hlg"}</t>
+  </si>
+  <si>
+    <t>{"specialFriend":"e6c8ZaDh7iLW16qv20-Hlg"}</t>
+  </si>
+  <si>
+    <t>{"emotion":"F9h25mPTM9X33-hCUUQFlw"}</t>
+  </si>
+  <si>
+    <t>}
+{"content":"{"#4D7nzD4yZF9B3sdypS8uRw}abcde&amp;topics":"4D7nzD4yZF9B3sdypS8uRw"}</t>
+  </si>
+  <si>
+    <t>{"topic":"UQhZ2BwwXp9B3sdypS8uRw"}</t>
+  </si>
+  <si>
+    <t>{"count":"0"}</t>
+  </si>
+  <si>
+    <t>{"club":"AbSYVL3xiizo7csz1RiiBg&amp;position":"wuyuan"}</t>
   </si>
 </sst>
 </file>
@@ -2937,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2998,13 +2974,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -3065,7 +3041,7 @@
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>816</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
@@ -3080,7 +3056,7 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
@@ -3092,10 +3068,10 @@
         <v>23</v>
       </c>
       <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="5">
         <v>1</v>
@@ -3107,7 +3083,7 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
@@ -3119,10 +3095,10 @@
         <v>23</v>
       </c>
       <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
         <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
       </c>
       <c r="I6" s="5">
         <v>1</v>
@@ -3133,10 +3109,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
@@ -3145,10 +3121,10 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
@@ -3163,7 +3139,7 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
@@ -3172,13 +3148,13 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
         <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
@@ -3190,7 +3166,7 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
@@ -3199,13 +3175,13 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
         <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
       </c>
       <c r="I9" s="5">
         <v>1</v>
@@ -3217,7 +3193,7 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
@@ -3226,10 +3202,10 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
         <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -3244,19 +3220,19 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -3268,19 +3244,19 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>48</v>
-      </c>
-      <c r="H12" t="s">
-        <v>49</v>
       </c>
       <c r="I12" s="5">
         <v>1</v>
@@ -3292,19 +3268,19 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>51</v>
-      </c>
-      <c r="H13" t="s">
-        <v>52</v>
       </c>
       <c r="I13" s="5">
         <v>1</v>
@@ -3316,16 +3292,16 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>54</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
@@ -3337,19 +3313,19 @@
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>57</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
       </c>
       <c r="I15" s="5">
         <v>1</v>
@@ -3358,16 +3334,16 @@
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
-      </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
@@ -3379,19 +3355,19 @@
     <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
         <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
       </c>
       <c r="I17" s="5">
         <v>1</v>
@@ -3400,13 +3376,13 @@
     <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" t="s">
         <v>63</v>
-      </c>
-      <c r="F18" t="s">
-        <v>64</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
@@ -3418,16 +3394,16 @@
     <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>66</v>
-      </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>817</v>
       </c>
       <c r="H19" t="s">
         <v>16</v>
@@ -3439,19 +3415,19 @@
     <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I20" s="5">
         <v>1</v>
@@ -3460,19 +3436,19 @@
     <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" t="s">
         <v>70</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" t="s">
-        <v>72</v>
       </c>
       <c r="I21" s="5">
         <v>1</v>
@@ -3481,16 +3457,16 @@
     <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
         <v>73</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" t="s">
-        <v>75</v>
       </c>
       <c r="I22" s="5">
         <v>1</v>
@@ -3499,16 +3475,16 @@
     <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>818</v>
       </c>
       <c r="H23" t="s">
         <v>16</v>
@@ -3520,19 +3496,19 @@
     <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s">
         <v>79</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" t="s">
-        <v>82</v>
       </c>
       <c r="I24" s="5">
         <v>1</v>
@@ -3541,16 +3517,16 @@
     <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I25" s="5">
         <v>1</v>
@@ -3558,19 +3534,19 @@
     </row>
     <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="H26" t="s">
         <v>16</v>
@@ -3582,16 +3558,16 @@
     <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s">
         <v>16</v>
@@ -3603,16 +3579,16 @@
     <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s">
         <v>16</v>
@@ -3624,16 +3600,16 @@
     <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s">
         <v>16</v>
@@ -3645,19 +3621,19 @@
     <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" t="s">
         <v>90</v>
-      </c>
-      <c r="H30" t="s">
-        <v>94</v>
       </c>
       <c r="I30" s="5">
         <v>1</v>
@@ -3666,19 +3642,19 @@
     <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I31" s="5">
         <v>1</v>
@@ -3687,13 +3663,13 @@
     <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s">
         <v>16</v>
@@ -3705,16 +3681,16 @@
     <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
@@ -3725,19 +3701,19 @@
     </row>
     <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I34" s="5">
         <v>1</v>
@@ -3746,17 +3722,17 @@
     <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I35" s="5">
         <v>1</v>
@@ -3765,19 +3741,19 @@
     <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I36" s="5">
         <v>1</v>
@@ -3786,16 +3762,16 @@
     <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G37" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H37" t="s">
         <v>16</v>
@@ -3807,19 +3783,19 @@
     <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G38" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I38" s="5">
         <v>1</v>
@@ -3828,19 +3804,19 @@
     <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G39" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I39" s="5">
         <v>1</v>
@@ -3849,16 +3825,16 @@
     <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G40" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H40" t="s">
         <v>16</v>
@@ -3870,16 +3846,16 @@
     <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G41" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H41" t="s">
         <v>16</v>
@@ -3891,16 +3867,16 @@
     <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H42" t="s">
         <v>16</v>
@@ -3912,16 +3888,16 @@
     <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F43" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G43" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H43" t="s">
         <v>16</v>
@@ -3933,19 +3909,19 @@
     <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F44" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G44" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I44" s="5">
         <v>1</v>
@@ -3954,16 +3930,16 @@
     <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G45" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H45" t="s">
         <v>16</v>
@@ -3975,16 +3951,16 @@
     <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G46" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H46" t="s">
         <v>16</v>
@@ -3996,16 +3972,16 @@
     <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G47" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H47" t="s">
         <v>16</v>
@@ -4017,16 +3993,16 @@
     <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G48" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H48" t="s">
         <v>16</v>
@@ -4038,16 +4014,16 @@
     <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G49" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H49" t="s">
         <v>16</v>
@@ -4059,19 +4035,19 @@
     <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G50" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H50" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I50" s="5">
         <v>1</v>
@@ -4080,19 +4056,19 @@
     <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G51" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H51" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I51" s="5">
         <v>1</v>
@@ -4101,19 +4077,19 @@
     <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G52" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H52" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I52" s="5">
         <v>1</v>
@@ -4122,19 +4098,19 @@
     <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G53" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H53" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I53" s="5">
         <v>1</v>
@@ -4143,19 +4119,19 @@
     <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="C54" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G54" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H54" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I54" s="5">
         <v>1</v>
@@ -4164,16 +4140,16 @@
     <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G55" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H55" t="s">
         <v>16</v>
@@ -4185,16 +4161,16 @@
     <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G56" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H56" t="s">
         <v>16</v>
@@ -4206,13 +4182,13 @@
     <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="C57" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H57" t="s">
         <v>16</v>
@@ -4224,16 +4200,16 @@
     <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G58" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="H58" t="s">
         <v>16</v>
@@ -4245,16 +4221,16 @@
     <row r="59" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="C59" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G59" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H59" t="s">
         <v>16</v>
@@ -4266,16 +4242,16 @@
     <row r="60" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="C60" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G60" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H60" t="s">
         <v>16</v>
@@ -4287,16 +4263,16 @@
     <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G61" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H61" t="s">
         <v>16</v>
@@ -4308,16 +4284,16 @@
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G62" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H62" t="s">
         <v>16</v>
@@ -4329,16 +4305,16 @@
     <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="C63" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G63" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H63" t="s">
         <v>16</v>
@@ -4350,16 +4326,16 @@
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G64" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H64" t="s">
         <v>16</v>
@@ -4371,16 +4347,16 @@
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G65" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H65" t="s">
         <v>16</v>
@@ -4392,16 +4368,16 @@
     <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G66" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H66" t="s">
         <v>16</v>
@@ -4413,16 +4389,16 @@
     <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="C67" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G67" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H67" t="s">
         <v>16</v>
@@ -4434,16 +4410,16 @@
     <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="C68" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G68" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H68" t="s">
         <v>16</v>
@@ -4455,16 +4431,16 @@
     <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="C69" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G69" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H69" t="s">
         <v>16</v>
@@ -4476,16 +4452,16 @@
     <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="C70" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G70" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H70" t="s">
         <v>16</v>
@@ -4496,19 +4472,19 @@
     </row>
     <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C71" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G71" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H71" t="s">
         <v>16</v>
@@ -4520,16 +4496,16 @@
     <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="C72" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G72" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H72" t="s">
         <v>16</v>
@@ -4540,22 +4516,22 @@
     </row>
     <row r="73" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C73" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F73" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H73" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I73" s="5">
         <v>1</v>
@@ -4564,19 +4540,19 @@
     <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F74" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I74" s="5">
         <v>1</v>
@@ -4585,16 +4561,16 @@
     <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F75" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H75" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I75" s="5">
         <v>1</v>
@@ -4603,19 +4579,19 @@
     <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="C76" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F76" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G76" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="H76" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I76" s="5">
         <v>1</v>
@@ -4624,16 +4600,16 @@
     <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="C77" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F77" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H77" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="I77" s="5">
         <v>1</v>
@@ -4642,19 +4618,19 @@
     <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
       <c r="C78" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F78" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G78" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="H78" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I78" s="5">
         <v>1</v>
@@ -4663,16 +4639,16 @@
     <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="C79" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F79" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H79" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I79" s="5">
         <v>1</v>
@@ -4681,19 +4657,19 @@
     <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
       <c r="C80" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F80" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G80" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="H80" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I80" s="5">
         <v>1</v>
@@ -4702,16 +4678,16 @@
     <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="C81" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F81" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H81" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I81" s="5">
         <v>1</v>
@@ -4720,19 +4696,19 @@
     <row r="82" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="C82" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F82" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G82" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="H82" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I82" s="5">
         <v>1</v>
@@ -4741,16 +4717,16 @@
     <row r="83" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="C83" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E83" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F83" t="s">
         <v>63</v>
       </c>
-      <c r="F83" t="s">
-        <v>64</v>
-      </c>
       <c r="H83" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I83" s="5">
         <v>1</v>
@@ -4759,19 +4735,19 @@
     <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="C84" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E84" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F84" t="s">
         <v>63</v>
       </c>
-      <c r="F84" t="s">
-        <v>64</v>
-      </c>
       <c r="G84" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H84" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I84" s="5">
         <v>1</v>
@@ -4780,16 +4756,16 @@
     <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="8"/>
       <c r="C85" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H85" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I85" s="5">
         <v>1</v>
@@ -4798,19 +4774,19 @@
     <row r="86" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
       <c r="C86" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H86" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I86" s="5">
         <v>1</v>
@@ -4819,19 +4795,19 @@
     <row r="87" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="C87" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G87" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H87" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I87" s="5">
         <v>1</v>
@@ -4840,19 +4816,19 @@
     <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
       <c r="C88" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G88" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H88" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I88" s="5">
         <v>1</v>
@@ -4861,19 +4837,19 @@
     <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="C89" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G89" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H89" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I89" s="5">
         <v>1</v>
@@ -4882,19 +4858,19 @@
     <row r="90" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="C90" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G90" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H90" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I90" s="5">
         <v>1</v>
@@ -4903,19 +4879,19 @@
     <row r="91" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="C91" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G91" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H91" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I91" s="5">
         <v>1</v>
@@ -4924,19 +4900,19 @@
     <row r="92" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="C92" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G92" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H92" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I92" s="5">
         <v>1</v>
@@ -4945,16 +4921,16 @@
     <row r="93" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="C93" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F93" t="s">
+        <v>227</v>
+      </c>
+      <c r="H93" t="s">
         <v>235</v>
-      </c>
-      <c r="H93" t="s">
-        <v>243</v>
       </c>
       <c r="I93" s="5">
         <v>1</v>
@@ -4963,19 +4939,19 @@
     <row r="94" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="C94" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F94" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G94" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="H94" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="I94" s="5">
         <v>1</v>
@@ -4984,16 +4960,16 @@
     <row r="95" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="C95" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H95" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I95" s="5">
         <v>1</v>
@@ -5002,19 +4978,19 @@
     <row r="96" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="C96" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G96" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="H96" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I96" s="5">
         <v>1</v>
@@ -5023,19 +4999,19 @@
     <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="C97" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G97" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H97" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I97" s="5">
         <v>1</v>
@@ -5044,19 +5020,19 @@
     <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
       <c r="C98" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G98" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H98" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I98" s="5">
         <v>1</v>
@@ -5065,19 +5041,19 @@
     <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="8"/>
       <c r="C99" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F99" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G99" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H99" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I99" s="5">
         <v>1</v>
@@ -5086,16 +5062,16 @@
     <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
       <c r="C100" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F100" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H100" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I100" s="5">
         <v>1</v>
@@ -5104,19 +5080,19 @@
     <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="8"/>
       <c r="C101" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F101" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G101" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H101" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I101" s="5">
         <v>1</v>
@@ -5124,22 +5100,22 @@
     </row>
     <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C102" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F102" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G102" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="H102" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="I102" s="5">
         <v>1</v>
@@ -5148,16 +5124,16 @@
     <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="8"/>
       <c r="C103" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F103" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G103" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="H103" t="s">
         <v>16</v>
@@ -5169,19 +5145,19 @@
     <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
       <c r="C104" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F104" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G104" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H104" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="I104" s="5">
         <v>1</v>
@@ -5190,19 +5166,19 @@
     <row r="105" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="8"/>
       <c r="C105" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F105" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="G105" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="H105" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="I105" s="5">
         <v>1</v>
@@ -5211,19 +5187,19 @@
     <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
       <c r="C106" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F106" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G106" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H106" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="I106" s="5">
         <v>1</v>
@@ -5232,19 +5208,19 @@
     <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="8"/>
       <c r="C107" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F107" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G107" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H107" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I107" s="5">
         <v>1</v>
@@ -5253,19 +5229,19 @@
     <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
       <c r="C108" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F108" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G108" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="H108" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="I108" s="5">
         <v>1</v>
@@ -5274,16 +5250,16 @@
     <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="8"/>
       <c r="C109" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="G109" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="H109" t="s">
         <v>16</v>
@@ -5295,16 +5271,16 @@
     <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
       <c r="C110" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F110" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="G110" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="H110" t="s">
         <v>16</v>
@@ -5316,16 +5292,16 @@
     <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="8"/>
       <c r="C111" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="G111" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="H111" t="s">
         <v>16</v>
@@ -5337,19 +5313,19 @@
     <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="8"/>
       <c r="C112" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F112" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G112" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H112" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="I112" s="5">
         <v>1</v>
@@ -5358,19 +5334,19 @@
     <row r="113" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="8"/>
       <c r="C113" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F113" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G113" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="H113" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="I113" s="5">
         <v>1</v>
@@ -5379,19 +5355,19 @@
     <row r="114" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="8"/>
       <c r="C114" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F114" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G114" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="H114" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="I114" s="5">
         <v>1</v>
@@ -5400,16 +5376,16 @@
     <row r="115" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="8"/>
       <c r="C115" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F115" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H115" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="I115" s="5">
         <v>1</v>
@@ -5418,16 +5394,16 @@
     <row r="116" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="8"/>
       <c r="C116" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F116" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="G116" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I116" s="5">
         <v>1</v>
@@ -5436,19 +5412,19 @@
     <row r="117" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="8"/>
       <c r="C117" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F117" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G117" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="H117" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="I117" s="5">
         <v>1</v>
@@ -5457,16 +5433,16 @@
     <row r="118" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="8"/>
       <c r="C118" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F118" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G118" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="H118" t="s">
         <v>16</v>
@@ -5478,16 +5454,16 @@
     <row r="119" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="8"/>
       <c r="C119" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F119" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G119" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="H119" t="s">
         <v>16</v>
@@ -5499,19 +5475,19 @@
     <row r="120" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="8"/>
       <c r="C120" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F120" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G120" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="H120" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="I120" s="5">
         <v>1</v>
@@ -5520,16 +5496,16 @@
     <row r="121" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="8"/>
       <c r="C121" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F121" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G121" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="H121" t="s">
         <v>16</v>
@@ -5541,16 +5517,16 @@
     <row r="122" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="8"/>
       <c r="C122" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F122" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H122" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I122" s="5">
         <v>1</v>
@@ -5559,16 +5535,16 @@
     <row r="123" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="8"/>
       <c r="C123" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F123" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G123" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H123" t="s">
         <v>16</v>
@@ -5580,19 +5556,19 @@
     <row r="124" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="8"/>
       <c r="C124" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F124" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="G124" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="H124" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="I124" s="5">
         <v>1</v>
@@ -5601,19 +5577,19 @@
     <row r="125" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="8"/>
       <c r="C125" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F125" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="G125" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H125" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="I125" s="5">
         <v>1</v>
@@ -5622,19 +5598,19 @@
     <row r="126" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="8"/>
       <c r="C126" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F126" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="G126" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="H126" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I126" s="5">
         <v>1</v>
@@ -5643,16 +5619,16 @@
     <row r="127" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="8"/>
       <c r="C127" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F127" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G127" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H127" t="s">
         <v>16</v>
@@ -5664,16 +5640,16 @@
     <row r="128" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="8"/>
       <c r="C128" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F128" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G128" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="H128" t="s">
         <v>16</v>
@@ -5685,16 +5661,16 @@
     <row r="129" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="8"/>
       <c r="C129" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F129" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G129" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="H129" t="s">
         <v>16</v>
@@ -5706,16 +5682,16 @@
     <row r="130" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="8"/>
       <c r="C130" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F130" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="G130" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="H130" t="s">
         <v>16</v>
@@ -5727,16 +5703,16 @@
     <row r="131" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="8"/>
       <c r="C131" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F131" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="G131" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="H131" t="s">
         <v>16</v>
@@ -5747,19 +5723,19 @@
     </row>
     <row r="132" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C132" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F132" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="H132" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="I132" s="5">
         <v>1</v>
@@ -5768,19 +5744,19 @@
     <row r="133" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="8"/>
       <c r="C133" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F133" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="H133" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="I133" s="5">
         <v>1</v>
@@ -5789,19 +5765,19 @@
     <row r="134" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="8"/>
       <c r="C134" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F134" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G134" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="H134" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="I134" s="5">
         <v>1</v>
@@ -5810,19 +5786,19 @@
     <row r="135" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="8"/>
       <c r="C135" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F135" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G135" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="H135" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I135" s="5">
         <v>1</v>
@@ -5831,16 +5807,16 @@
     <row r="136" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="8"/>
       <c r="C136" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F136" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G136" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="H136" t="s">
         <v>16</v>
@@ -5852,16 +5828,16 @@
     <row r="137" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="8"/>
       <c r="C137" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F137" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="G137" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="H137" t="s">
         <v>16</v>
@@ -5873,16 +5849,16 @@
     <row r="138" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="8"/>
       <c r="C138" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F138" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="G138" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="H138" t="s">
         <v>16</v>
@@ -5894,16 +5870,16 @@
     <row r="139" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="8"/>
       <c r="C139" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F139" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="G139" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="H139" t="s">
         <v>16</v>
@@ -5915,19 +5891,19 @@
     <row r="140" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="8"/>
       <c r="C140" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F140" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="G140" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="H140" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I140" s="5">
         <v>1</v>
@@ -5936,19 +5912,19 @@
     <row r="141" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="8"/>
       <c r="C141" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F141" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G141" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="H141" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="I141" s="5">
         <v>1</v>
@@ -5957,16 +5933,16 @@
     <row r="142" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="8"/>
       <c r="C142" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F142" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G142" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="H142" t="s">
         <v>16</v>
@@ -5978,16 +5954,16 @@
     <row r="143" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="8"/>
       <c r="C143" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F143" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G143" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="H143" t="s">
         <v>16</v>
@@ -5999,16 +5975,16 @@
     <row r="144" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="8"/>
       <c r="C144" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F144" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G144" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="H144" t="s">
         <v>16</v>
@@ -6020,16 +5996,16 @@
     <row r="145" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="8"/>
       <c r="C145" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F145" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="G145" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="H145" t="s">
         <v>16</v>
@@ -6041,19 +6017,19 @@
     <row r="146" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="8"/>
       <c r="C146" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F146" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="G146" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="H146" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="I146" s="5">
         <v>1</v>
@@ -6062,19 +6038,19 @@
     <row r="147" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="8"/>
       <c r="C147" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F147" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G147" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="H147" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="I147" s="5">
         <v>1</v>
@@ -6083,19 +6059,19 @@
     <row r="148" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="8"/>
       <c r="C148" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F148" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G148" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="H148" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="I148" s="5">
         <v>1</v>
@@ -6104,19 +6080,19 @@
     <row r="149" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="8"/>
       <c r="C149" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F149" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G149" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="H149" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="I149" s="5">
         <v>1</v>
@@ -6125,19 +6101,19 @@
     <row r="150" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="8"/>
       <c r="C150" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F150" t="s">
+        <v>377</v>
+      </c>
+      <c r="G150" t="s">
+        <v>387</v>
+      </c>
+      <c r="H150" t="s">
         <v>388</v>
-      </c>
-      <c r="G150" t="s">
-        <v>398</v>
-      </c>
-      <c r="H150" t="s">
-        <v>399</v>
       </c>
       <c r="I150" s="5">
         <v>1</v>
@@ -6146,19 +6122,19 @@
     <row r="151" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="8"/>
       <c r="C151" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F151" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G151" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="H151" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I151" s="5">
         <v>1</v>
@@ -6167,16 +6143,16 @@
     <row r="152" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="8"/>
       <c r="C152" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F152" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G152" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I152" s="5">
         <v>1</v>
@@ -6185,19 +6161,19 @@
     <row r="153" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="8"/>
       <c r="C153" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F153" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G153" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="H153" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I153" s="5">
         <v>1</v>
@@ -6206,19 +6182,19 @@
     <row r="154" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="8"/>
       <c r="C154" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F154" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G154" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="H154" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="I154" s="5">
         <v>1</v>
@@ -6227,19 +6203,19 @@
     <row r="155" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="8"/>
       <c r="C155" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F155" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G155" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="H155" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I155" s="5">
         <v>1</v>
@@ -6248,16 +6224,16 @@
     <row r="156" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="8"/>
       <c r="C156" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F156" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G156" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="I156" s="5">
         <v>1</v>
@@ -6266,19 +6242,19 @@
     <row r="157" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="8"/>
       <c r="C157" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F157" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="G157" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="H157" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I157" s="5">
         <v>1</v>
@@ -6287,19 +6263,19 @@
     <row r="158" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="8"/>
       <c r="C158" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F158" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="G158" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="H158" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="I158" s="5">
         <v>1</v>
@@ -6308,19 +6284,19 @@
     <row r="159" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="8"/>
       <c r="C159" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F159" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="G159" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="H159" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I159" s="5">
         <v>1</v>
@@ -6329,16 +6305,16 @@
     <row r="160" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="8"/>
       <c r="C160" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F160" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="G160" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="I160" s="5">
         <v>1</v>
@@ -6347,19 +6323,19 @@
     <row r="161" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="8"/>
       <c r="C161" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F161" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G161" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="H161" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I161" s="5">
         <v>1</v>
@@ -6368,19 +6344,19 @@
     <row r="162" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="8"/>
       <c r="C162" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F162" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G162" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="H162" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="I162" s="5">
         <v>1</v>
@@ -6389,19 +6365,19 @@
     <row r="163" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="8"/>
       <c r="C163" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F163" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G163" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="H163" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I163" s="5">
         <v>1</v>
@@ -6410,16 +6386,16 @@
     <row r="164" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="8"/>
       <c r="C164" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F164" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G164" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="I164" s="5">
         <v>1</v>
@@ -6428,19 +6404,19 @@
     <row r="165" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="8"/>
       <c r="C165" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F165" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="G165" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="H165" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I165" s="5">
         <v>1</v>
@@ -6449,19 +6425,19 @@
     <row r="166" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="8"/>
       <c r="C166" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F166" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="G166" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="H166" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="I166" s="5">
         <v>1</v>
@@ -6470,19 +6446,19 @@
     <row r="167" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="8"/>
       <c r="C167" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F167" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="G167" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="H167" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I167" s="5">
         <v>1</v>
@@ -6491,16 +6467,16 @@
     <row r="168" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="8"/>
       <c r="C168" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F168" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="G168" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="I168" s="5">
         <v>1</v>
@@ -6509,19 +6485,19 @@
     <row r="169" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="8"/>
       <c r="C169" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F169" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="G169" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="H169" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I169" s="5">
         <v>1</v>
@@ -6530,19 +6506,19 @@
     <row r="170" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="8"/>
       <c r="C170" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F170" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="G170" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="H170" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="I170" s="5">
         <v>1</v>
@@ -6551,19 +6527,19 @@
     <row r="171" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="8"/>
       <c r="C171" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F171" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="G171" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="H171" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I171" s="5">
         <v>1</v>
@@ -6572,16 +6548,16 @@
     <row r="172" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="8"/>
       <c r="C172" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F172" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="G172" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="I172" s="5">
         <v>1</v>
@@ -6590,19 +6566,19 @@
     <row r="173" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="8"/>
       <c r="C173" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F173" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="G173" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="H173" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I173" s="5">
         <v>1</v>
@@ -6611,19 +6587,19 @@
     <row r="174" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="8"/>
       <c r="C174" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F174" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="G174" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="H174" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="I174" s="5">
         <v>1</v>
@@ -6632,19 +6608,19 @@
     <row r="175" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="8"/>
       <c r="C175" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F175" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="G175" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="H175" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I175" s="5">
         <v>1</v>
@@ -6653,16 +6629,16 @@
     <row r="176" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="8"/>
       <c r="C176" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F176" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="G176" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="I176" s="5">
         <v>1</v>
@@ -6671,16 +6647,16 @@
     <row r="177" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="8"/>
       <c r="C177" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F177" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="H177" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="I177" s="5">
         <v>1</v>
@@ -6689,16 +6665,16 @@
     <row r="178" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="8"/>
       <c r="C178" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F178" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="G178" t="s">
-        <v>462</v>
+        <v>819</v>
       </c>
       <c r="H178" t="s">
         <v>16</v>
@@ -6710,19 +6686,19 @@
     <row r="179" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="8"/>
       <c r="C179" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="E179" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F179" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="G179" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="H179" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I179" s="5">
         <v>1</v>
@@ -6731,19 +6707,19 @@
     <row r="180" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="8"/>
       <c r="C180" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F180" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="G180" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="H180" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="I180" s="5">
         <v>1</v>
@@ -6752,16 +6728,16 @@
     <row r="181" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="8"/>
       <c r="C181" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F181" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G181" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="H181" t="s">
         <v>16</v>
@@ -6773,16 +6749,16 @@
     <row r="182" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="8"/>
       <c r="C182" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E182" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F182" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="G182" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="H182" t="s">
         <v>16</v>
@@ -6794,16 +6770,16 @@
     <row r="183" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="8"/>
       <c r="C183" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F183" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="G183" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="H183" t="s">
         <v>16</v>
@@ -6815,16 +6791,16 @@
     <row r="184" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="8"/>
       <c r="C184" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F184" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="G184" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="H184" t="s">
         <v>16</v>
@@ -6836,19 +6812,19 @@
     <row r="185" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="8"/>
       <c r="C185" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F185" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="G185" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="H185" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="I185" s="5">
         <v>1</v>
@@ -6857,16 +6833,16 @@
     <row r="186" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="8"/>
       <c r="C186" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F186" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="G186" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="H186" t="s">
         <v>16</v>
@@ -6878,16 +6854,16 @@
     <row r="187" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="8"/>
       <c r="C187" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F187" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G187" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H187" t="s">
         <v>16</v>
@@ -6899,16 +6875,16 @@
     <row r="188" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="8"/>
       <c r="C188" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F188" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="G188" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="H188" t="s">
         <v>16</v>
@@ -6920,19 +6896,19 @@
     <row r="189" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="8"/>
       <c r="C189" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F189" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G189" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="H189" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="I189" s="5">
         <v>1</v>
@@ -6941,19 +6917,19 @@
     <row r="190" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="8"/>
       <c r="C190" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F190" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G190" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="H190" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="I190" s="5">
         <v>1</v>
@@ -6962,16 +6938,16 @@
     <row r="191" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="8"/>
       <c r="C191" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F191" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="G191" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="H191" t="s">
         <v>16</v>
@@ -6983,19 +6959,19 @@
     <row r="192" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="8"/>
       <c r="C192" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F192" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="G192" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="H192" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="I192" s="5">
         <v>1</v>
@@ -7004,16 +6980,16 @@
     <row r="193" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="8"/>
       <c r="C193" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F193" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G193" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="H193" t="s">
         <v>16</v>
@@ -7025,19 +7001,19 @@
     <row r="194" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="8"/>
       <c r="C194" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F194" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="G194" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="H194" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="I194" s="5">
         <v>1</v>
@@ -7046,19 +7022,19 @@
     <row r="195" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="8"/>
       <c r="C195" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F195" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="G195" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="H195" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="I195" s="5">
         <v>1</v>
@@ -7067,19 +7043,19 @@
     <row r="196" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="8"/>
       <c r="C196" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F196" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="G196" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="H196" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="I196" s="5">
         <v>1</v>
@@ -7088,19 +7064,19 @@
     <row r="197" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="8"/>
       <c r="C197" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F197" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="G197" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="H197" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="I197" s="5">
         <v>1</v>
@@ -7109,19 +7085,19 @@
     <row r="198" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="8"/>
       <c r="C198" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F198" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="G198" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="H198" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="I198" s="5">
         <v>1</v>
@@ -7130,19 +7106,19 @@
     <row r="199" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="8"/>
       <c r="C199" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F199" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="G199" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="H199" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="I199" s="5">
         <v>1</v>
@@ -7151,19 +7127,19 @@
     <row r="200" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="8"/>
       <c r="C200" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F200" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="G200" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="H200" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="I200" s="5">
         <v>1</v>
@@ -7172,19 +7148,19 @@
     <row r="201" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="8"/>
       <c r="C201" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F201" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G201" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="H201" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="I201" s="5">
         <v>1</v>
@@ -7193,19 +7169,19 @@
     <row r="202" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="8"/>
       <c r="C202" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F202" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G202" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="H202" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="I202" s="5">
         <v>1</v>
@@ -7214,19 +7190,19 @@
     <row r="203" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="8"/>
       <c r="C203" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F203" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G203" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="H203" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="I203" s="5">
         <v>1</v>
@@ -7235,16 +7211,16 @@
     <row r="204" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="8"/>
       <c r="C204" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="E204" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F204" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="H204" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="I204" s="5">
         <v>1</v>
@@ -7253,19 +7229,19 @@
     <row r="205" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="8"/>
       <c r="C205" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F205" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="H205" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="I205" s="5">
         <v>1</v>
@@ -7274,19 +7250,19 @@
     <row r="206" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="8"/>
       <c r="C206" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F206" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="G206" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="H206" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="I206" s="5">
         <v>1</v>
@@ -7295,16 +7271,16 @@
     <row r="207" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="8"/>
       <c r="C207" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F207" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G207" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="H207" t="s">
         <v>16</v>
@@ -7316,16 +7292,16 @@
     <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="8"/>
       <c r="C208" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F208" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="G208" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="H208" t="s">
         <v>16</v>
@@ -7337,16 +7313,16 @@
     <row r="209" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="8"/>
       <c r="C209" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F209" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="G209" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="H209" t="s">
         <v>16</v>
@@ -7358,19 +7334,19 @@
     <row r="210" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="8"/>
       <c r="C210" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="E210" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F210" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="G210" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="H210" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="I210" s="5">
         <v>1</v>
@@ -7379,19 +7355,19 @@
     <row r="211" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="8"/>
       <c r="C211" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="E211" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F211" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="G211" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="H211" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="I211" s="5">
         <v>1</v>
@@ -7400,19 +7376,19 @@
     <row r="212" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="8"/>
       <c r="C212" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F212" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G212" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="H212" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="I212" s="5">
         <v>1</v>
@@ -7421,19 +7397,19 @@
     <row r="213" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="8"/>
       <c r="C213" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="E213" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F213" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="G213" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="H213" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="I213" s="5">
         <v>1</v>
@@ -7442,19 +7418,19 @@
     <row r="214" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="8"/>
       <c r="C214" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F214" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="G214" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="H214" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="I214" s="5">
         <v>1</v>
@@ -7463,19 +7439,19 @@
     <row r="215" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="8"/>
       <c r="C215" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F215" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="G215" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="H215" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I215" s="5">
         <v>1</v>
@@ -7484,19 +7460,19 @@
     <row r="216" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="8"/>
       <c r="C216" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F216" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="G216" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="H216" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="I216" s="5">
         <v>1</v>
@@ -7505,19 +7481,19 @@
     <row r="217" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="8"/>
       <c r="C217" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F217" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="G217" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="H217" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="I217" s="5">
         <v>1</v>
@@ -7526,16 +7502,16 @@
     <row r="218" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="8"/>
       <c r="C218" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F218" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="G218" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="H218" t="s">
         <v>16</v>
@@ -7547,19 +7523,19 @@
     <row r="219" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="8"/>
       <c r="C219" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F219" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="G219" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="H219" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I219" s="5">
         <v>1</v>
@@ -7568,19 +7544,19 @@
     <row r="220" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="8"/>
       <c r="C220" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F220" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="G220" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="H220" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="I220" s="5">
         <v>1</v>
@@ -7589,16 +7565,16 @@
     <row r="221" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="8"/>
       <c r="C221" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F221" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="G221" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="H221" t="s">
         <v>16</v>
@@ -7610,16 +7586,16 @@
     <row r="222" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="8"/>
       <c r="C222" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F222" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="G222" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="H222" t="s">
         <v>16</v>
@@ -7631,16 +7607,16 @@
     <row r="223" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="8"/>
       <c r="C223" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F223" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="G223" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="H223" t="s">
         <v>16</v>
@@ -7652,19 +7628,19 @@
     <row r="224" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="8"/>
       <c r="C224" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F224" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="G224" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="H224" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I224" s="5">
         <v>1</v>
@@ -7673,16 +7649,16 @@
     <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="8"/>
       <c r="C225" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F225" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="G225" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="H225" t="s">
         <v>16</v>
@@ -7694,16 +7670,16 @@
     <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="8"/>
       <c r="C226" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F226" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="G226" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="H226" t="s">
         <v>16</v>
@@ -7715,16 +7691,16 @@
     <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="8"/>
       <c r="C227" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E227" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F227" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="G227" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="H227" t="s">
         <v>16</v>
@@ -7736,16 +7712,16 @@
     <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="8"/>
       <c r="C228" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F228" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="G228" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="H228" t="s">
         <v>16</v>
@@ -7757,19 +7733,19 @@
     <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="8"/>
       <c r="C229" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="E229" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F229" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="G229" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="H229" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="I229" s="5">
         <v>1</v>
@@ -7777,22 +7753,22 @@
     </row>
     <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="7" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="C230" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="E230" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F230" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="G230" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="H230" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="I230" s="5">
         <v>1</v>
@@ -7801,19 +7777,19 @@
     <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="8"/>
       <c r="C231" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="E231" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F231" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="G231" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="H231" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="I231" s="5">
         <v>1</v>
@@ -7822,19 +7798,19 @@
     <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="8"/>
       <c r="C232" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="E232" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F232" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="G232" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="H232" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="I232" s="5">
         <v>1</v>
@@ -7843,19 +7819,19 @@
     <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="8"/>
       <c r="C233" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="E233" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F233" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="G233" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="H233" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="I233" s="5">
         <v>1</v>
@@ -7864,19 +7840,19 @@
     <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="8"/>
       <c r="C234" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F234" t="s">
+        <v>588</v>
+      </c>
+      <c r="G234" t="s">
         <v>600</v>
       </c>
-      <c r="G234" t="s">
-        <v>612</v>
-      </c>
       <c r="H234" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="I234" s="5">
         <v>1</v>
@@ -7885,19 +7861,19 @@
     <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="8"/>
       <c r="C235" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="E235" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F235" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="G235" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="H235" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I235" s="5">
         <v>1</v>
@@ -7906,19 +7882,19 @@
     <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="8"/>
       <c r="C236" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="E236" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F236" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="G236" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="H236" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="I236" s="5">
         <v>1</v>
@@ -7927,19 +7903,19 @@
     <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="8"/>
       <c r="C237" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="E237" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F237" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="G237" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="H237" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="I237" s="5">
         <v>1</v>
@@ -7948,19 +7924,19 @@
     <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="8"/>
       <c r="C238" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F238" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="G238" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="H238" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="I238" s="5">
         <v>1</v>
@@ -7969,19 +7945,19 @@
     <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="8"/>
       <c r="C239" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="E239" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F239" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="G239" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="H239" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="I239" s="5">
         <v>1</v>
@@ -7990,19 +7966,19 @@
     <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="8"/>
       <c r="C240" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="E240" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F240" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="G240" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="H240" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="I240" s="5">
         <v>1</v>
@@ -8011,19 +7987,19 @@
     <row r="241" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="8"/>
       <c r="C241" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E241" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F241" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="G241" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="H241" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="I241" s="5">
         <v>1</v>
@@ -8032,19 +8008,19 @@
     <row r="242" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="8"/>
       <c r="C242" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="E242" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F242" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="G242" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="H242" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="I242" s="5">
         <v>1</v>
@@ -8053,19 +8029,19 @@
     <row r="243" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="8"/>
       <c r="C243" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F243" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="G243" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="H243" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="I243" s="5">
         <v>1</v>
@@ -8074,19 +8050,19 @@
     <row r="244" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="8"/>
       <c r="C244" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="E244" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F244" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="G244" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="H244" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="I244" s="5">
         <v>1</v>
@@ -8095,19 +8071,19 @@
     <row r="245" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="8"/>
       <c r="C245" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="E245" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F245" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="G245" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="H245" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="I245" s="5">
         <v>1</v>
@@ -8116,19 +8092,19 @@
     <row r="246" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="8"/>
       <c r="C246" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="E246" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F246" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="G246" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="H246" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I246" s="5">
         <v>1</v>
@@ -8137,19 +8113,19 @@
     <row r="247" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="8"/>
       <c r="C247" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="E247" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F247" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="G247" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="H247" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I247" s="5">
         <v>1</v>
@@ -8158,19 +8134,19 @@
     <row r="248" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="8"/>
       <c r="C248" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="E248" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F248" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="G248" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="H248" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="I248" s="5">
         <v>1</v>
@@ -8179,19 +8155,19 @@
     <row r="249" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="8"/>
       <c r="C249" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="E249" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F249" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="G249" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="H249" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="I249" s="5">
         <v>1</v>
@@ -8200,19 +8176,19 @@
     <row r="250" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="8"/>
       <c r="C250" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="E250" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F250" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="G250" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="H250" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="I250" s="5">
         <v>1</v>
@@ -8221,19 +8197,19 @@
     <row r="251" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="8"/>
       <c r="C251" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="E251" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F251" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="G251" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="H251" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="I251" s="5">
         <v>1</v>
@@ -8242,19 +8218,19 @@
     <row r="252" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="8"/>
       <c r="C252" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="E252" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F252" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="G252" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="H252" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I252" s="5">
         <v>1</v>
@@ -8263,19 +8239,19 @@
     <row r="253" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="8"/>
       <c r="C253" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="E253" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F253" t="s">
+        <v>638</v>
+      </c>
+      <c r="G253" t="s">
+        <v>649</v>
+      </c>
+      <c r="H253" t="s">
         <v>650</v>
-      </c>
-      <c r="G253" t="s">
-        <v>661</v>
-      </c>
-      <c r="H253" t="s">
-        <v>662</v>
       </c>
       <c r="I253" s="5">
         <v>1</v>
@@ -8284,19 +8260,19 @@
     <row r="254" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="8"/>
       <c r="C254" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="E254" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F254" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="G254" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="H254" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I254" s="5">
         <v>1</v>
@@ -8305,19 +8281,19 @@
     <row r="255" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="8"/>
       <c r="C255" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="E255" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F255" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="G255" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="H255" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="I255" s="5">
         <v>1</v>
@@ -8326,19 +8302,19 @@
     <row r="256" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="8"/>
       <c r="C256" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="E256" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F256" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="G256" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="H256" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="I256" s="5">
         <v>1</v>
@@ -8347,19 +8323,19 @@
     <row r="257" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="8"/>
       <c r="C257" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="E257" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F257" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="G257" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="H257" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I257" s="5">
         <v>1</v>
@@ -8368,19 +8344,19 @@
     <row r="258" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="8"/>
       <c r="C258" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="E258" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F258" t="s">
+        <v>652</v>
+      </c>
+      <c r="G258" t="s">
+        <v>663</v>
+      </c>
+      <c r="H258" t="s">
         <v>664</v>
-      </c>
-      <c r="G258" t="s">
-        <v>675</v>
-      </c>
-      <c r="H258" t="s">
-        <v>676</v>
       </c>
       <c r="I258" s="5">
         <v>1</v>
@@ -8389,19 +8365,19 @@
     <row r="259" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="8"/>
       <c r="C259" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="E259" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F259" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="G259" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="H259" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="I259" s="5">
         <v>1</v>
@@ -8410,19 +8386,19 @@
     <row r="260" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="8"/>
       <c r="C260" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="E260" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F260" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="G260" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="H260" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="I260" s="5">
         <v>1</v>
@@ -8431,19 +8407,19 @@
     <row r="261" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="8"/>
       <c r="C261" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="E261" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F261" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="G261" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="H261" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I261" s="5">
         <v>1</v>
@@ -8452,19 +8428,19 @@
     <row r="262" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="8"/>
       <c r="C262" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="E262" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F262" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="G262" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="H262" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I262" s="5">
         <v>1</v>
@@ -8473,19 +8449,19 @@
     <row r="263" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="8"/>
       <c r="C263" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="E263" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F263" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="G263" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="H263" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I263" s="5">
         <v>1</v>
@@ -8494,19 +8470,19 @@
     <row r="264" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="8"/>
       <c r="C264" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="E264" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F264" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="G264" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="H264" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="I264" s="5">
         <v>1</v>
@@ -8515,19 +8491,19 @@
     <row r="265" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="8"/>
       <c r="C265" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="E265" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F265" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="G265" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="H265" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I265" s="5">
         <v>1</v>
@@ -8536,19 +8512,19 @@
     <row r="266" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="8"/>
       <c r="C266" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="E266" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F266" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="G266" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="H266" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="I266" s="5">
         <v>1</v>
@@ -8557,19 +8533,19 @@
     <row r="267" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="8"/>
       <c r="C267" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="E267" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F267" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="G267" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="H267" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="I267" s="5">
         <v>1</v>
@@ -8578,19 +8554,19 @@
     <row r="268" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="8"/>
       <c r="C268" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="E268" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F268" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="G268" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="H268" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I268" s="5">
         <v>1</v>
@@ -8599,16 +8575,16 @@
     <row r="269" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="8"/>
       <c r="C269" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="E269" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F269" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="H269" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="I269" s="5">
         <v>1</v>
@@ -8617,19 +8593,19 @@
     <row r="270" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="8"/>
       <c r="C270" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="E270" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F270" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="G270" s="6" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="H270" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="I270" s="5">
         <v>1</v>
@@ -8638,19 +8614,19 @@
     <row r="271" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="8"/>
       <c r="C271" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="E271" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F271" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="G271" s="6" t="s">
-        <v>699</v>
+        <v>820</v>
       </c>
       <c r="H271" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="I271" s="5">
         <v>1</v>
@@ -8659,19 +8635,19 @@
     <row r="272" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="8"/>
       <c r="C272" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="E272" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F272" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="G272" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="H272" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="I272" s="5">
         <v>1</v>
@@ -8680,19 +8656,19 @@
     <row r="273" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="8"/>
       <c r="C273" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F273" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="G273" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="H273" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I273" s="5">
         <v>1</v>
@@ -8701,16 +8677,16 @@
     <row r="274" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="8"/>
       <c r="C274" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F274" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="H274" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I274" s="5">
         <v>1</v>
@@ -8719,19 +8695,19 @@
     <row r="275" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="8"/>
       <c r="C275" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F275" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G275" t="s">
-        <v>707</v>
+        <v>821</v>
       </c>
       <c r="H275" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I275" s="5">
         <v>1</v>
@@ -8740,19 +8716,19 @@
     <row r="276" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="8"/>
       <c r="C276" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F276" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="G276" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="H276" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I276" s="5">
         <v>1</v>
@@ -8761,19 +8737,19 @@
     <row r="277" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="8"/>
       <c r="C277" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="E277" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F277" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="G277" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="H277" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="I277" s="5">
         <v>1</v>
@@ -8782,16 +8758,16 @@
     <row r="278" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="8"/>
       <c r="C278" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F278" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="H278" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I278" s="5">
         <v>1</v>
@@ -8800,19 +8776,19 @@
     <row r="279" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="8"/>
       <c r="C279" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F279" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="G279" t="s">
-        <v>717</v>
+        <v>822</v>
       </c>
       <c r="H279" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I279" s="5">
         <v>1</v>
@@ -8821,19 +8797,19 @@
     <row r="280" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="8"/>
       <c r="C280" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F280" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="G280" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="H280" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I280" s="5">
         <v>1</v>
@@ -8842,19 +8818,19 @@
     <row r="281" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="8"/>
       <c r="C281" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F281" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="G281" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="H281" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="I281" s="5">
         <v>1</v>
@@ -8863,19 +8839,19 @@
     <row r="282" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="8"/>
       <c r="C282" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="E282" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F282" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="G282" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="H282" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I282" s="5">
         <v>1</v>
@@ -8884,19 +8860,19 @@
     <row r="283" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="8"/>
       <c r="C283" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="E283" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F283" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="G283" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="H283" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="I283" s="5">
         <v>1</v>
@@ -8905,19 +8881,19 @@
     <row r="284" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="8"/>
       <c r="C284" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="E284" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F284" t="s">
         <v>63</v>
       </c>
-      <c r="F284" t="s">
-        <v>64</v>
-      </c>
       <c r="G284" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="H284" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I284" s="5">
         <v>1</v>
@@ -8926,19 +8902,19 @@
     <row r="285" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="8"/>
       <c r="C285" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="E285" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F285" t="s">
         <v>63</v>
       </c>
-      <c r="F285" t="s">
-        <v>64</v>
-      </c>
       <c r="G285" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="H285" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I285" s="5">
         <v>1</v>
@@ -8947,19 +8923,19 @@
     <row r="286" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="8"/>
       <c r="C286" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="E286" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F286" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="G286" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="H286" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I286" s="5">
         <v>1</v>
@@ -8968,19 +8944,19 @@
     <row r="287" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="8"/>
       <c r="C287" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="E287" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F287" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="G287" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="H287" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I287" s="5">
         <v>1</v>
@@ -8989,19 +8965,19 @@
     <row r="288" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="8"/>
       <c r="C288" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="E288" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F288" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="G288" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="H288" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I288" s="5">
         <v>1</v>
@@ -9010,19 +8986,19 @@
     <row r="289" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="8"/>
       <c r="C289" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="E289" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F289" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="G289" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="H289" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I289" s="5">
         <v>1</v>
@@ -9031,19 +9007,19 @@
     <row r="290" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="8"/>
       <c r="C290" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="E290" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F290" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="G290" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="H290" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I290" s="5">
         <v>1</v>
@@ -9052,19 +9028,19 @@
     <row r="291" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="8"/>
       <c r="C291" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="E291" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F291" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="G291" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="H291" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I291" s="5">
         <v>1</v>
@@ -9073,19 +9049,19 @@
     <row r="292" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="8"/>
       <c r="C292" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="E292" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F292" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="G292" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="H292" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="I292" s="5">
         <v>1</v>
@@ -9094,19 +9070,19 @@
     <row r="293" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="8"/>
       <c r="C293" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="E293" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F293" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="G293" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="H293" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I293" s="5">
         <v>1</v>
@@ -9114,22 +9090,22 @@
     </row>
     <row r="294" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="7" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="C294" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F294" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="G294" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="H294" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I294" s="5">
         <v>1</v>
@@ -9138,16 +9114,16 @@
     <row r="295" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="8"/>
       <c r="C295" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F295" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="H295" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I295" s="5">
         <v>1</v>
@@ -9156,19 +9132,19 @@
     <row r="296" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="8"/>
       <c r="C296" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F296" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="H296" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="I296" s="5">
         <v>1</v>
@@ -9177,16 +9153,16 @@
     <row r="297" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="8"/>
       <c r="C297" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F297" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="H297" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I297" s="5">
         <v>1</v>
@@ -9195,19 +9171,19 @@
     <row r="298" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="8"/>
       <c r="C298" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F298" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="G298" t="s">
-        <v>763</v>
+        <v>823</v>
       </c>
       <c r="H298" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I298" s="5">
         <v>1</v>
@@ -9216,19 +9192,19 @@
     <row r="299" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="8"/>
       <c r="C299" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F299" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="G299" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="H299" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I299" s="5">
         <v>1</v>
@@ -9237,19 +9213,19 @@
     <row r="300" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="8"/>
       <c r="C300" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F300" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="G300" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H300" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="I300" s="5">
         <v>1</v>
@@ -9258,19 +9234,19 @@
     <row r="301" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="8"/>
       <c r="C301" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F301" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="G301" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="H301" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I301" s="5">
         <v>1</v>
@@ -9278,19 +9254,19 @@
     </row>
     <row r="302" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="7" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="C302" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F302" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="H302" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I302" s="5">
         <v>1</v>
@@ -9299,19 +9275,19 @@
     <row r="303" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="8"/>
       <c r="C303" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="E303" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F303" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="H303" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I303" s="5">
         <v>1</v>
@@ -9320,16 +9296,16 @@
     <row r="304" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="8"/>
       <c r="C304" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F304" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="H304" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I304" s="5">
         <v>1</v>
@@ -9338,19 +9314,19 @@
     <row r="305" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="8"/>
       <c r="C305" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="E305" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F305" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G305" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="H305" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="I305" s="5">
         <v>1</v>
@@ -9359,19 +9335,19 @@
     <row r="306" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="8"/>
       <c r="C306" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="E306" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F306" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G306" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="H306" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I306" s="5">
         <v>1</v>
@@ -9380,19 +9356,19 @@
     <row r="307" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="8"/>
       <c r="C307" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="E307" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F307" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G307" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="H307" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I307" s="5">
         <v>1</v>
@@ -9401,19 +9377,19 @@
     <row r="308" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="8"/>
       <c r="C308" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="E308" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F308" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G308" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="H308" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I308" s="5">
         <v>1</v>
@@ -9422,16 +9398,16 @@
     <row r="309" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="8"/>
       <c r="C309" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F309" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H309" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I309" s="5">
         <v>1</v>
@@ -9440,16 +9416,16 @@
     <row r="310" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="8"/>
       <c r="C310" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F310" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H310" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="I310" s="5">
         <v>1</v>
@@ -9457,17 +9433,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B25"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="B34:B70"/>
-    <mergeCell ref="B132:B229"/>
     <mergeCell ref="B230:B293"/>
     <mergeCell ref="B294:B301"/>
     <mergeCell ref="B302:B310"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B73:B101"/>
     <mergeCell ref="B102:B131"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B70"/>
+    <mergeCell ref="B132:B229"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9503,7 +9479,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -9518,7 +9494,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
@@ -9529,25 +9505,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="C2" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="G2" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="H2" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -9556,19 +9532,19 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="G3" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -9577,19 +9553,19 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="G4" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -9598,19 +9574,19 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="G5" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -9619,19 +9595,19 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="G6" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -9640,19 +9616,19 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -9661,19 +9637,19 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="G8" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -9682,19 +9658,19 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
+        <v>776</v>
+      </c>
+      <c r="G9" t="s">
         <v>792</v>
-      </c>
-      <c r="G9" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -9703,19 +9679,19 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="G10" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -9726,16 +9702,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -9744,16 +9720,16 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
+        <v>781</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
         <v>797</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -9762,16 +9738,16 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -9780,16 +9756,16 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -9798,16 +9774,16 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -9815,19 +9791,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="C16" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9835,16 +9811,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9852,16 +9828,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9936,23 +9912,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="B3" s="4">
         <f>B2+1</f>

--- a/TestDatas/jm_api_info.xlsx
+++ b/TestDatas/jm_api_info.xlsx
@@ -73,9 +73,6 @@
     <t>/api/v2/mobile/verify</t>
   </si>
   <si>
-    <t>{"mobile":"13816661001"}</t>
-  </si>
-  <si>
     <t>"code":1</t>
   </si>
   <si>
@@ -2506,6 +2503,10 @@
   </si>
   <si>
     <t>{"club":"AbSYVL3xiizo7csz1RiiBg&amp;position":"wuyuan"}</t>
+  </si>
+  <si>
+    <t>{"mobile":"13816661001"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2913,8 +2914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2974,25 +2975,25 @@
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G2" t="s">
+        <v>823</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="5">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3001,7 +3002,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -3013,10 +3014,10 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
@@ -3029,22 +3030,22 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="5">
         <v>1</v>
@@ -3056,7 +3057,7 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
@@ -3065,13 +3066,13 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
       </c>
       <c r="I5" s="5">
         <v>1</v>
@@ -3083,7 +3084,7 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
@@ -3092,13 +3093,13 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
         <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
       </c>
       <c r="I6" s="5">
         <v>1</v>
@@ -3109,10 +3110,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
@@ -3121,13 +3122,13 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="5">
         <v>1</v>
@@ -3139,7 +3140,7 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
@@ -3148,13 +3149,13 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
         <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
@@ -3166,7 +3167,7 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
@@ -3175,13 +3176,13 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
         <v>38</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
       </c>
       <c r="I9" s="5">
         <v>1</v>
@@ -3193,7 +3194,7 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
@@ -3202,13 +3203,13 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="5">
         <v>1</v>
@@ -3220,19 +3221,19 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -3244,19 +3245,19 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
       </c>
       <c r="I12" s="5">
         <v>1</v>
@@ -3268,19 +3269,19 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
       </c>
       <c r="I13" s="5">
         <v>1</v>
@@ -3292,19 +3293,19 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>53</v>
       </c>
-      <c r="G14" t="s">
-        <v>54</v>
-      </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="5">
         <v>1</v>
@@ -3313,19 +3314,19 @@
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>56</v>
-      </c>
-      <c r="H15" t="s">
-        <v>57</v>
       </c>
       <c r="I15" s="5">
         <v>1</v>
@@ -3334,19 +3335,19 @@
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="5">
         <v>1</v>
@@ -3355,19 +3356,19 @@
     <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s">
         <v>44</v>
-      </c>
-      <c r="H17" t="s">
-        <v>45</v>
       </c>
       <c r="I17" s="5">
         <v>1</v>
@@ -3376,16 +3377,16 @@
     <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" t="s">
         <v>62</v>
       </c>
-      <c r="F18" t="s">
-        <v>63</v>
-      </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="5">
         <v>1</v>
@@ -3394,19 +3395,19 @@
     <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>65</v>
-      </c>
       <c r="G19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" s="5">
         <v>1</v>
@@ -3415,19 +3416,19 @@
     <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" t="s">
-        <v>67</v>
-      </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="5">
         <v>1</v>
@@ -3436,19 +3437,19 @@
     <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>69</v>
-      </c>
-      <c r="H21" t="s">
-        <v>70</v>
       </c>
       <c r="I21" s="5">
         <v>1</v>
@@ -3457,16 +3458,16 @@
     <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>72</v>
-      </c>
-      <c r="H22" t="s">
-        <v>73</v>
       </c>
       <c r="I22" s="5">
         <v>1</v>
@@ -3475,19 +3476,19 @@
     <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>75</v>
-      </c>
       <c r="G23" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" s="5">
         <v>1</v>
@@ -3496,19 +3497,19 @@
     <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>77</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>78</v>
-      </c>
-      <c r="H24" t="s">
-        <v>79</v>
       </c>
       <c r="I24" s="5">
         <v>1</v>
@@ -3517,16 +3518,16 @@
     <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I25" s="5">
         <v>1</v>
@@ -3534,22 +3535,22 @@
     </row>
     <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
         <v>81</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>83</v>
-      </c>
       <c r="G26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26" s="5">
         <v>1</v>
@@ -3558,19 +3559,19 @@
     <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>85</v>
       </c>
-      <c r="G27" t="s">
-        <v>86</v>
-      </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" s="5">
         <v>1</v>
@@ -3579,19 +3580,19 @@
     <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" t="s">
         <v>85</v>
       </c>
-      <c r="G28" t="s">
-        <v>86</v>
-      </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="5">
         <v>1</v>
@@ -3600,19 +3601,19 @@
     <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" t="s">
         <v>85</v>
       </c>
-      <c r="G29" t="s">
-        <v>86</v>
-      </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29" s="5">
         <v>1</v>
@@ -3621,19 +3622,19 @@
     <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" t="s">
         <v>89</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" t="s">
-        <v>90</v>
       </c>
       <c r="I30" s="5">
         <v>1</v>
@@ -3642,19 +3643,19 @@
     <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" t="s">
-        <v>92</v>
-      </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I31" s="5">
         <v>1</v>
@@ -3663,16 +3664,16 @@
     <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I32" s="5">
         <v>1</v>
@@ -3681,19 +3682,19 @@
     <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I33" s="5">
         <v>1</v>
@@ -3701,19 +3702,19 @@
     </row>
     <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
         <v>95</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" t="s">
-        <v>97</v>
-      </c>
       <c r="H34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I34" s="5">
         <v>1</v>
@@ -3722,17 +3723,17 @@
     <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" t="s">
         <v>98</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" t="s">
-        <v>99</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I35" s="5">
         <v>1</v>
@@ -3741,19 +3742,19 @@
     <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" t="s">
-        <v>101</v>
-      </c>
       <c r="G36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I36" s="5">
         <v>1</v>
@@ -3762,19 +3763,19 @@
     <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
       <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>103</v>
       </c>
-      <c r="G37" t="s">
-        <v>104</v>
-      </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I37" s="5">
         <v>1</v>
@@ -3783,19 +3784,19 @@
     <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" t="s">
-        <v>103</v>
-      </c>
-      <c r="G38" t="s">
-        <v>106</v>
-      </c>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I38" s="5">
         <v>1</v>
@@ -3804,19 +3805,19 @@
     <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
-        <v>103</v>
-      </c>
-      <c r="G39" t="s">
-        <v>108</v>
-      </c>
       <c r="H39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I39" s="5">
         <v>1</v>
@@ -3825,19 +3826,19 @@
     <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>110</v>
       </c>
-      <c r="G40" t="s">
-        <v>111</v>
-      </c>
       <c r="H40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I40" s="5">
         <v>1</v>
@@ -3846,19 +3847,19 @@
     <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
       <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
         <v>112</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>113</v>
       </c>
-      <c r="G41" t="s">
-        <v>114</v>
-      </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I41" s="5">
         <v>1</v>
@@ -3867,19 +3868,19 @@
     <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I42" s="5">
         <v>1</v>
@@ -3888,19 +3889,19 @@
     <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>117</v>
       </c>
-      <c r="G43" t="s">
-        <v>118</v>
-      </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I43" s="5">
         <v>1</v>
@@ -3909,19 +3910,19 @@
     <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="C44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>120</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>121</v>
-      </c>
-      <c r="H44" t="s">
-        <v>122</v>
       </c>
       <c r="I44" s="5">
         <v>1</v>
@@ -3930,19 +3931,19 @@
     <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="C45" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>124</v>
       </c>
-      <c r="G45" t="s">
-        <v>125</v>
-      </c>
       <c r="H45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I45" s="5">
         <v>1</v>
@@ -3951,19 +3952,19 @@
     <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="C46" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" t="s">
         <v>126</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" t="s">
-        <v>124</v>
-      </c>
-      <c r="G46" t="s">
-        <v>127</v>
-      </c>
       <c r="H46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I46" s="5">
         <v>1</v>
@@ -3972,19 +3973,19 @@
     <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="C47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>129</v>
       </c>
-      <c r="G47" t="s">
-        <v>130</v>
-      </c>
       <c r="H47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I47" s="5">
         <v>1</v>
@@ -3993,19 +3994,19 @@
     <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="C48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48" t="s">
-        <v>132</v>
-      </c>
       <c r="H48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I48" s="5">
         <v>1</v>
@@ -4014,19 +4015,19 @@
     <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="C49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
         <v>133</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>134</v>
       </c>
-      <c r="G49" t="s">
-        <v>135</v>
-      </c>
       <c r="H49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I49" s="5">
         <v>1</v>
@@ -4035,19 +4036,19 @@
     <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="C50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" t="s">
         <v>136</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" t="s">
-        <v>134</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>137</v>
-      </c>
-      <c r="H50" t="s">
-        <v>138</v>
       </c>
       <c r="I50" s="5">
         <v>1</v>
@@ -4056,19 +4057,19 @@
     <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="C51" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" t="s">
         <v>139</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" t="s">
-        <v>124</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>140</v>
-      </c>
-      <c r="H51" t="s">
-        <v>141</v>
       </c>
       <c r="I51" s="5">
         <v>1</v>
@@ -4077,19 +4078,19 @@
     <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="C52" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" t="s">
         <v>142</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" t="s">
-        <v>124</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>143</v>
-      </c>
-      <c r="H52" t="s">
-        <v>144</v>
       </c>
       <c r="I52" s="5">
         <v>1</v>
@@ -4098,19 +4099,19 @@
     <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="C53" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
         <v>145</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>146</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>147</v>
-      </c>
-      <c r="H53" t="s">
-        <v>148</v>
       </c>
       <c r="I53" s="5">
         <v>1</v>
@@ -4119,19 +4120,19 @@
     <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="C54" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G54" t="s">
         <v>149</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" t="s">
-        <v>146</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>150</v>
-      </c>
-      <c r="H54" t="s">
-        <v>151</v>
       </c>
       <c r="I54" s="5">
         <v>1</v>
@@ -4140,19 +4141,19 @@
     <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="C55" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
         <v>152</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>153</v>
       </c>
-      <c r="G55" t="s">
-        <v>154</v>
-      </c>
       <c r="H55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I55" s="5">
         <v>1</v>
@@ -4161,19 +4162,19 @@
     <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="C56" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G56" t="s">
         <v>155</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" t="s">
-        <v>153</v>
-      </c>
-      <c r="G56" t="s">
-        <v>156</v>
-      </c>
       <c r="H56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I56" s="5">
         <v>1</v>
@@ -4182,16 +4183,16 @@
     <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="C57" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
         <v>157</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" t="s">
-        <v>158</v>
-      </c>
       <c r="H57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I57" s="5">
         <v>1</v>
@@ -4200,19 +4201,19 @@
     <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
         <v>159</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>160</v>
-      </c>
       <c r="G58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I58" s="5">
         <v>1</v>
@@ -4221,19 +4222,19 @@
     <row r="59" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="C59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>112</v>
+      </c>
+      <c r="G59" t="s">
         <v>161</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" t="s">
-        <v>113</v>
-      </c>
-      <c r="G59" t="s">
-        <v>162</v>
-      </c>
       <c r="H59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I59" s="5">
         <v>1</v>
@@ -4242,19 +4243,19 @@
     <row r="60" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="C60" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>112</v>
+      </c>
+      <c r="G60" t="s">
         <v>163</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
-        <v>113</v>
-      </c>
-      <c r="G60" t="s">
-        <v>164</v>
-      </c>
       <c r="H60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I60" s="5">
         <v>1</v>
@@ -4263,19 +4264,19 @@
     <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="C61" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" t="s">
         <v>165</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" t="s">
-        <v>113</v>
-      </c>
-      <c r="G61" t="s">
-        <v>166</v>
-      </c>
       <c r="H61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I61" s="5">
         <v>1</v>
@@ -4284,19 +4285,19 @@
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="C62" t="s">
+        <v>166</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
+        <v>112</v>
+      </c>
+      <c r="G62" t="s">
         <v>167</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" t="s">
-        <v>113</v>
-      </c>
-      <c r="G62" t="s">
-        <v>168</v>
-      </c>
       <c r="H62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I62" s="5">
         <v>1</v>
@@ -4305,19 +4306,19 @@
     <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="C63" t="s">
+        <v>168</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>112</v>
+      </c>
+      <c r="G63" t="s">
         <v>169</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" t="s">
-        <v>113</v>
-      </c>
-      <c r="G63" t="s">
-        <v>170</v>
-      </c>
       <c r="H63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I63" s="5">
         <v>1</v>
@@ -4326,19 +4327,19 @@
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="C64" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>112</v>
+      </c>
+      <c r="G64" t="s">
         <v>171</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" t="s">
-        <v>113</v>
-      </c>
-      <c r="G64" t="s">
-        <v>172</v>
-      </c>
       <c r="H64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I64" s="5">
         <v>1</v>
@@ -4347,19 +4348,19 @@
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="C65" t="s">
+        <v>172</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>112</v>
+      </c>
+      <c r="G65" t="s">
         <v>173</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" t="s">
-        <v>113</v>
-      </c>
-      <c r="G65" t="s">
-        <v>174</v>
-      </c>
       <c r="H65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I65" s="5">
         <v>1</v>
@@ -4368,19 +4369,19 @@
     <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="C66" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>112</v>
+      </c>
+      <c r="G66" t="s">
         <v>175</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" t="s">
-        <v>113</v>
-      </c>
-      <c r="G66" t="s">
-        <v>176</v>
-      </c>
       <c r="H66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I66" s="5">
         <v>1</v>
@@ -4389,19 +4390,19 @@
     <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="C67" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
         <v>177</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>178</v>
       </c>
-      <c r="G67" t="s">
-        <v>179</v>
-      </c>
       <c r="H67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I67" s="5">
         <v>1</v>
@@ -4410,19 +4411,19 @@
     <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="C68" t="s">
+        <v>179</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>177</v>
+      </c>
+      <c r="G68" t="s">
         <v>180</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" t="s">
-        <v>178</v>
-      </c>
-      <c r="G68" t="s">
-        <v>181</v>
-      </c>
       <c r="H68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I68" s="5">
         <v>1</v>
@@ -4431,19 +4432,19 @@
     <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I69" s="5">
         <v>1</v>
@@ -4452,19 +4453,19 @@
     <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="C70" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>112</v>
+      </c>
+      <c r="G70" t="s">
         <v>183</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" t="s">
-        <v>113</v>
-      </c>
-      <c r="G70" t="s">
-        <v>184</v>
-      </c>
       <c r="H70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I70" s="5">
         <v>1</v>
@@ -4472,22 +4473,22 @@
     </row>
     <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" t="s">
         <v>185</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
         <v>186</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" t="s">
-        <v>187</v>
-      </c>
       <c r="G71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I71" s="5">
         <v>1</v>
@@ -4496,19 +4497,19 @@
     <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="C72" t="s">
+        <v>187</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
         <v>188</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>189</v>
       </c>
-      <c r="G72" t="s">
-        <v>190</v>
-      </c>
       <c r="H72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I72" s="5">
         <v>1</v>
@@ -4516,22 +4517,22 @@
     </row>
     <row r="73" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C73" t="s">
         <v>191</v>
       </c>
-      <c r="C73" t="s">
+      <c r="E73" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F73" t="s">
+        <v>116</v>
+      </c>
+      <c r="G73" t="s">
+        <v>49</v>
+      </c>
+      <c r="H73" t="s">
         <v>192</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F73" t="s">
-        <v>117</v>
-      </c>
-      <c r="G73" t="s">
-        <v>50</v>
-      </c>
-      <c r="H73" t="s">
-        <v>193</v>
       </c>
       <c r="I73" s="5">
         <v>1</v>
@@ -4540,19 +4541,19 @@
     <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" t="s">
+        <v>193</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F74" t="s">
+        <v>116</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
         <v>194</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F74" t="s">
-        <v>117</v>
-      </c>
-      <c r="G74" t="s">
-        <v>47</v>
-      </c>
-      <c r="H74" t="s">
-        <v>195</v>
       </c>
       <c r="I74" s="5">
         <v>1</v>
@@ -4561,16 +4562,16 @@
     <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" t="s">
+        <v>195</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F75" t="s">
+        <v>116</v>
+      </c>
+      <c r="H75" t="s">
         <v>196</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F75" t="s">
-        <v>117</v>
-      </c>
-      <c r="H75" t="s">
-        <v>197</v>
       </c>
       <c r="I75" s="5">
         <v>1</v>
@@ -4579,19 +4580,19 @@
     <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="C76" t="s">
+        <v>197</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76" t="s">
+        <v>116</v>
+      </c>
+      <c r="G76" t="s">
+        <v>189</v>
+      </c>
+      <c r="H76" t="s">
         <v>198</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F76" t="s">
-        <v>117</v>
-      </c>
-      <c r="G76" t="s">
-        <v>190</v>
-      </c>
-      <c r="H76" t="s">
-        <v>199</v>
       </c>
       <c r="I76" s="5">
         <v>1</v>
@@ -4600,16 +4601,16 @@
     <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="C77" t="s">
+        <v>199</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F77" t="s">
         <v>200</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="H77" t="s">
         <v>201</v>
-      </c>
-      <c r="H77" t="s">
-        <v>202</v>
       </c>
       <c r="I77" s="5">
         <v>1</v>
@@ -4618,19 +4619,19 @@
     <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
       <c r="C78" t="s">
+        <v>202</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" t="s">
+        <v>200</v>
+      </c>
+      <c r="G78" t="s">
+        <v>189</v>
+      </c>
+      <c r="H78" t="s">
         <v>203</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F78" t="s">
-        <v>201</v>
-      </c>
-      <c r="G78" t="s">
-        <v>190</v>
-      </c>
-      <c r="H78" t="s">
-        <v>204</v>
       </c>
       <c r="I78" s="5">
         <v>1</v>
@@ -4639,16 +4640,16 @@
     <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="C79" t="s">
+        <v>204</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" t="s">
         <v>205</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="H79" t="s">
         <v>206</v>
-      </c>
-      <c r="H79" t="s">
-        <v>207</v>
       </c>
       <c r="I79" s="5">
         <v>1</v>
@@ -4657,19 +4658,19 @@
     <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="8"/>
       <c r="C80" t="s">
+        <v>207</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" t="s">
+        <v>205</v>
+      </c>
+      <c r="G80" t="s">
+        <v>189</v>
+      </c>
+      <c r="H80" t="s">
         <v>208</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F80" t="s">
-        <v>206</v>
-      </c>
-      <c r="G80" t="s">
-        <v>190</v>
-      </c>
-      <c r="H80" t="s">
-        <v>209</v>
       </c>
       <c r="I80" s="5">
         <v>1</v>
@@ -4678,16 +4679,16 @@
     <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="C81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81" t="s">
         <v>210</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F81" t="s">
-        <v>211</v>
-      </c>
       <c r="H81" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I81" s="5">
         <v>1</v>
@@ -4696,19 +4697,19 @@
     <row r="82" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="C82" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H82" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I82" s="5">
         <v>1</v>
@@ -4717,16 +4718,16 @@
     <row r="83" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="C83" t="s">
+        <v>212</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F83" t="s">
+        <v>62</v>
+      </c>
+      <c r="H83" t="s">
         <v>213</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F83" t="s">
-        <v>63</v>
-      </c>
-      <c r="H83" t="s">
-        <v>214</v>
       </c>
       <c r="I83" s="5">
         <v>1</v>
@@ -4735,19 +4736,19 @@
     <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
       <c r="C84" t="s">
+        <v>214</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84" t="s">
+        <v>62</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F84" t="s">
-        <v>63</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="H84" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I84" s="5">
         <v>1</v>
@@ -4756,16 +4757,16 @@
     <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="8"/>
       <c r="C85" t="s">
+        <v>216</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
         <v>217</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="H85" t="s">
         <v>218</v>
-      </c>
-      <c r="H85" t="s">
-        <v>219</v>
       </c>
       <c r="I85" s="5">
         <v>1</v>
@@ -4774,19 +4775,19 @@
     <row r="86" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
       <c r="C86" t="s">
+        <v>219</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>217</v>
+      </c>
+      <c r="G86" t="s">
+        <v>107</v>
+      </c>
+      <c r="H86" t="s">
         <v>220</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" t="s">
-        <v>218</v>
-      </c>
-      <c r="G86" t="s">
-        <v>108</v>
-      </c>
-      <c r="H86" t="s">
-        <v>221</v>
       </c>
       <c r="I86" s="5">
         <v>1</v>
@@ -4795,19 +4796,19 @@
     <row r="87" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="C87" t="s">
+        <v>221</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>109</v>
+      </c>
+      <c r="G87" t="s">
         <v>222</v>
       </c>
-      <c r="E87" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" t="s">
-        <v>110</v>
-      </c>
-      <c r="G87" t="s">
-        <v>223</v>
-      </c>
       <c r="H87" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I87" s="5">
         <v>1</v>
@@ -4816,19 +4817,19 @@
     <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
       <c r="C88" t="s">
+        <v>223</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s">
+        <v>109</v>
+      </c>
+      <c r="G88" t="s">
         <v>224</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" t="s">
-        <v>110</v>
-      </c>
-      <c r="G88" t="s">
-        <v>225</v>
-      </c>
       <c r="H88" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I88" s="5">
         <v>1</v>
@@ -4837,19 +4838,19 @@
     <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="C89" t="s">
+        <v>225</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
         <v>226</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>227</v>
       </c>
-      <c r="G89" t="s">
-        <v>228</v>
-      </c>
       <c r="H89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I89" s="5">
         <v>1</v>
@@ -4858,19 +4859,19 @@
     <row r="90" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="C90" t="s">
+        <v>228</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" t="s">
+        <v>226</v>
+      </c>
+      <c r="G90" t="s">
         <v>229</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" t="s">
-        <v>227</v>
-      </c>
-      <c r="G90" t="s">
-        <v>230</v>
-      </c>
       <c r="H90" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I90" s="5">
         <v>1</v>
@@ -4879,19 +4880,19 @@
     <row r="91" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="C91" t="s">
+        <v>230</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
+        <v>226</v>
+      </c>
+      <c r="G91" t="s">
         <v>231</v>
       </c>
-      <c r="E91" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" t="s">
-        <v>227</v>
-      </c>
-      <c r="G91" t="s">
-        <v>232</v>
-      </c>
       <c r="H91" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I91" s="5">
         <v>1</v>
@@ -4900,19 +4901,19 @@
     <row r="92" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="C92" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H92" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I92" s="5">
         <v>1</v>
@@ -4921,16 +4922,16 @@
     <row r="93" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="C93" t="s">
+        <v>233</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>226</v>
+      </c>
+      <c r="H93" t="s">
         <v>234</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" t="s">
-        <v>227</v>
-      </c>
-      <c r="H93" t="s">
-        <v>235</v>
       </c>
       <c r="I93" s="5">
         <v>1</v>
@@ -4939,19 +4940,19 @@
     <row r="94" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
       <c r="C94" t="s">
+        <v>235</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>226</v>
+      </c>
+      <c r="G94" t="s">
+        <v>189</v>
+      </c>
+      <c r="H94" t="s">
         <v>236</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" t="s">
-        <v>227</v>
-      </c>
-      <c r="G94" t="s">
-        <v>190</v>
-      </c>
-      <c r="H94" t="s">
-        <v>237</v>
       </c>
       <c r="I94" s="5">
         <v>1</v>
@@ -4960,16 +4961,16 @@
     <row r="95" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="C95" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H95" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I95" s="5">
         <v>1</v>
@@ -4978,19 +4979,19 @@
     <row r="96" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="C96" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G96" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H96" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I96" s="5">
         <v>1</v>
@@ -4999,19 +5000,19 @@
     <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="C97" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F97" t="s">
+        <v>188</v>
+      </c>
+      <c r="G97" t="s">
         <v>189</v>
       </c>
-      <c r="G97" t="s">
-        <v>190</v>
-      </c>
       <c r="H97" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I97" s="5">
         <v>1</v>
@@ -5020,19 +5021,19 @@
     <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
       <c r="C98" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F98" t="s">
+        <v>188</v>
+      </c>
+      <c r="G98" t="s">
         <v>189</v>
       </c>
-      <c r="G98" t="s">
-        <v>190</v>
-      </c>
       <c r="H98" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I98" s="5">
         <v>1</v>
@@ -5041,19 +5042,19 @@
     <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="8"/>
       <c r="C99" t="s">
+        <v>241</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F99" t="s">
         <v>242</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
+        <v>189</v>
+      </c>
+      <c r="H99" t="s">
         <v>243</v>
-      </c>
-      <c r="G99" t="s">
-        <v>190</v>
-      </c>
-      <c r="H99" t="s">
-        <v>244</v>
       </c>
       <c r="I99" s="5">
         <v>1</v>
@@ -5062,16 +5063,16 @@
     <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
       <c r="C100" t="s">
+        <v>244</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F100" t="s">
         <v>245</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="H100" t="s">
         <v>246</v>
-      </c>
-      <c r="H100" t="s">
-        <v>247</v>
       </c>
       <c r="I100" s="5">
         <v>1</v>
@@ -5080,19 +5081,19 @@
     <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="8"/>
       <c r="C101" t="s">
+        <v>247</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F101" t="s">
         <v>248</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F101" t="s">
-        <v>249</v>
-      </c>
       <c r="G101" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H101" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I101" s="5">
         <v>1</v>
@@ -5100,22 +5101,22 @@
     </row>
     <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C102" t="s">
         <v>250</v>
       </c>
-      <c r="C102" t="s">
+      <c r="E102" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F102" t="s">
         <v>251</v>
       </c>
-      <c r="E102" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>252</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>253</v>
-      </c>
-      <c r="H102" t="s">
-        <v>254</v>
       </c>
       <c r="I102" s="5">
         <v>1</v>
@@ -5124,19 +5125,19 @@
     <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="8"/>
       <c r="C103" t="s">
+        <v>254</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
         <v>255</v>
       </c>
-      <c r="E103" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>256</v>
       </c>
-      <c r="G103" t="s">
-        <v>257</v>
-      </c>
       <c r="H103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I103" s="5">
         <v>1</v>
@@ -5145,19 +5146,19 @@
     <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
       <c r="C104" t="s">
+        <v>257</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>255</v>
+      </c>
+      <c r="G104" t="s">
         <v>258</v>
       </c>
-      <c r="E104" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" t="s">
-        <v>256</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>259</v>
-      </c>
-      <c r="H104" t="s">
-        <v>260</v>
       </c>
       <c r="I104" s="5">
         <v>1</v>
@@ -5166,19 +5167,19 @@
     <row r="105" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="8"/>
       <c r="C105" t="s">
+        <v>260</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F105" t="s">
         <v>261</v>
       </c>
-      <c r="E105" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>262</v>
       </c>
-      <c r="G105" t="s">
-        <v>263</v>
-      </c>
       <c r="H105" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I105" s="5">
         <v>1</v>
@@ -5187,19 +5188,19 @@
     <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
       <c r="C106" t="s">
+        <v>263</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
         <v>264</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
+        <v>258</v>
+      </c>
+      <c r="H106" t="s">
         <v>265</v>
-      </c>
-      <c r="G106" t="s">
-        <v>259</v>
-      </c>
-      <c r="H106" t="s">
-        <v>266</v>
       </c>
       <c r="I106" s="5">
         <v>1</v>
@@ -5208,19 +5209,19 @@
     <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="8"/>
       <c r="C107" t="s">
+        <v>266</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>264</v>
+      </c>
+      <c r="G107" t="s">
         <v>267</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" t="s">
-        <v>265</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>268</v>
-      </c>
-      <c r="H107" t="s">
-        <v>269</v>
       </c>
       <c r="I107" s="5">
         <v>1</v>
@@ -5229,19 +5230,19 @@
     <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
       <c r="C108" t="s">
+        <v>269</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>264</v>
+      </c>
+      <c r="G108" t="s">
         <v>270</v>
       </c>
-      <c r="E108" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="H108" t="s">
         <v>265</v>
-      </c>
-      <c r="G108" t="s">
-        <v>271</v>
-      </c>
-      <c r="H108" t="s">
-        <v>266</v>
       </c>
       <c r="I108" s="5">
         <v>1</v>
@@ -5250,19 +5251,19 @@
     <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="8"/>
       <c r="C109" t="s">
+        <v>271</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" t="s">
         <v>272</v>
       </c>
-      <c r="E109" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>273</v>
       </c>
-      <c r="G109" t="s">
-        <v>274</v>
-      </c>
       <c r="H109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I109" s="5">
         <v>1</v>
@@ -5271,19 +5272,19 @@
     <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
       <c r="C110" t="s">
+        <v>274</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>272</v>
+      </c>
+      <c r="G110" t="s">
         <v>275</v>
       </c>
-      <c r="E110" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" t="s">
-        <v>273</v>
-      </c>
-      <c r="G110" t="s">
-        <v>276</v>
-      </c>
       <c r="H110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I110" s="5">
         <v>1</v>
@@ -5292,19 +5293,19 @@
     <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="8"/>
       <c r="C111" t="s">
+        <v>276</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
         <v>277</v>
       </c>
-      <c r="E111" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" t="s">
-        <v>278</v>
-      </c>
       <c r="G111" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I111" s="5">
         <v>1</v>
@@ -5313,19 +5314,19 @@
     <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="8"/>
       <c r="C112" t="s">
+        <v>278</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
         <v>279</v>
       </c>
-      <c r="E112" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>280</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>281</v>
-      </c>
-      <c r="H112" t="s">
-        <v>282</v>
       </c>
       <c r="I112" s="5">
         <v>1</v>
@@ -5334,19 +5335,19 @@
     <row r="113" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="8"/>
       <c r="C113" t="s">
+        <v>282</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>279</v>
+      </c>
+      <c r="G113" t="s">
         <v>283</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" t="s">
-        <v>280</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>284</v>
-      </c>
-      <c r="H113" t="s">
-        <v>285</v>
       </c>
       <c r="I113" s="5">
         <v>1</v>
@@ -5355,19 +5356,19 @@
     <row r="114" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="8"/>
       <c r="C114" t="s">
+        <v>285</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F114" t="s">
         <v>286</v>
       </c>
-      <c r="E114" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>287</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>288</v>
-      </c>
-      <c r="H114" t="s">
-        <v>289</v>
       </c>
       <c r="I114" s="5">
         <v>1</v>
@@ -5376,16 +5377,16 @@
     <row r="115" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="8"/>
       <c r="C115" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F115" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H115" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I115" s="5">
         <v>1</v>
@@ -5394,16 +5395,16 @@
     <row r="116" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="8"/>
       <c r="C116" t="s">
+        <v>290</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F116" t="s">
         <v>291</v>
       </c>
-      <c r="E116" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F116" t="s">
-        <v>292</v>
-      </c>
       <c r="G116" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I116" s="5">
         <v>1</v>
@@ -5412,19 +5413,19 @@
     <row r="117" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="8"/>
       <c r="C117" t="s">
+        <v>292</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F117" t="s">
         <v>293</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>294</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>295</v>
-      </c>
-      <c r="H117" t="s">
-        <v>296</v>
       </c>
       <c r="I117" s="5">
         <v>1</v>
@@ -5433,19 +5434,19 @@
     <row r="118" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="8"/>
       <c r="C118" t="s">
+        <v>296</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
         <v>297</v>
       </c>
-      <c r="E118" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" t="s">
-        <v>298</v>
-      </c>
       <c r="G118" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I118" s="5">
         <v>1</v>
@@ -5454,19 +5455,19 @@
     <row r="119" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="8"/>
       <c r="C119" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F119" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G119" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I119" s="5">
         <v>1</v>
@@ -5475,19 +5476,19 @@
     <row r="120" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="8"/>
       <c r="C120" t="s">
+        <v>299</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F120" t="s">
         <v>300</v>
       </c>
-      <c r="E120" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>301</v>
       </c>
-      <c r="G120" t="s">
-        <v>302</v>
-      </c>
       <c r="H120" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I120" s="5">
         <v>1</v>
@@ -5496,19 +5497,19 @@
     <row r="121" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="8"/>
       <c r="C121" t="s">
+        <v>302</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" t="s">
         <v>303</v>
       </c>
-      <c r="E121" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" t="s">
-        <v>304</v>
-      </c>
       <c r="G121" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I121" s="5">
         <v>1</v>
@@ -5517,16 +5518,16 @@
     <row r="122" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="8"/>
       <c r="C122" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F122" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H122" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I122" s="5">
         <v>1</v>
@@ -5535,19 +5536,19 @@
     <row r="123" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="8"/>
       <c r="C123" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F123" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G123" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I123" s="5">
         <v>1</v>
@@ -5556,19 +5557,19 @@
     <row r="124" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="8"/>
       <c r="C124" t="s">
+        <v>306</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F124" t="s">
         <v>307</v>
       </c>
-      <c r="E124" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>308</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>309</v>
-      </c>
-      <c r="H124" t="s">
-        <v>310</v>
       </c>
       <c r="I124" s="5">
         <v>1</v>
@@ -5577,19 +5578,19 @@
     <row r="125" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="8"/>
       <c r="C125" t="s">
+        <v>310</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
         <v>311</v>
       </c>
-      <c r="E125" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
+        <v>175</v>
+      </c>
+      <c r="H125" t="s">
         <v>312</v>
-      </c>
-      <c r="G125" t="s">
-        <v>176</v>
-      </c>
-      <c r="H125" t="s">
-        <v>313</v>
       </c>
       <c r="I125" s="5">
         <v>1</v>
@@ -5598,19 +5599,19 @@
     <row r="126" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="8"/>
       <c r="C126" t="s">
+        <v>313</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F126" t="s">
         <v>314</v>
       </c>
-      <c r="E126" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>315</v>
       </c>
-      <c r="G126" t="s">
-        <v>316</v>
-      </c>
       <c r="H126" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I126" s="5">
         <v>1</v>
@@ -5619,19 +5620,19 @@
     <row r="127" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="8"/>
       <c r="C127" t="s">
+        <v>316</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
         <v>317</v>
       </c>
-      <c r="E127" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>318</v>
       </c>
-      <c r="G127" t="s">
-        <v>319</v>
-      </c>
       <c r="H127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I127" s="5">
         <v>1</v>
@@ -5640,19 +5641,19 @@
     <row r="128" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="8"/>
       <c r="C128" t="s">
+        <v>319</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
+        <v>317</v>
+      </c>
+      <c r="G128" t="s">
         <v>320</v>
       </c>
-      <c r="E128" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F128" t="s">
-        <v>318</v>
-      </c>
-      <c r="G128" t="s">
-        <v>321</v>
-      </c>
       <c r="H128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I128" s="5">
         <v>1</v>
@@ -5661,19 +5662,19 @@
     <row r="129" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="8"/>
       <c r="C129" t="s">
+        <v>321</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
+        <v>317</v>
+      </c>
+      <c r="G129" t="s">
         <v>322</v>
       </c>
-      <c r="E129" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F129" t="s">
-        <v>318</v>
-      </c>
-      <c r="G129" t="s">
-        <v>323</v>
-      </c>
       <c r="H129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I129" s="5">
         <v>1</v>
@@ -5682,19 +5683,19 @@
     <row r="130" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="8"/>
       <c r="C130" t="s">
+        <v>323</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s">
         <v>324</v>
       </c>
-      <c r="E130" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>325</v>
       </c>
-      <c r="G130" t="s">
-        <v>326</v>
-      </c>
       <c r="H130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I130" s="5">
         <v>1</v>
@@ -5703,19 +5704,19 @@
     <row r="131" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="8"/>
       <c r="C131" t="s">
+        <v>326</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s">
         <v>327</v>
       </c>
-      <c r="E131" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>328</v>
       </c>
-      <c r="G131" t="s">
-        <v>329</v>
-      </c>
       <c r="H131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I131" s="5">
         <v>1</v>
@@ -5723,19 +5724,19 @@
     </row>
     <row r="132" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C132" t="s">
         <v>330</v>
       </c>
-      <c r="C132" t="s">
+      <c r="E132" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F132" t="s">
         <v>331</v>
       </c>
-      <c r="E132" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="H132" t="s">
         <v>332</v>
-      </c>
-      <c r="H132" t="s">
-        <v>333</v>
       </c>
       <c r="I132" s="5">
         <v>1</v>
@@ -5744,19 +5745,19 @@
     <row r="133" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="8"/>
       <c r="C133" t="s">
+        <v>333</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F133" t="s">
+        <v>331</v>
+      </c>
+      <c r="G133" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E133" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F133" t="s">
+      <c r="H133" t="s">
         <v>332</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="H133" t="s">
-        <v>333</v>
       </c>
       <c r="I133" s="5">
         <v>1</v>
@@ -5765,19 +5766,19 @@
     <row r="134" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="8"/>
       <c r="C134" t="s">
+        <v>335</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F134" t="s">
         <v>336</v>
       </c>
-      <c r="E134" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>337</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>338</v>
-      </c>
-      <c r="H134" t="s">
-        <v>339</v>
       </c>
       <c r="I134" s="5">
         <v>1</v>
@@ -5786,19 +5787,19 @@
     <row r="135" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="8"/>
       <c r="C135" t="s">
+        <v>339</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F135" t="s">
         <v>340</v>
       </c>
-      <c r="E135" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>341</v>
       </c>
-      <c r="G135" t="s">
-        <v>342</v>
-      </c>
       <c r="H135" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I135" s="5">
         <v>1</v>
@@ -5807,19 +5808,19 @@
     <row r="136" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="8"/>
       <c r="C136" t="s">
+        <v>342</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
         <v>343</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>344</v>
       </c>
-      <c r="G136" t="s">
-        <v>345</v>
-      </c>
       <c r="H136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I136" s="5">
         <v>1</v>
@@ -5828,19 +5829,19 @@
     <row r="137" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="8"/>
       <c r="C137" t="s">
+        <v>345</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" t="s">
         <v>346</v>
       </c>
-      <c r="E137" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
         <v>347</v>
       </c>
-      <c r="G137" t="s">
-        <v>348</v>
-      </c>
       <c r="H137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I137" s="5">
         <v>1</v>
@@ -5849,19 +5850,19 @@
     <row r="138" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="8"/>
       <c r="C138" t="s">
+        <v>348</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" t="s">
         <v>349</v>
       </c>
-      <c r="E138" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F138" t="s">
-        <v>350</v>
-      </c>
       <c r="G138" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I138" s="5">
         <v>1</v>
@@ -5870,19 +5871,19 @@
     <row r="139" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="8"/>
       <c r="C139" t="s">
+        <v>350</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" t="s">
         <v>351</v>
       </c>
-      <c r="E139" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F139" t="s">
-        <v>352</v>
-      </c>
       <c r="G139" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I139" s="5">
         <v>1</v>
@@ -5891,19 +5892,19 @@
     <row r="140" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="8"/>
       <c r="C140" t="s">
+        <v>352</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" t="s">
         <v>353</v>
       </c>
-      <c r="E140" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F140" t="s">
+      <c r="G140" t="s">
         <v>354</v>
       </c>
-      <c r="G140" t="s">
-        <v>355</v>
-      </c>
       <c r="H140" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I140" s="5">
         <v>1</v>
@@ -5912,19 +5913,19 @@
     <row r="141" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="8"/>
       <c r="C141" t="s">
+        <v>355</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
         <v>356</v>
       </c>
-      <c r="E141" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" t="s">
+      <c r="G141" t="s">
         <v>357</v>
       </c>
-      <c r="G141" t="s">
+      <c r="H141" t="s">
         <v>358</v>
-      </c>
-      <c r="H141" t="s">
-        <v>359</v>
       </c>
       <c r="I141" s="5">
         <v>1</v>
@@ -5933,19 +5934,19 @@
     <row r="142" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="8"/>
       <c r="C142" t="s">
+        <v>359</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
         <v>360</v>
       </c>
-      <c r="E142" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>361</v>
       </c>
-      <c r="G142" t="s">
-        <v>362</v>
-      </c>
       <c r="H142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I142" s="5">
         <v>1</v>
@@ -5954,19 +5955,19 @@
     <row r="143" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="8"/>
       <c r="C143" t="s">
+        <v>362</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
         <v>363</v>
       </c>
-      <c r="E143" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F143" t="s">
+      <c r="G143" t="s">
         <v>364</v>
       </c>
-      <c r="G143" t="s">
-        <v>365</v>
-      </c>
       <c r="H143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I143" s="5">
         <v>1</v>
@@ -5975,19 +5976,19 @@
     <row r="144" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="8"/>
       <c r="C144" t="s">
+        <v>365</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
         <v>366</v>
       </c>
-      <c r="E144" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>367</v>
       </c>
-      <c r="G144" t="s">
-        <v>368</v>
-      </c>
       <c r="H144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I144" s="5">
         <v>1</v>
@@ -5996,19 +5997,19 @@
     <row r="145" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="8"/>
       <c r="C145" t="s">
+        <v>368</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
         <v>369</v>
       </c>
-      <c r="E145" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>370</v>
       </c>
-      <c r="G145" t="s">
-        <v>371</v>
-      </c>
       <c r="H145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I145" s="5">
         <v>1</v>
@@ -6017,19 +6018,19 @@
     <row r="146" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="8"/>
       <c r="C146" t="s">
+        <v>371</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
         <v>372</v>
       </c>
-      <c r="E146" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>373</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>374</v>
-      </c>
-      <c r="H146" t="s">
-        <v>375</v>
       </c>
       <c r="I146" s="5">
         <v>1</v>
@@ -6038,19 +6039,19 @@
     <row r="147" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="8"/>
       <c r="C147" t="s">
+        <v>375</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
         <v>376</v>
       </c>
-      <c r="E147" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F147" t="s">
+      <c r="G147" t="s">
         <v>377</v>
       </c>
-      <c r="G147" t="s">
+      <c r="H147" t="s">
         <v>378</v>
-      </c>
-      <c r="H147" t="s">
-        <v>379</v>
       </c>
       <c r="I147" s="5">
         <v>1</v>
@@ -6059,19 +6060,19 @@
     <row r="148" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="8"/>
       <c r="C148" t="s">
+        <v>379</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" t="s">
+        <v>376</v>
+      </c>
+      <c r="G148" t="s">
         <v>380</v>
       </c>
-      <c r="E148" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F148" t="s">
-        <v>377</v>
-      </c>
-      <c r="G148" t="s">
+      <c r="H148" t="s">
         <v>381</v>
-      </c>
-      <c r="H148" t="s">
-        <v>382</v>
       </c>
       <c r="I148" s="5">
         <v>1</v>
@@ -6080,19 +6081,19 @@
     <row r="149" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="8"/>
       <c r="C149" t="s">
+        <v>382</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s">
+        <v>376</v>
+      </c>
+      <c r="G149" t="s">
         <v>383</v>
       </c>
-      <c r="E149" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F149" t="s">
-        <v>377</v>
-      </c>
-      <c r="G149" t="s">
+      <c r="H149" t="s">
         <v>384</v>
-      </c>
-      <c r="H149" t="s">
-        <v>385</v>
       </c>
       <c r="I149" s="5">
         <v>1</v>
@@ -6101,19 +6102,19 @@
     <row r="150" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="8"/>
       <c r="C150" t="s">
+        <v>385</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>376</v>
+      </c>
+      <c r="G150" t="s">
         <v>386</v>
       </c>
-      <c r="E150" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F150" t="s">
-        <v>377</v>
-      </c>
-      <c r="G150" t="s">
+      <c r="H150" t="s">
         <v>387</v>
-      </c>
-      <c r="H150" t="s">
-        <v>388</v>
       </c>
       <c r="I150" s="5">
         <v>1</v>
@@ -6122,19 +6123,19 @@
     <row r="151" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="8"/>
       <c r="C151" t="s">
+        <v>388</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" t="s">
+        <v>376</v>
+      </c>
+      <c r="G151" t="s">
         <v>389</v>
       </c>
-      <c r="E151" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F151" t="s">
-        <v>377</v>
-      </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>390</v>
-      </c>
-      <c r="H151" t="s">
-        <v>391</v>
       </c>
       <c r="I151" s="5">
         <v>1</v>
@@ -6143,16 +6144,16 @@
     <row r="152" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="8"/>
       <c r="C152" t="s">
+        <v>391</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
+        <v>376</v>
+      </c>
+      <c r="G152" t="s">
         <v>392</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F152" t="s">
-        <v>377</v>
-      </c>
-      <c r="G152" t="s">
-        <v>393</v>
       </c>
       <c r="I152" s="5">
         <v>1</v>
@@ -6161,19 +6162,19 @@
     <row r="153" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="8"/>
       <c r="C153" t="s">
+        <v>393</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" t="s">
         <v>394</v>
       </c>
-      <c r="E153" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F153" t="s">
+      <c r="G153" t="s">
         <v>395</v>
       </c>
-      <c r="G153" t="s">
-        <v>396</v>
-      </c>
       <c r="H153" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I153" s="5">
         <v>1</v>
@@ -6182,19 +6183,19 @@
     <row r="154" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="8"/>
       <c r="C154" t="s">
+        <v>396</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" t="s">
+        <v>394</v>
+      </c>
+      <c r="G154" t="s">
         <v>397</v>
       </c>
-      <c r="E154" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F154" t="s">
-        <v>395</v>
-      </c>
-      <c r="G154" t="s">
-        <v>398</v>
-      </c>
       <c r="H154" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I154" s="5">
         <v>1</v>
@@ -6203,19 +6204,19 @@
     <row r="155" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="8"/>
       <c r="C155" t="s">
+        <v>398</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" t="s">
+        <v>394</v>
+      </c>
+      <c r="G155" t="s">
         <v>399</v>
       </c>
-      <c r="E155" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" t="s">
-        <v>395</v>
-      </c>
-      <c r="G155" t="s">
-        <v>400</v>
-      </c>
       <c r="H155" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I155" s="5">
         <v>1</v>
@@ -6224,16 +6225,16 @@
     <row r="156" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="8"/>
       <c r="C156" t="s">
+        <v>400</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s">
+        <v>394</v>
+      </c>
+      <c r="G156" t="s">
         <v>401</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F156" t="s">
-        <v>395</v>
-      </c>
-      <c r="G156" t="s">
-        <v>402</v>
       </c>
       <c r="I156" s="5">
         <v>1</v>
@@ -6242,19 +6243,19 @@
     <row r="157" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="8"/>
       <c r="C157" t="s">
+        <v>402</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" t="s">
         <v>403</v>
       </c>
-      <c r="E157" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F157" t="s">
+      <c r="G157" t="s">
         <v>404</v>
       </c>
-      <c r="G157" t="s">
-        <v>405</v>
-      </c>
       <c r="H157" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I157" s="5">
         <v>1</v>
@@ -6263,19 +6264,19 @@
     <row r="158" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="8"/>
       <c r="C158" t="s">
+        <v>405</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s">
+        <v>403</v>
+      </c>
+      <c r="G158" t="s">
         <v>406</v>
       </c>
-      <c r="E158" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F158" t="s">
-        <v>404</v>
-      </c>
-      <c r="G158" t="s">
-        <v>407</v>
-      </c>
       <c r="H158" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I158" s="5">
         <v>1</v>
@@ -6284,19 +6285,19 @@
     <row r="159" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="8"/>
       <c r="C159" t="s">
+        <v>407</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>403</v>
+      </c>
+      <c r="G159" t="s">
         <v>408</v>
       </c>
-      <c r="E159" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F159" t="s">
-        <v>404</v>
-      </c>
-      <c r="G159" t="s">
-        <v>409</v>
-      </c>
       <c r="H159" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I159" s="5">
         <v>1</v>
@@ -6305,16 +6306,16 @@
     <row r="160" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="8"/>
       <c r="C160" t="s">
+        <v>409</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
+        <v>403</v>
+      </c>
+      <c r="G160" t="s">
         <v>410</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F160" t="s">
-        <v>404</v>
-      </c>
-      <c r="G160" t="s">
-        <v>411</v>
       </c>
       <c r="I160" s="5">
         <v>1</v>
@@ -6323,19 +6324,19 @@
     <row r="161" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="8"/>
       <c r="C161" t="s">
+        <v>411</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" t="s">
         <v>412</v>
       </c>
-      <c r="E161" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F161" t="s">
+      <c r="G161" t="s">
         <v>413</v>
       </c>
-      <c r="G161" t="s">
-        <v>414</v>
-      </c>
       <c r="H161" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I161" s="5">
         <v>1</v>
@@ -6344,19 +6345,19 @@
     <row r="162" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="8"/>
       <c r="C162" t="s">
+        <v>414</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s">
+        <v>412</v>
+      </c>
+      <c r="G162" t="s">
         <v>415</v>
       </c>
-      <c r="E162" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F162" t="s">
-        <v>413</v>
-      </c>
-      <c r="G162" t="s">
-        <v>416</v>
-      </c>
       <c r="H162" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I162" s="5">
         <v>1</v>
@@ -6365,19 +6366,19 @@
     <row r="163" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="8"/>
       <c r="C163" t="s">
+        <v>416</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" t="s">
+        <v>412</v>
+      </c>
+      <c r="G163" t="s">
         <v>417</v>
       </c>
-      <c r="E163" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F163" t="s">
-        <v>413</v>
-      </c>
-      <c r="G163" t="s">
-        <v>418</v>
-      </c>
       <c r="H163" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I163" s="5">
         <v>1</v>
@@ -6386,16 +6387,16 @@
     <row r="164" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="8"/>
       <c r="C164" t="s">
+        <v>418</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s">
+        <v>412</v>
+      </c>
+      <c r="G164" t="s">
         <v>419</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F164" t="s">
-        <v>413</v>
-      </c>
-      <c r="G164" t="s">
-        <v>420</v>
       </c>
       <c r="I164" s="5">
         <v>1</v>
@@ -6404,19 +6405,19 @@
     <row r="165" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="8"/>
       <c r="C165" t="s">
+        <v>420</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
         <v>421</v>
       </c>
-      <c r="E165" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" t="s">
+      <c r="G165" t="s">
         <v>422</v>
       </c>
-      <c r="G165" t="s">
-        <v>423</v>
-      </c>
       <c r="H165" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I165" s="5">
         <v>1</v>
@@ -6425,19 +6426,19 @@
     <row r="166" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="8"/>
       <c r="C166" t="s">
+        <v>423</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
+        <v>421</v>
+      </c>
+      <c r="G166" t="s">
         <v>424</v>
       </c>
-      <c r="E166" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F166" t="s">
-        <v>422</v>
-      </c>
-      <c r="G166" t="s">
-        <v>425</v>
-      </c>
       <c r="H166" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I166" s="5">
         <v>1</v>
@@ -6446,19 +6447,19 @@
     <row r="167" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="8"/>
       <c r="C167" t="s">
+        <v>425</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
+        <v>421</v>
+      </c>
+      <c r="G167" t="s">
         <v>426</v>
       </c>
-      <c r="E167" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F167" t="s">
-        <v>422</v>
-      </c>
-      <c r="G167" t="s">
-        <v>427</v>
-      </c>
       <c r="H167" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I167" s="5">
         <v>1</v>
@@ -6467,16 +6468,16 @@
     <row r="168" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="8"/>
       <c r="C168" t="s">
+        <v>427</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" t="s">
+        <v>421</v>
+      </c>
+      <c r="G168" t="s">
         <v>428</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F168" t="s">
-        <v>422</v>
-      </c>
-      <c r="G168" t="s">
-        <v>429</v>
       </c>
       <c r="I168" s="5">
         <v>1</v>
@@ -6485,19 +6486,19 @@
     <row r="169" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="8"/>
       <c r="C169" t="s">
+        <v>429</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s">
         <v>430</v>
       </c>
-      <c r="E169" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F169" t="s">
+      <c r="G169" t="s">
         <v>431</v>
       </c>
-      <c r="G169" t="s">
-        <v>432</v>
-      </c>
       <c r="H169" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I169" s="5">
         <v>1</v>
@@ -6506,19 +6507,19 @@
     <row r="170" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="8"/>
       <c r="C170" t="s">
+        <v>432</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" t="s">
+        <v>430</v>
+      </c>
+      <c r="G170" t="s">
         <v>433</v>
       </c>
-      <c r="E170" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F170" t="s">
-        <v>431</v>
-      </c>
-      <c r="G170" t="s">
-        <v>434</v>
-      </c>
       <c r="H170" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I170" s="5">
         <v>1</v>
@@ -6527,19 +6528,19 @@
     <row r="171" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="8"/>
       <c r="C171" t="s">
+        <v>434</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" t="s">
+        <v>430</v>
+      </c>
+      <c r="G171" t="s">
         <v>435</v>
       </c>
-      <c r="E171" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F171" t="s">
-        <v>431</v>
-      </c>
-      <c r="G171" t="s">
-        <v>436</v>
-      </c>
       <c r="H171" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I171" s="5">
         <v>1</v>
@@ -6548,16 +6549,16 @@
     <row r="172" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="8"/>
       <c r="C172" t="s">
+        <v>436</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" t="s">
+        <v>430</v>
+      </c>
+      <c r="G172" t="s">
         <v>437</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F172" t="s">
-        <v>431</v>
-      </c>
-      <c r="G172" t="s">
-        <v>438</v>
       </c>
       <c r="I172" s="5">
         <v>1</v>
@@ -6566,19 +6567,19 @@
     <row r="173" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="8"/>
       <c r="C173" t="s">
+        <v>438</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" t="s">
         <v>439</v>
       </c>
-      <c r="E173" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F173" t="s">
+      <c r="G173" t="s">
         <v>440</v>
       </c>
-      <c r="G173" t="s">
-        <v>441</v>
-      </c>
       <c r="H173" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I173" s="5">
         <v>1</v>
@@ -6587,19 +6588,19 @@
     <row r="174" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="8"/>
       <c r="C174" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F174" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G174" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H174" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I174" s="5">
         <v>1</v>
@@ -6608,19 +6609,19 @@
     <row r="175" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="8"/>
       <c r="C175" t="s">
+        <v>442</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" t="s">
+        <v>439</v>
+      </c>
+      <c r="G175" t="s">
         <v>443</v>
       </c>
-      <c r="E175" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F175" t="s">
-        <v>440</v>
-      </c>
-      <c r="G175" t="s">
-        <v>444</v>
-      </c>
       <c r="H175" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I175" s="5">
         <v>1</v>
@@ -6629,16 +6630,16 @@
     <row r="176" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="8"/>
       <c r="C176" t="s">
+        <v>444</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" t="s">
+        <v>439</v>
+      </c>
+      <c r="G176" t="s">
         <v>445</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F176" t="s">
-        <v>440</v>
-      </c>
-      <c r="G176" t="s">
-        <v>446</v>
       </c>
       <c r="I176" s="5">
         <v>1</v>
@@ -6647,16 +6648,16 @@
     <row r="177" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="8"/>
       <c r="C177" t="s">
+        <v>446</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s">
         <v>447</v>
       </c>
-      <c r="E177" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F177" t="s">
+      <c r="H177" t="s">
         <v>448</v>
-      </c>
-      <c r="H177" t="s">
-        <v>449</v>
       </c>
       <c r="I177" s="5">
         <v>1</v>
@@ -6665,19 +6666,19 @@
     <row r="178" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="8"/>
       <c r="C178" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F178" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G178" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H178" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I178" s="5">
         <v>1</v>
@@ -6686,19 +6687,19 @@
     <row r="179" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="8"/>
       <c r="C179" t="s">
+        <v>450</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s">
+        <v>447</v>
+      </c>
+      <c r="G179" t="s">
         <v>451</v>
       </c>
-      <c r="E179" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F179" t="s">
-        <v>448</v>
-      </c>
-      <c r="G179" t="s">
+      <c r="H179" t="s">
         <v>452</v>
-      </c>
-      <c r="H179" t="s">
-        <v>453</v>
       </c>
       <c r="I179" s="5">
         <v>1</v>
@@ -6707,19 +6708,19 @@
     <row r="180" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="8"/>
       <c r="C180" t="s">
+        <v>453</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F180" t="s">
         <v>454</v>
       </c>
-      <c r="E180" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F180" t="s">
+      <c r="G180" t="s">
         <v>455</v>
       </c>
-      <c r="G180" t="s">
+      <c r="H180" t="s">
         <v>456</v>
-      </c>
-      <c r="H180" t="s">
-        <v>457</v>
       </c>
       <c r="I180" s="5">
         <v>1</v>
@@ -6728,19 +6729,19 @@
     <row r="181" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="8"/>
       <c r="C181" t="s">
+        <v>457</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" t="s">
         <v>458</v>
       </c>
-      <c r="E181" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F181" t="s">
-        <v>459</v>
-      </c>
       <c r="G181" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H181" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I181" s="5">
         <v>1</v>
@@ -6749,19 +6750,19 @@
     <row r="182" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="8"/>
       <c r="C182" t="s">
+        <v>459</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" t="s">
         <v>460</v>
       </c>
-      <c r="E182" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F182" t="s">
+      <c r="G182" t="s">
         <v>461</v>
       </c>
-      <c r="G182" t="s">
-        <v>462</v>
-      </c>
       <c r="H182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I182" s="5">
         <v>1</v>
@@ -6770,19 +6771,19 @@
     <row r="183" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="8"/>
       <c r="C183" t="s">
+        <v>459</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" t="s">
         <v>460</v>
       </c>
-      <c r="E183" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F183" t="s">
-        <v>461</v>
-      </c>
       <c r="G183" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H183" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I183" s="5">
         <v>1</v>
@@ -6791,19 +6792,19 @@
     <row r="184" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="8"/>
       <c r="C184" t="s">
+        <v>463</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" t="s">
+        <v>460</v>
+      </c>
+      <c r="G184" t="s">
         <v>464</v>
       </c>
-      <c r="E184" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F184" t="s">
-        <v>461</v>
-      </c>
-      <c r="G184" t="s">
-        <v>465</v>
-      </c>
       <c r="H184" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I184" s="5">
         <v>1</v>
@@ -6812,19 +6813,19 @@
     <row r="185" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="8"/>
       <c r="C185" t="s">
+        <v>465</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F185" t="s">
         <v>466</v>
       </c>
-      <c r="E185" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F185" t="s">
-        <v>467</v>
-      </c>
       <c r="G185" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H185" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I185" s="5">
         <v>1</v>
@@ -6833,19 +6834,19 @@
     <row r="186" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="8"/>
       <c r="C186" t="s">
+        <v>467</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" t="s">
         <v>468</v>
       </c>
-      <c r="E186" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F186" t="s">
+      <c r="G186" t="s">
         <v>469</v>
       </c>
-      <c r="G186" t="s">
-        <v>470</v>
-      </c>
       <c r="H186" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I186" s="5">
         <v>1</v>
@@ -6854,19 +6855,19 @@
     <row r="187" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="8"/>
       <c r="C187" t="s">
+        <v>470</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F187" t="s">
         <v>471</v>
       </c>
-      <c r="E187" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F187" t="s">
+      <c r="G187" t="s">
         <v>472</v>
       </c>
-      <c r="G187" t="s">
-        <v>473</v>
-      </c>
       <c r="H187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I187" s="5">
         <v>1</v>
@@ -6875,19 +6876,19 @@
     <row r="188" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="8"/>
       <c r="C188" t="s">
+        <v>473</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F188" t="s">
         <v>474</v>
       </c>
-      <c r="E188" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F188" t="s">
+      <c r="G188" t="s">
         <v>475</v>
       </c>
-      <c r="G188" t="s">
-        <v>476</v>
-      </c>
       <c r="H188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I188" s="5">
         <v>1</v>
@@ -6896,19 +6897,19 @@
     <row r="189" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="8"/>
       <c r="C189" t="s">
+        <v>476</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189" t="s">
         <v>477</v>
       </c>
-      <c r="E189" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F189" t="s">
+      <c r="G189" t="s">
         <v>478</v>
       </c>
-      <c r="G189" t="s">
+      <c r="H189" t="s">
         <v>479</v>
-      </c>
-      <c r="H189" t="s">
-        <v>480</v>
       </c>
       <c r="I189" s="5">
         <v>1</v>
@@ -6917,19 +6918,19 @@
     <row r="190" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="8"/>
       <c r="C190" t="s">
+        <v>480</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" t="s">
+        <v>477</v>
+      </c>
+      <c r="G190" t="s">
         <v>481</v>
       </c>
-      <c r="E190" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F190" t="s">
-        <v>478</v>
-      </c>
-      <c r="G190" t="s">
+      <c r="H190" t="s">
         <v>482</v>
-      </c>
-      <c r="H190" t="s">
-        <v>483</v>
       </c>
       <c r="I190" s="5">
         <v>1</v>
@@ -6938,19 +6939,19 @@
     <row r="191" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="8"/>
       <c r="C191" t="s">
+        <v>483</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" t="s">
         <v>484</v>
       </c>
-      <c r="E191" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F191" t="s">
+      <c r="G191" t="s">
         <v>485</v>
       </c>
-      <c r="G191" t="s">
-        <v>486</v>
-      </c>
       <c r="H191" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I191" s="5">
         <v>1</v>
@@ -6959,19 +6960,19 @@
     <row r="192" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="8"/>
       <c r="C192" t="s">
+        <v>371</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" t="s">
         <v>372</v>
       </c>
-      <c r="E192" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F192" t="s">
-        <v>373</v>
-      </c>
       <c r="G192" t="s">
+        <v>486</v>
+      </c>
+      <c r="H192" t="s">
         <v>487</v>
-      </c>
-      <c r="H192" t="s">
-        <v>488</v>
       </c>
       <c r="I192" s="5">
         <v>1</v>
@@ -6980,19 +6981,19 @@
     <row r="193" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="8"/>
       <c r="C193" t="s">
+        <v>488</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" t="s">
         <v>489</v>
       </c>
-      <c r="E193" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F193" t="s">
+      <c r="G193" t="s">
         <v>490</v>
       </c>
-      <c r="G193" t="s">
-        <v>491</v>
-      </c>
       <c r="H193" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I193" s="5">
         <v>1</v>
@@ -7001,19 +7002,19 @@
     <row r="194" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="8"/>
       <c r="C194" t="s">
+        <v>491</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194" t="s">
         <v>492</v>
       </c>
-      <c r="E194" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F194" t="s">
+      <c r="G194" t="s">
+        <v>490</v>
+      </c>
+      <c r="H194" t="s">
         <v>493</v>
-      </c>
-      <c r="G194" t="s">
-        <v>491</v>
-      </c>
-      <c r="H194" t="s">
-        <v>494</v>
       </c>
       <c r="I194" s="5">
         <v>1</v>
@@ -7022,19 +7023,19 @@
     <row r="195" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="8"/>
       <c r="C195" t="s">
+        <v>494</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195" t="s">
+        <v>492</v>
+      </c>
+      <c r="G195" t="s">
         <v>495</v>
       </c>
-      <c r="E195" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F195" t="s">
-        <v>493</v>
-      </c>
-      <c r="G195" t="s">
-        <v>496</v>
-      </c>
       <c r="H195" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I195" s="5">
         <v>1</v>
@@ -7043,19 +7044,19 @@
     <row r="196" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="8"/>
       <c r="C196" t="s">
+        <v>496</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196" t="s">
+        <v>492</v>
+      </c>
+      <c r="G196" t="s">
         <v>497</v>
       </c>
-      <c r="E196" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F196" t="s">
-        <v>493</v>
-      </c>
-      <c r="G196" t="s">
+      <c r="H196" t="s">
         <v>498</v>
-      </c>
-      <c r="H196" t="s">
-        <v>499</v>
       </c>
       <c r="I196" s="5">
         <v>1</v>
@@ -7064,19 +7065,19 @@
     <row r="197" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="8"/>
       <c r="C197" t="s">
+        <v>499</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197" t="s">
+        <v>492</v>
+      </c>
+      <c r="G197" t="s">
+        <v>497</v>
+      </c>
+      <c r="H197" t="s">
         <v>500</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F197" t="s">
-        <v>493</v>
-      </c>
-      <c r="G197" t="s">
-        <v>498</v>
-      </c>
-      <c r="H197" t="s">
-        <v>501</v>
       </c>
       <c r="I197" s="5">
         <v>1</v>
@@ -7085,19 +7086,19 @@
     <row r="198" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="8"/>
       <c r="C198" t="s">
+        <v>501</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" t="s">
         <v>502</v>
       </c>
-      <c r="E198" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F198" t="s">
+      <c r="G198" t="s">
         <v>503</v>
       </c>
-      <c r="G198" t="s">
+      <c r="H198" t="s">
         <v>504</v>
-      </c>
-      <c r="H198" t="s">
-        <v>505</v>
       </c>
       <c r="I198" s="5">
         <v>1</v>
@@ -7106,19 +7107,19 @@
     <row r="199" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="8"/>
       <c r="C199" t="s">
+        <v>505</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" t="s">
+        <v>502</v>
+      </c>
+      <c r="G199" t="s">
         <v>506</v>
       </c>
-      <c r="E199" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F199" t="s">
-        <v>503</v>
-      </c>
-      <c r="G199" t="s">
-        <v>507</v>
-      </c>
       <c r="H199" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I199" s="5">
         <v>1</v>
@@ -7127,19 +7128,19 @@
     <row r="200" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="8"/>
       <c r="C200" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F200" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G200" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H200" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I200" s="5">
         <v>1</v>
@@ -7148,19 +7149,19 @@
     <row r="201" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="8"/>
       <c r="C201" t="s">
+        <v>508</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201" t="s">
         <v>509</v>
       </c>
-      <c r="E201" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F201" t="s">
+      <c r="G201" t="s">
         <v>510</v>
       </c>
-      <c r="G201" t="s">
+      <c r="H201" t="s">
         <v>511</v>
-      </c>
-      <c r="H201" t="s">
-        <v>512</v>
       </c>
       <c r="I201" s="5">
         <v>1</v>
@@ -7169,19 +7170,19 @@
     <row r="202" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="8"/>
       <c r="C202" t="s">
+        <v>512</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F202" t="s">
+        <v>509</v>
+      </c>
+      <c r="G202" t="s">
         <v>513</v>
       </c>
-      <c r="E202" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F202" t="s">
-        <v>510</v>
-      </c>
-      <c r="G202" t="s">
-        <v>514</v>
-      </c>
       <c r="H202" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I202" s="5">
         <v>1</v>
@@ -7190,19 +7191,19 @@
     <row r="203" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="8"/>
       <c r="C203" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F203" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G203" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H203" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I203" s="5">
         <v>1</v>
@@ -7211,16 +7212,16 @@
     <row r="204" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="8"/>
       <c r="C204" t="s">
+        <v>515</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F204" t="s">
         <v>516</v>
       </c>
-      <c r="E204" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F204" t="s">
+      <c r="H204" t="s">
         <v>517</v>
-      </c>
-      <c r="H204" t="s">
-        <v>518</v>
       </c>
       <c r="I204" s="5">
         <v>1</v>
@@ -7229,19 +7230,19 @@
     <row r="205" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="8"/>
       <c r="C205" t="s">
+        <v>518</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F205" t="s">
+        <v>516</v>
+      </c>
+      <c r="G205" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E205" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F205" t="s">
-        <v>517</v>
-      </c>
-      <c r="G205" s="6" t="s">
-        <v>520</v>
-      </c>
       <c r="H205" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I205" s="5">
         <v>1</v>
@@ -7250,19 +7251,19 @@
     <row r="206" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="8"/>
       <c r="C206" t="s">
+        <v>520</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F206" t="s">
+        <v>516</v>
+      </c>
+      <c r="G206" t="s">
         <v>521</v>
       </c>
-      <c r="E206" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F206" t="s">
-        <v>517</v>
-      </c>
-      <c r="G206" t="s">
-        <v>522</v>
-      </c>
       <c r="H206" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I206" s="5">
         <v>1</v>
@@ -7271,19 +7272,19 @@
     <row r="207" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="8"/>
       <c r="C207" t="s">
+        <v>522</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F207" t="s">
         <v>523</v>
       </c>
-      <c r="E207" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F207" t="s">
+      <c r="G207" t="s">
         <v>524</v>
       </c>
-      <c r="G207" t="s">
-        <v>525</v>
-      </c>
       <c r="H207" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I207" s="5">
         <v>1</v>
@@ -7292,19 +7293,19 @@
     <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="8"/>
       <c r="C208" t="s">
+        <v>525</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F208" t="s">
         <v>526</v>
       </c>
-      <c r="E208" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F208" t="s">
+      <c r="G208" t="s">
         <v>527</v>
       </c>
-      <c r="G208" t="s">
-        <v>528</v>
-      </c>
       <c r="H208" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I208" s="5">
         <v>1</v>
@@ -7313,19 +7314,19 @@
     <row r="209" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="8"/>
       <c r="C209" t="s">
+        <v>528</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F209" t="s">
         <v>529</v>
       </c>
-      <c r="E209" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F209" t="s">
+      <c r="G209" t="s">
         <v>530</v>
       </c>
-      <c r="G209" t="s">
-        <v>531</v>
-      </c>
       <c r="H209" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I209" s="5">
         <v>1</v>
@@ -7334,19 +7335,19 @@
     <row r="210" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="8"/>
       <c r="C210" t="s">
+        <v>531</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F210" t="s">
         <v>532</v>
       </c>
-      <c r="E210" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F210" t="s">
+      <c r="G210" t="s">
         <v>533</v>
       </c>
-      <c r="G210" t="s">
+      <c r="H210" t="s">
         <v>534</v>
-      </c>
-      <c r="H210" t="s">
-        <v>535</v>
       </c>
       <c r="I210" s="5">
         <v>1</v>
@@ -7355,19 +7356,19 @@
     <row r="211" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="8"/>
       <c r="C211" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E211" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F211" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G211" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H211" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I211" s="5">
         <v>1</v>
@@ -7376,19 +7377,19 @@
     <row r="212" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="8"/>
       <c r="C212" t="s">
+        <v>536</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F212" t="s">
         <v>537</v>
       </c>
-      <c r="E212" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F212" t="s">
+      <c r="G212" t="s">
+        <v>521</v>
+      </c>
+      <c r="H212" t="s">
         <v>538</v>
-      </c>
-      <c r="G212" t="s">
-        <v>522</v>
-      </c>
-      <c r="H212" t="s">
-        <v>539</v>
       </c>
       <c r="I212" s="5">
         <v>1</v>
@@ -7397,19 +7398,19 @@
     <row r="213" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="8"/>
       <c r="C213" t="s">
+        <v>539</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F213" t="s">
         <v>540</v>
       </c>
-      <c r="E213" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F213" t="s">
+      <c r="G213" t="s">
+        <v>524</v>
+      </c>
+      <c r="H213" t="s">
         <v>541</v>
-      </c>
-      <c r="G213" t="s">
-        <v>525</v>
-      </c>
-      <c r="H213" t="s">
-        <v>542</v>
       </c>
       <c r="I213" s="5">
         <v>1</v>
@@ -7418,19 +7419,19 @@
     <row r="214" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="8"/>
       <c r="C214" t="s">
+        <v>539</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F214" t="s">
         <v>540</v>
       </c>
-      <c r="E214" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F214" t="s">
-        <v>541</v>
-      </c>
       <c r="G214" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H214" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I214" s="5">
         <v>1</v>
@@ -7439,19 +7440,19 @@
     <row r="215" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="8"/>
       <c r="C215" t="s">
+        <v>543</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F215" t="s">
         <v>544</v>
       </c>
-      <c r="E215" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F215" t="s">
+      <c r="G215" t="s">
         <v>545</v>
       </c>
-      <c r="G215" t="s">
+      <c r="H215" t="s">
         <v>546</v>
-      </c>
-      <c r="H215" t="s">
-        <v>547</v>
       </c>
       <c r="I215" s="5">
         <v>1</v>
@@ -7460,19 +7461,19 @@
     <row r="216" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="8"/>
       <c r="C216" t="s">
+        <v>547</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F216" t="s">
         <v>548</v>
       </c>
-      <c r="E216" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F216" t="s">
-        <v>549</v>
-      </c>
       <c r="G216" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H216" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I216" s="5">
         <v>1</v>
@@ -7481,19 +7482,19 @@
     <row r="217" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="8"/>
       <c r="C217" t="s">
+        <v>549</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F217" t="s">
+        <v>548</v>
+      </c>
+      <c r="G217" t="s">
         <v>550</v>
       </c>
-      <c r="E217" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F217" t="s">
-        <v>549</v>
-      </c>
-      <c r="G217" t="s">
-        <v>551</v>
-      </c>
       <c r="H217" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I217" s="5">
         <v>1</v>
@@ -7502,19 +7503,19 @@
     <row r="218" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="8"/>
       <c r="C218" t="s">
+        <v>551</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F218" t="s">
         <v>552</v>
       </c>
-      <c r="E218" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F218" t="s">
+      <c r="G218" t="s">
         <v>553</v>
       </c>
-      <c r="G218" t="s">
-        <v>554</v>
-      </c>
       <c r="H218" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I218" s="5">
         <v>1</v>
@@ -7523,19 +7524,19 @@
     <row r="219" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="8"/>
       <c r="C219" t="s">
+        <v>554</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F219" t="s">
         <v>555</v>
       </c>
-      <c r="E219" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F219" t="s">
+      <c r="G219" t="s">
         <v>556</v>
       </c>
-      <c r="G219" t="s">
-        <v>557</v>
-      </c>
       <c r="H219" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I219" s="5">
         <v>1</v>
@@ -7544,19 +7545,19 @@
     <row r="220" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="8"/>
       <c r="C220" t="s">
+        <v>557</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F220" t="s">
         <v>558</v>
       </c>
-      <c r="E220" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F220" t="s">
+      <c r="G220" t="s">
         <v>559</v>
       </c>
-      <c r="G220" t="s">
+      <c r="H220" t="s">
         <v>560</v>
-      </c>
-      <c r="H220" t="s">
-        <v>561</v>
       </c>
       <c r="I220" s="5">
         <v>1</v>
@@ -7565,19 +7566,19 @@
     <row r="221" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="8"/>
       <c r="C221" t="s">
+        <v>561</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F221" t="s">
         <v>562</v>
       </c>
-      <c r="E221" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F221" t="s">
+      <c r="G221" t="s">
         <v>563</v>
       </c>
-      <c r="G221" t="s">
-        <v>564</v>
-      </c>
       <c r="H221" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I221" s="5">
         <v>1</v>
@@ -7586,19 +7587,19 @@
     <row r="222" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="8"/>
       <c r="C222" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F222" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G222" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H222" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I222" s="5">
         <v>1</v>
@@ -7607,19 +7608,19 @@
     <row r="223" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="8"/>
       <c r="C223" t="s">
+        <v>565</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F223" t="s">
+        <v>562</v>
+      </c>
+      <c r="G223" t="s">
         <v>566</v>
       </c>
-      <c r="E223" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F223" t="s">
-        <v>563</v>
-      </c>
-      <c r="G223" t="s">
-        <v>567</v>
-      </c>
       <c r="H223" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I223" s="5">
         <v>1</v>
@@ -7628,19 +7629,19 @@
     <row r="224" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="8"/>
       <c r="C224" t="s">
+        <v>567</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F224" t="s">
         <v>568</v>
       </c>
-      <c r="E224" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F224" t="s">
+      <c r="G224" t="s">
         <v>569</v>
       </c>
-      <c r="G224" t="s">
-        <v>570</v>
-      </c>
       <c r="H224" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I224" s="5">
         <v>1</v>
@@ -7649,19 +7650,19 @@
     <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="8"/>
       <c r="C225" t="s">
+        <v>570</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F225" t="s">
         <v>571</v>
       </c>
-      <c r="E225" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F225" t="s">
+      <c r="G225" t="s">
         <v>572</v>
       </c>
-      <c r="G225" t="s">
-        <v>573</v>
-      </c>
       <c r="H225" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I225" s="5">
         <v>1</v>
@@ -7670,19 +7671,19 @@
     <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="8"/>
       <c r="C226" t="s">
+        <v>573</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F226" t="s">
         <v>574</v>
       </c>
-      <c r="E226" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F226" t="s">
+      <c r="G226" t="s">
         <v>575</v>
       </c>
-      <c r="G226" t="s">
-        <v>576</v>
-      </c>
       <c r="H226" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I226" s="5">
         <v>1</v>
@@ -7691,19 +7692,19 @@
     <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="8"/>
       <c r="C227" t="s">
+        <v>576</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F227" t="s">
         <v>577</v>
       </c>
-      <c r="E227" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F227" t="s">
-        <v>578</v>
-      </c>
       <c r="G227" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H227" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I227" s="5">
         <v>1</v>
@@ -7712,19 +7713,19 @@
     <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="8"/>
       <c r="C228" t="s">
+        <v>578</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F228" t="s">
         <v>579</v>
       </c>
-      <c r="E228" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F228" t="s">
+      <c r="G228" t="s">
         <v>580</v>
       </c>
-      <c r="G228" t="s">
-        <v>581</v>
-      </c>
       <c r="H228" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I228" s="5">
         <v>1</v>
@@ -7733,19 +7734,19 @@
     <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="8"/>
       <c r="C229" t="s">
+        <v>581</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F229" t="s">
         <v>582</v>
       </c>
-      <c r="E229" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F229" t="s">
+      <c r="G229" t="s">
         <v>583</v>
       </c>
-      <c r="G229" t="s">
+      <c r="H229" t="s">
         <v>584</v>
-      </c>
-      <c r="H229" t="s">
-        <v>585</v>
       </c>
       <c r="I229" s="5">
         <v>1</v>
@@ -7753,22 +7754,22 @@
     </row>
     <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C230" t="s">
         <v>586</v>
       </c>
-      <c r="C230" t="s">
+      <c r="E230" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F230" t="s">
         <v>587</v>
       </c>
-      <c r="E230" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F230" t="s">
+      <c r="G230" t="s">
         <v>588</v>
       </c>
-      <c r="G230" t="s">
+      <c r="H230" t="s">
         <v>589</v>
-      </c>
-      <c r="H230" t="s">
-        <v>590</v>
       </c>
       <c r="I230" s="5">
         <v>1</v>
@@ -7777,19 +7778,19 @@
     <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="8"/>
       <c r="C231" t="s">
+        <v>590</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F231" t="s">
+        <v>587</v>
+      </c>
+      <c r="G231" t="s">
         <v>591</v>
       </c>
-      <c r="E231" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F231" t="s">
-        <v>588</v>
-      </c>
-      <c r="G231" t="s">
+      <c r="H231" t="s">
         <v>592</v>
-      </c>
-      <c r="H231" t="s">
-        <v>593</v>
       </c>
       <c r="I231" s="5">
         <v>1</v>
@@ -7798,19 +7799,19 @@
     <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="8"/>
       <c r="C232" t="s">
+        <v>593</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F232" t="s">
+        <v>587</v>
+      </c>
+      <c r="G232" t="s">
         <v>594</v>
       </c>
-      <c r="E232" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F232" t="s">
-        <v>588</v>
-      </c>
-      <c r="G232" t="s">
+      <c r="H232" t="s">
         <v>595</v>
-      </c>
-      <c r="H232" t="s">
-        <v>596</v>
       </c>
       <c r="I232" s="5">
         <v>1</v>
@@ -7819,19 +7820,19 @@
     <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="8"/>
       <c r="C233" t="s">
+        <v>596</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F233" t="s">
+        <v>587</v>
+      </c>
+      <c r="G233" t="s">
         <v>597</v>
       </c>
-      <c r="E233" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F233" t="s">
-        <v>588</v>
-      </c>
-      <c r="G233" t="s">
-        <v>598</v>
-      </c>
       <c r="H233" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I233" s="5">
         <v>1</v>
@@ -7840,19 +7841,19 @@
     <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="8"/>
       <c r="C234" t="s">
+        <v>598</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F234" t="s">
+        <v>587</v>
+      </c>
+      <c r="G234" t="s">
         <v>599</v>
       </c>
-      <c r="E234" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F234" t="s">
-        <v>588</v>
-      </c>
-      <c r="G234" t="s">
+      <c r="H234" t="s">
         <v>600</v>
-      </c>
-      <c r="H234" t="s">
-        <v>601</v>
       </c>
       <c r="I234" s="5">
         <v>1</v>
@@ -7861,19 +7862,19 @@
     <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="8"/>
       <c r="C235" t="s">
+        <v>601</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F235" t="s">
+        <v>587</v>
+      </c>
+      <c r="G235" t="s">
         <v>602</v>
       </c>
-      <c r="E235" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F235" t="s">
-        <v>588</v>
-      </c>
-      <c r="G235" t="s">
+      <c r="H235" t="s">
         <v>603</v>
-      </c>
-      <c r="H235" t="s">
-        <v>604</v>
       </c>
       <c r="I235" s="5">
         <v>1</v>
@@ -7882,19 +7883,19 @@
     <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="8"/>
       <c r="C236" t="s">
+        <v>604</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F236" t="s">
         <v>605</v>
       </c>
-      <c r="E236" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F236" t="s">
+      <c r="G236" t="s">
         <v>606</v>
       </c>
-      <c r="G236" t="s">
-        <v>607</v>
-      </c>
       <c r="H236" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I236" s="5">
         <v>1</v>
@@ -7903,19 +7904,19 @@
     <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="8"/>
       <c r="C237" t="s">
+        <v>607</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F237" t="s">
+        <v>605</v>
+      </c>
+      <c r="G237" t="s">
         <v>608</v>
       </c>
-      <c r="E237" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F237" t="s">
-        <v>606</v>
-      </c>
-      <c r="G237" t="s">
-        <v>609</v>
-      </c>
       <c r="H237" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I237" s="5">
         <v>1</v>
@@ -7924,19 +7925,19 @@
     <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="8"/>
       <c r="C238" t="s">
+        <v>609</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F238" t="s">
+        <v>605</v>
+      </c>
+      <c r="G238" t="s">
         <v>610</v>
       </c>
-      <c r="E238" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F238" t="s">
-        <v>606</v>
-      </c>
-      <c r="G238" t="s">
-        <v>611</v>
-      </c>
       <c r="H238" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I238" s="5">
         <v>1</v>
@@ -7945,19 +7946,19 @@
     <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="8"/>
       <c r="C239" t="s">
+        <v>611</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F239" t="s">
         <v>612</v>
       </c>
-      <c r="E239" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F239" t="s">
+      <c r="G239" t="s">
         <v>613</v>
       </c>
-      <c r="G239" t="s">
-        <v>614</v>
-      </c>
       <c r="H239" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I239" s="5">
         <v>1</v>
@@ -7966,19 +7967,19 @@
     <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="8"/>
       <c r="C240" t="s">
+        <v>614</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F240" t="s">
+        <v>612</v>
+      </c>
+      <c r="G240" t="s">
         <v>615</v>
       </c>
-      <c r="E240" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F240" t="s">
-        <v>613</v>
-      </c>
-      <c r="G240" t="s">
-        <v>616</v>
-      </c>
       <c r="H240" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I240" s="5">
         <v>1</v>
@@ -7987,19 +7988,19 @@
     <row r="241" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="8"/>
       <c r="C241" t="s">
+        <v>616</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F241" t="s">
+        <v>612</v>
+      </c>
+      <c r="G241" t="s">
         <v>617</v>
       </c>
-      <c r="E241" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F241" t="s">
-        <v>613</v>
-      </c>
-      <c r="G241" t="s">
-        <v>618</v>
-      </c>
       <c r="H241" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I241" s="5">
         <v>1</v>
@@ -8008,19 +8009,19 @@
     <row r="242" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="8"/>
       <c r="C242" t="s">
+        <v>618</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F242" t="s">
         <v>619</v>
       </c>
-      <c r="E242" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F242" t="s">
+      <c r="G242" t="s">
         <v>620</v>
       </c>
-      <c r="G242" t="s">
-        <v>621</v>
-      </c>
       <c r="H242" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I242" s="5">
         <v>1</v>
@@ -8029,19 +8030,19 @@
     <row r="243" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="8"/>
       <c r="C243" t="s">
+        <v>621</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F243" t="s">
+        <v>619</v>
+      </c>
+      <c r="G243" t="s">
         <v>622</v>
       </c>
-      <c r="E243" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F243" t="s">
-        <v>620</v>
-      </c>
-      <c r="G243" t="s">
-        <v>623</v>
-      </c>
       <c r="H243" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I243" s="5">
         <v>1</v>
@@ -8050,19 +8051,19 @@
     <row r="244" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="8"/>
       <c r="C244" t="s">
+        <v>623</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F244" t="s">
+        <v>619</v>
+      </c>
+      <c r="G244" t="s">
         <v>624</v>
       </c>
-      <c r="E244" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F244" t="s">
-        <v>620</v>
-      </c>
-      <c r="G244" t="s">
-        <v>625</v>
-      </c>
       <c r="H244" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I244" s="5">
         <v>1</v>
@@ -8071,19 +8072,19 @@
     <row r="245" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="8"/>
       <c r="C245" t="s">
+        <v>625</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F245" t="s">
         <v>626</v>
       </c>
-      <c r="E245" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F245" t="s">
+      <c r="G245" t="s">
         <v>627</v>
       </c>
-      <c r="G245" t="s">
-        <v>628</v>
-      </c>
       <c r="H245" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I245" s="5">
         <v>1</v>
@@ -8092,19 +8093,19 @@
     <row r="246" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="8"/>
       <c r="C246" t="s">
+        <v>628</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F246" t="s">
         <v>629</v>
       </c>
-      <c r="E246" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F246" t="s">
-        <v>630</v>
-      </c>
       <c r="G246" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H246" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I246" s="5">
         <v>1</v>
@@ -8113,19 +8114,19 @@
     <row r="247" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="8"/>
       <c r="C247" t="s">
+        <v>630</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F247" t="s">
         <v>631</v>
       </c>
-      <c r="E247" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F247" t="s">
+      <c r="G247" t="s">
         <v>632</v>
       </c>
-      <c r="G247" t="s">
-        <v>633</v>
-      </c>
       <c r="H247" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I247" s="5">
         <v>1</v>
@@ -8134,19 +8135,19 @@
     <row r="248" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="8"/>
       <c r="C248" t="s">
+        <v>633</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F248" t="s">
+        <v>631</v>
+      </c>
+      <c r="G248" t="s">
         <v>634</v>
       </c>
-      <c r="E248" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F248" t="s">
-        <v>632</v>
-      </c>
-      <c r="G248" t="s">
+      <c r="H248" t="s">
         <v>635</v>
-      </c>
-      <c r="H248" t="s">
-        <v>636</v>
       </c>
       <c r="I248" s="5">
         <v>1</v>
@@ -8155,19 +8156,19 @@
     <row r="249" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="8"/>
       <c r="C249" t="s">
+        <v>636</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F249" t="s">
         <v>637</v>
       </c>
-      <c r="E249" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F249" t="s">
+      <c r="G249" t="s">
         <v>638</v>
       </c>
-      <c r="G249" t="s">
-        <v>639</v>
-      </c>
       <c r="H249" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I249" s="5">
         <v>1</v>
@@ -8176,19 +8177,19 @@
     <row r="250" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="8"/>
       <c r="C250" t="s">
+        <v>639</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F250" t="s">
         <v>640</v>
       </c>
-      <c r="E250" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F250" t="s">
+      <c r="G250" t="s">
         <v>641</v>
       </c>
-      <c r="G250" t="s">
-        <v>642</v>
-      </c>
       <c r="H250" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I250" s="5">
         <v>1</v>
@@ -8197,19 +8198,19 @@
     <row r="251" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="8"/>
       <c r="C251" t="s">
+        <v>642</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F251" t="s">
+        <v>637</v>
+      </c>
+      <c r="G251" t="s">
         <v>643</v>
       </c>
-      <c r="E251" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F251" t="s">
-        <v>638</v>
-      </c>
-      <c r="G251" t="s">
+      <c r="H251" t="s">
         <v>644</v>
-      </c>
-      <c r="H251" t="s">
-        <v>645</v>
       </c>
       <c r="I251" s="5">
         <v>1</v>
@@ -8218,19 +8219,19 @@
     <row r="252" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="8"/>
       <c r="C252" t="s">
+        <v>645</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F252" t="s">
+        <v>637</v>
+      </c>
+      <c r="G252" t="s">
         <v>646</v>
       </c>
-      <c r="E252" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F252" t="s">
-        <v>638</v>
-      </c>
-      <c r="G252" t="s">
-        <v>647</v>
-      </c>
       <c r="H252" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I252" s="5">
         <v>1</v>
@@ -8239,19 +8240,19 @@
     <row r="253" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="8"/>
       <c r="C253" t="s">
+        <v>647</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F253" t="s">
+        <v>637</v>
+      </c>
+      <c r="G253" t="s">
         <v>648</v>
       </c>
-      <c r="E253" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F253" t="s">
-        <v>638</v>
-      </c>
-      <c r="G253" t="s">
+      <c r="H253" t="s">
         <v>649</v>
-      </c>
-      <c r="H253" t="s">
-        <v>650</v>
       </c>
       <c r="I253" s="5">
         <v>1</v>
@@ -8260,19 +8261,19 @@
     <row r="254" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="8"/>
       <c r="C254" t="s">
+        <v>650</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F254" t="s">
         <v>651</v>
       </c>
-      <c r="E254" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F254" t="s">
+      <c r="G254" t="s">
         <v>652</v>
       </c>
-      <c r="G254" t="s">
-        <v>653</v>
-      </c>
       <c r="H254" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I254" s="5">
         <v>1</v>
@@ -8281,19 +8282,19 @@
     <row r="255" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="8"/>
       <c r="C255" t="s">
+        <v>653</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F255" t="s">
+        <v>651</v>
+      </c>
+      <c r="G255" t="s">
         <v>654</v>
       </c>
-      <c r="E255" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F255" t="s">
-        <v>652</v>
-      </c>
-      <c r="G255" t="s">
+      <c r="H255" t="s">
         <v>655</v>
-      </c>
-      <c r="H255" t="s">
-        <v>656</v>
       </c>
       <c r="I255" s="5">
         <v>1</v>
@@ -8302,19 +8303,19 @@
     <row r="256" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="8"/>
       <c r="C256" t="s">
+        <v>656</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F256" t="s">
+        <v>651</v>
+      </c>
+      <c r="G256" t="s">
         <v>657</v>
       </c>
-      <c r="E256" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F256" t="s">
-        <v>652</v>
-      </c>
-      <c r="G256" t="s">
+      <c r="H256" t="s">
         <v>658</v>
-      </c>
-      <c r="H256" t="s">
-        <v>659</v>
       </c>
       <c r="I256" s="5">
         <v>1</v>
@@ -8323,19 +8324,19 @@
     <row r="257" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="8"/>
       <c r="C257" t="s">
+        <v>659</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F257" t="s">
+        <v>651</v>
+      </c>
+      <c r="G257" t="s">
         <v>660</v>
       </c>
-      <c r="E257" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F257" t="s">
-        <v>652</v>
-      </c>
-      <c r="G257" t="s">
-        <v>661</v>
-      </c>
       <c r="H257" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I257" s="5">
         <v>1</v>
@@ -8344,19 +8345,19 @@
     <row r="258" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="8"/>
       <c r="C258" t="s">
+        <v>661</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F258" t="s">
+        <v>651</v>
+      </c>
+      <c r="G258" t="s">
         <v>662</v>
       </c>
-      <c r="E258" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F258" t="s">
-        <v>652</v>
-      </c>
-      <c r="G258" t="s">
+      <c r="H258" t="s">
         <v>663</v>
-      </c>
-      <c r="H258" t="s">
-        <v>664</v>
       </c>
       <c r="I258" s="5">
         <v>1</v>
@@ -8365,19 +8366,19 @@
     <row r="259" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="8"/>
       <c r="C259" t="s">
+        <v>664</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F259" t="s">
+        <v>651</v>
+      </c>
+      <c r="G259" t="s">
         <v>665</v>
       </c>
-      <c r="E259" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F259" t="s">
-        <v>652</v>
-      </c>
-      <c r="G259" t="s">
-        <v>666</v>
-      </c>
       <c r="H259" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I259" s="5">
         <v>1</v>
@@ -8386,19 +8387,19 @@
     <row r="260" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="8"/>
       <c r="C260" t="s">
+        <v>666</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F260" t="s">
+        <v>651</v>
+      </c>
+      <c r="G260" t="s">
         <v>667</v>
       </c>
-      <c r="E260" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F260" t="s">
-        <v>652</v>
-      </c>
-      <c r="G260" t="s">
-        <v>668</v>
-      </c>
       <c r="H260" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I260" s="5">
         <v>1</v>
@@ -8407,19 +8408,19 @@
     <row r="261" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="8"/>
       <c r="C261" t="s">
+        <v>668</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F261" t="s">
+        <v>651</v>
+      </c>
+      <c r="G261" t="s">
         <v>669</v>
       </c>
-      <c r="E261" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F261" t="s">
-        <v>652</v>
-      </c>
-      <c r="G261" t="s">
-        <v>670</v>
-      </c>
       <c r="H261" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I261" s="5">
         <v>1</v>
@@ -8428,19 +8429,19 @@
     <row r="262" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="8"/>
       <c r="C262" t="s">
+        <v>670</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F262" t="s">
         <v>671</v>
       </c>
-      <c r="E262" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F262" t="s">
+      <c r="G262" t="s">
         <v>672</v>
       </c>
-      <c r="G262" t="s">
-        <v>673</v>
-      </c>
       <c r="H262" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I262" s="5">
         <v>1</v>
@@ -8449,19 +8450,19 @@
     <row r="263" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="8"/>
       <c r="C263" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E263" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F263" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G263" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H263" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I263" s="5">
         <v>1</v>
@@ -8470,19 +8471,19 @@
     <row r="264" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="8"/>
       <c r="C264" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E264" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F264" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G264" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H264" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I264" s="5">
         <v>1</v>
@@ -8491,19 +8492,19 @@
     <row r="265" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="8"/>
       <c r="C265" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E265" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F265" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G265" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H265" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I265" s="5">
         <v>1</v>
@@ -8512,19 +8513,19 @@
     <row r="266" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="8"/>
       <c r="C266" t="s">
+        <v>676</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F266" t="s">
+        <v>671</v>
+      </c>
+      <c r="G266" t="s">
         <v>677</v>
       </c>
-      <c r="E266" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F266" t="s">
-        <v>672</v>
-      </c>
-      <c r="G266" t="s">
-        <v>678</v>
-      </c>
       <c r="H266" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I266" s="5">
         <v>1</v>
@@ -8533,19 +8534,19 @@
     <row r="267" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="8"/>
       <c r="C267" t="s">
+        <v>678</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F267" t="s">
+        <v>671</v>
+      </c>
+      <c r="G267" t="s">
         <v>679</v>
       </c>
-      <c r="E267" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F267" t="s">
-        <v>672</v>
-      </c>
-      <c r="G267" t="s">
-        <v>680</v>
-      </c>
       <c r="H267" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I267" s="5">
         <v>1</v>
@@ -8554,19 +8555,19 @@
     <row r="268" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="8"/>
       <c r="C268" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E268" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F268" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G268" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H268" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I268" s="5">
         <v>1</v>
@@ -8575,16 +8576,16 @@
     <row r="269" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="8"/>
       <c r="C269" t="s">
+        <v>681</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F269" t="s">
+        <v>587</v>
+      </c>
+      <c r="H269" t="s">
         <v>682</v>
-      </c>
-      <c r="E269" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F269" t="s">
-        <v>588</v>
-      </c>
-      <c r="H269" t="s">
-        <v>683</v>
       </c>
       <c r="I269" s="5">
         <v>1</v>
@@ -8593,19 +8594,19 @@
     <row r="270" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="8"/>
       <c r="C270" t="s">
+        <v>683</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F270" t="s">
+        <v>671</v>
+      </c>
+      <c r="G270" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="E270" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F270" t="s">
-        <v>672</v>
-      </c>
-      <c r="G270" s="6" t="s">
-        <v>685</v>
-      </c>
       <c r="H270" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I270" s="5">
         <v>1</v>
@@ -8614,19 +8615,19 @@
     <row r="271" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="8"/>
       <c r="C271" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E271" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F271" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G271" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H271" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I271" s="5">
         <v>1</v>
@@ -8635,19 +8636,19 @@
     <row r="272" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="8"/>
       <c r="C272" t="s">
+        <v>686</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F272" t="s">
+        <v>637</v>
+      </c>
+      <c r="G272" t="s">
         <v>687</v>
       </c>
-      <c r="E272" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F272" t="s">
-        <v>638</v>
-      </c>
-      <c r="G272" t="s">
-        <v>688</v>
-      </c>
       <c r="H272" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I272" s="5">
         <v>1</v>
@@ -8656,19 +8657,19 @@
     <row r="273" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="8"/>
       <c r="C273" t="s">
+        <v>688</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F273" t="s">
         <v>689</v>
       </c>
-      <c r="E273" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F273" t="s">
-        <v>690</v>
-      </c>
       <c r="G273" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H273" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I273" s="5">
         <v>1</v>
@@ -8677,16 +8678,16 @@
     <row r="274" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="8"/>
       <c r="C274" t="s">
+        <v>690</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F274" t="s">
         <v>691</v>
       </c>
-      <c r="E274" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F274" t="s">
-        <v>692</v>
-      </c>
       <c r="H274" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I274" s="5">
         <v>1</v>
@@ -8695,19 +8696,19 @@
     <row r="275" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="8"/>
       <c r="C275" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F275" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G275" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H275" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I275" s="5">
         <v>1</v>
@@ -8716,19 +8717,19 @@
     <row r="276" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="8"/>
       <c r="C276" t="s">
+        <v>693</v>
+      </c>
+      <c r="E276" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F276" t="s">
         <v>694</v>
       </c>
-      <c r="E276" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F276" t="s">
+      <c r="G276" t="s">
         <v>695</v>
       </c>
-      <c r="G276" t="s">
-        <v>696</v>
-      </c>
       <c r="H276" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I276" s="5">
         <v>1</v>
@@ -8737,19 +8738,19 @@
     <row r="277" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="8"/>
       <c r="C277" t="s">
+        <v>696</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F277" t="s">
+        <v>587</v>
+      </c>
+      <c r="G277" t="s">
         <v>697</v>
       </c>
-      <c r="E277" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F277" t="s">
-        <v>588</v>
-      </c>
-      <c r="G277" t="s">
-        <v>698</v>
-      </c>
       <c r="H277" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I277" s="5">
         <v>1</v>
@@ -8758,16 +8759,16 @@
     <row r="278" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="8"/>
       <c r="C278" t="s">
+        <v>698</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F278" t="s">
         <v>699</v>
       </c>
-      <c r="E278" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F278" t="s">
-        <v>700</v>
-      </c>
       <c r="H278" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I278" s="5">
         <v>1</v>
@@ -8776,19 +8777,19 @@
     <row r="279" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="8"/>
       <c r="C279" t="s">
+        <v>700</v>
+      </c>
+      <c r="E279" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F279" t="s">
         <v>701</v>
       </c>
-      <c r="E279" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F279" t="s">
-        <v>702</v>
-      </c>
       <c r="G279" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H279" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I279" s="5">
         <v>1</v>
@@ -8797,19 +8798,19 @@
     <row r="280" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="8"/>
       <c r="C280" t="s">
+        <v>702</v>
+      </c>
+      <c r="E280" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F280" t="s">
         <v>703</v>
       </c>
-      <c r="E280" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F280" t="s">
+      <c r="G280" t="s">
         <v>704</v>
       </c>
-      <c r="G280" t="s">
-        <v>705</v>
-      </c>
       <c r="H280" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I280" s="5">
         <v>1</v>
@@ -8818,19 +8819,19 @@
     <row r="281" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="8"/>
       <c r="C281" t="s">
+        <v>705</v>
+      </c>
+      <c r="E281" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F281" t="s">
+        <v>699</v>
+      </c>
+      <c r="G281" t="s">
         <v>706</v>
       </c>
-      <c r="E281" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F281" t="s">
-        <v>700</v>
-      </c>
-      <c r="G281" t="s">
+      <c r="H281" t="s">
         <v>707</v>
-      </c>
-      <c r="H281" t="s">
-        <v>708</v>
       </c>
       <c r="I281" s="5">
         <v>1</v>
@@ -8839,19 +8840,19 @@
     <row r="282" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="8"/>
       <c r="C282" t="s">
+        <v>708</v>
+      </c>
+      <c r="E282" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F282" t="s">
         <v>709</v>
       </c>
-      <c r="E282" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F282" t="s">
+      <c r="G282" t="s">
         <v>710</v>
       </c>
-      <c r="G282" t="s">
-        <v>711</v>
-      </c>
       <c r="H282" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I282" s="5">
         <v>1</v>
@@ -8860,19 +8861,19 @@
     <row r="283" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="8"/>
       <c r="C283" t="s">
+        <v>711</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F283" t="s">
+        <v>709</v>
+      </c>
+      <c r="G283" t="s">
         <v>712</v>
       </c>
-      <c r="E283" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F283" t="s">
-        <v>710</v>
-      </c>
-      <c r="G283" t="s">
-        <v>713</v>
-      </c>
       <c r="H283" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I283" s="5">
         <v>1</v>
@@ -8881,19 +8882,19 @@
     <row r="284" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="8"/>
       <c r="C284" t="s">
+        <v>713</v>
+      </c>
+      <c r="E284" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F284" t="s">
+        <v>62</v>
+      </c>
+      <c r="G284" t="s">
         <v>714</v>
       </c>
-      <c r="E284" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F284" t="s">
-        <v>63</v>
-      </c>
-      <c r="G284" t="s">
-        <v>715</v>
-      </c>
       <c r="H284" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I284" s="5">
         <v>1</v>
@@ -8902,19 +8903,19 @@
     <row r="285" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="8"/>
       <c r="C285" t="s">
+        <v>715</v>
+      </c>
+      <c r="E285" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F285" t="s">
+        <v>62</v>
+      </c>
+      <c r="G285" t="s">
         <v>716</v>
       </c>
-      <c r="E285" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F285" t="s">
-        <v>63</v>
-      </c>
-      <c r="G285" t="s">
-        <v>717</v>
-      </c>
       <c r="H285" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I285" s="5">
         <v>1</v>
@@ -8923,19 +8924,19 @@
     <row r="286" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="8"/>
       <c r="C286" t="s">
+        <v>717</v>
+      </c>
+      <c r="E286" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F286" t="s">
         <v>718</v>
       </c>
-      <c r="E286" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F286" t="s">
+      <c r="G286" t="s">
         <v>719</v>
       </c>
-      <c r="G286" t="s">
-        <v>720</v>
-      </c>
       <c r="H286" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I286" s="5">
         <v>1</v>
@@ -8944,19 +8945,19 @@
     <row r="287" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="8"/>
       <c r="C287" t="s">
+        <v>720</v>
+      </c>
+      <c r="E287" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F287" t="s">
         <v>721</v>
       </c>
-      <c r="E287" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F287" t="s">
+      <c r="G287" t="s">
         <v>722</v>
       </c>
-      <c r="G287" t="s">
-        <v>723</v>
-      </c>
       <c r="H287" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I287" s="5">
         <v>1</v>
@@ -8965,19 +8966,19 @@
     <row r="288" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="8"/>
       <c r="C288" t="s">
+        <v>723</v>
+      </c>
+      <c r="E288" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F288" t="s">
+        <v>721</v>
+      </c>
+      <c r="G288" t="s">
         <v>724</v>
       </c>
-      <c r="E288" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F288" t="s">
-        <v>722</v>
-      </c>
-      <c r="G288" t="s">
-        <v>725</v>
-      </c>
       <c r="H288" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I288" s="5">
         <v>1</v>
@@ -8986,19 +8987,19 @@
     <row r="289" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="8"/>
       <c r="C289" t="s">
+        <v>725</v>
+      </c>
+      <c r="E289" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F289" t="s">
+        <v>721</v>
+      </c>
+      <c r="G289" t="s">
         <v>726</v>
       </c>
-      <c r="E289" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F289" t="s">
-        <v>722</v>
-      </c>
-      <c r="G289" t="s">
-        <v>727</v>
-      </c>
       <c r="H289" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I289" s="5">
         <v>1</v>
@@ -9007,19 +9008,19 @@
     <row r="290" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="8"/>
       <c r="C290" t="s">
+        <v>727</v>
+      </c>
+      <c r="E290" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F290" t="s">
+        <v>721</v>
+      </c>
+      <c r="G290" t="s">
         <v>728</v>
       </c>
-      <c r="E290" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F290" t="s">
-        <v>722</v>
-      </c>
-      <c r="G290" t="s">
-        <v>729</v>
-      </c>
       <c r="H290" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I290" s="5">
         <v>1</v>
@@ -9028,19 +9029,19 @@
     <row r="291" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="8"/>
       <c r="C291" t="s">
+        <v>729</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F291" t="s">
+        <v>721</v>
+      </c>
+      <c r="G291" t="s">
         <v>730</v>
       </c>
-      <c r="E291" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F291" t="s">
-        <v>722</v>
-      </c>
-      <c r="G291" t="s">
-        <v>731</v>
-      </c>
       <c r="H291" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I291" s="5">
         <v>1</v>
@@ -9049,19 +9050,19 @@
     <row r="292" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="8"/>
       <c r="C292" t="s">
+        <v>731</v>
+      </c>
+      <c r="E292" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F292" t="s">
         <v>732</v>
       </c>
-      <c r="E292" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F292" t="s">
+      <c r="G292" t="s">
         <v>733</v>
       </c>
-      <c r="G292" t="s">
+      <c r="H292" t="s">
         <v>734</v>
-      </c>
-      <c r="H292" t="s">
-        <v>735</v>
       </c>
       <c r="I292" s="5">
         <v>1</v>
@@ -9070,19 +9071,19 @@
     <row r="293" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="8"/>
       <c r="C293" t="s">
+        <v>735</v>
+      </c>
+      <c r="E293" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F293" t="s">
+        <v>732</v>
+      </c>
+      <c r="G293" t="s">
         <v>736</v>
       </c>
-      <c r="E293" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F293" t="s">
-        <v>733</v>
-      </c>
-      <c r="G293" t="s">
-        <v>737</v>
-      </c>
       <c r="H293" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I293" s="5">
         <v>1</v>
@@ -9090,22 +9091,22 @@
     </row>
     <row r="294" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="C294" t="s">
         <v>738</v>
       </c>
-      <c r="C294" t="s">
+      <c r="E294" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F294" t="s">
         <v>739</v>
       </c>
-      <c r="E294" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F294" t="s">
+      <c r="G294" t="s">
         <v>740</v>
       </c>
-      <c r="G294" t="s">
-        <v>741</v>
-      </c>
       <c r="H294" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I294" s="5">
         <v>1</v>
@@ -9114,16 +9115,16 @@
     <row r="295" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="8"/>
       <c r="C295" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F295" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H295" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I295" s="5">
         <v>1</v>
@@ -9132,19 +9133,19 @@
     <row r="296" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="8"/>
       <c r="C296" t="s">
+        <v>742</v>
+      </c>
+      <c r="E296" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F296" t="s">
+        <v>739</v>
+      </c>
+      <c r="G296" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="E296" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F296" t="s">
-        <v>740</v>
-      </c>
-      <c r="G296" s="6" t="s">
+      <c r="H296" t="s">
         <v>744</v>
-      </c>
-      <c r="H296" t="s">
-        <v>745</v>
       </c>
       <c r="I296" s="5">
         <v>1</v>
@@ -9153,16 +9154,16 @@
     <row r="297" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="8"/>
       <c r="C297" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F297" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H297" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I297" s="5">
         <v>1</v>
@@ -9171,19 +9172,19 @@
     <row r="298" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="8"/>
       <c r="C298" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F298" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G298" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H298" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I298" s="5">
         <v>1</v>
@@ -9192,19 +9193,19 @@
     <row r="299" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="8"/>
       <c r="C299" t="s">
+        <v>747</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F299" t="s">
+        <v>739</v>
+      </c>
+      <c r="G299" t="s">
         <v>748</v>
       </c>
-      <c r="E299" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F299" t="s">
-        <v>740</v>
-      </c>
-      <c r="G299" t="s">
-        <v>749</v>
-      </c>
       <c r="H299" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I299" s="5">
         <v>1</v>
@@ -9213,19 +9214,19 @@
     <row r="300" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="8"/>
       <c r="C300" t="s">
+        <v>749</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F300" t="s">
         <v>750</v>
       </c>
-      <c r="E300" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F300" t="s">
+      <c r="G300" t="s">
+        <v>153</v>
+      </c>
+      <c r="H300" t="s">
         <v>751</v>
-      </c>
-      <c r="G300" t="s">
-        <v>154</v>
-      </c>
-      <c r="H300" t="s">
-        <v>752</v>
       </c>
       <c r="I300" s="5">
         <v>1</v>
@@ -9234,19 +9235,19 @@
     <row r="301" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="8"/>
       <c r="C301" t="s">
+        <v>752</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F301" t="s">
         <v>753</v>
       </c>
-      <c r="E301" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F301" t="s">
+      <c r="G301" t="s">
         <v>754</v>
       </c>
-      <c r="G301" t="s">
-        <v>755</v>
-      </c>
       <c r="H301" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I301" s="5">
         <v>1</v>
@@ -9254,19 +9255,19 @@
     </row>
     <row r="302" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="C302" t="s">
         <v>756</v>
       </c>
-      <c r="C302" t="s">
+      <c r="E302" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F302" t="s">
         <v>757</v>
       </c>
-      <c r="E302" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F302" t="s">
-        <v>758</v>
-      </c>
       <c r="H302" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I302" s="5">
         <v>1</v>
@@ -9275,19 +9276,19 @@
     <row r="303" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="8"/>
       <c r="C303" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E303" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F303" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H303" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I303" s="5">
         <v>1</v>
@@ -9296,16 +9297,16 @@
     <row r="304" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="8"/>
       <c r="C304" t="s">
+        <v>759</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F304" t="s">
         <v>760</v>
       </c>
-      <c r="E304" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F304" t="s">
-        <v>761</v>
-      </c>
       <c r="H304" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I304" s="5">
         <v>1</v>
@@ -9314,19 +9315,19 @@
     <row r="305" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="8"/>
       <c r="C305" t="s">
+        <v>761</v>
+      </c>
+      <c r="E305" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F305" t="s">
+        <v>145</v>
+      </c>
+      <c r="G305" t="s">
         <v>762</v>
       </c>
-      <c r="E305" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F305" t="s">
-        <v>146</v>
-      </c>
-      <c r="G305" t="s">
-        <v>763</v>
-      </c>
       <c r="H305" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I305" s="5">
         <v>1</v>
@@ -9335,19 +9336,19 @@
     <row r="306" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="8"/>
       <c r="C306" t="s">
+        <v>763</v>
+      </c>
+      <c r="E306" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F306" t="s">
+        <v>145</v>
+      </c>
+      <c r="G306" t="s">
         <v>764</v>
       </c>
-      <c r="E306" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F306" t="s">
-        <v>146</v>
-      </c>
-      <c r="G306" t="s">
-        <v>765</v>
-      </c>
       <c r="H306" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I306" s="5">
         <v>1</v>
@@ -9356,19 +9357,19 @@
     <row r="307" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="8"/>
       <c r="C307" t="s">
+        <v>765</v>
+      </c>
+      <c r="E307" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F307" t="s">
+        <v>152</v>
+      </c>
+      <c r="G307" t="s">
         <v>766</v>
       </c>
-      <c r="E307" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F307" t="s">
-        <v>153</v>
-      </c>
-      <c r="G307" t="s">
-        <v>767</v>
-      </c>
       <c r="H307" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I307" s="5">
         <v>1</v>
@@ -9377,19 +9378,19 @@
     <row r="308" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="8"/>
       <c r="C308" t="s">
+        <v>767</v>
+      </c>
+      <c r="E308" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F308" t="s">
+        <v>123</v>
+      </c>
+      <c r="G308" t="s">
         <v>768</v>
       </c>
-      <c r="E308" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F308" t="s">
-        <v>124</v>
-      </c>
-      <c r="G308" t="s">
-        <v>769</v>
-      </c>
       <c r="H308" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I308" s="5">
         <v>1</v>
@@ -9398,16 +9399,16 @@
     <row r="309" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="8"/>
       <c r="C309" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F309" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H309" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I309" s="5">
         <v>1</v>
@@ -9416,16 +9417,16 @@
     <row r="310" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="8"/>
       <c r="C310" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F310" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H310" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I310" s="5">
         <v>1</v>
@@ -9433,17 +9434,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B70"/>
+    <mergeCell ref="B132:B229"/>
     <mergeCell ref="B230:B293"/>
     <mergeCell ref="B294:B301"/>
     <mergeCell ref="B302:B310"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B73:B101"/>
     <mergeCell ref="B102:B131"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B25"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="B34:B70"/>
-    <mergeCell ref="B132:B229"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9479,7 +9480,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -9494,7 +9495,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
@@ -9505,25 +9506,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="C2" t="s">
         <v>774</v>
-      </c>
-      <c r="C2" t="s">
-        <v>775</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
+        <v>775</v>
+      </c>
+      <c r="G2" t="s">
         <v>776</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>777</v>
-      </c>
-      <c r="H2" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -9532,19 +9533,19 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -9553,19 +9554,19 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -9574,19 +9575,19 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -9595,19 +9596,19 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -9616,19 +9617,19 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -9637,19 +9638,19 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -9658,19 +9659,19 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -9679,19 +9680,19 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
+        <v>775</v>
+      </c>
+      <c r="G10" t="s">
         <v>776</v>
-      </c>
-      <c r="G10" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -9702,16 +9703,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>793</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>795</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -9720,16 +9721,16 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -9738,16 +9739,16 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -9756,16 +9757,16 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" t="s">
+        <v>798</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
         <v>799</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -9774,16 +9775,16 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" t="s">
+        <v>800</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
         <v>801</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -9791,19 +9792,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="C16" t="s">
         <v>803</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
         <v>805</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9811,16 +9812,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
+        <v>803</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>805</v>
-      </c>
       <c r="E17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9828,16 +9829,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>805</v>
-      </c>
       <c r="E18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9912,23 +9913,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>809</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>811</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B3" s="4">
         <f>B2+1</f>

--- a/TestDatas/jm_api_info.xlsx
+++ b/TestDatas/jm_api_info.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jiemo_api\TestDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zws/longbeach/jm_api_py_test/TestDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,8 +16,11 @@
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
     <sheet name="prepare_datas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="824">
   <si>
     <t>case_id</t>
   </si>
@@ -100,9 +103,6 @@
     <t>/api/v2/mobile/verify/code</t>
   </si>
   <si>
-    <t>{'mobile':'13816661001','code':'1234'}</t>
-  </si>
-  <si>
     <t>登录-校验验证码-验证码不正确</t>
   </si>
   <si>
@@ -148,9 +148,6 @@
     <t>{"accuracy":"根本不可能存在"}</t>
   </si>
   <si>
-    <t>"data":{}</t>
-  </si>
-  <si>
     <t>好友系统-发送好友请求-正确（正常流程）</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
     <t>/api/specialFriend/add</t>
   </si>
   <si>
-    <t>{desc":"接口测试专用&amp;specialFriend":"e6c8ZaDh7iLW16qv20-Hlg"}</t>
-  </si>
-  <si>
     <t>好友系统-特别好友-添加user为空</t>
   </si>
   <si>
@@ -262,9 +256,6 @@
     <t>/api/specialFriend/delete</t>
   </si>
   <si>
-    <t>{specialFriend":"e6c8ZaDh7iLW16qv20-Hlg"}</t>
-  </si>
-  <si>
     <t>好友系统-推荐好友-查看推荐好友列表</t>
   </si>
   <si>
@@ -289,9 +280,6 @@
     <t>/api/config/user/ForbiddenImpression</t>
   </si>
   <si>
-    <t>{value":"0"}</t>
-  </si>
-  <si>
     <t>好友印象-添加-添加第一条（正常流程）</t>
   </si>
   <si>
@@ -325,9 +313,6 @@
     <t>好友印象-关闭-（正常流程）</t>
   </si>
   <si>
-    <t>{value":"1"}</t>
-  </si>
-  <si>
     <t>我的</t>
   </si>
   <si>
@@ -349,9 +334,6 @@
     <t>/api/user/followings</t>
   </si>
   <si>
-    <t>{toUser":"CjUSsCVOECDW16qv20-Hlg"}</t>
-  </si>
-  <si>
     <t>我的-关注列表-添加关注对象（正常流程）</t>
   </si>
   <si>
@@ -529,9 +511,6 @@
     <t>/api/platform/unbind/sina</t>
   </si>
   <si>
-    <t>{key":"pushMessage&amp;value":"0"}</t>
-  </si>
-  <si>
     <t>我的-设置新消息通知-新鲜事关闭（正常流程）</t>
   </si>
   <si>
@@ -644,9 +623,6 @@
   </si>
   <si>
     <t>profile-访问-参数错误</t>
-  </si>
-  <si>
-    <t>{user":"CjUSsCVOECDW16qv20-Hlg"}</t>
   </si>
   <si>
     <t>"name":"接口0001"</t>
@@ -803,9 +779,6 @@
     <t>/api/friend/visitor/list</t>
   </si>
   <si>
-    <t>{interest":"-I9xh3sAw85vid1aI1CONw"}</t>
-  </si>
-  <si>
     <t>兴趣相投</t>
   </si>
   <si>
@@ -935,9 +908,6 @@
     <t>/api/interest/user/list</t>
   </si>
   <si>
-    <t>{interests":"-I9xh3sAw85vid1aI1CONw"}</t>
-  </si>
-  <si>
     <t>兴趣相关-普通兴趣-获取兴趣页面数据</t>
   </si>
   <si>
@@ -978,9 +948,6 @@
   </si>
   <si>
     <t>兴趣相关-普通兴趣-重复添加兴趣</t>
-  </si>
-  <si>
-    <t>{count":"20&amp;users":"AmOLe35r_9vW16qv20-Hlg"}</t>
   </si>
   <si>
     <t>兴趣相投_数据列表ID_正常请求</t>
@@ -1416,9 +1383,6 @@
     <t>聊天-悄话对话框-非好友状态请求用户关系</t>
   </si>
   <si>
-    <t>{emotion":"F9h25mPTM9X33-hCUUQFlw"}</t>
-  </si>
-  <si>
     <t>聊天-悄悄话对话框-被好友拉黑状态请求用户关系</t>
   </si>
   <si>
@@ -2129,10 +2093,6 @@
     <t>新鲜事-评论-功能失效用户</t>
   </si>
   <si>
-    <t>}
-{"content":"{#4D7nzD4yZF9B3sdypS8uRw}abcde&amp;topics":"4D7nzD4yZF9B3sdypS8uRw"}</t>
-  </si>
-  <si>
     <t>新鲜事-点赞-功能失效用户</t>
   </si>
   <si>
@@ -2154,9 +2114,6 @@
     <t>新鲜事-数据-我的新鲜事（正常流程）</t>
   </si>
   <si>
-    <t>{topic":"UQhZ2BwwXp9B3sdypS8uRw"}</t>
-  </si>
-  <si>
     <t>新鲜事-消息列表（正常流程）</t>
   </si>
   <si>
@@ -2182,9 +2139,6 @@
   </si>
   <si>
     <t>/api/topic/item/list</t>
-  </si>
-  <si>
-    <t>{count":"0"}</t>
   </si>
   <si>
     <t>新鲜事-话题-历史话题(正常流程)</t>
@@ -2323,9 +2277,6 @@
     <t>加好友-随便看看-筛选条件年级</t>
   </si>
   <si>
-    <t>{club":"AbSYVL3xiizo7csz1RiiBg&amp;position":"wuyuan"}</t>
-  </si>
-  <si>
     <t>加好友-随便看看-筛选条件学院</t>
   </si>
   <si>
@@ -2530,6 +2481,34 @@
   <si>
     <t>v2/mobile/verify</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"'mobile':'13816661001','code':'1234'}</t>
+  </si>
+  <si>
+    <t>"data":{"}</t>
+  </si>
+  <si>
+    <t>{"desc":"接口测试专用&amp;specialFriend":"e6c8ZaDh7iLW16qv20-Hlg"}</t>
+  </si>
+  <si>
+    <t>{"specialFriend":"e6c8ZaDh7iLW16qv20-Hlg"}</t>
+  </si>
+  <si>
+    <t>{"emotion":"F9h25mPTM9X33-hCUUQFlw"}</t>
+  </si>
+  <si>
+    <t>}
+{"content":"{"#4D7nzD4yZF9B3sdypS8uRw}abcde&amp;topics":"4D7nzD4yZF9B3sdypS8uRw"}</t>
+  </si>
+  <si>
+    <t>{"topic":"UQhZ2BwwXp9B3sdypS8uRw"}</t>
+  </si>
+  <si>
+    <t>{"count":"0"}</t>
+  </si>
+  <si>
+    <t>{"club":"AbSYVL3xiizo7csz1RiiBg&amp;position":"wuyuan"}</t>
   </si>
 </sst>
 </file>
@@ -2938,24 +2917,24 @@
   <dimension ref="A1:J310"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="51.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="36.81640625" customWidth="1"/>
-    <col min="7" max="7" width="81.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="51.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.83203125" customWidth="1"/>
+    <col min="7" max="7" width="81.33203125" customWidth="1"/>
     <col min="8" max="8" width="64" customWidth="1"/>
     <col min="9" max="9" width="13" style="5" customWidth="1"/>
-    <col min="10" max="10" width="27.453125" customWidth="1"/>
+    <col min="10" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2987,7 +2966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2998,13 +2977,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -3019,7 +2998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3047,7 +3026,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3065,7 +3044,7 @@
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>815</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
@@ -3074,13 +3053,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
@@ -3092,22 +3071,22 @@
         <v>23</v>
       </c>
       <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
       <c r="I5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
@@ -3119,24 +3098,24 @@
         <v>23</v>
       </c>
       <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
       <c r="I6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
@@ -3145,10 +3124,10 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
@@ -3157,13 +3136,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
@@ -3172,25 +3151,25 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
       <c r="I8" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
@@ -3199,25 +3178,25 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>816</v>
       </c>
       <c r="I9" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
@@ -3226,10 +3205,10 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -3238,94 +3217,94 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
       <c r="I11" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" t="s">
-        <v>49</v>
-      </c>
       <c r="I12" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" t="s">
-        <v>52</v>
-      </c>
       <c r="I13" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
         <v>53</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
@@ -3334,40 +3313,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="8"/>
       <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
-      </c>
       <c r="I15" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8"/>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
@@ -3376,37 +3355,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="8"/>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I17" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="8"/>
       <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
         <v>62</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" t="s">
-        <v>64</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
@@ -3415,19 +3394,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="8"/>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>817</v>
       </c>
       <c r="H19" t="s">
         <v>16</v>
@@ -3436,79 +3415,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" t="s">
         <v>66</v>
       </c>
-      <c r="G20" t="s">
-        <v>69</v>
-      </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I20" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I21" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8"/>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I22" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>818</v>
       </c>
       <c r="H23" t="s">
         <v>16</v>
@@ -3517,60 +3496,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="8"/>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I24" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="8"/>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I25" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="H26" t="s">
         <v>16</v>
@@ -3579,19 +3558,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="8"/>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s">
         <v>16</v>
@@ -3600,19 +3579,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8"/>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s">
         <v>16</v>
@@ -3621,19 +3600,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="8"/>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
         <v>16</v>
@@ -3642,58 +3621,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="8"/>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" t="s">
         <v>89</v>
       </c>
-      <c r="G30" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" t="s">
-        <v>94</v>
-      </c>
       <c r="I30" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="8"/>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I31" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="8"/>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s">
         <v>16</v>
@@ -3702,19 +3681,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="8"/>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
@@ -3723,79 +3702,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I34" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="8"/>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I35" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="8"/>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F36" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G36" t="s">
         <v>107</v>
       </c>
       <c r="H36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I36" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="8"/>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G37" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H37" t="s">
         <v>16</v>
@@ -3804,61 +3783,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="8"/>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G38" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I38" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="8"/>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I39" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8"/>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G40" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H40" t="s">
         <v>16</v>
@@ -3867,19 +3846,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="8"/>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G41" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H41" t="s">
         <v>16</v>
@@ -3888,19 +3867,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="8"/>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H42" t="s">
         <v>16</v>
@@ -3909,19 +3888,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="8"/>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F43" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G43" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H43" t="s">
         <v>16</v>
@@ -3930,40 +3909,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="8"/>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F44" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G44" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I44" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="8"/>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G45" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H45" t="s">
         <v>16</v>
@@ -3972,19 +3951,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8"/>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G46" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H46" t="s">
         <v>16</v>
@@ -3993,19 +3972,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="8"/>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G47" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H47" t="s">
         <v>16</v>
@@ -4014,19 +3993,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="8"/>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G48" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H48" t="s">
         <v>16</v>
@@ -4035,19 +4014,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="8"/>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G49" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H49" t="s">
         <v>16</v>
@@ -4056,124 +4035,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="8"/>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G50" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H50" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I50" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="8"/>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G51" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H51" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I51" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="8"/>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G52" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H52" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I52" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="8"/>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G53" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H53" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I53" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="8"/>
       <c r="C54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G54" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H54" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I54" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="8"/>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G55" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H55" t="s">
         <v>16</v>
@@ -4182,19 +4161,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="8"/>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G56" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H56" t="s">
         <v>16</v>
@@ -4203,16 +4182,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="8"/>
       <c r="C57" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H57" t="s">
         <v>16</v>
@@ -4221,19 +4200,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="8"/>
       <c r="C58" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G58" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="H58" t="s">
         <v>16</v>
@@ -4242,19 +4221,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="8"/>
       <c r="C59" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G59" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H59" t="s">
         <v>16</v>
@@ -4263,19 +4242,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="8"/>
       <c r="C60" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G60" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H60" t="s">
         <v>16</v>
@@ -4284,19 +4263,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="8"/>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G61" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H61" t="s">
         <v>16</v>
@@ -4305,19 +4284,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="8"/>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G62" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H62" t="s">
         <v>16</v>
@@ -4326,19 +4305,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="8"/>
       <c r="C63" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G63" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H63" t="s">
         <v>16</v>
@@ -4347,19 +4326,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="8"/>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G64" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H64" t="s">
         <v>16</v>
@@ -4368,19 +4347,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="8"/>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G65" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H65" t="s">
         <v>16</v>
@@ -4389,19 +4368,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="8"/>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G66" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H66" t="s">
         <v>16</v>
@@ -4410,19 +4389,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="8"/>
       <c r="C67" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G67" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H67" t="s">
         <v>16</v>
@@ -4431,19 +4410,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="8"/>
       <c r="C68" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G68" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H68" t="s">
         <v>16</v>
@@ -4452,19 +4431,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="8"/>
       <c r="C69" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G69" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H69" t="s">
         <v>16</v>
@@ -4473,19 +4452,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="8"/>
       <c r="C70" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G70" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H70" t="s">
         <v>16</v>
@@ -4494,21 +4473,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G71" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H71" t="s">
         <v>16</v>
@@ -4517,19 +4496,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="8"/>
       <c r="C72" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G72" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H72" t="s">
         <v>16</v>
@@ -4538,626 +4517,626 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C73" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F73" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H73" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I73" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="8"/>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F74" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="I74" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="8"/>
       <c r="C75" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F75" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H75" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I75" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="8"/>
       <c r="C76" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F76" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G76" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H76" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="I76" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="8"/>
       <c r="C77" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F77" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="H77" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I77" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="8"/>
       <c r="C78" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F78" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="G78" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H78" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="I78" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="8"/>
       <c r="C79" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F79" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="H79" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="I79" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="8"/>
       <c r="C80" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F80" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G80" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H80" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="I80" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="8"/>
       <c r="C81" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F81" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H81" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I81" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8"/>
       <c r="C82" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F82" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G82" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H82" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="I82" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="8"/>
       <c r="C83" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F83" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H83" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I83" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="8"/>
       <c r="C84" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F84" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H84" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I84" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="8"/>
       <c r="C85" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="H85" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I85" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="8"/>
       <c r="C86" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G86" t="s">
         <v>107</v>
       </c>
       <c r="H86" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="I86" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="8"/>
       <c r="C87" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G87" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H87" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I87" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="8"/>
       <c r="C88" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G88" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H88" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="I88" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="8"/>
       <c r="C89" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G89" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H89" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="I89" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="8"/>
       <c r="C90" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G90" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H90" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="I90" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="8"/>
       <c r="C91" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G91" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H91" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="I91" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="8"/>
       <c r="C92" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G92" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H92" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="I92" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="8"/>
       <c r="C93" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F93" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="H93" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="I93" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="8"/>
       <c r="C94" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F94" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G94" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H94" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="I94" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="8"/>
       <c r="C95" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H95" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I95" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="8"/>
       <c r="C96" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G96" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H96" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="I96" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="8"/>
       <c r="C97" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G97" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H97" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I97" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="8"/>
       <c r="C98" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G98" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H98" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="I98" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="8"/>
       <c r="C99" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F99" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G99" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H99" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="I99" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="8"/>
       <c r="C100" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F100" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="H100" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="I100" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="8"/>
       <c r="C101" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F101" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G101" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H101" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="I101" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C102" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G102" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H102" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I102" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="8"/>
       <c r="C103" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F103" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G103" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="H103" t="s">
         <v>16</v>
@@ -5166,124 +5145,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="8"/>
       <c r="C104" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F104" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G104" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="H104" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="I104" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="8"/>
       <c r="C105" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F105" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G105" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="H105" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I105" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="8"/>
       <c r="C106" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F106" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G106" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="H106" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="I106" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="8"/>
       <c r="C107" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F107" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G107" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="H107" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="I107" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="8"/>
       <c r="C108" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F108" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G108" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="H108" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="I108" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" s="8"/>
       <c r="C109" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G109" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="H109" t="s">
         <v>16</v>
@@ -5292,19 +5271,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="8"/>
       <c r="C110" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F110" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G110" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="H110" t="s">
         <v>16</v>
@@ -5313,19 +5292,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="8"/>
       <c r="C111" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G111" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H111" t="s">
         <v>16</v>
@@ -5334,139 +5313,139 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B112" s="8"/>
       <c r="C112" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F112" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G112" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H112" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="I112" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" s="8"/>
       <c r="C113" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F113" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G113" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="H113" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="I113" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B114" s="8"/>
       <c r="C114" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F114" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G114" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H114" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I114" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B115" s="8"/>
       <c r="C115" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F115" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="H115" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I115" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="8"/>
       <c r="C116" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F116" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G116" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="I116" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B117" s="8"/>
       <c r="C117" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F117" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="G117" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H117" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="I117" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B118" s="8"/>
       <c r="C118" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F118" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G118" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="H118" t="s">
         <v>16</v>
@@ -5475,19 +5454,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B119" s="8"/>
       <c r="C119" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F119" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G119" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H119" t="s">
         <v>16</v>
@@ -5496,40 +5475,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B120" s="8"/>
       <c r="C120" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F120" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="G120" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H120" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I120" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B121" s="8"/>
       <c r="C121" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F121" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="G121" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H121" t="s">
         <v>16</v>
@@ -5538,37 +5517,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B122" s="8"/>
       <c r="C122" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F122" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="H122" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="I122" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B123" s="8"/>
       <c r="C123" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F123" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="G123" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="H123" t="s">
         <v>16</v>
@@ -5577,82 +5556,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B124" s="8"/>
       <c r="C124" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F124" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="G124" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="H124" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="I124" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B125" s="8"/>
       <c r="C125" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F125" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="G125" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H125" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="I125" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B126" s="8"/>
       <c r="C126" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F126" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G126" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="H126" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I126" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B127" s="8"/>
       <c r="C127" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F127" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="G127" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H127" t="s">
         <v>16</v>
@@ -5661,19 +5640,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B128" s="8"/>
       <c r="C128" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F128" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="G128" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="H128" t="s">
         <v>16</v>
@@ -5682,19 +5661,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B129" s="8"/>
       <c r="C129" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F129" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="G129" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="H129" t="s">
         <v>16</v>
@@ -5703,19 +5682,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B130" s="8"/>
       <c r="C130" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F130" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="G130" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="H130" t="s">
         <v>16</v>
@@ -5724,19 +5703,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B131" s="8"/>
       <c r="C131" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F131" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="G131" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H131" t="s">
         <v>16</v>
@@ -5745,102 +5724,102 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B132" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C132" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F132" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="H132" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="I132" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B133" s="8"/>
       <c r="C133" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F133" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="H133" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="I133" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B134" s="8"/>
       <c r="C134" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F134" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="G134" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="H134" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="I134" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B135" s="8"/>
       <c r="C135" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F135" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G135" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="H135" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="I135" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B136" s="8"/>
       <c r="C136" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F136" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="G136" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="H136" t="s">
         <v>16</v>
@@ -5849,19 +5828,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B137" s="8"/>
       <c r="C137" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F137" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G137" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="H137" t="s">
         <v>16</v>
@@ -5870,19 +5849,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B138" s="8"/>
       <c r="C138" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F138" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G138" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="H138" t="s">
         <v>16</v>
@@ -5891,19 +5870,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B139" s="8"/>
       <c r="C139" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F139" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="G139" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="H139" t="s">
         <v>16</v>
@@ -5912,61 +5891,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B140" s="8"/>
       <c r="C140" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F140" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="G140" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="H140" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="I140" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B141" s="8"/>
       <c r="C141" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F141" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G141" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="H141" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="I141" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B142" s="8"/>
       <c r="C142" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F142" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="G142" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="H142" t="s">
         <v>16</v>
@@ -5975,19 +5954,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B143" s="8"/>
       <c r="C143" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F143" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="G143" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="H143" t="s">
         <v>16</v>
@@ -5996,19 +5975,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B144" s="8"/>
       <c r="C144" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F144" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="G144" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="H144" t="s">
         <v>16</v>
@@ -6017,19 +5996,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B145" s="8"/>
       <c r="C145" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F145" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="G145" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="H145" t="s">
         <v>16</v>
@@ -6038,667 +6017,667 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B146" s="8"/>
       <c r="C146" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F146" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G146" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H146" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="I146" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B147" s="8"/>
       <c r="C147" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F147" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="G147" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="H147" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="I147" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B148" s="8"/>
       <c r="C148" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F148" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="G148" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="H148" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="I148" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B149" s="8"/>
       <c r="C149" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F149" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="G149" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="H149" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="I149" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B150" s="8"/>
       <c r="C150" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F150" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="G150" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="H150" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I150" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B151" s="8"/>
       <c r="C151" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F151" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="G151" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="H151" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="I151" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B152" s="8"/>
       <c r="C152" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F152" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="G152" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="I152" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B153" s="8"/>
       <c r="C153" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F153" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G153" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="H153" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I153" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B154" s="8"/>
       <c r="C154" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F154" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G154" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="H154" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I154" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B155" s="8"/>
       <c r="C155" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F155" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G155" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="H155" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="I155" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B156" s="8"/>
       <c r="C156" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F156" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G156" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="I156" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B157" s="8"/>
       <c r="C157" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F157" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="G157" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="H157" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I157" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B158" s="8"/>
       <c r="C158" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F158" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="G158" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="H158" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I158" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B159" s="8"/>
       <c r="C159" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F159" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="G159" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="H159" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="I159" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B160" s="8"/>
       <c r="C160" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F160" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="G160" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="I160" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B161" s="8"/>
       <c r="C161" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F161" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="G161" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="H161" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I161" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B162" s="8"/>
       <c r="C162" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F162" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="G162" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="H162" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I162" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B163" s="8"/>
       <c r="C163" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F163" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="G163" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="H163" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="I163" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B164" s="8"/>
       <c r="C164" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F164" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="G164" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="I164" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B165" s="8"/>
       <c r="C165" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F165" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="G165" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="H165" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I165" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B166" s="8"/>
       <c r="C166" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F166" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="G166" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="H166" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I166" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B167" s="8"/>
       <c r="C167" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F167" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="G167" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="H167" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="I167" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B168" s="8"/>
       <c r="C168" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F168" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="G168" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="I168" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B169" s="8"/>
       <c r="C169" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F169" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G169" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="H169" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I169" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B170" s="8"/>
       <c r="C170" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F170" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G170" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="H170" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I170" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B171" s="8"/>
       <c r="C171" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F171" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G171" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="H171" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="I171" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B172" s="8"/>
       <c r="C172" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F172" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G172" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="I172" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B173" s="8"/>
       <c r="C173" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F173" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="G173" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="H173" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I173" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B174" s="8"/>
       <c r="C174" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F174" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="G174" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="H174" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I174" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B175" s="8"/>
       <c r="C175" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F175" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="G175" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="H175" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="I175" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B176" s="8"/>
       <c r="C176" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F176" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="G176" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="I176" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B177" s="8"/>
       <c r="C177" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F177" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="H177" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="I177" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B178" s="8"/>
       <c r="C178" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F178" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="G178" t="s">
-        <v>462</v>
+        <v>819</v>
       </c>
       <c r="H178" t="s">
         <v>16</v>
@@ -6707,61 +6686,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B179" s="8"/>
       <c r="C179" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="E179" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F179" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="G179" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="H179" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="I179" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B180" s="8"/>
       <c r="C180" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F180" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="G180" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="H180" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="I180" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B181" s="8"/>
       <c r="C181" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F181" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="G181" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="H181" t="s">
         <v>16</v>
@@ -6770,19 +6749,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B182" s="8"/>
       <c r="C182" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="E182" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F182" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="G182" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="H182" t="s">
         <v>16</v>
@@ -6791,19 +6770,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B183" s="8"/>
       <c r="C183" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F183" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="G183" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="H183" t="s">
         <v>16</v>
@@ -6812,19 +6791,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B184" s="8"/>
       <c r="C184" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F184" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="G184" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="H184" t="s">
         <v>16</v>
@@ -6833,40 +6812,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B185" s="8"/>
       <c r="C185" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F185" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="G185" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="H185" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="I185" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B186" s="8"/>
       <c r="C186" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F186" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G186" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="H186" t="s">
         <v>16</v>
@@ -6875,19 +6854,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B187" s="8"/>
       <c r="C187" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F187" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="G187" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="H187" t="s">
         <v>16</v>
@@ -6896,19 +6875,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B188" s="8"/>
       <c r="C188" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F188" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="G188" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="H188" t="s">
         <v>16</v>
@@ -6917,61 +6896,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B189" s="8"/>
       <c r="C189" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F189" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="G189" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="H189" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="I189" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B190" s="8"/>
       <c r="C190" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F190" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="G190" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="H190" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="I190" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B191" s="8"/>
       <c r="C191" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F191" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="G191" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="H191" t="s">
         <v>16</v>
@@ -6980,40 +6959,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B192" s="8"/>
       <c r="C192" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F192" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G192" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="H192" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="I192" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B193" s="8"/>
       <c r="C193" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F193" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="G193" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="H193" t="s">
         <v>16</v>
@@ -7022,289 +7001,289 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B194" s="8"/>
       <c r="C194" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F194" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="G194" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="H194" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="I194" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B195" s="8"/>
       <c r="C195" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F195" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="G195" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="H195" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="I195" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B196" s="8"/>
       <c r="C196" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F196" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="G196" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="H196" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="I196" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B197" s="8"/>
       <c r="C197" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F197" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="G197" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="H197" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="I197" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B198" s="8"/>
       <c r="C198" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F198" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="G198" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="H198" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="I198" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B199" s="8"/>
       <c r="C199" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F199" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="G199" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="H199" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="I199" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B200" s="8"/>
       <c r="C200" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F200" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="G200" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="H200" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="I200" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B201" s="8"/>
       <c r="C201" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F201" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="G201" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="H201" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="I201" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B202" s="8"/>
       <c r="C202" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F202" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="G202" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="H202" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="I202" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B203" s="8"/>
       <c r="C203" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F203" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="G203" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="H203" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="I203" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B204" s="8"/>
       <c r="C204" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="E204" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F204" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="H204" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="I204" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B205" s="8"/>
       <c r="C205" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F205" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="H205" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="I205" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B206" s="8"/>
       <c r="C206" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F206" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="G206" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="H206" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="I206" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B207" s="8"/>
       <c r="C207" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F207" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="G207" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="H207" t="s">
         <v>16</v>
@@ -7313,19 +7292,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B208" s="8"/>
       <c r="C208" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F208" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="G208" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="H208" t="s">
         <v>16</v>
@@ -7334,19 +7313,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B209" s="8"/>
       <c r="C209" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F209" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="G209" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="H209" t="s">
         <v>16</v>
@@ -7355,187 +7334,187 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B210" s="8"/>
       <c r="C210" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="E210" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F210" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="G210" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="H210" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="I210" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B211" s="8"/>
       <c r="C211" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="E211" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F211" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="G211" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="H211" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="I211" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B212" s="8"/>
       <c r="C212" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F212" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="G212" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="H212" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="I212" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B213" s="8"/>
       <c r="C213" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="E213" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F213" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="G213" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="H213" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="I213" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B214" s="8"/>
       <c r="C214" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F214" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="G214" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="H214" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="I214" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B215" s="8"/>
       <c r="C215" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F215" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="G215" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="H215" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="I215" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B216" s="8"/>
       <c r="C216" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F216" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="G216" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="H216" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="I216" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B217" s="8"/>
       <c r="C217" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F217" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="G217" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="H217" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="I217" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B218" s="8"/>
       <c r="C218" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F218" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="G218" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="H218" t="s">
         <v>16</v>
@@ -7544,61 +7523,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B219" s="8"/>
       <c r="C219" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F219" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="G219" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="H219" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="I219" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B220" s="8"/>
       <c r="C220" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F220" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="G220" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="H220" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="I220" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B221" s="8"/>
       <c r="C221" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F221" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="G221" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="H221" t="s">
         <v>16</v>
@@ -7607,19 +7586,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B222" s="8"/>
       <c r="C222" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F222" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="G222" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="H222" t="s">
         <v>16</v>
@@ -7628,19 +7607,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B223" s="8"/>
       <c r="C223" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F223" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="G223" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="H223" t="s">
         <v>16</v>
@@ -7649,40 +7628,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B224" s="8"/>
       <c r="C224" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F224" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="G224" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="H224" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="I224" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B225" s="8"/>
       <c r="C225" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F225" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="G225" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="H225" t="s">
         <v>16</v>
@@ -7691,19 +7670,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B226" s="8"/>
       <c r="C226" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F226" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="G226" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="H226" t="s">
         <v>16</v>
@@ -7712,19 +7691,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B227" s="8"/>
       <c r="C227" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="E227" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F227" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="G227" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="H227" t="s">
         <v>16</v>
@@ -7733,19 +7712,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B228" s="8"/>
       <c r="C228" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F228" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="G228" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="H228" t="s">
         <v>16</v>
@@ -7754,1702 +7733,1702 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B229" s="8"/>
       <c r="C229" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="E229" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F229" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="G229" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="H229" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="I229" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B230" s="7" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="C230" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="E230" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F230" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="G230" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="H230" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="I230" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B231" s="8"/>
       <c r="C231" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="E231" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F231" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="G231" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="H231" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="I231" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B232" s="8"/>
       <c r="C232" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E232" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F232" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="G232" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="H232" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="I232" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B233" s="8"/>
       <c r="C233" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E233" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F233" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="G233" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="H233" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="I233" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B234" s="8"/>
       <c r="C234" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F234" t="s">
+        <v>587</v>
+      </c>
+      <c r="G234" t="s">
+        <v>599</v>
+      </c>
+      <c r="H234" t="s">
         <v>600</v>
       </c>
-      <c r="G234" t="s">
-        <v>612</v>
-      </c>
-      <c r="H234" t="s">
-        <v>613</v>
-      </c>
       <c r="I234" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B235" s="8"/>
       <c r="C235" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="E235" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F235" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="G235" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="H235" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I235" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B236" s="8"/>
       <c r="C236" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="E236" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F236" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="G236" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="H236" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="I236" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B237" s="8"/>
       <c r="C237" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="E237" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F237" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="G237" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="H237" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="I237" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B238" s="8"/>
       <c r="C238" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F238" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="G238" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="H238" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="I238" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B239" s="8"/>
       <c r="C239" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="E239" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F239" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="G239" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="H239" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="I239" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B240" s="8"/>
       <c r="C240" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="E240" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F240" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="G240" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="H240" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="I240" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B241" s="8"/>
       <c r="C241" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="E241" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F241" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="G241" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="H241" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="I241" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B242" s="8"/>
       <c r="C242" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="E242" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F242" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="G242" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="H242" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="I242" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B243" s="8"/>
       <c r="C243" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F243" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="G243" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="H243" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="I243" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B244" s="8"/>
       <c r="C244" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="E244" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F244" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="G244" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="H244" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="I244" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B245" s="8"/>
       <c r="C245" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="E245" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F245" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="G245" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="H245" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="I245" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B246" s="8"/>
       <c r="C246" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="E246" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F246" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="G246" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="H246" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I246" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B247" s="8"/>
       <c r="C247" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="E247" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F247" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="G247" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="H247" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I247" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B248" s="8"/>
       <c r="C248" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="E248" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F248" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="G248" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="H248" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="I248" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B249" s="8"/>
       <c r="C249" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="E249" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F249" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="G249" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="H249" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="I249" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B250" s="8"/>
       <c r="C250" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="E250" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F250" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="G250" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="H250" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="I250" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B251" s="8"/>
       <c r="C251" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="E251" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F251" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="G251" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="H251" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="I251" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B252" s="8"/>
       <c r="C252" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="E252" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F252" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="G252" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="H252" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I252" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B253" s="8"/>
       <c r="C253" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="E253" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F253" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="G253" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="H253" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="I253" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B254" s="8"/>
       <c r="C254" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="E254" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F254" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="G254" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="H254" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I254" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B255" s="8"/>
       <c r="C255" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E255" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F255" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="G255" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="H255" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="I255" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B256" s="8"/>
       <c r="C256" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="E256" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F256" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="G256" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="H256" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="I256" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B257" s="8"/>
       <c r="C257" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="E257" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F257" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="G257" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="H257" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I257" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B258" s="8"/>
       <c r="C258" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="E258" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F258" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="G258" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="H258" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="I258" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B259" s="8"/>
       <c r="C259" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="E259" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F259" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="G259" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="H259" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="I259" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B260" s="8"/>
       <c r="C260" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="E260" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F260" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="G260" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="H260" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="I260" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B261" s="8"/>
       <c r="C261" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="E261" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F261" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="G261" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="H261" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I261" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B262" s="8"/>
       <c r="C262" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="E262" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F262" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="G262" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="H262" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I262" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B263" s="8"/>
       <c r="C263" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="E263" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F263" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="G263" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="H263" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I263" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B264" s="8"/>
       <c r="C264" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="E264" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F264" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="G264" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="H264" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="I264" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B265" s="8"/>
       <c r="C265" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="E265" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F265" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="G265" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="H265" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I265" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B266" s="8"/>
       <c r="C266" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="E266" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F266" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="G266" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="H266" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="I266" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B267" s="8"/>
       <c r="C267" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="E267" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F267" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="G267" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="H267" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="I267" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B268" s="8"/>
       <c r="C268" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="E268" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F268" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="G268" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="H268" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I268" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B269" s="8"/>
       <c r="C269" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="E269" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F269" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="H269" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="I269" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B270" s="8"/>
       <c r="C270" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="E270" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F270" t="s">
+        <v>671</v>
+      </c>
+      <c r="G270" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="G270" s="6" t="s">
-        <v>697</v>
-      </c>
       <c r="H270" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="I270" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B271" s="8"/>
       <c r="C271" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="E271" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F271" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="G271" s="6" t="s">
-        <v>699</v>
+        <v>820</v>
       </c>
       <c r="H271" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="I271" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B272" s="8"/>
       <c r="C272" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="E272" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F272" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="G272" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="H272" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="I272" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B273" s="8"/>
       <c r="C273" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F273" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="G273" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="H273" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I273" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B274" s="8"/>
       <c r="C274" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F274" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="H274" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I274" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B275" s="8"/>
       <c r="C275" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F275" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G275" t="s">
-        <v>707</v>
+        <v>821</v>
       </c>
       <c r="H275" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I275" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B276" s="8"/>
       <c r="C276" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F276" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="G276" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="H276" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I276" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B277" s="8"/>
       <c r="C277" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="E277" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F277" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="G277" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="H277" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="I277" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B278" s="8"/>
       <c r="C278" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F278" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="H278" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I278" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B279" s="8"/>
       <c r="C279" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F279" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="G279" t="s">
-        <v>717</v>
+        <v>822</v>
       </c>
       <c r="H279" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I279" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B280" s="8"/>
       <c r="C280" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F280" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="G280" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="H280" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I280" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B281" s="8"/>
       <c r="C281" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F281" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="G281" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="H281" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="I281" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B282" s="8"/>
       <c r="C282" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="E282" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F282" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="G282" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="H282" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I282" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B283" s="8"/>
       <c r="C283" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="E283" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F283" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="G283" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="H283" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="I283" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B284" s="8"/>
       <c r="C284" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F284" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G284" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="H284" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I284" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B285" s="8"/>
       <c r="C285" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F285" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G285" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="H285" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I285" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B286" s="8"/>
       <c r="C286" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="E286" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F286" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="G286" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="H286" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I286" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B287" s="8"/>
       <c r="C287" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="E287" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F287" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="G287" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="H287" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I287" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B288" s="8"/>
       <c r="C288" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="E288" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F288" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="G288" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="H288" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I288" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B289" s="8"/>
       <c r="C289" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="E289" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F289" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="G289" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="H289" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I289" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B290" s="8"/>
       <c r="C290" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="E290" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F290" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="G290" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="H290" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I290" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B291" s="8"/>
       <c r="C291" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="E291" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F291" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="G291" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="H291" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I291" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B292" s="8"/>
       <c r="C292" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="E292" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F292" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="G292" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="H292" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="I292" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B293" s="8"/>
       <c r="C293" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="E293" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F293" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="G293" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="H293" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I293" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B294" s="7" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="C294" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F294" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="G294" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="H294" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I294" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B295" s="8"/>
       <c r="C295" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F295" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="H295" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I295" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B296" s="8"/>
       <c r="C296" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F296" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="H296" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="I296" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B297" s="8"/>
       <c r="C297" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F297" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="H297" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I297" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B298" s="8"/>
       <c r="C298" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F298" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="G298" t="s">
-        <v>763</v>
+        <v>823</v>
       </c>
       <c r="H298" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I298" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B299" s="8"/>
       <c r="C299" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F299" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="G299" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="H299" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I299" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B300" s="8"/>
       <c r="C300" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F300" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="G300" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H300" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="I300" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B301" s="8"/>
       <c r="C301" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F301" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="G301" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="H301" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I301" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B302" s="7" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="C302" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F302" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="H302" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I302" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B303" s="8"/>
       <c r="C303" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="E303" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F303" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="H303" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I303" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B304" s="8"/>
       <c r="C304" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F304" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="H304" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I304" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B305" s="8"/>
       <c r="C305" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="E305" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F305" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G305" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="H305" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="I305" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B306" s="8"/>
       <c r="C306" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="E306" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F306" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G306" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="H306" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I306" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B307" s="8"/>
       <c r="C307" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="E307" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F307" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G307" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="H307" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I307" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B308" s="8"/>
       <c r="C308" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="E308" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F308" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G308" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="H308" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I308" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B309" s="8"/>
       <c r="C309" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F309" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H309" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I309" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B310" s="8"/>
       <c r="C310" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F310" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H310" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I310" s="5">
         <v>1</v>
@@ -9457,17 +9436,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B25"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="B34:B70"/>
-    <mergeCell ref="B132:B229"/>
     <mergeCell ref="B230:B293"/>
     <mergeCell ref="B294:B301"/>
     <mergeCell ref="B302:B310"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B73:B101"/>
     <mergeCell ref="B102:B131"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B70"/>
+    <mergeCell ref="B132:B229"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9482,20 +9461,20 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="60.81640625" customWidth="1"/>
-    <col min="7" max="7" width="68.36328125" customWidth="1"/>
-    <col min="8" max="8" width="55.1796875" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="60.83203125" customWidth="1"/>
+    <col min="7" max="7" width="68.33203125" customWidth="1"/>
+    <col min="8" max="8" width="55.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9503,7 +9482,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>788</v>
+        <v>771</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -9518,207 +9497,207 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="C2" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="G2" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="H2" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="G3" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="G4" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="G5" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>801</v>
+        <v>784</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="G6" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="G8" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" t="s">
-        <v>807</v>
+        <v>790</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="G9" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="G10" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -9726,180 +9705,180 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
       <c r="C16" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -9928,31 +9907,31 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="B3" s="4">
         <f>B2+1</f>
